--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -588,7 +588,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="B14">
         <v>157</v>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5980,6 +5980,104 @@
         <v>4</v>
       </c>
     </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384">
+        <v>174.89</v>
+      </c>
+      <c r="D384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>174.89</v>
+      </c>
+      <c r="D385" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386">
+        <v>174.89</v>
+      </c>
+      <c r="D386" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B387" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387">
+        <v>174.89</v>
+      </c>
+      <c r="D387" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388">
+        <v>174.89</v>
+      </c>
+      <c r="D388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <v>174.89</v>
+      </c>
+      <c r="D389" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B390" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390">
+        <v>174.89</v>
+      </c>
+      <c r="D390" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -420,184 +420,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B2">
-        <v>165.76</v>
+        <v>171.17</v>
       </c>
       <c r="C2">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D2">
-        <v>-5.22</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B3">
-        <v>171.17</v>
+        <v>169.23</v>
       </c>
       <c r="C3">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D3">
-        <v>-3.28</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B4">
-        <v>169.23</v>
+        <v>172.61</v>
       </c>
       <c r="C4">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D4">
-        <v>-5.99</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B5">
-        <v>172.61</v>
+        <v>167.01</v>
       </c>
       <c r="C5">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D5">
-        <v>-3.75</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B6">
-        <v>167.01</v>
+        <v>169.28</v>
       </c>
       <c r="C6">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D6">
-        <v>-8.09</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B7">
-        <v>169.28</v>
+        <v>177.33</v>
       </c>
       <c r="C7">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D7">
-        <v>-9.890000000000001</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B8">
-        <v>177.33</v>
+        <v>176.84</v>
       </c>
       <c r="C8">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D8">
-        <v>-2.81</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B9">
-        <v>176.84</v>
+        <v>173.53</v>
       </c>
       <c r="C9">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D9">
-        <v>-3.74</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B10">
-        <v>173.53</v>
+        <v>180.98</v>
       </c>
       <c r="C10">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D10">
-        <v>-2.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>180.98</v>
+        <v>194.54</v>
       </c>
       <c r="C11">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D11">
-        <v>0.28</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B12">
-        <v>194.54</v>
+        <v>176.29</v>
       </c>
       <c r="C12">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D12">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B13">
-        <v>176.29</v>
+        <v>162.06</v>
       </c>
       <c r="C13">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D13">
-        <v>-0.99</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44066</v>
+        <v>44082</v>
       </c>
       <c r="B14">
-        <v>157</v>
+        <v>165.1</v>
       </c>
       <c r="C14">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D14">
-        <v>-10.23</v>
+        <v>-6.71</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5448 +634,5238 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43678</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>43709</v>
+      </c>
+      <c r="B2">
+        <v>179.28</v>
       </c>
       <c r="C2">
-        <v>174.89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43679</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>43710</v>
+      </c>
+      <c r="B3">
+        <v>191.42</v>
       </c>
       <c r="C3">
-        <v>174.89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D3">
+        <v>8.16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43680</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>43711</v>
+      </c>
+      <c r="B4">
+        <v>172.78</v>
       </c>
       <c r="C4">
-        <v>174.89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D4">
+        <v>-2.37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43681</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>43712</v>
+      </c>
+      <c r="B5">
+        <v>169.58</v>
       </c>
       <c r="C5">
-        <v>174.89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D5">
+        <v>-4.18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43682</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>43713</v>
+      </c>
+      <c r="B6">
+        <v>167.35</v>
       </c>
       <c r="C6">
-        <v>174.89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D6">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43683</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>43714</v>
+      </c>
+      <c r="B7">
+        <v>167.15</v>
       </c>
       <c r="C7">
-        <v>174.89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D7">
+        <v>-5.55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43684</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>43715</v>
+      </c>
+      <c r="B8">
+        <v>168.71</v>
       </c>
       <c r="C8">
-        <v>174.89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D8">
+        <v>-4.67</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43685</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
+        <v>43716</v>
+      </c>
+      <c r="B9">
+        <v>168</v>
       </c>
       <c r="C9">
-        <v>174.89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D9">
+        <v>-5.07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43686</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
+        <v>43717</v>
+      </c>
+      <c r="B10">
+        <v>167.99</v>
       </c>
       <c r="C10">
-        <v>174.89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D10">
+        <v>-5.08</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43687</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
+        <v>43718</v>
+      </c>
+      <c r="B11">
+        <v>167.46</v>
       </c>
       <c r="C11">
-        <v>174.89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D11">
+        <v>-5.38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43688</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
+        <v>43719</v>
+      </c>
+      <c r="B12">
+        <v>167.39</v>
       </c>
       <c r="C12">
-        <v>174.89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D12">
+        <v>-5.42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43689</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
+        <v>43720</v>
+      </c>
+      <c r="B13">
+        <v>167.51</v>
       </c>
       <c r="C13">
-        <v>174.89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D13">
+        <v>-5.35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43690</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
+        <v>43721</v>
+      </c>
+      <c r="B14">
+        <v>167.35</v>
       </c>
       <c r="C14">
-        <v>174.89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D14">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43691</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
+        <v>43722</v>
+      </c>
+      <c r="B15">
+        <v>167.3</v>
       </c>
       <c r="C15">
-        <v>174.89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D15">
+        <v>-5.47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43692</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
+        <v>43723</v>
+      </c>
+      <c r="B16">
+        <v>167.52</v>
       </c>
       <c r="C16">
-        <v>174.89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D16">
+        <v>-5.34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43693</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
+        <v>43724</v>
+      </c>
+      <c r="B17">
+        <v>167.77</v>
       </c>
       <c r="C17">
-        <v>174.89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D17">
+        <v>-5.2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43694</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
+        <v>43725</v>
+      </c>
+      <c r="B18">
+        <v>167.36</v>
       </c>
       <c r="C18">
-        <v>174.89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D18">
+        <v>-5.43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43695</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
+        <v>43726</v>
+      </c>
+      <c r="B19">
+        <v>167.54</v>
       </c>
       <c r="C19">
-        <v>174.89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D19">
+        <v>-5.33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43696</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
+        <v>43727</v>
+      </c>
+      <c r="B20">
+        <v>175.36</v>
       </c>
       <c r="C20">
-        <v>174.89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D20">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
+        <v>43728</v>
+      </c>
+      <c r="B21">
+        <v>190.09</v>
       </c>
       <c r="C21">
-        <v>174.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D21">
+        <v>7.41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
+        <v>43729</v>
+      </c>
+      <c r="B22">
+        <v>182.49</v>
       </c>
       <c r="C22">
-        <v>174.89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D22">
+        <v>3.12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43699</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
+        <v>43730</v>
+      </c>
+      <c r="B23">
+        <v>173.78</v>
       </c>
       <c r="C23">
-        <v>174.89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D23">
+        <v>-1.81</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
+        <v>43731</v>
+      </c>
+      <c r="B24">
+        <v>170.7</v>
       </c>
       <c r="C24">
-        <v>174.89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D24">
+        <v>-3.55</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43701</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
+        <v>43732</v>
+      </c>
+      <c r="B25">
+        <v>169.16</v>
       </c>
       <c r="C25">
-        <v>174.89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D25">
+        <v>-4.42</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43702</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+        <v>43733</v>
+      </c>
+      <c r="B26">
+        <v>169.01</v>
       </c>
       <c r="C26">
-        <v>174.89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D26">
+        <v>-4.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43703</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
+        <v>43734</v>
+      </c>
+      <c r="B27">
+        <v>169.25</v>
       </c>
       <c r="C27">
-        <v>174.89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D27">
+        <v>-4.37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43704</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
+        <v>43735</v>
+      </c>
+      <c r="B28">
+        <v>168.93</v>
       </c>
       <c r="C28">
-        <v>174.89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D28">
+        <v>-4.55</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43705</v>
+        <v>43736</v>
       </c>
       <c r="B29">
-        <v>166</v>
+        <v>168.94</v>
       </c>
       <c r="C29">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D29">
-        <v>-5.08</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43706</v>
+        <v>43737</v>
       </c>
       <c r="B30">
-        <v>165.61</v>
+        <v>168.97</v>
       </c>
       <c r="C30">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D30">
-        <v>-5.3</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B31">
-        <v>165.44</v>
+        <v>168.94</v>
       </c>
       <c r="C31">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D31">
-        <v>-5.4</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43708</v>
+        <v>43739</v>
       </c>
       <c r="B32">
-        <v>166</v>
+        <v>168.89</v>
       </c>
       <c r="C32">
-        <v>174.89</v>
+        <v>180.02</v>
       </c>
       <c r="D32">
-        <v>-5.08</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43709</v>
+        <v>43740</v>
       </c>
       <c r="B33">
-        <v>179.28</v>
+        <v>169.34</v>
       </c>
       <c r="C33">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D33">
-        <v>1.3</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43710</v>
+        <v>43741</v>
       </c>
       <c r="B34">
-        <v>191.42</v>
+        <v>169.24</v>
       </c>
       <c r="C34">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D34">
-        <v>8.16</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43711</v>
+        <v>43742</v>
       </c>
       <c r="B35">
-        <v>172.78</v>
+        <v>168.6</v>
       </c>
       <c r="C35">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D35">
-        <v>-2.37</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43712</v>
+        <v>43743</v>
       </c>
       <c r="B36">
-        <v>169.58</v>
+        <v>169.11</v>
       </c>
       <c r="C36">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D36">
-        <v>-4.18</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43713</v>
+        <v>43744</v>
       </c>
       <c r="B37">
-        <v>167.35</v>
+        <v>168.99</v>
       </c>
       <c r="C37">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D37">
-        <v>-5.44</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43714</v>
+        <v>43745</v>
       </c>
       <c r="B38">
-        <v>167.15</v>
+        <v>170.81</v>
       </c>
       <c r="C38">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D38">
-        <v>-5.55</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43715</v>
+        <v>43746</v>
       </c>
       <c r="B39">
-        <v>168.71</v>
+        <v>170.92</v>
       </c>
       <c r="C39">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D39">
-        <v>-4.67</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43716</v>
+        <v>43747</v>
       </c>
       <c r="B40">
-        <v>168</v>
+        <v>169.34</v>
       </c>
       <c r="C40">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D40">
-        <v>-5.07</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43717</v>
+        <v>43748</v>
       </c>
       <c r="B41">
-        <v>167.99</v>
+        <v>169</v>
       </c>
       <c r="C41">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D41">
-        <v>-5.08</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43718</v>
+        <v>43749</v>
       </c>
       <c r="B42">
-        <v>167.46</v>
+        <v>168.6</v>
       </c>
       <c r="C42">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D42">
-        <v>-5.38</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43719</v>
+        <v>43750</v>
       </c>
       <c r="B43">
-        <v>167.39</v>
+        <v>168.57</v>
       </c>
       <c r="C43">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D43">
-        <v>-5.42</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43720</v>
+        <v>43751</v>
       </c>
       <c r="B44">
-        <v>167.51</v>
+        <v>168.53</v>
       </c>
       <c r="C44">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D44">
-        <v>-5.35</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43721</v>
+        <v>43752</v>
       </c>
       <c r="B45">
-        <v>167.35</v>
+        <v>168.68</v>
       </c>
       <c r="C45">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D45">
-        <v>-5.44</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43722</v>
+        <v>43753</v>
       </c>
       <c r="B46">
-        <v>167.3</v>
+        <v>170.97</v>
       </c>
       <c r="C46">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D46">
-        <v>-5.47</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43723</v>
+        <v>43754</v>
       </c>
       <c r="B47">
-        <v>167.52</v>
+        <v>169</v>
       </c>
       <c r="C47">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D47">
-        <v>-5.34</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43724</v>
+        <v>43755</v>
       </c>
       <c r="B48">
-        <v>167.77</v>
+        <v>169</v>
       </c>
       <c r="C48">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D48">
-        <v>-5.2</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43725</v>
+        <v>43756</v>
       </c>
       <c r="B49">
-        <v>167.36</v>
+        <v>168.89</v>
       </c>
       <c r="C49">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D49">
-        <v>-5.43</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43726</v>
+        <v>43757</v>
       </c>
       <c r="B50">
-        <v>167.54</v>
+        <v>169.07</v>
       </c>
       <c r="C50">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D50">
-        <v>-5.33</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43727</v>
+        <v>43758</v>
       </c>
       <c r="B51">
-        <v>175.36</v>
+        <v>168.27</v>
       </c>
       <c r="C51">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D51">
-        <v>-0.91</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43728</v>
+        <v>43759</v>
       </c>
       <c r="B52">
-        <v>190.09</v>
+        <v>169.36</v>
       </c>
       <c r="C52">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D52">
-        <v>7.41</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43729</v>
+        <v>43760</v>
       </c>
       <c r="B53">
-        <v>182.49</v>
+        <v>171.44</v>
       </c>
       <c r="C53">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D53">
-        <v>3.12</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43730</v>
+        <v>43761</v>
       </c>
       <c r="B54">
-        <v>173.78</v>
+        <v>169</v>
       </c>
       <c r="C54">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D54">
-        <v>-1.81</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43731</v>
+        <v>43762</v>
       </c>
       <c r="B55">
-        <v>170.7</v>
+        <v>168.85</v>
       </c>
       <c r="C55">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D55">
-        <v>-3.55</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43732</v>
+        <v>43763</v>
       </c>
       <c r="B56">
-        <v>169.16</v>
+        <v>168.32</v>
       </c>
       <c r="C56">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D56">
-        <v>-4.42</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43733</v>
+        <v>43764</v>
       </c>
       <c r="B57">
-        <v>169.01</v>
+        <v>168.27</v>
       </c>
       <c r="C57">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D57">
-        <v>-4.5</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43734</v>
+        <v>43765</v>
       </c>
       <c r="B58">
-        <v>169.25</v>
+        <v>168.54</v>
       </c>
       <c r="C58">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D58">
-        <v>-4.37</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43735</v>
+        <v>43766</v>
       </c>
       <c r="B59">
-        <v>168.93</v>
+        <v>170.46</v>
       </c>
       <c r="C59">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D59">
-        <v>-4.55</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43736</v>
+        <v>43767</v>
       </c>
       <c r="B60">
-        <v>168.94</v>
+        <v>170.15</v>
       </c>
       <c r="C60">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D60">
-        <v>-4.54</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43737</v>
+        <v>43768</v>
       </c>
       <c r="B61">
-        <v>168.97</v>
+        <v>168.94</v>
       </c>
       <c r="C61">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D61">
-        <v>-4.52</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B62">
-        <v>168.94</v>
+        <v>169.01</v>
       </c>
       <c r="C62">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D62">
-        <v>-4.54</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B63">
-        <v>168.89</v>
+        <v>168.74</v>
       </c>
       <c r="C63">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D63">
-        <v>-6.19</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B64">
-        <v>169.34</v>
+        <v>168.6</v>
       </c>
       <c r="C64">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D64">
-        <v>-5.93</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B65">
-        <v>169.24</v>
+        <v>169.66</v>
       </c>
       <c r="C65">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D65">
-        <v>-5.99</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B66">
-        <v>168.6</v>
+        <v>170.55</v>
       </c>
       <c r="C66">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D66">
-        <v>-6.34</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B67">
-        <v>169.11</v>
+        <v>172.64</v>
       </c>
       <c r="C67">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D67">
-        <v>-6.06</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B68">
-        <v>168.99</v>
+        <v>175.52</v>
       </c>
       <c r="C68">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D68">
-        <v>-6.13</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B69">
-        <v>170.81</v>
+        <v>169.94</v>
       </c>
       <c r="C69">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D69">
-        <v>-5.12</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B70">
-        <v>170.92</v>
+        <v>169.71</v>
       </c>
       <c r="C70">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D70">
-        <v>-5.06</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B71">
-        <v>169.34</v>
+        <v>169.84</v>
       </c>
       <c r="C71">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D71">
-        <v>-5.93</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B72">
-        <v>169</v>
+        <v>177.83</v>
       </c>
       <c r="C72">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D72">
-        <v>-6.12</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B73">
-        <v>168.6</v>
+        <v>177.83</v>
       </c>
       <c r="C73">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D73">
-        <v>-6.34</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B74">
-        <v>168.57</v>
+        <v>173.33</v>
       </c>
       <c r="C74">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D74">
-        <v>-6.36</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B75">
-        <v>168.53</v>
+        <v>170.06</v>
       </c>
       <c r="C75">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D75">
-        <v>-6.38</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B76">
-        <v>168.68</v>
+        <v>190.94</v>
       </c>
       <c r="C76">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D76">
-        <v>-6.3</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B77">
-        <v>170.97</v>
+        <v>176.88</v>
       </c>
       <c r="C77">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D77">
-        <v>-5.03</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B78">
-        <v>169</v>
+        <v>171.7</v>
       </c>
       <c r="C78">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D78">
-        <v>-6.12</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B79">
-        <v>169</v>
+        <v>170.43</v>
       </c>
       <c r="C79">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D79">
-        <v>-6.12</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B80">
-        <v>168.89</v>
+        <v>169.77</v>
       </c>
       <c r="C80">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D80">
-        <v>-6.19</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B81">
-        <v>169.07</v>
+        <v>169.54</v>
       </c>
       <c r="C81">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D81">
-        <v>-6.08</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B82">
-        <v>168.27</v>
+        <v>169.76</v>
       </c>
       <c r="C82">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D82">
-        <v>-6.53</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B83">
-        <v>169.36</v>
+        <v>169.66</v>
       </c>
       <c r="C83">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D83">
-        <v>-5.92</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B84">
-        <v>171.44</v>
+        <v>169.74</v>
       </c>
       <c r="C84">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D84">
-        <v>-4.77</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B85">
-        <v>169</v>
+        <v>169.57</v>
       </c>
       <c r="C85">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D85">
-        <v>-6.12</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B86">
-        <v>168.85</v>
+        <v>171.81</v>
       </c>
       <c r="C86">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D86">
-        <v>-6.2</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B87">
-        <v>168.32</v>
+        <v>169.9</v>
       </c>
       <c r="C87">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D87">
-        <v>-6.5</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B88">
-        <v>168.27</v>
+        <v>169.24</v>
       </c>
       <c r="C88">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D88">
-        <v>-6.53</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B89">
-        <v>168.54</v>
+        <v>181.16</v>
       </c>
       <c r="C89">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D89">
-        <v>-6.38</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B90">
-        <v>170.46</v>
+        <v>181.43</v>
       </c>
       <c r="C90">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D90">
-        <v>-5.31</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B91">
-        <v>170.15</v>
+        <v>172.09</v>
       </c>
       <c r="C91">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D91">
-        <v>-5.49</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B92">
-        <v>168.94</v>
+        <v>170.55</v>
       </c>
       <c r="C92">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D92">
-        <v>-6.16</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B93">
-        <v>169.01</v>
+        <v>170.6</v>
       </c>
       <c r="C93">
-        <v>180.02</v>
+        <v>181.71</v>
       </c>
       <c r="D93">
-        <v>-6.12</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B94">
-        <v>168.74</v>
+        <v>170.41</v>
       </c>
       <c r="C94">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D94">
-        <v>-5.91</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B95">
-        <v>168.6</v>
+        <v>167.47</v>
       </c>
       <c r="C95">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D95">
-        <v>-5.99</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B96">
-        <v>169.66</v>
+        <v>163</v>
       </c>
       <c r="C96">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D96">
-        <v>-5.4</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B97">
-        <v>170.55</v>
+        <v>166.24</v>
       </c>
       <c r="C97">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D97">
-        <v>-4.9</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B98">
-        <v>172.64</v>
+        <v>172.11</v>
       </c>
       <c r="C98">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D98">
-        <v>-3.74</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B99">
-        <v>175.52</v>
+        <v>166.21</v>
       </c>
       <c r="C99">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D99">
-        <v>-2.13</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B100">
-        <v>169.94</v>
+        <v>164.34</v>
       </c>
       <c r="C100">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D100">
-        <v>-5.24</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B101">
-        <v>169.71</v>
+        <v>164.2</v>
       </c>
       <c r="C101">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D101">
-        <v>-5.37</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B102">
-        <v>169.84</v>
+        <v>164.6</v>
       </c>
       <c r="C102">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D102">
-        <v>-5.3</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B103">
-        <v>177.83</v>
+        <v>165</v>
       </c>
       <c r="C103">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D103">
-        <v>-0.84</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B104">
-        <v>177.83</v>
+        <v>165.1</v>
       </c>
       <c r="C104">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D104">
-        <v>-0.84</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B105">
-        <v>173.33</v>
+        <v>164.36</v>
       </c>
       <c r="C105">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D105">
-        <v>-3.35</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B106">
-        <v>170.06</v>
+        <v>163.99</v>
       </c>
       <c r="C106">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D106">
-        <v>-5.17</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B107">
-        <v>190.94</v>
+        <v>164.51</v>
       </c>
       <c r="C107">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D107">
-        <v>6.47</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B108">
-        <v>176.88</v>
+        <v>169.16</v>
       </c>
       <c r="C108">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D108">
-        <v>-1.38</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B109">
-        <v>171.7</v>
+        <v>174.94</v>
       </c>
       <c r="C109">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D109">
-        <v>-4.26</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B110">
-        <v>170.43</v>
+        <v>173.45</v>
       </c>
       <c r="C110">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D110">
-        <v>-4.97</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43787</v>
+        <v>43818</v>
       </c>
       <c r="B111">
-        <v>169.77</v>
+        <v>169.71</v>
       </c>
       <c r="C111">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D111">
-        <v>-5.34</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43788</v>
+        <v>43819</v>
       </c>
       <c r="B112">
-        <v>169.54</v>
+        <v>167.21</v>
       </c>
       <c r="C112">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D112">
-        <v>-5.46</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B113">
-        <v>169.76</v>
+        <v>188.1</v>
       </c>
       <c r="C113">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D113">
-        <v>-5.34</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B114">
-        <v>169.66</v>
+        <v>167.72</v>
       </c>
       <c r="C114">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D114">
-        <v>-5.4</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43791</v>
+        <v>43822</v>
       </c>
       <c r="B115">
-        <v>169.74</v>
+        <v>164.7</v>
       </c>
       <c r="C115">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D115">
-        <v>-5.35</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43792</v>
+        <v>43823</v>
       </c>
       <c r="B116">
-        <v>169.57</v>
+        <v>164.61</v>
       </c>
       <c r="C116">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D116">
-        <v>-5.45</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B117">
-        <v>171.81</v>
+        <v>164.38</v>
       </c>
       <c r="C117">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D117">
-        <v>-4.2</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43794</v>
+        <v>43825</v>
       </c>
       <c r="B118">
-        <v>169.9</v>
+        <v>164.08</v>
       </c>
       <c r="C118">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D118">
-        <v>-5.27</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43795</v>
+        <v>43826</v>
       </c>
       <c r="B119">
-        <v>169.24</v>
+        <v>163.36</v>
       </c>
       <c r="C119">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D119">
-        <v>-5.63</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43796</v>
+        <v>43827</v>
       </c>
       <c r="B120">
-        <v>181.16</v>
+        <v>163.55</v>
       </c>
       <c r="C120">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D120">
-        <v>1.01</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43797</v>
+        <v>43828</v>
       </c>
       <c r="B121">
-        <v>181.43</v>
+        <v>163.5</v>
       </c>
       <c r="C121">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D121">
-        <v>1.16</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B122">
-        <v>172.09</v>
+        <v>163.32</v>
       </c>
       <c r="C122">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D122">
-        <v>-4.04</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B123">
-        <v>170.55</v>
+        <v>163.46</v>
       </c>
       <c r="C123">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D123">
-        <v>-4.9</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B124">
-        <v>170.6</v>
+        <v>163.45</v>
       </c>
       <c r="C124">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D124">
-        <v>-6.11</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B125">
-        <v>170.41</v>
+        <v>183.35</v>
       </c>
       <c r="C125">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D125">
-        <v>-6.22</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B126">
-        <v>167.47</v>
+        <v>175.52</v>
       </c>
       <c r="C126">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D126">
-        <v>-7.84</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B127">
-        <v>163</v>
+        <v>173.74</v>
       </c>
       <c r="C127">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D127">
-        <v>-10.3</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B128">
-        <v>166.24</v>
+        <v>181.57</v>
       </c>
       <c r="C128">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D128">
-        <v>-8.51</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B129">
-        <v>172.11</v>
+        <v>167.6</v>
       </c>
       <c r="C129">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D129">
-        <v>-5.28</v>
+        <v>-10.78</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B130">
-        <v>166.21</v>
+        <v>166.05</v>
       </c>
       <c r="C130">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D130">
-        <v>-8.529999999999999</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B131">
-        <v>164.34</v>
+        <v>166.36</v>
       </c>
       <c r="C131">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D131">
-        <v>-9.56</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B132">
-        <v>164.2</v>
+        <v>166.81</v>
       </c>
       <c r="C132">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D132">
-        <v>-9.640000000000001</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B133">
-        <v>164.6</v>
+        <v>175.46</v>
       </c>
       <c r="C133">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D133">
-        <v>-9.41</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B134">
-        <v>165</v>
+        <v>169.85</v>
       </c>
       <c r="C134">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D134">
-        <v>-9.199999999999999</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B135">
-        <v>165.1</v>
+        <v>171.53</v>
       </c>
       <c r="C135">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D135">
-        <v>-9.140000000000001</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B136">
-        <v>164.36</v>
+        <v>169.51</v>
       </c>
       <c r="C136">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D136">
-        <v>-9.550000000000001</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B137">
-        <v>163.99</v>
+        <v>166.66</v>
       </c>
       <c r="C137">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D137">
-        <v>-9.75</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B138">
-        <v>164.51</v>
+        <v>166.09</v>
       </c>
       <c r="C138">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D138">
-        <v>-9.470000000000001</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B139">
-        <v>169.16</v>
+        <v>166.94</v>
       </c>
       <c r="C139">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D139">
-        <v>-6.91</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B140">
-        <v>174.94</v>
+        <v>170.33</v>
       </c>
       <c r="C140">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D140">
-        <v>-3.73</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B141">
-        <v>173.45</v>
+        <v>167.12</v>
       </c>
       <c r="C141">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D141">
-        <v>-4.55</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B142">
-        <v>169.71</v>
+        <v>166.74</v>
       </c>
       <c r="C142">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D142">
-        <v>-6.61</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B143">
-        <v>167.21</v>
+        <v>166.82</v>
       </c>
       <c r="C143">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D143">
-        <v>-7.98</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B144">
-        <v>188.1</v>
+        <v>166.5</v>
       </c>
       <c r="C144">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D144">
-        <v>3.52</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B145">
-        <v>167.72</v>
+        <v>166</v>
       </c>
       <c r="C145">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D145">
-        <v>-7.7</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B146">
-        <v>164.7</v>
+        <v>166.55</v>
       </c>
       <c r="C146">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D146">
-        <v>-9.359999999999999</v>
+        <v>-11.34</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B147">
-        <v>164.61</v>
+        <v>167.1</v>
       </c>
       <c r="C147">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D147">
-        <v>-9.41</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B148">
-        <v>164.38</v>
+        <v>166.36</v>
       </c>
       <c r="C148">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D148">
-        <v>-9.539999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B149">
-        <v>164.08</v>
+        <v>166.38</v>
       </c>
       <c r="C149">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D149">
-        <v>-9.699999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B150">
-        <v>163.36</v>
+        <v>166.5</v>
       </c>
       <c r="C150">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D150">
-        <v>-10.1</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B151">
-        <v>163.55</v>
+        <v>168.21</v>
       </c>
       <c r="C151">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D151">
-        <v>-9.99</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B152">
-        <v>163.5</v>
+        <v>168.44</v>
       </c>
       <c r="C152">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D152">
-        <v>-10.02</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B153">
-        <v>163.32</v>
+        <v>170.26</v>
       </c>
       <c r="C153">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D153">
-        <v>-10.12</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B154">
-        <v>163.46</v>
+        <v>173.73</v>
       </c>
       <c r="C154">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D154">
-        <v>-10.04</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B155">
-        <v>163.45</v>
+        <v>172.53</v>
       </c>
       <c r="C155">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D155">
-        <v>-12.99</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B156">
-        <v>183.35</v>
+        <v>170.89</v>
       </c>
       <c r="C156">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D156">
-        <v>-2.4</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B157">
-        <v>175.52</v>
+        <v>172.28</v>
       </c>
       <c r="C157">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D157">
-        <v>-6.57</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B158">
-        <v>173.74</v>
+        <v>171.57</v>
       </c>
       <c r="C158">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D158">
-        <v>-7.52</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B159">
-        <v>181.57</v>
+        <v>171.47</v>
       </c>
       <c r="C159">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D159">
-        <v>-3.35</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B160">
-        <v>167.6</v>
+        <v>180.74</v>
       </c>
       <c r="C160">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D160">
-        <v>-10.78</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B161">
-        <v>166.05</v>
+        <v>185.08</v>
       </c>
       <c r="C161">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D161">
-        <v>-11.61</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B162">
-        <v>166.36</v>
+        <v>177.7</v>
       </c>
       <c r="C162">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D162">
-        <v>-11.44</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B163">
-        <v>166.81</v>
+        <v>174.41</v>
       </c>
       <c r="C163">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D163">
-        <v>-11.2</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B164">
-        <v>175.46</v>
+        <v>195.2</v>
       </c>
       <c r="C164">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D164">
-        <v>-6.6</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B165">
-        <v>169.85</v>
+        <v>178.53</v>
       </c>
       <c r="C165">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D165">
-        <v>-9.58</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B166">
-        <v>171.53</v>
+        <v>174.52</v>
       </c>
       <c r="C166">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D166">
-        <v>-8.69</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B167">
-        <v>169.51</v>
+        <v>173.31</v>
       </c>
       <c r="C167">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D167">
-        <v>-9.77</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B168">
-        <v>166.66</v>
+        <v>173.48</v>
       </c>
       <c r="C168">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D168">
-        <v>-11.29</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B169">
-        <v>166.09</v>
+        <v>173.28</v>
       </c>
       <c r="C169">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D169">
-        <v>-11.59</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B170">
-        <v>166.94</v>
+        <v>173.41</v>
       </c>
       <c r="C170">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D170">
-        <v>-11.14</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B171">
-        <v>170.33</v>
+        <v>173.76</v>
       </c>
       <c r="C171">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D171">
-        <v>-9.33</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B172">
-        <v>167.12</v>
+        <v>174.28</v>
       </c>
       <c r="C172">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D172">
-        <v>-11.04</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B173">
-        <v>166.74</v>
+        <v>175.51</v>
       </c>
       <c r="C173">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D173">
-        <v>-11.24</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B174">
-        <v>166.82</v>
+        <v>176.18</v>
       </c>
       <c r="C174">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D174">
-        <v>-11.2</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B175">
-        <v>166.5</v>
+        <v>175.24</v>
       </c>
       <c r="C175">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D175">
-        <v>-11.37</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B176">
-        <v>166</v>
+        <v>177.08</v>
       </c>
       <c r="C176">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D176">
-        <v>-11.64</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B177">
-        <v>166.55</v>
+        <v>175.4</v>
       </c>
       <c r="C177">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D177">
-        <v>-11.34</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B178">
-        <v>167.1</v>
+        <v>175.7</v>
       </c>
       <c r="C178">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D178">
-        <v>-11.05</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B179">
-        <v>166.36</v>
+        <v>177.28</v>
       </c>
       <c r="C179">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D179">
-        <v>-11.44</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B180">
-        <v>166.38</v>
+        <v>189.77</v>
       </c>
       <c r="C180">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D180">
-        <v>-11.44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B181">
-        <v>166.5</v>
+        <v>192.17</v>
       </c>
       <c r="C181">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D181">
-        <v>-11.37</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B182">
-        <v>168.21</v>
+        <v>181</v>
       </c>
       <c r="C182">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D182">
-        <v>-10.46</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B183">
-        <v>168.44</v>
+        <v>180.89</v>
       </c>
       <c r="C183">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D183">
-        <v>-10.34</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B184">
-        <v>170.26</v>
+        <v>182.48</v>
       </c>
       <c r="C184">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D184">
-        <v>-9.369999999999999</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B185">
-        <v>173.73</v>
+        <v>184.88</v>
       </c>
       <c r="C185">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D185">
-        <v>-7.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B186">
-        <v>172.53</v>
+        <v>185.24</v>
       </c>
       <c r="C186">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D186">
-        <v>-5.44</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B187">
-        <v>170.89</v>
+        <v>185.14</v>
       </c>
       <c r="C187">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D187">
-        <v>-6.35</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B188">
-        <v>172.28</v>
+        <v>185.64</v>
       </c>
       <c r="C188">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D188">
-        <v>-5.58</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B189">
-        <v>171.57</v>
+        <v>184.94</v>
       </c>
       <c r="C189">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D189">
-        <v>-5.97</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B190">
-        <v>171.47</v>
+        <v>183.45</v>
       </c>
       <c r="C190">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D190">
-        <v>-6.03</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B191">
-        <v>180.74</v>
+        <v>182.23</v>
       </c>
       <c r="C191">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D191">
-        <v>-0.9399999999999999</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B192">
-        <v>185.08</v>
+        <v>180.22</v>
       </c>
       <c r="C192">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D192">
-        <v>1.43</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B193">
-        <v>177.7</v>
+        <v>178.26</v>
       </c>
       <c r="C193">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D193">
-        <v>-2.61</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B194">
-        <v>174.41</v>
+        <v>177.05</v>
       </c>
       <c r="C194">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D194">
-        <v>-4.42</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B195">
-        <v>195.2</v>
+        <v>176.65</v>
       </c>
       <c r="C195">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D195">
-        <v>6.98</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B196">
-        <v>178.53</v>
+        <v>175.85</v>
       </c>
       <c r="C196">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D196">
-        <v>-2.16</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B197">
-        <v>174.52</v>
+        <v>174.83</v>
       </c>
       <c r="C197">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D197">
-        <v>-4.35</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B198">
-        <v>173.31</v>
+        <v>175.1</v>
       </c>
       <c r="C198">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D198">
-        <v>-5.02</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B199">
-        <v>173.48</v>
+        <v>175.43</v>
       </c>
       <c r="C199">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D199">
-        <v>-4.92</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B200">
-        <v>173.28</v>
+        <v>177.77</v>
       </c>
       <c r="C200">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D200">
-        <v>-5.03</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B201">
-        <v>173.41</v>
+        <v>176.42</v>
       </c>
       <c r="C201">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D201">
-        <v>-4.96</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B202">
-        <v>173.76</v>
+        <v>181.1</v>
       </c>
       <c r="C202">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D202">
-        <v>-4.77</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B203">
-        <v>174.28</v>
+        <v>182.67</v>
       </c>
       <c r="C203">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D203">
-        <v>-4.49</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B204">
-        <v>175.51</v>
+        <v>173.3</v>
       </c>
       <c r="C204">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D204">
-        <v>-3.81</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B205">
-        <v>176.18</v>
+        <v>172.47</v>
       </c>
       <c r="C205">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D205">
-        <v>-3.45</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B206">
-        <v>175.24</v>
+        <v>171.28</v>
       </c>
       <c r="C206">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D206">
-        <v>-3.96</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B207">
-        <v>177.08</v>
+        <v>170.7</v>
       </c>
       <c r="C207">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D207">
-        <v>-2.95</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B208">
-        <v>175.4</v>
+        <v>170.45</v>
       </c>
       <c r="C208">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D208">
-        <v>-3.87</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B209">
-        <v>175.7</v>
+        <v>169.75</v>
       </c>
       <c r="C209">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D209">
-        <v>-3.71</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B210">
-        <v>177.28</v>
+        <v>169.51</v>
       </c>
       <c r="C210">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D210">
-        <v>-2.84</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B211">
-        <v>189.77</v>
+        <v>169.27</v>
       </c>
       <c r="C211">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B212">
-        <v>192.17</v>
+        <v>169.38</v>
       </c>
       <c r="C212">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D212">
-        <v>5.32</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B213">
-        <v>181</v>
+        <v>170.38</v>
       </c>
       <c r="C213">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D213">
-        <v>-0.8</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B214">
-        <v>180.89</v>
+        <v>170.36</v>
       </c>
       <c r="C214">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D214">
-        <v>-0.87</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B215">
-        <v>182.48</v>
+        <v>170.17</v>
       </c>
       <c r="C215">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D215">
-        <v>-0.67</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B216">
-        <v>184.88</v>
+        <v>170.51</v>
       </c>
       <c r="C216">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D216">
-        <v>0.63</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B217">
-        <v>185.24</v>
+        <v>170.17</v>
       </c>
       <c r="C217">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D217">
-        <v>0.83</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B218">
-        <v>185.14</v>
+        <v>168.46</v>
       </c>
       <c r="C218">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D218">
-        <v>0.77</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B219">
-        <v>185.64</v>
+        <v>168.53</v>
       </c>
       <c r="C219">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D219">
-        <v>1.05</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B220">
-        <v>184.94</v>
+        <v>170.89</v>
       </c>
       <c r="C220">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D220">
-        <v>0.67</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B221">
-        <v>183.45</v>
+        <v>181.5</v>
       </c>
       <c r="C221">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D221">
-        <v>-0.14</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B222">
-        <v>182.23</v>
+        <v>171.71</v>
       </c>
       <c r="C222">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D222">
-        <v>-0.8100000000000001</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B223">
-        <v>180.22</v>
+        <v>170.67</v>
       </c>
       <c r="C223">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D223">
-        <v>-1.9</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B224">
-        <v>178.26</v>
+        <v>170.45</v>
       </c>
       <c r="C224">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D224">
-        <v>-2.97</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B225">
-        <v>177.05</v>
+        <v>170.78</v>
       </c>
       <c r="C225">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D225">
-        <v>-3.63</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B226">
-        <v>176.65</v>
+        <v>171.6</v>
       </c>
       <c r="C226">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D226">
-        <v>-3.85</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B227">
-        <v>175.85</v>
+        <v>172.16</v>
       </c>
       <c r="C227">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D227">
-        <v>-4.28</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B228">
-        <v>174.83</v>
+        <v>175.06</v>
       </c>
       <c r="C228">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D228">
-        <v>-4.83</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B229">
-        <v>175.1</v>
+        <v>174.82</v>
       </c>
       <c r="C229">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D229">
-        <v>-4.69</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B230">
-        <v>175.43</v>
+        <v>172.81</v>
       </c>
       <c r="C230">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D230">
-        <v>-4.51</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B231">
-        <v>177.77</v>
+        <v>172.82</v>
       </c>
       <c r="C231">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D231">
-        <v>-3.23</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B232">
-        <v>176.42</v>
+        <v>173.83</v>
       </c>
       <c r="C232">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D232">
-        <v>-3.97</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B233">
-        <v>181.1</v>
+        <v>174.93</v>
       </c>
       <c r="C233">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D233">
-        <v>-1.42</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B234">
-        <v>182.67</v>
+        <v>175.38</v>
       </c>
       <c r="C234">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D234">
-        <v>-0.57</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B235">
-        <v>173.3</v>
+        <v>174.98</v>
       </c>
       <c r="C235">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D235">
-        <v>-5.67</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B236">
-        <v>172.47</v>
+        <v>175.14</v>
       </c>
       <c r="C236">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D236">
-        <v>-6.12</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B237">
-        <v>171.28</v>
+        <v>174.93</v>
       </c>
       <c r="C237">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D237">
-        <v>-6.77</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B238">
-        <v>170.7</v>
+        <v>174.74</v>
       </c>
       <c r="C238">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D238">
-        <v>-7.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B239">
-        <v>170.45</v>
+        <v>175.66</v>
       </c>
       <c r="C239">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D239">
-        <v>-7.22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B240">
-        <v>169.75</v>
+        <v>175.97</v>
       </c>
       <c r="C240">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D240">
-        <v>-7.6</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B241">
-        <v>169.51</v>
+        <v>175.79</v>
       </c>
       <c r="C241">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D241">
-        <v>-7.73</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B242">
-        <v>169.27</v>
+        <v>176.64</v>
       </c>
       <c r="C242">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D242">
-        <v>-7.86</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B243">
-        <v>169.38</v>
+        <v>177.46</v>
       </c>
       <c r="C243">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D243">
-        <v>-7.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B244">
-        <v>170.38</v>
+        <v>177.41</v>
       </c>
       <c r="C244">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D244">
-        <v>-7.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B245">
-        <v>170.36</v>
+        <v>177.77</v>
       </c>
       <c r="C245">
-        <v>183.71</v>
+        <v>180.46</v>
       </c>
       <c r="D245">
-        <v>-7.27</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B246">
-        <v>170.17</v>
+        <v>179.3</v>
       </c>
       <c r="C246">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D246">
-        <v>-4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B247">
-        <v>170.51</v>
+        <v>178.16</v>
       </c>
       <c r="C247">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D247">
-        <v>-3.81</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B248">
-        <v>170.17</v>
+        <v>177.92</v>
       </c>
       <c r="C248">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D248">
-        <v>-4</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B249">
-        <v>168.46</v>
+        <v>177.89</v>
       </c>
       <c r="C249">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D249">
-        <v>-4.96</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B250">
-        <v>168.53</v>
+        <v>178.97</v>
       </c>
       <c r="C250">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D250">
-        <v>-4.92</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B251">
-        <v>170.89</v>
+        <v>180.19</v>
       </c>
       <c r="C251">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D251">
-        <v>-3.59</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B252">
-        <v>181.5</v>
+        <v>178.79</v>
       </c>
       <c r="C252">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D252">
-        <v>2.39</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B253">
-        <v>171.71</v>
+        <v>179.32</v>
       </c>
       <c r="C253">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D253">
-        <v>-3.13</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B254">
-        <v>170.67</v>
+        <v>180.25</v>
       </c>
       <c r="C254">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D254">
-        <v>-3.72</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B255">
-        <v>170.45</v>
+        <v>180.29</v>
       </c>
       <c r="C255">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D255">
-        <v>-3.84</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B256">
-        <v>170.78</v>
+        <v>180.36</v>
       </c>
       <c r="C256">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D256">
-        <v>-3.65</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B257">
-        <v>171.6</v>
+        <v>181.47</v>
       </c>
       <c r="C257">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D257">
-        <v>-3.19</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B258">
-        <v>172.16</v>
+        <v>183.06</v>
       </c>
       <c r="C258">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D258">
-        <v>-2.88</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B259">
-        <v>175.06</v>
+        <v>183.42</v>
       </c>
       <c r="C259">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D259">
-        <v>-1.24</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B260">
-        <v>174.82</v>
+        <v>182.61</v>
       </c>
       <c r="C260">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D260">
-        <v>-1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B261">
-        <v>172.81</v>
+        <v>181.88</v>
       </c>
       <c r="C261">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D261">
-        <v>-2.51</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B262">
-        <v>172.82</v>
+        <v>181.2</v>
       </c>
       <c r="C262">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D262">
-        <v>-2.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B263">
-        <v>173.83</v>
+        <v>180.89</v>
       </c>
       <c r="C263">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D263">
-        <v>-1.93</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B264">
-        <v>174.93</v>
+        <v>181.99</v>
       </c>
       <c r="C264">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D264">
-        <v>-1.31</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B265">
-        <v>175.38</v>
+        <v>182.41</v>
       </c>
       <c r="C265">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D265">
-        <v>-1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B266">
-        <v>174.98</v>
+        <v>182.93</v>
       </c>
       <c r="C266">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D266">
-        <v>-1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B267">
-        <v>175.14</v>
+        <v>192.26</v>
       </c>
       <c r="C267">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D267">
-        <v>-1.2</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B268">
-        <v>174.93</v>
+        <v>183.97</v>
       </c>
       <c r="C268">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D268">
-        <v>-1.31</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B269">
-        <v>174.74</v>
+        <v>181.81</v>
       </c>
       <c r="C269">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D269">
-        <v>-1.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B270">
-        <v>175.66</v>
+        <v>180.18</v>
       </c>
       <c r="C270">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D270">
-        <v>-0.9</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B271">
-        <v>175.97</v>
+        <v>179.3</v>
       </c>
       <c r="C271">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D271">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B272">
-        <v>175.79</v>
+        <v>179.68</v>
       </c>
       <c r="C272">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D272">
-        <v>-0.83</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B273">
-        <v>176.64</v>
+        <v>180.04</v>
       </c>
       <c r="C273">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D273">
-        <v>-0.35</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B274">
-        <v>177.46</v>
+        <v>180.99</v>
       </c>
       <c r="C274">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D274">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B275">
-        <v>177.41</v>
+        <v>181.04</v>
       </c>
       <c r="C275">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D275">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B276">
-        <v>177.77</v>
+        <v>181.95</v>
       </c>
       <c r="C276">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D276">
-        <v>-1.49</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B277">
-        <v>179.3</v>
+        <v>190.02</v>
       </c>
       <c r="C277">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D277">
-        <v>-0.64</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B278">
-        <v>178.16</v>
+        <v>189.89</v>
       </c>
       <c r="C278">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D278">
-        <v>-1.28</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B279">
-        <v>177.92</v>
+        <v>185.86</v>
       </c>
       <c r="C279">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D279">
-        <v>-1.41</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B280">
-        <v>177.89</v>
+        <v>191.54</v>
       </c>
       <c r="C280">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D280">
-        <v>-1.43</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B281">
-        <v>178.97</v>
+        <v>199.04</v>
       </c>
       <c r="C281">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D281">
-        <v>-0.83</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B282">
-        <v>180.19</v>
+        <v>193.44</v>
       </c>
       <c r="C282">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D282">
-        <v>-0.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B283">
-        <v>178.79</v>
+        <v>187.38</v>
       </c>
       <c r="C283">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D283">
-        <v>-0.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B284">
-        <v>179.32</v>
+        <v>191.06</v>
       </c>
       <c r="C284">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D284">
-        <v>-0.63</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B285">
-        <v>180.25</v>
+        <v>200.84</v>
       </c>
       <c r="C285">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D285">
-        <v>-0.12</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B286">
-        <v>180.29</v>
+        <v>204.15</v>
       </c>
       <c r="C286">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D286">
-        <v>-0.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B287">
-        <v>180.36</v>
+        <v>193.82</v>
       </c>
       <c r="C287">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D287">
-        <v>-0.06</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B288">
-        <v>181.47</v>
+        <v>191.11</v>
       </c>
       <c r="C288">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D288">
-        <v>0.5600000000000001</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B289">
-        <v>183.06</v>
+        <v>190.29</v>
       </c>
       <c r="C289">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D289">
-        <v>1.44</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B290">
-        <v>183.42</v>
+        <v>189.9</v>
       </c>
       <c r="C290">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D290">
-        <v>1.64</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B291">
-        <v>182.61</v>
+        <v>190.34</v>
       </c>
       <c r="C291">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D291">
-        <v>1.19</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B292">
-        <v>181.88</v>
+        <v>190.33</v>
       </c>
       <c r="C292">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D292">
-        <v>0.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B293">
-        <v>181.2</v>
+        <v>190.44</v>
       </c>
       <c r="C293">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D293">
-        <v>0.41</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B294">
-        <v>180.89</v>
+        <v>190.43</v>
       </c>
       <c r="C294">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D294">
-        <v>0.23</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B295">
-        <v>181.99</v>
+        <v>190.39</v>
       </c>
       <c r="C295">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D295">
-        <v>0.85</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B296">
-        <v>182.41</v>
+        <v>190.21</v>
       </c>
       <c r="C296">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D296">
-        <v>1.08</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B297">
-        <v>182.93</v>
+        <v>190.31</v>
       </c>
       <c r="C297">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D297">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B298">
-        <v>192.26</v>
+        <v>189.79</v>
       </c>
       <c r="C298">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D298">
-        <v>6.54</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B299">
-        <v>183.97</v>
+        <v>189.51</v>
       </c>
       <c r="C299">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D299">
-        <v>1.94</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B300">
-        <v>181.81</v>
+        <v>189.98</v>
       </c>
       <c r="C300">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D300">
-        <v>0.75</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B301">
-        <v>180.18</v>
+        <v>200.62</v>
       </c>
       <c r="C301">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D301">
-        <v>-0.16</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B302">
-        <v>179.3</v>
+        <v>243.02</v>
       </c>
       <c r="C302">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D302">
-        <v>-0.64</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B303">
-        <v>179.68</v>
+        <v>212.07</v>
       </c>
       <c r="C303">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D303">
-        <v>-0.44</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B304">
-        <v>180.04</v>
+        <v>199.58</v>
       </c>
       <c r="C304">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D304">
-        <v>-0.23</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B305">
-        <v>180.99</v>
+        <v>199.01</v>
       </c>
       <c r="C305">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D305">
-        <v>0.29</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B306">
-        <v>181.04</v>
+        <v>227.33</v>
       </c>
       <c r="C306">
-        <v>180.46</v>
+        <v>178.06</v>
       </c>
       <c r="D306">
-        <v>0.32</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B307">
-        <v>181.95</v>
+        <v>205.73</v>
       </c>
       <c r="C307">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D307">
-        <v>-0</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B308">
-        <v>190.02</v>
+        <v>199.47</v>
       </c>
       <c r="C308">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D308">
-        <v>4.44</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B309">
-        <v>189.89</v>
+        <v>197.33</v>
       </c>
       <c r="C309">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D309">
-        <v>4.36</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B310">
-        <v>185.86</v>
+        <v>196.05</v>
       </c>
       <c r="C310">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D310">
-        <v>2.15</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B311">
-        <v>191.54</v>
+        <v>195.09</v>
       </c>
       <c r="C311">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D311">
-        <v>5.27</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B312">
-        <v>199.04</v>
+        <v>194.75</v>
       </c>
       <c r="C312">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D312">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B313">
-        <v>193.44</v>
+        <v>194.12</v>
       </c>
       <c r="C313">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D313">
-        <v>6.31</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B314">
-        <v>187.38</v>
+        <v>193.64</v>
       </c>
       <c r="C314">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D314">
-        <v>2.98</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B315">
-        <v>191.06</v>
+        <v>192.79</v>
       </c>
       <c r="C315">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D315">
-        <v>5.01</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B316">
-        <v>200.84</v>
+        <v>192.14</v>
       </c>
       <c r="C316">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D316">
-        <v>10.38</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B317">
-        <v>204.15</v>
+        <v>192.29</v>
       </c>
       <c r="C317">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D317">
-        <v>12.2</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B318">
-        <v>193.82</v>
+        <v>192.57</v>
       </c>
       <c r="C318">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D318">
-        <v>6.52</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B319">
-        <v>191.11</v>
+        <v>194.71</v>
       </c>
       <c r="C319">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D319">
-        <v>5.04</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B320">
-        <v>190.29</v>
+        <v>184.57</v>
       </c>
       <c r="C320">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D320">
-        <v>4.58</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B321">
-        <v>189.9</v>
+        <v>158.19</v>
       </c>
       <c r="C321">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D321">
-        <v>4.37</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B322">
-        <v>190.34</v>
+        <v>158.22</v>
       </c>
       <c r="C322">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D322">
-        <v>4.61</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B323">
-        <v>190.33</v>
+        <v>158.54</v>
       </c>
       <c r="C323">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D323">
-        <v>4.61</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B324">
-        <v>190.44</v>
+        <v>157.51</v>
       </c>
       <c r="C324">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D324">
-        <v>4.66</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B325">
-        <v>190.43</v>
+        <v>156.79</v>
       </c>
       <c r="C325">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D325">
-        <v>4.66</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B326">
-        <v>190.39</v>
+        <v>156.77</v>
       </c>
       <c r="C326">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D326">
-        <v>4.64</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B327">
-        <v>190.21</v>
+        <v>156.56</v>
       </c>
       <c r="C327">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D327">
-        <v>4.54</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B328">
-        <v>190.31</v>
+        <v>156.77</v>
       </c>
       <c r="C328">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D328">
-        <v>4.6</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B329">
-        <v>189.79</v>
+        <v>156.24</v>
       </c>
       <c r="C329">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D329">
-        <v>4.31</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B330">
-        <v>189.51</v>
+        <v>155.64</v>
       </c>
       <c r="C330">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D330">
-        <v>4.15</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B331">
-        <v>189.98</v>
+        <v>155.1</v>
       </c>
       <c r="C331">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D331">
-        <v>4.41</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B332">
-        <v>200.62</v>
+        <v>156.3</v>
       </c>
       <c r="C332">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D332">
-        <v>10.26</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B333">
-        <v>243.02</v>
+        <v>156</v>
       </c>
       <c r="C333">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D333">
-        <v>33.56</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B334">
-        <v>212.07</v>
+        <v>156.52</v>
       </c>
       <c r="C334">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D334">
-        <v>16.56</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B335">
-        <v>199.58</v>
+        <v>159.27</v>
       </c>
       <c r="C335">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D335">
-        <v>9.69</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B336">
-        <v>199.01</v>
+        <v>158</v>
       </c>
       <c r="C336">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D336">
-        <v>9.380000000000001</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B337">
-        <v>227.33</v>
+        <v>157</v>
       </c>
       <c r="C337">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D337">
-        <v>27.67</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B338">
-        <v>205.73</v>
+        <v>157</v>
       </c>
       <c r="C338">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D338">
-        <v>15.54</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B339">
-        <v>199.47</v>
+        <v>157</v>
       </c>
       <c r="C339">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D339">
-        <v>12.02</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44016</v>
-      </c>
-      <c r="B340">
-        <v>197.33</v>
+        <v>44047</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
       </c>
       <c r="C340">
-        <v>178.06</v>
-      </c>
-      <c r="D340">
-        <v>10.82</v>
+        <v>174.89</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B341">
-        <v>196.05</v>
+        <v>44048</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
       </c>
       <c r="C341">
-        <v>178.06</v>
-      </c>
-      <c r="D341">
-        <v>10.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B342">
-        <v>195.09</v>
+        <v>44049</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
       </c>
       <c r="C342">
-        <v>178.06</v>
-      </c>
-      <c r="D342">
-        <v>9.57</v>
+        <v>174.89</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B343">
-        <v>194.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
       </c>
       <c r="C343">
-        <v>178.06</v>
-      </c>
-      <c r="D343">
-        <v>9.369999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B344">
-        <v>194.12</v>
+        <v>44051</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
       </c>
       <c r="C344">
-        <v>178.06</v>
-      </c>
-      <c r="D344">
-        <v>9.02</v>
+        <v>174.89</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B345">
-        <v>193.64</v>
+        <v>44052</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>178.06</v>
-      </c>
-      <c r="D345">
-        <v>8.75</v>
+        <v>174.89</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B346">
-        <v>192.79</v>
+        <v>44053</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
       </c>
       <c r="C346">
-        <v>178.06</v>
-      </c>
-      <c r="D346">
-        <v>8.27</v>
+        <v>174.89</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B347">
-        <v>192.14</v>
+        <v>44054</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
       </c>
       <c r="C347">
-        <v>178.06</v>
-      </c>
-      <c r="D347">
-        <v>7.9</v>
+        <v>174.89</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B348">
-        <v>192.29</v>
+        <v>44055</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
       </c>
       <c r="C348">
-        <v>178.06</v>
-      </c>
-      <c r="D348">
-        <v>7.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B349">
-        <v>192.57</v>
+        <v>44056</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
       </c>
       <c r="C349">
-        <v>178.06</v>
-      </c>
-      <c r="D349">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B350">
-        <v>194.71</v>
+        <v>44057</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
       </c>
       <c r="C350">
-        <v>178.06</v>
-      </c>
-      <c r="D350">
-        <v>9.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B351">
-        <v>184.57</v>
+        <v>44058</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
       </c>
       <c r="C351">
-        <v>178.06</v>
-      </c>
-      <c r="D351">
-        <v>3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B352">
-        <v>158.19</v>
+        <v>44059</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
       </c>
       <c r="C352">
-        <v>178.06</v>
-      </c>
-      <c r="D352">
-        <v>-11.16</v>
+        <v>174.89</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B353">
-        <v>158.22</v>
+        <v>44060</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
       </c>
       <c r="C353">
-        <v>178.06</v>
-      </c>
-      <c r="D353">
-        <v>-11.14</v>
+        <v>174.89</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B354">
-        <v>158.54</v>
+        <v>44061</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
       </c>
       <c r="C354">
-        <v>178.06</v>
-      </c>
-      <c r="D354">
-        <v>-10.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B355">
-        <v>157.51</v>
+        <v>44062</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
       </c>
       <c r="C355">
-        <v>178.06</v>
-      </c>
-      <c r="D355">
-        <v>-11.54</v>
+        <v>174.89</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B356">
-        <v>156.79</v>
+        <v>44063</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
       </c>
       <c r="C356">
-        <v>178.06</v>
-      </c>
-      <c r="D356">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B357">
-        <v>156.77</v>
+        <v>44064</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
       </c>
       <c r="C357">
-        <v>178.06</v>
-      </c>
-      <c r="D357">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B358">
-        <v>156.56</v>
+        <v>44065</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
       </c>
       <c r="C358">
-        <v>178.06</v>
-      </c>
-      <c r="D358">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D358" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B359">
-        <v>156.77</v>
+        <v>44066</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
       </c>
       <c r="C359">
-        <v>178.06</v>
-      </c>
-      <c r="D359">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B360">
-        <v>156.24</v>
+        <v>44067</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
       </c>
       <c r="C360">
-        <v>178.06</v>
-      </c>
-      <c r="D360">
-        <v>-12.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D360" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B361">
-        <v>155.64</v>
+        <v>44068</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
       </c>
       <c r="C361">
-        <v>178.06</v>
-      </c>
-      <c r="D361">
-        <v>-12.59</v>
+        <v>174.89</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B362">
-        <v>155.1</v>
+        <v>44069</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
       </c>
       <c r="C362">
-        <v>178.06</v>
-      </c>
-      <c r="D362">
-        <v>-12.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B363">
-        <v>156.3</v>
+        <v>168</v>
       </c>
       <c r="C363">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D363">
-        <v>-12.22</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B364">
-        <v>156</v>
+        <v>166.58</v>
       </c>
       <c r="C364">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D364">
-        <v>-12.39</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B365">
-        <v>156.52</v>
+        <v>163.91</v>
       </c>
       <c r="C365">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D365">
-        <v>-12.1</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B366">
-        <v>159.27</v>
+        <v>163.57</v>
       </c>
       <c r="C366">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D366">
-        <v>-10.55</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B367">
-        <v>158</v>
+        <v>163.44</v>
       </c>
       <c r="C367">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D367">
-        <v>-11.27</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B368">
-        <v>157</v>
+        <v>163.22</v>
       </c>
       <c r="C368">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D368">
-        <v>-10.23</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B369">
-        <v>157</v>
+        <v>163.31</v>
       </c>
       <c r="C369">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D369">
-        <v>-10.23</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B370">
-        <v>157</v>
+        <v>163.8</v>
       </c>
       <c r="C370">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D370">
-        <v>-10.23</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B371" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B371">
+        <v>165.49</v>
       </c>
       <c r="C371">
-        <v>174.89</v>
-      </c>
-      <c r="D371" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D371">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B372" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B372">
+        <v>166.85</v>
       </c>
       <c r="C372">
-        <v>174.89</v>
-      </c>
-      <c r="D372" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D372">
+        <v>-5.72</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B373" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B373">
+        <v>166.58</v>
       </c>
       <c r="C373">
-        <v>174.89</v>
-      </c>
-      <c r="D373" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D373">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B374" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B374">
+        <v>165.9</v>
       </c>
       <c r="C374">
-        <v>174.89</v>
-      </c>
-      <c r="D374" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D374">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B375" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B375">
+        <v>165.68</v>
       </c>
       <c r="C375">
-        <v>174.89</v>
-      </c>
-      <c r="D375" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B376" t="s">
-        <v>4</v>
-      </c>
-      <c r="C376">
-        <v>174.89</v>
-      </c>
-      <c r="D376" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B377" t="s">
-        <v>4</v>
-      </c>
-      <c r="C377">
-        <v>174.89</v>
-      </c>
-      <c r="D377" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B378" t="s">
-        <v>4</v>
-      </c>
-      <c r="C378">
-        <v>174.89</v>
-      </c>
-      <c r="D378" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B379" t="s">
-        <v>4</v>
-      </c>
-      <c r="C379">
-        <v>174.89</v>
-      </c>
-      <c r="D379" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B380" t="s">
-        <v>4</v>
-      </c>
-      <c r="C380">
-        <v>174.89</v>
-      </c>
-      <c r="D380" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B381" t="s">
-        <v>4</v>
-      </c>
-      <c r="C381">
-        <v>174.89</v>
-      </c>
-      <c r="D381" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B382" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382">
-        <v>174.89</v>
-      </c>
-      <c r="D382" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B383" t="s">
-        <v>4</v>
-      </c>
-      <c r="C383">
-        <v>174.89</v>
-      </c>
-      <c r="D383" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B384" t="s">
-        <v>4</v>
-      </c>
-      <c r="C384">
-        <v>174.89</v>
-      </c>
-      <c r="D384" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B385" t="s">
-        <v>4</v>
-      </c>
-      <c r="C385">
-        <v>174.89</v>
-      </c>
-      <c r="D385" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B386" t="s">
-        <v>4</v>
-      </c>
-      <c r="C386">
-        <v>174.89</v>
-      </c>
-      <c r="D386" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B387" t="s">
-        <v>4</v>
-      </c>
-      <c r="C387">
-        <v>174.89</v>
-      </c>
-      <c r="D387" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B388" t="s">
-        <v>4</v>
-      </c>
-      <c r="C388">
-        <v>174.89</v>
-      </c>
-      <c r="D388" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B389" t="s">
-        <v>4</v>
-      </c>
-      <c r="C389">
-        <v>174.89</v>
-      </c>
-      <c r="D389" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B390" t="s">
-        <v>4</v>
-      </c>
-      <c r="C390">
-        <v>174.89</v>
-      </c>
-      <c r="D390" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D375">
+        <v>-6.38</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -577,27 +577,27 @@
         <v>44074</v>
       </c>
       <c r="B13">
-        <v>162.06</v>
+        <v>160.79</v>
       </c>
       <c r="C13">
         <v>174.89</v>
       </c>
       <c r="D13">
-        <v>-7.33</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="B14">
-        <v>165.1</v>
+        <v>165.81</v>
       </c>
       <c r="C14">
         <v>176.98</v>
       </c>
       <c r="D14">
-        <v>-6.71</v>
+        <v>-6.31</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5690,14 +5690,14 @@
       <c r="A363" s="2">
         <v>44070</v>
       </c>
-      <c r="B363">
-        <v>168</v>
+      <c r="B363" t="s">
+        <v>4</v>
       </c>
       <c r="C363">
         <v>174.89</v>
       </c>
-      <c r="D363">
-        <v>-3.94</v>
+      <c r="D363" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5705,13 +5705,13 @@
         <v>44071</v>
       </c>
       <c r="B364">
-        <v>166.58</v>
+        <v>163.64</v>
       </c>
       <c r="C364">
         <v>174.89</v>
       </c>
       <c r="D364">
-        <v>-4.75</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5866,6 +5866,104 @@
       </c>
       <c r="D375">
         <v>-6.38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B376">
+        <v>165.5</v>
+      </c>
+      <c r="C376">
+        <v>176.98</v>
+      </c>
+      <c r="D376">
+        <v>-6.48</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B377">
+        <v>165.97</v>
+      </c>
+      <c r="C377">
+        <v>176.98</v>
+      </c>
+      <c r="D377">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B378">
+        <v>165.58</v>
+      </c>
+      <c r="C378">
+        <v>176.98</v>
+      </c>
+      <c r="D378">
+        <v>-6.44</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B379">
+        <v>165.33</v>
+      </c>
+      <c r="C379">
+        <v>176.98</v>
+      </c>
+      <c r="D379">
+        <v>-6.58</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B380">
+        <v>167.94</v>
+      </c>
+      <c r="C380">
+        <v>176.98</v>
+      </c>
+      <c r="D380">
+        <v>-5.11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B381">
+        <v>168.38</v>
+      </c>
+      <c r="C381">
+        <v>176.98</v>
+      </c>
+      <c r="D381">
+        <v>-4.86</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B382">
+        <v>167.68</v>
+      </c>
+      <c r="C382">
+        <v>176.98</v>
+      </c>
+      <c r="D382">
+        <v>-5.25</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44089</v>
+        <v>44095</v>
       </c>
       <c r="B14">
-        <v>165.81</v>
+        <v>166.43</v>
       </c>
       <c r="C14">
         <v>176.98</v>
       </c>
       <c r="D14">
-        <v>-6.31</v>
+        <v>-5.96</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5966,6 +5966,90 @@
         <v>-5.25</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B383">
+        <v>167.68</v>
+      </c>
+      <c r="C383">
+        <v>176.98</v>
+      </c>
+      <c r="D383">
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B384">
+        <v>168.85</v>
+      </c>
+      <c r="C384">
+        <v>176.98</v>
+      </c>
+      <c r="D384">
+        <v>-4.59</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B385">
+        <v>168.47</v>
+      </c>
+      <c r="C385">
+        <v>176.98</v>
+      </c>
+      <c r="D385">
+        <v>-4.81</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B386">
+        <v>168.24</v>
+      </c>
+      <c r="C386">
+        <v>176.98</v>
+      </c>
+      <c r="D386">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B387">
+        <v>167.42</v>
+      </c>
+      <c r="C387">
+        <v>176.98</v>
+      </c>
+      <c r="D387">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B388">
+        <v>167.1</v>
+      </c>
+      <c r="C388">
+        <v>176.98</v>
+      </c>
+      <c r="D388">
+        <v>-5.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B2">
-        <v>171.17</v>
+        <v>169.23</v>
       </c>
       <c r="C2">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D2">
-        <v>-3.28</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B3">
-        <v>169.23</v>
+        <v>172.61</v>
       </c>
       <c r="C3">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D3">
-        <v>-5.99</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B4">
-        <v>172.61</v>
+        <v>167.01</v>
       </c>
       <c r="C4">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D4">
-        <v>-3.75</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B5">
-        <v>167.01</v>
+        <v>169.28</v>
       </c>
       <c r="C5">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D5">
-        <v>-8.09</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B6">
-        <v>169.28</v>
+        <v>177.33</v>
       </c>
       <c r="C6">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D6">
-        <v>-9.890000000000001</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B7">
-        <v>177.33</v>
+        <v>176.84</v>
       </c>
       <c r="C7">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D7">
-        <v>-2.81</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B8">
-        <v>176.84</v>
+        <v>173.53</v>
       </c>
       <c r="C8">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D8">
-        <v>-3.74</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B9">
-        <v>173.53</v>
+        <v>180.98</v>
       </c>
       <c r="C9">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D9">
-        <v>-2.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B10">
-        <v>180.98</v>
+        <v>194.54</v>
       </c>
       <c r="C10">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D10">
-        <v>0.28</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B11">
-        <v>194.54</v>
+        <v>176.29</v>
       </c>
       <c r="C11">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D11">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B12">
-        <v>176.29</v>
+        <v>160.79</v>
       </c>
       <c r="C12">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D12">
-        <v>-0.99</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B13">
-        <v>160.79</v>
+        <v>166.96</v>
       </c>
       <c r="C13">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D13">
-        <v>-8.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B14">
-        <v>166.43</v>
-      </c>
-      <c r="C14">
-        <v>176.98</v>
-      </c>
-      <c r="D14">
-        <v>-5.96</v>
+        <v>-5.66</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,461 +620,461 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B2">
-        <v>179.28</v>
+        <v>168.89</v>
       </c>
       <c r="C2">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D2">
-        <v>1.3</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43710</v>
+        <v>43740</v>
       </c>
       <c r="B3">
-        <v>191.42</v>
+        <v>169.34</v>
       </c>
       <c r="C3">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D3">
-        <v>8.16</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43711</v>
+        <v>43741</v>
       </c>
       <c r="B4">
-        <v>172.78</v>
+        <v>169.24</v>
       </c>
       <c r="C4">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D4">
-        <v>-2.37</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43712</v>
+        <v>43742</v>
       </c>
       <c r="B5">
-        <v>169.58</v>
+        <v>168.6</v>
       </c>
       <c r="C5">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D5">
-        <v>-4.18</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43713</v>
+        <v>43743</v>
       </c>
       <c r="B6">
-        <v>167.35</v>
+        <v>169.11</v>
       </c>
       <c r="C6">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D6">
-        <v>-5.44</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43714</v>
+        <v>43744</v>
       </c>
       <c r="B7">
-        <v>167.15</v>
+        <v>168.99</v>
       </c>
       <c r="C7">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D7">
-        <v>-5.55</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43715</v>
+        <v>43745</v>
       </c>
       <c r="B8">
-        <v>168.71</v>
+        <v>170.81</v>
       </c>
       <c r="C8">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D8">
-        <v>-4.67</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43716</v>
+        <v>43746</v>
       </c>
       <c r="B9">
-        <v>168</v>
+        <v>170.92</v>
       </c>
       <c r="C9">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D9">
-        <v>-5.07</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43717</v>
+        <v>43747</v>
       </c>
       <c r="B10">
-        <v>167.99</v>
+        <v>169.34</v>
       </c>
       <c r="C10">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D10">
-        <v>-5.08</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43718</v>
+        <v>43748</v>
       </c>
       <c r="B11">
-        <v>167.46</v>
+        <v>169</v>
       </c>
       <c r="C11">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D11">
-        <v>-5.38</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43719</v>
+        <v>43749</v>
       </c>
       <c r="B12">
-        <v>167.39</v>
+        <v>168.6</v>
       </c>
       <c r="C12">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D12">
-        <v>-5.42</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43720</v>
+        <v>43750</v>
       </c>
       <c r="B13">
-        <v>167.51</v>
+        <v>168.57</v>
       </c>
       <c r="C13">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D13">
-        <v>-5.35</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43721</v>
+        <v>43751</v>
       </c>
       <c r="B14">
-        <v>167.35</v>
+        <v>168.53</v>
       </c>
       <c r="C14">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D14">
-        <v>-5.44</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43722</v>
+        <v>43752</v>
       </c>
       <c r="B15">
-        <v>167.3</v>
+        <v>168.68</v>
       </c>
       <c r="C15">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D15">
-        <v>-5.47</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43723</v>
+        <v>43753</v>
       </c>
       <c r="B16">
-        <v>167.52</v>
+        <v>170.97</v>
       </c>
       <c r="C16">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D16">
-        <v>-5.34</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43724</v>
+        <v>43754</v>
       </c>
       <c r="B17">
-        <v>167.77</v>
+        <v>169</v>
       </c>
       <c r="C17">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D17">
-        <v>-5.2</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43725</v>
+        <v>43755</v>
       </c>
       <c r="B18">
-        <v>167.36</v>
+        <v>169</v>
       </c>
       <c r="C18">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D18">
-        <v>-5.43</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43726</v>
+        <v>43756</v>
       </c>
       <c r="B19">
-        <v>167.54</v>
+        <v>168.89</v>
       </c>
       <c r="C19">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D19">
-        <v>-5.33</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43727</v>
+        <v>43757</v>
       </c>
       <c r="B20">
-        <v>175.36</v>
+        <v>169.07</v>
       </c>
       <c r="C20">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D20">
-        <v>-0.91</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43728</v>
+        <v>43758</v>
       </c>
       <c r="B21">
-        <v>190.09</v>
+        <v>168.27</v>
       </c>
       <c r="C21">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D21">
-        <v>7.41</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43729</v>
+        <v>43759</v>
       </c>
       <c r="B22">
-        <v>182.49</v>
+        <v>169.36</v>
       </c>
       <c r="C22">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D22">
-        <v>3.12</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43730</v>
+        <v>43760</v>
       </c>
       <c r="B23">
-        <v>173.78</v>
+        <v>171.44</v>
       </c>
       <c r="C23">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D23">
-        <v>-1.81</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43731</v>
+        <v>43761</v>
       </c>
       <c r="B24">
-        <v>170.7</v>
+        <v>169</v>
       </c>
       <c r="C24">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D24">
-        <v>-3.55</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43732</v>
+        <v>43762</v>
       </c>
       <c r="B25">
-        <v>169.16</v>
+        <v>168.85</v>
       </c>
       <c r="C25">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D25">
-        <v>-4.42</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43733</v>
+        <v>43763</v>
       </c>
       <c r="B26">
-        <v>169.01</v>
+        <v>168.32</v>
       </c>
       <c r="C26">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D26">
-        <v>-4.5</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43734</v>
+        <v>43764</v>
       </c>
       <c r="B27">
-        <v>169.25</v>
+        <v>168.27</v>
       </c>
       <c r="C27">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D27">
-        <v>-4.37</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43735</v>
+        <v>43765</v>
       </c>
       <c r="B28">
-        <v>168.93</v>
+        <v>168.54</v>
       </c>
       <c r="C28">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D28">
-        <v>-4.55</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43736</v>
+        <v>43766</v>
       </c>
       <c r="B29">
-        <v>168.94</v>
+        <v>170.46</v>
       </c>
       <c r="C29">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D29">
-        <v>-4.54</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43737</v>
+        <v>43767</v>
       </c>
       <c r="B30">
-        <v>168.97</v>
+        <v>170.15</v>
       </c>
       <c r="C30">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D30">
-        <v>-4.52</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43738</v>
+        <v>43768</v>
       </c>
       <c r="B31">
         <v>168.94</v>
       </c>
       <c r="C31">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D31">
-        <v>-4.54</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B32">
-        <v>168.89</v>
+        <v>169.01</v>
       </c>
       <c r="C32">
         <v>180.02</v>
       </c>
       <c r="D32">
-        <v>-6.19</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43740</v>
+        <v>43770</v>
       </c>
       <c r="B33">
-        <v>169.34</v>
+        <v>168.74</v>
       </c>
       <c r="C33">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D33">
-        <v>-5.93</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43741</v>
+        <v>43771</v>
       </c>
       <c r="B34">
-        <v>169.24</v>
+        <v>168.6</v>
       </c>
       <c r="C34">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D34">
         <v>-5.99</v>
@@ -1096,4958 +1082,4664 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43742</v>
+        <v>43772</v>
       </c>
       <c r="B35">
-        <v>168.6</v>
+        <v>169.66</v>
       </c>
       <c r="C35">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D35">
-        <v>-6.34</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43743</v>
+        <v>43773</v>
       </c>
       <c r="B36">
-        <v>169.11</v>
+        <v>170.55</v>
       </c>
       <c r="C36">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D36">
-        <v>-6.06</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43744</v>
+        <v>43774</v>
       </c>
       <c r="B37">
-        <v>168.99</v>
+        <v>172.64</v>
       </c>
       <c r="C37">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D37">
-        <v>-6.13</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43745</v>
+        <v>43775</v>
       </c>
       <c r="B38">
-        <v>170.81</v>
+        <v>175.52</v>
       </c>
       <c r="C38">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D38">
-        <v>-5.12</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43746</v>
+        <v>43776</v>
       </c>
       <c r="B39">
-        <v>170.92</v>
+        <v>169.94</v>
       </c>
       <c r="C39">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D39">
-        <v>-5.06</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43747</v>
+        <v>43777</v>
       </c>
       <c r="B40">
-        <v>169.34</v>
+        <v>169.71</v>
       </c>
       <c r="C40">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D40">
-        <v>-5.93</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43748</v>
+        <v>43778</v>
       </c>
       <c r="B41">
-        <v>169</v>
+        <v>169.84</v>
       </c>
       <c r="C41">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D41">
-        <v>-6.12</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43749</v>
+        <v>43779</v>
       </c>
       <c r="B42">
-        <v>168.6</v>
+        <v>177.83</v>
       </c>
       <c r="C42">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D42">
-        <v>-6.34</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43750</v>
+        <v>43780</v>
       </c>
       <c r="B43">
-        <v>168.57</v>
+        <v>177.83</v>
       </c>
       <c r="C43">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D43">
-        <v>-6.36</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43751</v>
+        <v>43781</v>
       </c>
       <c r="B44">
-        <v>168.53</v>
+        <v>173.33</v>
       </c>
       <c r="C44">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D44">
-        <v>-6.38</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43752</v>
+        <v>43782</v>
       </c>
       <c r="B45">
-        <v>168.68</v>
+        <v>170.06</v>
       </c>
       <c r="C45">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D45">
-        <v>-6.3</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43753</v>
+        <v>43783</v>
       </c>
       <c r="B46">
-        <v>170.97</v>
+        <v>190.94</v>
       </c>
       <c r="C46">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D46">
-        <v>-5.03</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43754</v>
+        <v>43784</v>
       </c>
       <c r="B47">
-        <v>169</v>
+        <v>176.88</v>
       </c>
       <c r="C47">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D47">
-        <v>-6.12</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43755</v>
+        <v>43785</v>
       </c>
       <c r="B48">
-        <v>169</v>
+        <v>171.7</v>
       </c>
       <c r="C48">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D48">
-        <v>-6.12</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43756</v>
+        <v>43786</v>
       </c>
       <c r="B49">
-        <v>168.89</v>
+        <v>170.43</v>
       </c>
       <c r="C49">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D49">
-        <v>-6.19</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43757</v>
+        <v>43787</v>
       </c>
       <c r="B50">
-        <v>169.07</v>
+        <v>169.77</v>
       </c>
       <c r="C50">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D50">
-        <v>-6.08</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43758</v>
+        <v>43788</v>
       </c>
       <c r="B51">
-        <v>168.27</v>
+        <v>169.54</v>
       </c>
       <c r="C51">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D51">
-        <v>-6.53</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="B52">
-        <v>169.36</v>
+        <v>169.76</v>
       </c>
       <c r="C52">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D52">
-        <v>-5.92</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43760</v>
+        <v>43790</v>
       </c>
       <c r="B53">
-        <v>171.44</v>
+        <v>169.66</v>
       </c>
       <c r="C53">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D53">
-        <v>-4.77</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43761</v>
+        <v>43791</v>
       </c>
       <c r="B54">
-        <v>169</v>
+        <v>169.74</v>
       </c>
       <c r="C54">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D54">
-        <v>-6.12</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43762</v>
+        <v>43792</v>
       </c>
       <c r="B55">
-        <v>168.85</v>
+        <v>169.57</v>
       </c>
       <c r="C55">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D55">
-        <v>-6.2</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43763</v>
+        <v>43793</v>
       </c>
       <c r="B56">
-        <v>168.32</v>
+        <v>171.81</v>
       </c>
       <c r="C56">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D56">
-        <v>-6.5</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43764</v>
+        <v>43794</v>
       </c>
       <c r="B57">
-        <v>168.27</v>
+        <v>169.9</v>
       </c>
       <c r="C57">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D57">
-        <v>-6.53</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43765</v>
+        <v>43795</v>
       </c>
       <c r="B58">
-        <v>168.54</v>
+        <v>169.24</v>
       </c>
       <c r="C58">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D58">
-        <v>-6.38</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43766</v>
+        <v>43796</v>
       </c>
       <c r="B59">
-        <v>170.46</v>
+        <v>181.16</v>
       </c>
       <c r="C59">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D59">
-        <v>-5.31</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43767</v>
+        <v>43797</v>
       </c>
       <c r="B60">
-        <v>170.15</v>
+        <v>181.43</v>
       </c>
       <c r="C60">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D60">
-        <v>-5.49</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43768</v>
+        <v>43798</v>
       </c>
       <c r="B61">
-        <v>168.94</v>
+        <v>172.09</v>
       </c>
       <c r="C61">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D61">
-        <v>-6.16</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B62">
-        <v>169.01</v>
+        <v>170.55</v>
       </c>
       <c r="C62">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D62">
-        <v>-6.12</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63">
-        <v>168.74</v>
+        <v>170.6</v>
       </c>
       <c r="C63">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D63">
-        <v>-5.91</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B64">
-        <v>168.6</v>
+        <v>170.41</v>
       </c>
       <c r="C64">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D64">
-        <v>-5.99</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B65">
-        <v>169.66</v>
+        <v>167.47</v>
       </c>
       <c r="C65">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D65">
-        <v>-5.4</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B66">
-        <v>170.55</v>
+        <v>163</v>
       </c>
       <c r="C66">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D66">
-        <v>-4.9</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B67">
-        <v>172.64</v>
+        <v>166.24</v>
       </c>
       <c r="C67">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D67">
-        <v>-3.74</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B68">
-        <v>175.52</v>
+        <v>172.11</v>
       </c>
       <c r="C68">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D68">
-        <v>-2.13</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B69">
-        <v>169.94</v>
+        <v>166.21</v>
       </c>
       <c r="C69">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D69">
-        <v>-5.24</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B70">
-        <v>169.71</v>
+        <v>164.34</v>
       </c>
       <c r="C70">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D70">
-        <v>-5.37</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B71">
-        <v>169.84</v>
+        <v>164.2</v>
       </c>
       <c r="C71">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D71">
-        <v>-5.3</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B72">
-        <v>177.83</v>
+        <v>164.6</v>
       </c>
       <c r="C72">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D72">
-        <v>-0.84</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B73">
-        <v>177.83</v>
+        <v>165</v>
       </c>
       <c r="C73">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D73">
-        <v>-0.84</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B74">
-        <v>173.33</v>
+        <v>165.1</v>
       </c>
       <c r="C74">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D74">
-        <v>-3.35</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B75">
-        <v>170.06</v>
+        <v>164.36</v>
       </c>
       <c r="C75">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D75">
-        <v>-5.17</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B76">
-        <v>190.94</v>
+        <v>163.99</v>
       </c>
       <c r="C76">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D76">
-        <v>6.47</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B77">
-        <v>176.88</v>
+        <v>164.51</v>
       </c>
       <c r="C77">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D77">
-        <v>-1.38</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B78">
-        <v>171.7</v>
+        <v>169.16</v>
       </c>
       <c r="C78">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D78">
-        <v>-4.26</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B79">
-        <v>170.43</v>
+        <v>174.94</v>
       </c>
       <c r="C79">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D79">
-        <v>-4.97</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B80">
-        <v>169.77</v>
+        <v>173.45</v>
       </c>
       <c r="C80">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D80">
-        <v>-5.34</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43788</v>
+        <v>43818</v>
       </c>
       <c r="B81">
-        <v>169.54</v>
+        <v>169.71</v>
       </c>
       <c r="C81">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D81">
-        <v>-5.46</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B82">
-        <v>169.76</v>
+        <v>167.21</v>
       </c>
       <c r="C82">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D82">
-        <v>-5.34</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B83">
-        <v>169.66</v>
+        <v>188.1</v>
       </c>
       <c r="C83">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D83">
-        <v>-5.4</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43791</v>
+        <v>43821</v>
       </c>
       <c r="B84">
-        <v>169.74</v>
+        <v>167.72</v>
       </c>
       <c r="C84">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D84">
-        <v>-5.35</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43792</v>
+        <v>43822</v>
       </c>
       <c r="B85">
-        <v>169.57</v>
+        <v>164.7</v>
       </c>
       <c r="C85">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D85">
-        <v>-5.45</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43793</v>
+        <v>43823</v>
       </c>
       <c r="B86">
-        <v>171.81</v>
+        <v>164.61</v>
       </c>
       <c r="C86">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D86">
-        <v>-4.2</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43794</v>
+        <v>43824</v>
       </c>
       <c r="B87">
-        <v>169.9</v>
+        <v>164.38</v>
       </c>
       <c r="C87">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D87">
-        <v>-5.27</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="B88">
-        <v>169.24</v>
+        <v>164.08</v>
       </c>
       <c r="C88">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D88">
-        <v>-5.63</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43796</v>
+        <v>43826</v>
       </c>
       <c r="B89">
-        <v>181.16</v>
+        <v>163.36</v>
       </c>
       <c r="C89">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D89">
-        <v>1.01</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43797</v>
+        <v>43827</v>
       </c>
       <c r="B90">
-        <v>181.43</v>
+        <v>163.55</v>
       </c>
       <c r="C90">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D90">
-        <v>1.16</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43798</v>
+        <v>43828</v>
       </c>
       <c r="B91">
-        <v>172.09</v>
+        <v>163.5</v>
       </c>
       <c r="C91">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D91">
-        <v>-4.04</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43799</v>
+        <v>43829</v>
       </c>
       <c r="B92">
-        <v>170.55</v>
+        <v>163.32</v>
       </c>
       <c r="C92">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D92">
-        <v>-4.9</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B93">
-        <v>170.6</v>
+        <v>163.46</v>
       </c>
       <c r="C93">
         <v>181.71</v>
       </c>
       <c r="D93">
-        <v>-6.11</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43801</v>
+        <v>43831</v>
       </c>
       <c r="B94">
-        <v>170.41</v>
+        <v>163.45</v>
       </c>
       <c r="C94">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D94">
-        <v>-6.22</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B95">
-        <v>167.47</v>
+        <v>183.35</v>
       </c>
       <c r="C95">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D95">
-        <v>-7.84</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43803</v>
+        <v>43833</v>
       </c>
       <c r="B96">
-        <v>163</v>
+        <v>175.52</v>
       </c>
       <c r="C96">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D96">
-        <v>-10.3</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43804</v>
+        <v>43834</v>
       </c>
       <c r="B97">
-        <v>166.24</v>
+        <v>173.74</v>
       </c>
       <c r="C97">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D97">
-        <v>-8.51</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43805</v>
+        <v>43835</v>
       </c>
       <c r="B98">
-        <v>172.11</v>
+        <v>181.57</v>
       </c>
       <c r="C98">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D98">
-        <v>-5.28</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43806</v>
+        <v>43836</v>
       </c>
       <c r="B99">
-        <v>166.21</v>
+        <v>167.6</v>
       </c>
       <c r="C99">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D99">
-        <v>-8.529999999999999</v>
+        <v>-10.78</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43807</v>
+        <v>43837</v>
       </c>
       <c r="B100">
-        <v>164.34</v>
+        <v>166.05</v>
       </c>
       <c r="C100">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D100">
-        <v>-9.56</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B101">
-        <v>164.2</v>
+        <v>166.36</v>
       </c>
       <c r="C101">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D101">
-        <v>-9.640000000000001</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B102">
-        <v>164.6</v>
+        <v>166.81</v>
       </c>
       <c r="C102">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D102">
-        <v>-9.41</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B103">
-        <v>165</v>
+        <v>175.46</v>
       </c>
       <c r="C103">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D103">
-        <v>-9.199999999999999</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B104">
-        <v>165.1</v>
+        <v>169.85</v>
       </c>
       <c r="C104">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D104">
-        <v>-9.140000000000001</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B105">
-        <v>164.36</v>
+        <v>171.53</v>
       </c>
       <c r="C105">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D105">
-        <v>-9.550000000000001</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B106">
-        <v>163.99</v>
+        <v>169.51</v>
       </c>
       <c r="C106">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D106">
-        <v>-9.75</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B107">
-        <v>164.51</v>
+        <v>166.66</v>
       </c>
       <c r="C107">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D107">
-        <v>-9.470000000000001</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B108">
-        <v>169.16</v>
+        <v>166.09</v>
       </c>
       <c r="C108">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D108">
-        <v>-6.91</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B109">
-        <v>174.94</v>
+        <v>166.94</v>
       </c>
       <c r="C109">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D109">
-        <v>-3.73</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B110">
-        <v>173.45</v>
+        <v>170.33</v>
       </c>
       <c r="C110">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D110">
-        <v>-4.55</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43818</v>
+        <v>43848</v>
       </c>
       <c r="B111">
-        <v>169.71</v>
+        <v>167.12</v>
       </c>
       <c r="C111">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D111">
-        <v>-6.61</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43819</v>
+        <v>43849</v>
       </c>
       <c r="B112">
-        <v>167.21</v>
+        <v>166.74</v>
       </c>
       <c r="C112">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D112">
-        <v>-7.98</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43820</v>
+        <v>43850</v>
       </c>
       <c r="B113">
-        <v>188.1</v>
+        <v>166.82</v>
       </c>
       <c r="C113">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D113">
-        <v>3.52</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="B114">
-        <v>167.72</v>
+        <v>166.5</v>
       </c>
       <c r="C114">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D114">
-        <v>-7.7</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43822</v>
+        <v>43852</v>
       </c>
       <c r="B115">
-        <v>164.7</v>
+        <v>166</v>
       </c>
       <c r="C115">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D115">
-        <v>-9.359999999999999</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43823</v>
+        <v>43853</v>
       </c>
       <c r="B116">
-        <v>164.61</v>
+        <v>166.55</v>
       </c>
       <c r="C116">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D116">
-        <v>-9.41</v>
+        <v>-11.34</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B117">
-        <v>164.38</v>
+        <v>167.1</v>
       </c>
       <c r="C117">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D117">
-        <v>-9.539999999999999</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B118">
-        <v>164.08</v>
+        <v>166.36</v>
       </c>
       <c r="C118">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D118">
-        <v>-9.699999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B119">
-        <v>163.36</v>
+        <v>166.38</v>
       </c>
       <c r="C119">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D119">
-        <v>-10.1</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B120">
-        <v>163.55</v>
+        <v>166.5</v>
       </c>
       <c r="C120">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D120">
-        <v>-9.99</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B121">
-        <v>163.5</v>
+        <v>168.21</v>
       </c>
       <c r="C121">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D121">
-        <v>-10.02</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B122">
-        <v>163.32</v>
+        <v>168.44</v>
       </c>
       <c r="C122">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D122">
-        <v>-10.12</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B123">
-        <v>163.46</v>
+        <v>170.26</v>
       </c>
       <c r="C123">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D123">
-        <v>-10.04</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B124">
-        <v>163.45</v>
+        <v>173.73</v>
       </c>
       <c r="C124">
         <v>187.86</v>
       </c>
       <c r="D124">
-        <v>-12.99</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B125">
-        <v>183.35</v>
+        <v>172.53</v>
       </c>
       <c r="C125">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D125">
-        <v>-2.4</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B126">
-        <v>175.52</v>
+        <v>170.89</v>
       </c>
       <c r="C126">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D126">
-        <v>-6.57</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B127">
-        <v>173.74</v>
+        <v>172.28</v>
       </c>
       <c r="C127">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D127">
-        <v>-7.52</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B128">
-        <v>181.57</v>
+        <v>171.57</v>
       </c>
       <c r="C128">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D128">
-        <v>-3.35</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B129">
-        <v>167.6</v>
+        <v>171.47</v>
       </c>
       <c r="C129">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D129">
-        <v>-10.78</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B130">
-        <v>166.05</v>
+        <v>180.74</v>
       </c>
       <c r="C130">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D130">
-        <v>-11.61</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B131">
-        <v>166.36</v>
+        <v>185.08</v>
       </c>
       <c r="C131">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D131">
-        <v>-11.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B132">
-        <v>166.81</v>
+        <v>177.7</v>
       </c>
       <c r="C132">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D132">
-        <v>-11.2</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B133">
-        <v>175.46</v>
+        <v>174.41</v>
       </c>
       <c r="C133">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D133">
-        <v>-6.6</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B134">
-        <v>169.85</v>
+        <v>195.2</v>
       </c>
       <c r="C134">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D134">
-        <v>-9.58</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B135">
-        <v>171.53</v>
+        <v>178.53</v>
       </c>
       <c r="C135">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D135">
-        <v>-8.69</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B136">
-        <v>169.51</v>
+        <v>174.52</v>
       </c>
       <c r="C136">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D136">
-        <v>-9.77</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B137">
-        <v>166.66</v>
+        <v>173.31</v>
       </c>
       <c r="C137">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D137">
-        <v>-11.29</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B138">
-        <v>166.09</v>
+        <v>173.48</v>
       </c>
       <c r="C138">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D138">
-        <v>-11.59</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B139">
-        <v>166.94</v>
+        <v>173.28</v>
       </c>
       <c r="C139">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D139">
-        <v>-11.14</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B140">
-        <v>170.33</v>
+        <v>173.41</v>
       </c>
       <c r="C140">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D140">
-        <v>-9.33</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B141">
-        <v>167.12</v>
+        <v>173.76</v>
       </c>
       <c r="C141">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D141">
-        <v>-11.04</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B142">
-        <v>166.74</v>
+        <v>174.28</v>
       </c>
       <c r="C142">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D142">
-        <v>-11.24</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B143">
-        <v>166.82</v>
+        <v>175.51</v>
       </c>
       <c r="C143">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D143">
-        <v>-11.2</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B144">
-        <v>166.5</v>
+        <v>176.18</v>
       </c>
       <c r="C144">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D144">
-        <v>-11.37</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B145">
-        <v>166</v>
+        <v>175.24</v>
       </c>
       <c r="C145">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D145">
-        <v>-11.64</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B146">
-        <v>166.55</v>
+        <v>177.08</v>
       </c>
       <c r="C146">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D146">
-        <v>-11.34</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B147">
-        <v>167.1</v>
+        <v>175.4</v>
       </c>
       <c r="C147">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D147">
-        <v>-11.05</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B148">
-        <v>166.36</v>
+        <v>175.7</v>
       </c>
       <c r="C148">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D148">
-        <v>-11.44</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B149">
-        <v>166.38</v>
+        <v>177.28</v>
       </c>
       <c r="C149">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D149">
-        <v>-11.44</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B150">
-        <v>166.5</v>
+        <v>189.77</v>
       </c>
       <c r="C150">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D150">
-        <v>-11.37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B151">
-        <v>168.21</v>
+        <v>192.17</v>
       </c>
       <c r="C151">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D151">
-        <v>-10.46</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B152">
-        <v>168.44</v>
+        <v>181</v>
       </c>
       <c r="C152">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D152">
-        <v>-10.34</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B153">
-        <v>170.26</v>
+        <v>180.89</v>
       </c>
       <c r="C153">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D153">
-        <v>-9.369999999999999</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B154">
-        <v>173.73</v>
+        <v>182.48</v>
       </c>
       <c r="C154">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D154">
-        <v>-7.52</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B155">
-        <v>172.53</v>
+        <v>184.88</v>
       </c>
       <c r="C155">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D155">
-        <v>-5.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B156">
-        <v>170.89</v>
+        <v>185.24</v>
       </c>
       <c r="C156">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D156">
-        <v>-6.35</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B157">
-        <v>172.28</v>
+        <v>185.14</v>
       </c>
       <c r="C157">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D157">
-        <v>-5.58</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B158">
-        <v>171.57</v>
+        <v>185.64</v>
       </c>
       <c r="C158">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D158">
-        <v>-5.97</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B159">
-        <v>171.47</v>
+        <v>184.94</v>
       </c>
       <c r="C159">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D159">
-        <v>-6.03</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B160">
-        <v>180.74</v>
+        <v>183.45</v>
       </c>
       <c r="C160">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D160">
-        <v>-0.9399999999999999</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B161">
-        <v>185.08</v>
+        <v>182.23</v>
       </c>
       <c r="C161">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D161">
-        <v>1.43</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B162">
-        <v>177.7</v>
+        <v>180.22</v>
       </c>
       <c r="C162">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D162">
-        <v>-2.61</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B163">
-        <v>174.41</v>
+        <v>178.26</v>
       </c>
       <c r="C163">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D163">
-        <v>-4.42</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B164">
-        <v>195.2</v>
+        <v>177.05</v>
       </c>
       <c r="C164">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D164">
-        <v>6.98</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B165">
-        <v>178.53</v>
+        <v>176.65</v>
       </c>
       <c r="C165">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D165">
-        <v>-2.16</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B166">
-        <v>174.52</v>
+        <v>175.85</v>
       </c>
       <c r="C166">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D166">
-        <v>-4.35</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B167">
-        <v>173.31</v>
+        <v>174.83</v>
       </c>
       <c r="C167">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D167">
-        <v>-5.02</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B168">
-        <v>173.48</v>
+        <v>175.1</v>
       </c>
       <c r="C168">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D168">
-        <v>-4.92</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B169">
-        <v>173.28</v>
+        <v>175.43</v>
       </c>
       <c r="C169">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D169">
-        <v>-5.03</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B170">
-        <v>173.41</v>
+        <v>177.77</v>
       </c>
       <c r="C170">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D170">
-        <v>-4.96</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B171">
-        <v>173.76</v>
+        <v>176.42</v>
       </c>
       <c r="C171">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D171">
-        <v>-4.77</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B172">
-        <v>174.28</v>
+        <v>181.1</v>
       </c>
       <c r="C172">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D172">
-        <v>-4.49</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B173">
-        <v>175.51</v>
+        <v>182.67</v>
       </c>
       <c r="C173">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D173">
-        <v>-3.81</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B174">
-        <v>176.18</v>
+        <v>173.3</v>
       </c>
       <c r="C174">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D174">
-        <v>-3.45</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B175">
-        <v>175.24</v>
+        <v>172.47</v>
       </c>
       <c r="C175">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D175">
-        <v>-3.96</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B176">
-        <v>177.08</v>
+        <v>171.28</v>
       </c>
       <c r="C176">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D176">
-        <v>-2.95</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B177">
-        <v>175.4</v>
+        <v>170.7</v>
       </c>
       <c r="C177">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D177">
-        <v>-3.87</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B178">
-        <v>175.7</v>
+        <v>170.45</v>
       </c>
       <c r="C178">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D178">
-        <v>-3.71</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B179">
-        <v>177.28</v>
+        <v>169.75</v>
       </c>
       <c r="C179">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D179">
-        <v>-2.84</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B180">
-        <v>189.77</v>
+        <v>169.51</v>
       </c>
       <c r="C180">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B181">
-        <v>192.17</v>
+        <v>169.27</v>
       </c>
       <c r="C181">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D181">
-        <v>5.32</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B182">
-        <v>181</v>
+        <v>169.38</v>
       </c>
       <c r="C182">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D182">
-        <v>-0.8</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B183">
-        <v>180.89</v>
+        <v>170.38</v>
       </c>
       <c r="C183">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D183">
-        <v>-0.87</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B184">
-        <v>182.48</v>
+        <v>170.36</v>
       </c>
       <c r="C184">
         <v>183.71</v>
       </c>
       <c r="D184">
-        <v>-0.67</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B185">
-        <v>184.88</v>
+        <v>170.17</v>
       </c>
       <c r="C185">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D185">
-        <v>0.63</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B186">
-        <v>185.24</v>
+        <v>170.51</v>
       </c>
       <c r="C186">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D186">
-        <v>0.83</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B187">
-        <v>185.14</v>
+        <v>170.17</v>
       </c>
       <c r="C187">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D187">
-        <v>0.77</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B188">
-        <v>185.64</v>
+        <v>168.46</v>
       </c>
       <c r="C188">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D188">
-        <v>1.05</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B189">
-        <v>184.94</v>
+        <v>168.53</v>
       </c>
       <c r="C189">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D189">
-        <v>0.67</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43897</v>
+        <v>43927</v>
       </c>
       <c r="B190">
-        <v>183.45</v>
+        <v>170.89</v>
       </c>
       <c r="C190">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D190">
-        <v>-0.14</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B191">
-        <v>182.23</v>
+        <v>181.5</v>
       </c>
       <c r="C191">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D191">
-        <v>-0.8100000000000001</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B192">
-        <v>180.22</v>
+        <v>171.71</v>
       </c>
       <c r="C192">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D192">
-        <v>-1.9</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B193">
-        <v>178.26</v>
+        <v>170.67</v>
       </c>
       <c r="C193">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D193">
-        <v>-2.97</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B194">
-        <v>177.05</v>
+        <v>170.45</v>
       </c>
       <c r="C194">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D194">
-        <v>-3.63</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B195">
-        <v>176.65</v>
+        <v>170.78</v>
       </c>
       <c r="C195">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D195">
-        <v>-3.85</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B196">
-        <v>175.85</v>
+        <v>171.6</v>
       </c>
       <c r="C196">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D196">
-        <v>-4.28</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B197">
-        <v>174.83</v>
+        <v>172.16</v>
       </c>
       <c r="C197">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D197">
-        <v>-4.83</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B198">
-        <v>175.1</v>
+        <v>175.06</v>
       </c>
       <c r="C198">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D198">
-        <v>-4.69</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B199">
-        <v>175.43</v>
+        <v>174.82</v>
       </c>
       <c r="C199">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D199">
-        <v>-4.51</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B200">
-        <v>177.77</v>
+        <v>172.81</v>
       </c>
       <c r="C200">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D200">
-        <v>-3.23</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B201">
-        <v>176.42</v>
+        <v>172.82</v>
       </c>
       <c r="C201">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D201">
-        <v>-3.97</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B202">
-        <v>181.1</v>
+        <v>173.83</v>
       </c>
       <c r="C202">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D202">
-        <v>-1.42</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B203">
-        <v>182.67</v>
+        <v>174.93</v>
       </c>
       <c r="C203">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D203">
-        <v>-0.57</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B204">
-        <v>173.3</v>
+        <v>175.38</v>
       </c>
       <c r="C204">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D204">
-        <v>-5.67</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B205">
-        <v>172.47</v>
+        <v>174.98</v>
       </c>
       <c r="C205">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D205">
-        <v>-6.12</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B206">
-        <v>171.28</v>
+        <v>175.14</v>
       </c>
       <c r="C206">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D206">
-        <v>-6.77</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B207">
-        <v>170.7</v>
+        <v>174.93</v>
       </c>
       <c r="C207">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D207">
-        <v>-7.08</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B208">
-        <v>170.45</v>
+        <v>174.74</v>
       </c>
       <c r="C208">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D208">
-        <v>-7.22</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B209">
-        <v>169.75</v>
+        <v>175.66</v>
       </c>
       <c r="C209">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D209">
-        <v>-7.6</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B210">
-        <v>169.51</v>
+        <v>175.97</v>
       </c>
       <c r="C210">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D210">
-        <v>-7.73</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B211">
-        <v>169.27</v>
+        <v>175.79</v>
       </c>
       <c r="C211">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D211">
-        <v>-7.86</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B212">
-        <v>169.38</v>
+        <v>176.64</v>
       </c>
       <c r="C212">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D212">
-        <v>-7.8</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="B213">
-        <v>170.38</v>
+        <v>177.46</v>
       </c>
       <c r="C213">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D213">
-        <v>-7.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B214">
-        <v>170.36</v>
+        <v>177.41</v>
       </c>
       <c r="C214">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D214">
-        <v>-7.27</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B215">
-        <v>170.17</v>
+        <v>177.77</v>
       </c>
       <c r="C215">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D215">
-        <v>-4</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="B216">
-        <v>170.51</v>
+        <v>179.3</v>
       </c>
       <c r="C216">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D216">
-        <v>-3.81</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="B217">
-        <v>170.17</v>
+        <v>178.16</v>
       </c>
       <c r="C217">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D217">
-        <v>-4</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B218">
-        <v>168.46</v>
+        <v>177.92</v>
       </c>
       <c r="C218">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D218">
-        <v>-4.96</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B219">
-        <v>168.53</v>
+        <v>177.89</v>
       </c>
       <c r="C219">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D219">
-        <v>-4.92</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43927</v>
+        <v>43957</v>
       </c>
       <c r="B220">
-        <v>170.89</v>
+        <v>178.97</v>
       </c>
       <c r="C220">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D220">
-        <v>-3.59</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B221">
-        <v>181.5</v>
+        <v>180.19</v>
       </c>
       <c r="C221">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D221">
-        <v>2.39</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B222">
-        <v>171.71</v>
+        <v>178.79</v>
       </c>
       <c r="C222">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D222">
-        <v>-3.13</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B223">
-        <v>170.67</v>
+        <v>179.32</v>
       </c>
       <c r="C223">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D223">
-        <v>-3.72</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B224">
-        <v>170.45</v>
+        <v>180.25</v>
       </c>
       <c r="C224">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D224">
-        <v>-3.84</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B225">
-        <v>170.78</v>
+        <v>180.29</v>
       </c>
       <c r="C225">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D225">
-        <v>-3.65</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B226">
-        <v>171.6</v>
+        <v>180.36</v>
       </c>
       <c r="C226">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D226">
-        <v>-3.19</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B227">
-        <v>172.16</v>
+        <v>181.47</v>
       </c>
       <c r="C227">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D227">
-        <v>-2.88</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B228">
-        <v>175.06</v>
+        <v>183.06</v>
       </c>
       <c r="C228">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D228">
-        <v>-1.24</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B229">
-        <v>174.82</v>
+        <v>183.42</v>
       </c>
       <c r="C229">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D229">
-        <v>-1.37</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B230">
-        <v>172.81</v>
+        <v>182.61</v>
       </c>
       <c r="C230">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D230">
-        <v>-2.51</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B231">
-        <v>172.82</v>
+        <v>181.88</v>
       </c>
       <c r="C231">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D231">
-        <v>-2.5</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B232">
-        <v>173.83</v>
+        <v>181.2</v>
       </c>
       <c r="C232">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D232">
-        <v>-1.93</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B233">
-        <v>174.93</v>
+        <v>180.89</v>
       </c>
       <c r="C233">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D233">
-        <v>-1.31</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B234">
-        <v>175.38</v>
+        <v>181.99</v>
       </c>
       <c r="C234">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D234">
-        <v>-1.06</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B235">
-        <v>174.98</v>
+        <v>182.41</v>
       </c>
       <c r="C235">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D235">
-        <v>-1.28</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B236">
-        <v>175.14</v>
+        <v>182.93</v>
       </c>
       <c r="C236">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D236">
-        <v>-1.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B237">
-        <v>174.93</v>
+        <v>192.26</v>
       </c>
       <c r="C237">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D237">
-        <v>-1.31</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B238">
-        <v>174.74</v>
+        <v>183.97</v>
       </c>
       <c r="C238">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D238">
-        <v>-1.42</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B239">
-        <v>175.66</v>
+        <v>181.81</v>
       </c>
       <c r="C239">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D239">
-        <v>-0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B240">
-        <v>175.97</v>
+        <v>180.18</v>
       </c>
       <c r="C240">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D240">
-        <v>-0.73</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B241">
-        <v>175.79</v>
+        <v>179.3</v>
       </c>
       <c r="C241">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D241">
-        <v>-0.83</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B242">
-        <v>176.64</v>
+        <v>179.68</v>
       </c>
       <c r="C242">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D242">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B243">
-        <v>177.46</v>
+        <v>180.04</v>
       </c>
       <c r="C243">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D243">
-        <v>0.11</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B244">
-        <v>177.41</v>
+        <v>180.99</v>
       </c>
       <c r="C244">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D244">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B245">
-        <v>177.77</v>
+        <v>181.04</v>
       </c>
       <c r="C245">
         <v>180.46</v>
       </c>
       <c r="D245">
-        <v>-1.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B246">
-        <v>179.3</v>
+        <v>181.95</v>
       </c>
       <c r="C246">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D246">
-        <v>-0.64</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B247">
-        <v>178.16</v>
+        <v>190.02</v>
       </c>
       <c r="C247">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D247">
-        <v>-1.28</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B248">
-        <v>177.92</v>
+        <v>189.89</v>
       </c>
       <c r="C248">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D248">
-        <v>-1.41</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B249">
-        <v>177.89</v>
+        <v>185.86</v>
       </c>
       <c r="C249">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D249">
-        <v>-1.43</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B250">
-        <v>178.97</v>
+        <v>191.54</v>
       </c>
       <c r="C250">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D250">
-        <v>-0.83</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B251">
-        <v>180.19</v>
+        <v>199.04</v>
       </c>
       <c r="C251">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D251">
-        <v>-0.15</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B252">
-        <v>178.79</v>
+        <v>193.44</v>
       </c>
       <c r="C252">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D252">
-        <v>-0.93</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B253">
-        <v>179.32</v>
+        <v>187.38</v>
       </c>
       <c r="C253">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D253">
-        <v>-0.63</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B254">
-        <v>180.25</v>
+        <v>191.06</v>
       </c>
       <c r="C254">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D254">
-        <v>-0.12</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B255">
-        <v>180.29</v>
+        <v>200.84</v>
       </c>
       <c r="C255">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D255">
-        <v>-0.1</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B256">
-        <v>180.36</v>
+        <v>204.15</v>
       </c>
       <c r="C256">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D256">
-        <v>-0.06</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B257">
-        <v>181.47</v>
+        <v>193.82</v>
       </c>
       <c r="C257">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D257">
-        <v>0.5600000000000001</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B258">
-        <v>183.06</v>
+        <v>191.11</v>
       </c>
       <c r="C258">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D258">
-        <v>1.44</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B259">
-        <v>183.42</v>
+        <v>190.29</v>
       </c>
       <c r="C259">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D259">
-        <v>1.64</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B260">
-        <v>182.61</v>
+        <v>189.9</v>
       </c>
       <c r="C260">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D260">
-        <v>1.19</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B261">
-        <v>181.88</v>
+        <v>190.34</v>
       </c>
       <c r="C261">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D261">
-        <v>0.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B262">
-        <v>181.2</v>
+        <v>190.33</v>
       </c>
       <c r="C262">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D262">
-        <v>0.41</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B263">
-        <v>180.89</v>
+        <v>190.44</v>
       </c>
       <c r="C263">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D263">
-        <v>0.23</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B264">
-        <v>181.99</v>
+        <v>190.43</v>
       </c>
       <c r="C264">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D264">
-        <v>0.85</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B265">
-        <v>182.41</v>
+        <v>190.39</v>
       </c>
       <c r="C265">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D265">
-        <v>1.08</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B266">
-        <v>182.93</v>
+        <v>190.21</v>
       </c>
       <c r="C266">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D266">
-        <v>1.36</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B267">
-        <v>192.26</v>
+        <v>190.31</v>
       </c>
       <c r="C267">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D267">
-        <v>6.54</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B268">
-        <v>183.97</v>
+        <v>189.79</v>
       </c>
       <c r="C268">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D268">
-        <v>1.94</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B269">
-        <v>181.81</v>
+        <v>189.51</v>
       </c>
       <c r="C269">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D269">
-        <v>0.75</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B270">
-        <v>180.18</v>
+        <v>189.98</v>
       </c>
       <c r="C270">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D270">
-        <v>-0.16</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B271">
-        <v>179.3</v>
+        <v>200.62</v>
       </c>
       <c r="C271">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D271">
-        <v>-0.64</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B272">
-        <v>179.68</v>
+        <v>243.02</v>
       </c>
       <c r="C272">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D272">
-        <v>-0.44</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B273">
-        <v>180.04</v>
+        <v>212.07</v>
       </c>
       <c r="C273">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D273">
-        <v>-0.23</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B274">
-        <v>180.99</v>
+        <v>199.58</v>
       </c>
       <c r="C274">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D274">
-        <v>0.29</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B275">
-        <v>181.04</v>
+        <v>199.01</v>
       </c>
       <c r="C275">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D275">
-        <v>0.32</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B276">
-        <v>181.95</v>
+        <v>227.33</v>
       </c>
       <c r="C276">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D276">
-        <v>-0</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B277">
-        <v>190.02</v>
+        <v>205.73</v>
       </c>
       <c r="C277">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D277">
-        <v>4.44</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B278">
-        <v>189.89</v>
+        <v>199.47</v>
       </c>
       <c r="C278">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D278">
-        <v>4.36</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B279">
-        <v>185.86</v>
+        <v>197.33</v>
       </c>
       <c r="C279">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D279">
-        <v>2.15</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B280">
-        <v>191.54</v>
+        <v>196.05</v>
       </c>
       <c r="C280">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D280">
-        <v>5.27</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B281">
-        <v>199.04</v>
+        <v>195.09</v>
       </c>
       <c r="C281">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D281">
-        <v>9.390000000000001</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B282">
-        <v>193.44</v>
+        <v>194.75</v>
       </c>
       <c r="C282">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D282">
-        <v>6.31</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B283">
-        <v>187.38</v>
+        <v>194.12</v>
       </c>
       <c r="C283">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D283">
-        <v>2.98</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B284">
-        <v>191.06</v>
+        <v>193.64</v>
       </c>
       <c r="C284">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D284">
-        <v>5.01</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B285">
-        <v>200.84</v>
+        <v>192.79</v>
       </c>
       <c r="C285">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D285">
-        <v>10.38</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B286">
-        <v>204.15</v>
+        <v>192.14</v>
       </c>
       <c r="C286">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D286">
-        <v>12.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B287">
-        <v>193.82</v>
+        <v>192.29</v>
       </c>
       <c r="C287">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D287">
-        <v>6.52</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B288">
-        <v>191.11</v>
+        <v>192.57</v>
       </c>
       <c r="C288">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D288">
-        <v>5.04</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B289">
-        <v>190.29</v>
+        <v>194.71</v>
       </c>
       <c r="C289">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D289">
-        <v>4.58</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B290">
-        <v>189.9</v>
+        <v>184.57</v>
       </c>
       <c r="C290">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D290">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B291">
-        <v>190.34</v>
+        <v>158.19</v>
       </c>
       <c r="C291">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D291">
-        <v>4.61</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B292">
-        <v>190.33</v>
+        <v>158.22</v>
       </c>
       <c r="C292">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D292">
-        <v>4.61</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B293">
-        <v>190.44</v>
+        <v>158.54</v>
       </c>
       <c r="C293">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D293">
-        <v>4.66</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B294">
-        <v>190.43</v>
+        <v>157.51</v>
       </c>
       <c r="C294">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D294">
-        <v>4.66</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B295">
-        <v>190.39</v>
+        <v>156.79</v>
       </c>
       <c r="C295">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D295">
-        <v>4.64</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B296">
-        <v>190.21</v>
+        <v>156.77</v>
       </c>
       <c r="C296">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D296">
-        <v>4.54</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B297">
-        <v>190.31</v>
+        <v>156.56</v>
       </c>
       <c r="C297">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D297">
-        <v>4.6</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B298">
-        <v>189.79</v>
+        <v>156.77</v>
       </c>
       <c r="C298">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D298">
-        <v>4.31</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B299">
-        <v>189.51</v>
+        <v>156.24</v>
       </c>
       <c r="C299">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D299">
-        <v>4.15</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B300">
-        <v>189.98</v>
+        <v>155.64</v>
       </c>
       <c r="C300">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D300">
-        <v>4.41</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B301">
-        <v>200.62</v>
+        <v>155.1</v>
       </c>
       <c r="C301">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D301">
-        <v>10.26</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B302">
-        <v>243.02</v>
+        <v>156.3</v>
       </c>
       <c r="C302">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D302">
-        <v>33.56</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B303">
-        <v>212.07</v>
+        <v>156</v>
       </c>
       <c r="C303">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D303">
-        <v>16.56</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B304">
-        <v>199.58</v>
+        <v>156.52</v>
       </c>
       <c r="C304">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D304">
-        <v>9.69</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B305">
-        <v>199.01</v>
+        <v>159.27</v>
       </c>
       <c r="C305">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D305">
-        <v>9.380000000000001</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B306">
-        <v>227.33</v>
+        <v>158</v>
       </c>
       <c r="C306">
         <v>178.06</v>
       </c>
       <c r="D306">
-        <v>27.67</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B307">
-        <v>205.73</v>
+        <v>157</v>
       </c>
       <c r="C307">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D307">
-        <v>15.54</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B308">
-        <v>199.47</v>
+        <v>157</v>
       </c>
       <c r="C308">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D308">
-        <v>12.02</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B309">
-        <v>197.33</v>
+        <v>157</v>
       </c>
       <c r="C309">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D309">
-        <v>10.82</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B310">
-        <v>196.05</v>
+        <v>44047</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
       </c>
       <c r="C310">
-        <v>178.06</v>
-      </c>
-      <c r="D310">
-        <v>10.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B311">
-        <v>195.09</v>
+        <v>44048</v>
+      </c>
+      <c r="B311" t="s">
+        <v>4</v>
       </c>
       <c r="C311">
-        <v>178.06</v>
-      </c>
-      <c r="D311">
-        <v>9.57</v>
+        <v>174.89</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B312">
-        <v>194.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
       </c>
       <c r="C312">
-        <v>178.06</v>
-      </c>
-      <c r="D312">
-        <v>9.369999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B313">
-        <v>194.12</v>
+        <v>44050</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
       </c>
       <c r="C313">
-        <v>178.06</v>
-      </c>
-      <c r="D313">
-        <v>9.02</v>
+        <v>174.89</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B314">
-        <v>193.64</v>
+        <v>44051</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
       </c>
       <c r="C314">
-        <v>178.06</v>
-      </c>
-      <c r="D314">
-        <v>8.75</v>
+        <v>174.89</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B315">
-        <v>192.79</v>
+        <v>44052</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>178.06</v>
-      </c>
-      <c r="D315">
-        <v>8.27</v>
+        <v>174.89</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B316">
-        <v>192.14</v>
+        <v>44053</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
       </c>
       <c r="C316">
-        <v>178.06</v>
-      </c>
-      <c r="D316">
-        <v>7.9</v>
+        <v>174.89</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B317">
-        <v>192.29</v>
+        <v>44054</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
       </c>
       <c r="C317">
-        <v>178.06</v>
-      </c>
-      <c r="D317">
-        <v>7.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B318">
-        <v>192.57</v>
+        <v>44055</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
       </c>
       <c r="C318">
-        <v>178.06</v>
-      </c>
-      <c r="D318">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B319">
-        <v>194.71</v>
+        <v>44056</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
       </c>
       <c r="C319">
-        <v>178.06</v>
-      </c>
-      <c r="D319">
-        <v>9.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B320">
-        <v>184.57</v>
+        <v>44057</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
       </c>
       <c r="C320">
-        <v>178.06</v>
-      </c>
-      <c r="D320">
-        <v>3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B321">
-        <v>158.19</v>
+        <v>44058</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
       </c>
       <c r="C321">
-        <v>178.06</v>
-      </c>
-      <c r="D321">
-        <v>-11.16</v>
+        <v>174.89</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B322">
-        <v>158.22</v>
+        <v>44059</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
       </c>
       <c r="C322">
-        <v>178.06</v>
-      </c>
-      <c r="D322">
-        <v>-11.14</v>
+        <v>174.89</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B323">
-        <v>158.54</v>
+        <v>44060</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>178.06</v>
-      </c>
-      <c r="D323">
-        <v>-10.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B324">
-        <v>157.51</v>
+        <v>44061</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
       </c>
       <c r="C324">
-        <v>178.06</v>
-      </c>
-      <c r="D324">
-        <v>-11.54</v>
+        <v>174.89</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B325">
-        <v>156.79</v>
+        <v>44062</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
       </c>
       <c r="C325">
-        <v>178.06</v>
-      </c>
-      <c r="D325">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B326">
-        <v>156.77</v>
+        <v>44063</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
       </c>
       <c r="C326">
-        <v>178.06</v>
-      </c>
-      <c r="D326">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B327">
-        <v>156.56</v>
+        <v>44064</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>178.06</v>
-      </c>
-      <c r="D327">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B328">
-        <v>156.77</v>
+        <v>44065</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
       </c>
       <c r="C328">
-        <v>178.06</v>
-      </c>
-      <c r="D328">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B329">
-        <v>156.24</v>
+        <v>44066</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
       </c>
       <c r="C329">
-        <v>178.06</v>
-      </c>
-      <c r="D329">
-        <v>-12.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B330">
-        <v>155.64</v>
+        <v>44067</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
       </c>
       <c r="C330">
-        <v>178.06</v>
-      </c>
-      <c r="D330">
-        <v>-12.59</v>
+        <v>174.89</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B331">
-        <v>155.1</v>
+        <v>44068</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
       </c>
       <c r="C331">
-        <v>178.06</v>
-      </c>
-      <c r="D331">
-        <v>-12.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B332">
-        <v>156.3</v>
+        <v>44069</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>178.06</v>
-      </c>
-      <c r="D332">
-        <v>-12.22</v>
+        <v>174.89</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44040</v>
-      </c>
-      <c r="B333">
-        <v>156</v>
+        <v>44070</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
       </c>
       <c r="C333">
-        <v>178.06</v>
-      </c>
-      <c r="D333">
-        <v>-12.39</v>
+        <v>174.89</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B334">
-        <v>156.52</v>
+        <v>163.64</v>
       </c>
       <c r="C334">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D334">
-        <v>-12.1</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B335">
-        <v>159.27</v>
+        <v>163.91</v>
       </c>
       <c r="C335">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D335">
-        <v>-10.55</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B336">
-        <v>158</v>
+        <v>163.57</v>
       </c>
       <c r="C336">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D336">
-        <v>-11.27</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B337">
-        <v>157</v>
+        <v>163.44</v>
       </c>
       <c r="C337">
         <v>174.89</v>
       </c>
       <c r="D337">
-        <v>-10.23</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B338">
-        <v>157</v>
+        <v>163.22</v>
       </c>
       <c r="C338">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D338">
-        <v>-10.23</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B339">
-        <v>157</v>
+        <v>163.31</v>
       </c>
       <c r="C339">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D339">
-        <v>-10.23</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B340" t="s">
-        <v>4</v>
+        <v>44077</v>
+      </c>
+      <c r="B340">
+        <v>163.8</v>
       </c>
       <c r="C340">
-        <v>174.89</v>
-      </c>
-      <c r="D340" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D340">
+        <v>-7.44</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B341" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B341">
+        <v>165.49</v>
       </c>
       <c r="C341">
-        <v>174.89</v>
-      </c>
-      <c r="D341" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D341">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B342" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B342">
+        <v>166.85</v>
       </c>
       <c r="C342">
-        <v>174.89</v>
-      </c>
-      <c r="D342" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D342">
+        <v>-5.72</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B343" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B343">
+        <v>166.58</v>
       </c>
       <c r="C343">
-        <v>174.89</v>
-      </c>
-      <c r="D343" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D343">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B344" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B344">
+        <v>165.9</v>
       </c>
       <c r="C344">
-        <v>174.89</v>
-      </c>
-      <c r="D344" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D344">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B345" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B345">
+        <v>165.68</v>
       </c>
       <c r="C345">
-        <v>174.89</v>
-      </c>
-      <c r="D345" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D345">
+        <v>-6.38</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B346" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B346">
+        <v>165.5</v>
       </c>
       <c r="C346">
-        <v>174.89</v>
-      </c>
-      <c r="D346" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D346">
+        <v>-6.48</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B347" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B347">
+        <v>165.97</v>
       </c>
       <c r="C347">
-        <v>174.89</v>
-      </c>
-      <c r="D347" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D347">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B348" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B348">
+        <v>165.58</v>
       </c>
       <c r="C348">
-        <v>174.89</v>
-      </c>
-      <c r="D348" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D348">
+        <v>-6.44</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B349" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B349">
+        <v>165.33</v>
       </c>
       <c r="C349">
-        <v>174.89</v>
-      </c>
-      <c r="D349" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D349">
+        <v>-6.58</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B350" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B350">
+        <v>167.94</v>
       </c>
       <c r="C350">
-        <v>174.89</v>
-      </c>
-      <c r="D350" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D350">
+        <v>-5.11</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B351" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B351">
+        <v>168.38</v>
       </c>
       <c r="C351">
-        <v>174.89</v>
-      </c>
-      <c r="D351" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D351">
+        <v>-4.86</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B352" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B352">
+        <v>167.68</v>
       </c>
       <c r="C352">
-        <v>174.89</v>
-      </c>
-      <c r="D352" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D352">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B353" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B353">
+        <v>167.68</v>
       </c>
       <c r="C353">
-        <v>174.89</v>
-      </c>
-      <c r="D353" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D353">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B354" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B354">
+        <v>168.85</v>
       </c>
       <c r="C354">
-        <v>174.89</v>
-      </c>
-      <c r="D354" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D354">
+        <v>-4.59</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B355" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B355">
+        <v>168.47</v>
       </c>
       <c r="C355">
-        <v>174.89</v>
-      </c>
-      <c r="D355" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D355">
+        <v>-4.81</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B356" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B356">
+        <v>168.24</v>
       </c>
       <c r="C356">
-        <v>174.89</v>
-      </c>
-      <c r="D356" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D356">
+        <v>-4.94</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B357" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B357">
+        <v>167.42</v>
       </c>
       <c r="C357">
-        <v>174.89</v>
-      </c>
-      <c r="D357" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D357">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B358" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B358">
+        <v>167.1</v>
       </c>
       <c r="C358">
-        <v>174.89</v>
-      </c>
-      <c r="D358" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D358">
+        <v>-5.58</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B359" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B359">
+        <v>167.35</v>
       </c>
       <c r="C359">
-        <v>174.89</v>
-      </c>
-      <c r="D359" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D359">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B360" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B360">
+        <v>167.81</v>
       </c>
       <c r="C360">
-        <v>174.89</v>
-      </c>
-      <c r="D360" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D360">
+        <v>-5.18</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B361" t="s">
-        <v>4</v>
+        <v>44098</v>
+      </c>
+      <c r="B361">
+        <v>168.55</v>
       </c>
       <c r="C361">
-        <v>174.89</v>
-      </c>
-      <c r="D361" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D361">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B362" t="s">
-        <v>4</v>
+        <v>44099</v>
+      </c>
+      <c r="B362">
+        <v>168.34</v>
       </c>
       <c r="C362">
-        <v>174.89</v>
-      </c>
-      <c r="D362" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D362">
+        <v>-4.88</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44070</v>
-      </c>
-      <c r="B363" t="s">
-        <v>4</v>
+        <v>44100</v>
+      </c>
+      <c r="B363">
+        <v>167.75</v>
       </c>
       <c r="C363">
-        <v>174.89</v>
-      </c>
-      <c r="D363" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D363">
+        <v>-5.21</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B364">
-        <v>163.64</v>
+        <v>167.59</v>
       </c>
       <c r="C364">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D364">
-        <v>-6.43</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B365">
-        <v>163.91</v>
+        <v>167.8</v>
       </c>
       <c r="C365">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D365">
-        <v>-6.28</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B366">
-        <v>163.57</v>
+        <v>169.27</v>
       </c>
       <c r="C366">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D366">
-        <v>-6.47</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B367">
-        <v>163.44</v>
+        <v>169.25</v>
       </c>
       <c r="C367">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D367">
-        <v>-6.55</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B368">
-        <v>163.22</v>
-      </c>
-      <c r="C368">
-        <v>176.98</v>
-      </c>
-      <c r="D368">
-        <v>-7.77</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44076</v>
-      </c>
-      <c r="B369">
-        <v>163.31</v>
-      </c>
-      <c r="C369">
-        <v>176.98</v>
-      </c>
-      <c r="D369">
-        <v>-7.72</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44077</v>
-      </c>
-      <c r="B370">
-        <v>163.8</v>
-      </c>
-      <c r="C370">
-        <v>176.98</v>
-      </c>
-      <c r="D370">
-        <v>-7.44</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44078</v>
-      </c>
-      <c r="B371">
-        <v>165.49</v>
-      </c>
-      <c r="C371">
-        <v>176.98</v>
-      </c>
-      <c r="D371">
-        <v>-6.49</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44079</v>
-      </c>
-      <c r="B372">
-        <v>166.85</v>
-      </c>
-      <c r="C372">
-        <v>176.98</v>
-      </c>
-      <c r="D372">
-        <v>-5.72</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44080</v>
-      </c>
-      <c r="B373">
-        <v>166.58</v>
-      </c>
-      <c r="C373">
-        <v>176.98</v>
-      </c>
-      <c r="D373">
-        <v>-5.87</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44081</v>
-      </c>
-      <c r="B374">
-        <v>165.9</v>
-      </c>
-      <c r="C374">
-        <v>176.98</v>
-      </c>
-      <c r="D374">
-        <v>-6.26</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44082</v>
-      </c>
-      <c r="B375">
-        <v>165.68</v>
-      </c>
-      <c r="C375">
-        <v>176.98</v>
-      </c>
-      <c r="D375">
-        <v>-6.38</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44083</v>
-      </c>
-      <c r="B376">
-        <v>165.5</v>
-      </c>
-      <c r="C376">
-        <v>176.98</v>
-      </c>
-      <c r="D376">
-        <v>-6.48</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44084</v>
-      </c>
-      <c r="B377">
-        <v>165.97</v>
-      </c>
-      <c r="C377">
-        <v>176.98</v>
-      </c>
-      <c r="D377">
-        <v>-6.22</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B378">
-        <v>165.58</v>
-      </c>
-      <c r="C378">
-        <v>176.98</v>
-      </c>
-      <c r="D378">
-        <v>-6.44</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B379">
-        <v>165.33</v>
-      </c>
-      <c r="C379">
-        <v>176.98</v>
-      </c>
-      <c r="D379">
-        <v>-6.58</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B380">
-        <v>167.94</v>
-      </c>
-      <c r="C380">
-        <v>176.98</v>
-      </c>
-      <c r="D380">
-        <v>-5.11</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44088</v>
-      </c>
-      <c r="B381">
-        <v>168.38</v>
-      </c>
-      <c r="C381">
-        <v>176.98</v>
-      </c>
-      <c r="D381">
-        <v>-4.86</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B382">
-        <v>167.68</v>
-      </c>
-      <c r="C382">
-        <v>176.98</v>
-      </c>
-      <c r="D382">
-        <v>-5.25</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44090</v>
-      </c>
-      <c r="B383">
-        <v>167.68</v>
-      </c>
-      <c r="C383">
-        <v>176.98</v>
-      </c>
-      <c r="D383">
-        <v>-5.25</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44091</v>
-      </c>
-      <c r="B384">
-        <v>168.85</v>
-      </c>
-      <c r="C384">
-        <v>176.98</v>
-      </c>
-      <c r="D384">
-        <v>-4.59</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44092</v>
-      </c>
-      <c r="B385">
-        <v>168.47</v>
-      </c>
-      <c r="C385">
-        <v>176.98</v>
-      </c>
-      <c r="D385">
-        <v>-4.81</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44093</v>
-      </c>
-      <c r="B386">
-        <v>168.24</v>
-      </c>
-      <c r="C386">
-        <v>176.98</v>
-      </c>
-      <c r="D386">
-        <v>-4.94</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44094</v>
-      </c>
-      <c r="B387">
-        <v>167.42</v>
-      </c>
-      <c r="C387">
-        <v>176.98</v>
-      </c>
-      <c r="D387">
-        <v>-5.4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B388">
-        <v>167.1</v>
-      </c>
-      <c r="C388">
-        <v>176.98</v>
-      </c>
-      <c r="D388">
-        <v>-5.58</v>
+        <v>-4.37</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-5.66</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B14">
+        <v>169.52</v>
+      </c>
+      <c r="C14">
+        <v>180.02</v>
+      </c>
+      <c r="D14">
+        <v>-5.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,146 @@
         <v>-4.37</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B368">
+        <v>168.84</v>
+      </c>
+      <c r="C368">
+        <v>180.02</v>
+      </c>
+      <c r="D368">
+        <v>-6.21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B369">
+        <v>168.04</v>
+      </c>
+      <c r="C369">
+        <v>180.02</v>
+      </c>
+      <c r="D369">
+        <v>-6.65</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B370">
+        <v>167.57</v>
+      </c>
+      <c r="C370">
+        <v>180.02</v>
+      </c>
+      <c r="D370">
+        <v>-6.91</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B371">
+        <v>166.82</v>
+      </c>
+      <c r="C371">
+        <v>180.02</v>
+      </c>
+      <c r="D371">
+        <v>-7.33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B372">
+        <v>167.06</v>
+      </c>
+      <c r="C372">
+        <v>180.02</v>
+      </c>
+      <c r="D372">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B373">
+        <v>167.32</v>
+      </c>
+      <c r="C373">
+        <v>180.02</v>
+      </c>
+      <c r="D373">
+        <v>-7.05</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B374">
+        <v>167.31</v>
+      </c>
+      <c r="C374">
+        <v>180.02</v>
+      </c>
+      <c r="D374">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B375">
+        <v>169.44</v>
+      </c>
+      <c r="C375">
+        <v>180.02</v>
+      </c>
+      <c r="D375">
+        <v>-5.88</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B376">
+        <v>175.8</v>
+      </c>
+      <c r="C376">
+        <v>180.02</v>
+      </c>
+      <c r="D376">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B377">
+        <v>176.98</v>
+      </c>
+      <c r="C377">
+        <v>180.02</v>
+      </c>
+      <c r="D377">
+        <v>-1.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="B14">
-        <v>169.52</v>
+        <v>169.36</v>
       </c>
       <c r="C14">
         <v>180.02</v>
       </c>
       <c r="D14">
-        <v>-5.83</v>
+        <v>-5.92</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D377"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5896,6 +5896,146 @@
         <v>-1.69</v>
       </c>
     </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B378">
+        <v>168.89</v>
+      </c>
+      <c r="C378">
+        <v>180.02</v>
+      </c>
+      <c r="D378">
+        <v>-6.19</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B379">
+        <v>168.22</v>
+      </c>
+      <c r="C379">
+        <v>180.02</v>
+      </c>
+      <c r="D379">
+        <v>-6.56</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B380">
+        <v>168.83</v>
+      </c>
+      <c r="C380">
+        <v>180.02</v>
+      </c>
+      <c r="D380">
+        <v>-6.21</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B381">
+        <v>169.74</v>
+      </c>
+      <c r="C381">
+        <v>180.02</v>
+      </c>
+      <c r="D381">
+        <v>-5.71</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B382">
+        <v>169.85</v>
+      </c>
+      <c r="C382">
+        <v>180.02</v>
+      </c>
+      <c r="D382">
+        <v>-5.65</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B383">
+        <v>169.45</v>
+      </c>
+      <c r="C383">
+        <v>180.02</v>
+      </c>
+      <c r="D383">
+        <v>-5.87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B384">
+        <v>167.78</v>
+      </c>
+      <c r="C384">
+        <v>180.02</v>
+      </c>
+      <c r="D384">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B385">
+        <v>167.82</v>
+      </c>
+      <c r="C385">
+        <v>180.02</v>
+      </c>
+      <c r="D385">
+        <v>-6.78</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B386">
+        <v>169.9</v>
+      </c>
+      <c r="C386">
+        <v>180.02</v>
+      </c>
+      <c r="D386">
+        <v>-5.62</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B387">
+        <v>171.45</v>
+      </c>
+      <c r="C387">
+        <v>180.02</v>
+      </c>
+      <c r="D387">
+        <v>-4.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44124</v>
+        <v>44129</v>
       </c>
       <c r="B14">
-        <v>169.36</v>
+        <v>170.55</v>
       </c>
       <c r="C14">
         <v>180.02</v>
       </c>
       <c r="D14">
-        <v>-5.92</v>
+        <v>-5.26</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6036,6 +6036,76 @@
         <v>-4.76</v>
       </c>
     </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B388">
+        <v>192.56</v>
+      </c>
+      <c r="C388">
+        <v>180.02</v>
+      </c>
+      <c r="D388">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B389">
+        <v>171.27</v>
+      </c>
+      <c r="C389">
+        <v>180.02</v>
+      </c>
+      <c r="D389">
+        <v>-4.86</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B390">
+        <v>169.78</v>
+      </c>
+      <c r="C390">
+        <v>180.02</v>
+      </c>
+      <c r="D390">
+        <v>-5.69</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B391">
+        <v>170.33</v>
+      </c>
+      <c r="C391">
+        <v>180.02</v>
+      </c>
+      <c r="D391">
+        <v>-5.38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B392">
+        <v>172.71</v>
+      </c>
+      <c r="C392">
+        <v>180.02</v>
+      </c>
+      <c r="D392">
+        <v>-4.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B2">
-        <v>169.23</v>
+        <v>172.61</v>
       </c>
       <c r="C2">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D2">
-        <v>-5.99</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B3">
-        <v>172.61</v>
+        <v>167.01</v>
       </c>
       <c r="C3">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D3">
-        <v>-3.75</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B4">
-        <v>167.01</v>
+        <v>169.28</v>
       </c>
       <c r="C4">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D4">
-        <v>-8.09</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B5">
-        <v>169.28</v>
+        <v>177.33</v>
       </c>
       <c r="C5">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D5">
-        <v>-9.890000000000001</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B6">
-        <v>177.33</v>
+        <v>176.84</v>
       </c>
       <c r="C6">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D6">
-        <v>-2.81</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B7">
-        <v>176.84</v>
+        <v>173.53</v>
       </c>
       <c r="C7">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D7">
-        <v>-3.74</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B8">
-        <v>173.53</v>
+        <v>180.98</v>
       </c>
       <c r="C8">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D8">
-        <v>-2.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>180.98</v>
+        <v>194.54</v>
       </c>
       <c r="C9">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D9">
-        <v>0.28</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B10">
-        <v>194.54</v>
+        <v>176.29</v>
       </c>
       <c r="C10">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D10">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B11">
-        <v>176.29</v>
+        <v>160.79</v>
       </c>
       <c r="C11">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D11">
-        <v>-0.99</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>160.79</v>
+        <v>166.96</v>
       </c>
       <c r="C12">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D12">
-        <v>-8.06</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B13">
-        <v>166.96</v>
+        <v>171.83</v>
       </c>
       <c r="C13">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D13">
-        <v>-5.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B14">
-        <v>170.55</v>
-      </c>
-      <c r="C14">
-        <v>180.02</v>
-      </c>
-      <c r="D14">
-        <v>-5.26</v>
+        <v>-4.55</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5476 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B2">
-        <v>168.89</v>
+        <v>168.74</v>
       </c>
       <c r="C2">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D2">
-        <v>-6.19</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B3">
-        <v>169.34</v>
+        <v>168.6</v>
       </c>
       <c r="C3">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D3">
-        <v>-5.93</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B4">
-        <v>169.24</v>
+        <v>169.66</v>
       </c>
       <c r="C4">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D4">
-        <v>-5.99</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B5">
-        <v>168.6</v>
+        <v>170.55</v>
       </c>
       <c r="C5">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D5">
-        <v>-6.34</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B6">
-        <v>169.11</v>
+        <v>172.64</v>
       </c>
       <c r="C6">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D6">
-        <v>-6.06</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B7">
-        <v>168.99</v>
+        <v>175.52</v>
       </c>
       <c r="C7">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D7">
-        <v>-6.13</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B8">
-        <v>170.81</v>
+        <v>169.94</v>
       </c>
       <c r="C8">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D8">
-        <v>-5.12</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B9">
-        <v>170.92</v>
+        <v>169.71</v>
       </c>
       <c r="C9">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D9">
-        <v>-5.06</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B10">
-        <v>169.34</v>
+        <v>169.84</v>
       </c>
       <c r="C10">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D10">
-        <v>-5.93</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B11">
-        <v>169</v>
+        <v>177.83</v>
       </c>
       <c r="C11">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D11">
-        <v>-6.12</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B12">
-        <v>168.6</v>
+        <v>177.83</v>
       </c>
       <c r="C12">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D12">
-        <v>-6.34</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B13">
-        <v>168.57</v>
+        <v>173.33</v>
       </c>
       <c r="C13">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D13">
-        <v>-6.36</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B14">
-        <v>168.53</v>
+        <v>170.06</v>
       </c>
       <c r="C14">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D14">
-        <v>-6.38</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B15">
-        <v>168.68</v>
+        <v>190.94</v>
       </c>
       <c r="C15">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D15">
-        <v>-6.3</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B16">
-        <v>170.97</v>
+        <v>176.88</v>
       </c>
       <c r="C16">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D16">
-        <v>-5.03</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B17">
-        <v>169</v>
+        <v>171.7</v>
       </c>
       <c r="C17">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D17">
-        <v>-6.12</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B18">
-        <v>169</v>
+        <v>170.43</v>
       </c>
       <c r="C18">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D18">
-        <v>-6.12</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B19">
-        <v>168.89</v>
+        <v>169.77</v>
       </c>
       <c r="C19">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D19">
-        <v>-6.19</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B20">
-        <v>169.07</v>
+        <v>169.54</v>
       </c>
       <c r="C20">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D20">
-        <v>-6.08</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B21">
-        <v>168.27</v>
+        <v>169.76</v>
       </c>
       <c r="C21">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D21">
-        <v>-6.53</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B22">
-        <v>169.36</v>
+        <v>169.66</v>
       </c>
       <c r="C22">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D22">
-        <v>-5.92</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B23">
-        <v>171.44</v>
+        <v>169.74</v>
       </c>
       <c r="C23">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D23">
-        <v>-4.77</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B24">
-        <v>169</v>
+        <v>169.57</v>
       </c>
       <c r="C24">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D24">
-        <v>-6.12</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B25">
-        <v>168.85</v>
+        <v>171.81</v>
       </c>
       <c r="C25">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D25">
-        <v>-6.2</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B26">
-        <v>168.32</v>
+        <v>169.9</v>
       </c>
       <c r="C26">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D26">
-        <v>-6.5</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B27">
-        <v>168.27</v>
+        <v>169.24</v>
       </c>
       <c r="C27">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D27">
-        <v>-6.53</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B28">
-        <v>168.54</v>
+        <v>181.16</v>
       </c>
       <c r="C28">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D28">
-        <v>-6.38</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B29">
-        <v>170.46</v>
+        <v>181.43</v>
       </c>
       <c r="C29">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D29">
-        <v>-5.31</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B30">
-        <v>170.15</v>
+        <v>172.09</v>
       </c>
       <c r="C30">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D30">
-        <v>-5.49</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B31">
-        <v>168.94</v>
+        <v>170.55</v>
       </c>
       <c r="C31">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D31">
-        <v>-6.16</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B32">
-        <v>169.01</v>
+        <v>170.6</v>
       </c>
       <c r="C32">
-        <v>180.02</v>
+        <v>181.71</v>
       </c>
       <c r="D32">
-        <v>-6.12</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B33">
-        <v>168.74</v>
+        <v>170.41</v>
       </c>
       <c r="C33">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D33">
-        <v>-5.91</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B34">
-        <v>168.6</v>
+        <v>167.47</v>
       </c>
       <c r="C34">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D34">
-        <v>-5.99</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B35">
-        <v>169.66</v>
+        <v>163</v>
       </c>
       <c r="C35">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D35">
-        <v>-5.4</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B36">
-        <v>170.55</v>
+        <v>166.24</v>
       </c>
       <c r="C36">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D36">
-        <v>-4.9</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B37">
-        <v>172.64</v>
+        <v>172.11</v>
       </c>
       <c r="C37">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D37">
-        <v>-3.74</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B38">
-        <v>175.52</v>
+        <v>166.21</v>
       </c>
       <c r="C38">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D38">
-        <v>-2.13</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B39">
-        <v>169.94</v>
+        <v>164.34</v>
       </c>
       <c r="C39">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D39">
-        <v>-5.24</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B40">
-        <v>169.71</v>
+        <v>164.2</v>
       </c>
       <c r="C40">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D40">
-        <v>-5.37</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B41">
-        <v>169.84</v>
+        <v>164.6</v>
       </c>
       <c r="C41">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D41">
-        <v>-5.3</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B42">
-        <v>177.83</v>
+        <v>165</v>
       </c>
       <c r="C42">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D42">
-        <v>-0.84</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B43">
-        <v>177.83</v>
+        <v>165.1</v>
       </c>
       <c r="C43">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D43">
-        <v>-0.84</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B44">
-        <v>173.33</v>
+        <v>164.36</v>
       </c>
       <c r="C44">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D44">
-        <v>-3.35</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B45">
-        <v>170.06</v>
+        <v>163.99</v>
       </c>
       <c r="C45">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D45">
-        <v>-5.17</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B46">
-        <v>190.94</v>
+        <v>164.51</v>
       </c>
       <c r="C46">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D46">
-        <v>6.47</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B47">
-        <v>176.88</v>
+        <v>169.16</v>
       </c>
       <c r="C47">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D47">
-        <v>-1.38</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B48">
-        <v>171.7</v>
+        <v>174.94</v>
       </c>
       <c r="C48">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D48">
-        <v>-4.26</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B49">
-        <v>170.43</v>
+        <v>173.45</v>
       </c>
       <c r="C49">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D49">
-        <v>-4.97</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43787</v>
+        <v>43818</v>
       </c>
       <c r="B50">
-        <v>169.77</v>
+        <v>169.71</v>
       </c>
       <c r="C50">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D50">
-        <v>-5.34</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43788</v>
+        <v>43819</v>
       </c>
       <c r="B51">
-        <v>169.54</v>
+        <v>167.21</v>
       </c>
       <c r="C51">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D51">
-        <v>-5.46</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B52">
-        <v>169.76</v>
+        <v>188.1</v>
       </c>
       <c r="C52">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D52">
-        <v>-5.34</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B53">
-        <v>169.66</v>
+        <v>167.72</v>
       </c>
       <c r="C53">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D53">
-        <v>-5.4</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43791</v>
+        <v>43822</v>
       </c>
       <c r="B54">
-        <v>169.74</v>
+        <v>164.7</v>
       </c>
       <c r="C54">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D54">
-        <v>-5.35</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43792</v>
+        <v>43823</v>
       </c>
       <c r="B55">
-        <v>169.57</v>
+        <v>164.61</v>
       </c>
       <c r="C55">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D55">
-        <v>-5.45</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B56">
-        <v>171.81</v>
+        <v>164.38</v>
       </c>
       <c r="C56">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D56">
-        <v>-4.2</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43794</v>
+        <v>43825</v>
       </c>
       <c r="B57">
-        <v>169.9</v>
+        <v>164.08</v>
       </c>
       <c r="C57">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D57">
-        <v>-5.27</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43795</v>
+        <v>43826</v>
       </c>
       <c r="B58">
-        <v>169.24</v>
+        <v>163.36</v>
       </c>
       <c r="C58">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D58">
-        <v>-5.63</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43796</v>
+        <v>43827</v>
       </c>
       <c r="B59">
-        <v>181.16</v>
+        <v>163.55</v>
       </c>
       <c r="C59">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D59">
-        <v>1.01</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43797</v>
+        <v>43828</v>
       </c>
       <c r="B60">
-        <v>181.43</v>
+        <v>163.5</v>
       </c>
       <c r="C60">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D60">
-        <v>1.16</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B61">
-        <v>172.09</v>
+        <v>163.32</v>
       </c>
       <c r="C61">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D61">
-        <v>-4.04</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B62">
-        <v>170.55</v>
+        <v>163.46</v>
       </c>
       <c r="C62">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D62">
-        <v>-4.9</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B63">
-        <v>170.6</v>
+        <v>163.45</v>
       </c>
       <c r="C63">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D63">
-        <v>-6.11</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B64">
-        <v>170.41</v>
+        <v>183.35</v>
       </c>
       <c r="C64">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D64">
-        <v>-6.22</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B65">
-        <v>167.47</v>
+        <v>175.52</v>
       </c>
       <c r="C65">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D65">
-        <v>-7.84</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B66">
-        <v>163</v>
+        <v>173.74</v>
       </c>
       <c r="C66">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D66">
-        <v>-10.3</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B67">
-        <v>166.24</v>
+        <v>181.57</v>
       </c>
       <c r="C67">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D67">
-        <v>-8.51</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B68">
-        <v>172.11</v>
+        <v>167.6</v>
       </c>
       <c r="C68">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D68">
-        <v>-5.28</v>
+        <v>-10.78</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B69">
-        <v>166.21</v>
+        <v>166.05</v>
       </c>
       <c r="C69">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D69">
-        <v>-8.529999999999999</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B70">
-        <v>164.34</v>
+        <v>166.36</v>
       </c>
       <c r="C70">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D70">
-        <v>-9.56</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B71">
-        <v>164.2</v>
+        <v>166.81</v>
       </c>
       <c r="C71">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D71">
-        <v>-9.640000000000001</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B72">
-        <v>164.6</v>
+        <v>175.46</v>
       </c>
       <c r="C72">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D72">
-        <v>-9.41</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B73">
-        <v>165</v>
+        <v>169.85</v>
       </c>
       <c r="C73">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D73">
-        <v>-9.199999999999999</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B74">
-        <v>165.1</v>
+        <v>171.53</v>
       </c>
       <c r="C74">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D74">
-        <v>-9.140000000000001</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B75">
-        <v>164.36</v>
+        <v>169.51</v>
       </c>
       <c r="C75">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D75">
-        <v>-9.550000000000001</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B76">
-        <v>163.99</v>
+        <v>166.66</v>
       </c>
       <c r="C76">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D76">
-        <v>-9.75</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B77">
-        <v>164.51</v>
+        <v>166.09</v>
       </c>
       <c r="C77">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D77">
-        <v>-9.470000000000001</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B78">
-        <v>169.16</v>
+        <v>166.94</v>
       </c>
       <c r="C78">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D78">
-        <v>-6.91</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B79">
-        <v>174.94</v>
+        <v>170.33</v>
       </c>
       <c r="C79">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D79">
-        <v>-3.73</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B80">
-        <v>173.45</v>
+        <v>167.12</v>
       </c>
       <c r="C80">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D80">
-        <v>-4.55</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B81">
-        <v>169.71</v>
+        <v>166.74</v>
       </c>
       <c r="C81">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D81">
-        <v>-6.61</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B82">
-        <v>167.21</v>
+        <v>166.82</v>
       </c>
       <c r="C82">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D82">
-        <v>-7.98</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B83">
-        <v>188.1</v>
+        <v>166.5</v>
       </c>
       <c r="C83">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D83">
-        <v>3.52</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B84">
-        <v>167.72</v>
+        <v>166</v>
       </c>
       <c r="C84">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D84">
-        <v>-7.7</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B85">
-        <v>164.7</v>
+        <v>166.55</v>
       </c>
       <c r="C85">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D85">
-        <v>-9.359999999999999</v>
+        <v>-11.34</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B86">
-        <v>164.61</v>
+        <v>167.1</v>
       </c>
       <c r="C86">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D86">
-        <v>-9.41</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B87">
-        <v>164.38</v>
+        <v>166.36</v>
       </c>
       <c r="C87">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D87">
-        <v>-9.539999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B88">
-        <v>164.08</v>
+        <v>166.38</v>
       </c>
       <c r="C88">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D88">
-        <v>-9.699999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B89">
-        <v>163.36</v>
+        <v>166.5</v>
       </c>
       <c r="C89">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D89">
-        <v>-10.1</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B90">
-        <v>163.55</v>
+        <v>168.21</v>
       </c>
       <c r="C90">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D90">
-        <v>-9.99</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B91">
-        <v>163.5</v>
+        <v>168.44</v>
       </c>
       <c r="C91">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D91">
-        <v>-10.02</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B92">
-        <v>163.32</v>
+        <v>170.26</v>
       </c>
       <c r="C92">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D92">
-        <v>-10.12</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B93">
-        <v>163.46</v>
+        <v>173.73</v>
       </c>
       <c r="C93">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D93">
-        <v>-10.04</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B94">
-        <v>163.45</v>
+        <v>172.53</v>
       </c>
       <c r="C94">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D94">
-        <v>-12.99</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B95">
-        <v>183.35</v>
+        <v>170.89</v>
       </c>
       <c r="C95">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D95">
-        <v>-2.4</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B96">
-        <v>175.52</v>
+        <v>172.28</v>
       </c>
       <c r="C96">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D96">
-        <v>-6.57</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B97">
-        <v>173.74</v>
+        <v>171.57</v>
       </c>
       <c r="C97">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D97">
-        <v>-7.52</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B98">
-        <v>181.57</v>
+        <v>171.47</v>
       </c>
       <c r="C98">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D98">
-        <v>-3.35</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B99">
-        <v>167.6</v>
+        <v>180.74</v>
       </c>
       <c r="C99">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D99">
-        <v>-10.78</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B100">
-        <v>166.05</v>
+        <v>185.08</v>
       </c>
       <c r="C100">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D100">
-        <v>-11.61</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B101">
-        <v>166.36</v>
+        <v>177.7</v>
       </c>
       <c r="C101">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D101">
-        <v>-11.44</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B102">
-        <v>166.81</v>
+        <v>174.41</v>
       </c>
       <c r="C102">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D102">
-        <v>-11.2</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B103">
-        <v>175.46</v>
+        <v>195.2</v>
       </c>
       <c r="C103">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D103">
-        <v>-6.6</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B104">
-        <v>169.85</v>
+        <v>178.53</v>
       </c>
       <c r="C104">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D104">
-        <v>-9.58</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B105">
-        <v>171.53</v>
+        <v>174.52</v>
       </c>
       <c r="C105">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D105">
-        <v>-8.69</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B106">
-        <v>169.51</v>
+        <v>173.31</v>
       </c>
       <c r="C106">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D106">
-        <v>-9.77</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B107">
-        <v>166.66</v>
+        <v>173.48</v>
       </c>
       <c r="C107">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D107">
-        <v>-11.29</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B108">
-        <v>166.09</v>
+        <v>173.28</v>
       </c>
       <c r="C108">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D108">
-        <v>-11.59</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B109">
-        <v>166.94</v>
+        <v>173.41</v>
       </c>
       <c r="C109">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D109">
-        <v>-11.14</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B110">
-        <v>170.33</v>
+        <v>173.76</v>
       </c>
       <c r="C110">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D110">
-        <v>-9.33</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B111">
-        <v>167.12</v>
+        <v>174.28</v>
       </c>
       <c r="C111">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D111">
-        <v>-11.04</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B112">
-        <v>166.74</v>
+        <v>175.51</v>
       </c>
       <c r="C112">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D112">
-        <v>-11.24</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B113">
-        <v>166.82</v>
+        <v>176.18</v>
       </c>
       <c r="C113">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D113">
-        <v>-11.2</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B114">
-        <v>166.5</v>
+        <v>175.24</v>
       </c>
       <c r="C114">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D114">
-        <v>-11.37</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B115">
-        <v>166</v>
+        <v>177.08</v>
       </c>
       <c r="C115">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D115">
-        <v>-11.64</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B116">
-        <v>166.55</v>
+        <v>175.4</v>
       </c>
       <c r="C116">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D116">
-        <v>-11.34</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B117">
-        <v>167.1</v>
+        <v>175.7</v>
       </c>
       <c r="C117">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D117">
-        <v>-11.05</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B118">
-        <v>166.36</v>
+        <v>177.28</v>
       </c>
       <c r="C118">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D118">
-        <v>-11.44</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B119">
-        <v>166.38</v>
+        <v>189.77</v>
       </c>
       <c r="C119">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D119">
-        <v>-11.44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B120">
-        <v>166.5</v>
+        <v>192.17</v>
       </c>
       <c r="C120">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D120">
-        <v>-11.37</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>168.21</v>
+        <v>181</v>
       </c>
       <c r="C121">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D121">
-        <v>-10.46</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B122">
-        <v>168.44</v>
+        <v>180.89</v>
       </c>
       <c r="C122">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D122">
-        <v>-10.34</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>170.26</v>
+        <v>182.48</v>
       </c>
       <c r="C123">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D123">
-        <v>-9.369999999999999</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>173.73</v>
+        <v>184.88</v>
       </c>
       <c r="C124">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D124">
-        <v>-7.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B125">
-        <v>172.53</v>
+        <v>185.24</v>
       </c>
       <c r="C125">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D125">
-        <v>-5.44</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B126">
-        <v>170.89</v>
+        <v>185.14</v>
       </c>
       <c r="C126">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D126">
-        <v>-6.35</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B127">
-        <v>172.28</v>
+        <v>185.64</v>
       </c>
       <c r="C127">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D127">
-        <v>-5.58</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B128">
-        <v>171.57</v>
+        <v>184.94</v>
       </c>
       <c r="C128">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D128">
-        <v>-5.97</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B129">
-        <v>171.47</v>
+        <v>183.45</v>
       </c>
       <c r="C129">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D129">
-        <v>-6.03</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>180.74</v>
+        <v>182.23</v>
       </c>
       <c r="C130">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D130">
-        <v>-0.9399999999999999</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B131">
-        <v>185.08</v>
+        <v>180.22</v>
       </c>
       <c r="C131">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D131">
-        <v>1.43</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B132">
-        <v>177.7</v>
+        <v>178.26</v>
       </c>
       <c r="C132">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D132">
-        <v>-2.61</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B133">
-        <v>174.41</v>
+        <v>177.05</v>
       </c>
       <c r="C133">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D133">
-        <v>-4.42</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B134">
-        <v>195.2</v>
+        <v>176.65</v>
       </c>
       <c r="C134">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D134">
-        <v>6.98</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B135">
-        <v>178.53</v>
+        <v>175.85</v>
       </c>
       <c r="C135">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D135">
-        <v>-2.16</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B136">
-        <v>174.52</v>
+        <v>174.83</v>
       </c>
       <c r="C136">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D136">
-        <v>-4.35</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B137">
-        <v>173.31</v>
+        <v>175.1</v>
       </c>
       <c r="C137">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D137">
-        <v>-5.02</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B138">
-        <v>173.48</v>
+        <v>175.43</v>
       </c>
       <c r="C138">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D138">
-        <v>-4.92</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B139">
-        <v>173.28</v>
+        <v>177.77</v>
       </c>
       <c r="C139">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D139">
-        <v>-5.03</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B140">
-        <v>173.41</v>
+        <v>176.42</v>
       </c>
       <c r="C140">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D140">
-        <v>-4.96</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B141">
-        <v>173.76</v>
+        <v>181.1</v>
       </c>
       <c r="C141">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D141">
-        <v>-4.77</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B142">
-        <v>174.28</v>
+        <v>182.67</v>
       </c>
       <c r="C142">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D142">
-        <v>-4.49</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B143">
-        <v>175.51</v>
+        <v>173.3</v>
       </c>
       <c r="C143">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D143">
-        <v>-3.81</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B144">
-        <v>176.18</v>
+        <v>172.47</v>
       </c>
       <c r="C144">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D144">
-        <v>-3.45</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B145">
-        <v>175.24</v>
+        <v>171.28</v>
       </c>
       <c r="C145">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D145">
-        <v>-3.96</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B146">
-        <v>177.08</v>
+        <v>170.7</v>
       </c>
       <c r="C146">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D146">
-        <v>-2.95</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B147">
-        <v>175.4</v>
+        <v>170.45</v>
       </c>
       <c r="C147">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D147">
-        <v>-3.87</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B148">
-        <v>175.7</v>
+        <v>169.75</v>
       </c>
       <c r="C148">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D148">
-        <v>-3.71</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B149">
-        <v>177.28</v>
+        <v>169.51</v>
       </c>
       <c r="C149">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D149">
-        <v>-2.84</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B150">
-        <v>189.77</v>
+        <v>169.27</v>
       </c>
       <c r="C150">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B151">
-        <v>192.17</v>
+        <v>169.38</v>
       </c>
       <c r="C151">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D151">
-        <v>5.32</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B152">
-        <v>181</v>
+        <v>170.38</v>
       </c>
       <c r="C152">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D152">
-        <v>-0.8</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B153">
-        <v>180.89</v>
+        <v>170.36</v>
       </c>
       <c r="C153">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D153">
-        <v>-0.87</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B154">
-        <v>182.48</v>
+        <v>170.17</v>
       </c>
       <c r="C154">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D154">
-        <v>-0.67</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B155">
-        <v>184.88</v>
+        <v>170.51</v>
       </c>
       <c r="C155">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D155">
-        <v>0.63</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B156">
-        <v>185.24</v>
+        <v>170.17</v>
       </c>
       <c r="C156">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D156">
-        <v>0.83</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B157">
-        <v>185.14</v>
+        <v>168.46</v>
       </c>
       <c r="C157">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D157">
-        <v>0.77</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B158">
-        <v>185.64</v>
+        <v>168.53</v>
       </c>
       <c r="C158">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D158">
-        <v>1.05</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B159">
-        <v>184.94</v>
+        <v>170.89</v>
       </c>
       <c r="C159">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D159">
-        <v>0.67</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B160">
-        <v>183.45</v>
+        <v>181.5</v>
       </c>
       <c r="C160">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D160">
-        <v>-0.14</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B161">
-        <v>182.23</v>
+        <v>171.71</v>
       </c>
       <c r="C161">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D161">
-        <v>-0.8100000000000001</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B162">
-        <v>180.22</v>
+        <v>170.67</v>
       </c>
       <c r="C162">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D162">
-        <v>-1.9</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B163">
-        <v>178.26</v>
+        <v>170.45</v>
       </c>
       <c r="C163">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D163">
-        <v>-2.97</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B164">
-        <v>177.05</v>
+        <v>170.78</v>
       </c>
       <c r="C164">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D164">
-        <v>-3.63</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B165">
-        <v>176.65</v>
+        <v>171.6</v>
       </c>
       <c r="C165">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D165">
-        <v>-3.85</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B166">
-        <v>175.85</v>
+        <v>172.16</v>
       </c>
       <c r="C166">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D166">
-        <v>-4.28</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B167">
-        <v>174.83</v>
+        <v>175.06</v>
       </c>
       <c r="C167">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D167">
-        <v>-4.83</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B168">
-        <v>175.1</v>
+        <v>174.82</v>
       </c>
       <c r="C168">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D168">
-        <v>-4.69</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B169">
-        <v>175.43</v>
+        <v>172.81</v>
       </c>
       <c r="C169">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D169">
-        <v>-4.51</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B170">
-        <v>177.77</v>
+        <v>172.82</v>
       </c>
       <c r="C170">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D170">
-        <v>-3.23</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B171">
-        <v>176.42</v>
+        <v>173.83</v>
       </c>
       <c r="C171">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D171">
-        <v>-3.97</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B172">
-        <v>181.1</v>
+        <v>174.93</v>
       </c>
       <c r="C172">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D172">
-        <v>-1.42</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B173">
-        <v>182.67</v>
+        <v>175.38</v>
       </c>
       <c r="C173">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D173">
-        <v>-0.57</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B174">
-        <v>173.3</v>
+        <v>174.98</v>
       </c>
       <c r="C174">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D174">
-        <v>-5.67</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B175">
-        <v>172.47</v>
+        <v>175.14</v>
       </c>
       <c r="C175">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D175">
-        <v>-6.12</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B176">
-        <v>171.28</v>
+        <v>174.93</v>
       </c>
       <c r="C176">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D176">
-        <v>-6.77</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B177">
-        <v>170.7</v>
+        <v>174.74</v>
       </c>
       <c r="C177">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D177">
-        <v>-7.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B178">
-        <v>170.45</v>
+        <v>175.66</v>
       </c>
       <c r="C178">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D178">
-        <v>-7.22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B179">
-        <v>169.75</v>
+        <v>175.97</v>
       </c>
       <c r="C179">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D179">
-        <v>-7.6</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B180">
-        <v>169.51</v>
+        <v>175.79</v>
       </c>
       <c r="C180">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D180">
-        <v>-7.73</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B181">
-        <v>169.27</v>
+        <v>176.64</v>
       </c>
       <c r="C181">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D181">
-        <v>-7.86</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B182">
-        <v>169.38</v>
+        <v>177.46</v>
       </c>
       <c r="C182">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D182">
-        <v>-7.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B183">
-        <v>170.38</v>
+        <v>177.41</v>
       </c>
       <c r="C183">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D183">
-        <v>-7.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B184">
-        <v>170.36</v>
+        <v>177.77</v>
       </c>
       <c r="C184">
-        <v>183.71</v>
+        <v>180.46</v>
       </c>
       <c r="D184">
-        <v>-7.27</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B185">
-        <v>170.17</v>
+        <v>179.3</v>
       </c>
       <c r="C185">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D185">
-        <v>-4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B186">
-        <v>170.51</v>
+        <v>178.16</v>
       </c>
       <c r="C186">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D186">
-        <v>-3.81</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B187">
-        <v>170.17</v>
+        <v>177.92</v>
       </c>
       <c r="C187">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D187">
-        <v>-4</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B188">
-        <v>168.46</v>
+        <v>177.89</v>
       </c>
       <c r="C188">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D188">
-        <v>-4.96</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B189">
-        <v>168.53</v>
+        <v>178.97</v>
       </c>
       <c r="C189">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D189">
-        <v>-4.92</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B190">
-        <v>170.89</v>
+        <v>180.19</v>
       </c>
       <c r="C190">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D190">
-        <v>-3.59</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B191">
-        <v>181.5</v>
+        <v>178.79</v>
       </c>
       <c r="C191">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D191">
-        <v>2.39</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B192">
-        <v>171.71</v>
+        <v>179.32</v>
       </c>
       <c r="C192">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D192">
-        <v>-3.13</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B193">
-        <v>170.67</v>
+        <v>180.25</v>
       </c>
       <c r="C193">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D193">
-        <v>-3.72</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B194">
-        <v>170.45</v>
+        <v>180.29</v>
       </c>
       <c r="C194">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D194">
-        <v>-3.84</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B195">
-        <v>170.78</v>
+        <v>180.36</v>
       </c>
       <c r="C195">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D195">
-        <v>-3.65</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B196">
-        <v>171.6</v>
+        <v>181.47</v>
       </c>
       <c r="C196">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D196">
-        <v>-3.19</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B197">
-        <v>172.16</v>
+        <v>183.06</v>
       </c>
       <c r="C197">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D197">
-        <v>-2.88</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B198">
-        <v>175.06</v>
+        <v>183.42</v>
       </c>
       <c r="C198">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D198">
-        <v>-1.24</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B199">
-        <v>174.82</v>
+        <v>182.61</v>
       </c>
       <c r="C199">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D199">
-        <v>-1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B200">
-        <v>172.81</v>
+        <v>181.88</v>
       </c>
       <c r="C200">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D200">
-        <v>-2.51</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B201">
-        <v>172.82</v>
+        <v>181.2</v>
       </c>
       <c r="C201">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D201">
-        <v>-2.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B202">
-        <v>173.83</v>
+        <v>180.89</v>
       </c>
       <c r="C202">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D202">
-        <v>-1.93</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B203">
-        <v>174.93</v>
+        <v>181.99</v>
       </c>
       <c r="C203">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D203">
-        <v>-1.31</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B204">
-        <v>175.38</v>
+        <v>182.41</v>
       </c>
       <c r="C204">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D204">
-        <v>-1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B205">
-        <v>174.98</v>
+        <v>182.93</v>
       </c>
       <c r="C205">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D205">
-        <v>-1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B206">
-        <v>175.14</v>
+        <v>192.26</v>
       </c>
       <c r="C206">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D206">
-        <v>-1.2</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B207">
-        <v>174.93</v>
+        <v>183.97</v>
       </c>
       <c r="C207">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D207">
-        <v>-1.31</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B208">
-        <v>174.74</v>
+        <v>181.81</v>
       </c>
       <c r="C208">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D208">
-        <v>-1.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B209">
-        <v>175.66</v>
+        <v>180.18</v>
       </c>
       <c r="C209">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D209">
-        <v>-0.9</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B210">
-        <v>175.97</v>
+        <v>179.3</v>
       </c>
       <c r="C210">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D210">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B211">
-        <v>175.79</v>
+        <v>179.68</v>
       </c>
       <c r="C211">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D211">
-        <v>-0.83</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B212">
-        <v>176.64</v>
+        <v>180.04</v>
       </c>
       <c r="C212">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D212">
-        <v>-0.35</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B213">
-        <v>177.46</v>
+        <v>180.99</v>
       </c>
       <c r="C213">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D213">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B214">
-        <v>177.41</v>
+        <v>181.04</v>
       </c>
       <c r="C214">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D214">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B215">
-        <v>177.77</v>
+        <v>181.95</v>
       </c>
       <c r="C215">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D215">
-        <v>-1.49</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B216">
-        <v>179.3</v>
+        <v>190.02</v>
       </c>
       <c r="C216">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D216">
-        <v>-0.64</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B217">
-        <v>178.16</v>
+        <v>189.89</v>
       </c>
       <c r="C217">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D217">
-        <v>-1.28</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B218">
-        <v>177.92</v>
+        <v>185.86</v>
       </c>
       <c r="C218">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D218">
-        <v>-1.41</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B219">
-        <v>177.89</v>
+        <v>191.54</v>
       </c>
       <c r="C219">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D219">
-        <v>-1.43</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B220">
-        <v>178.97</v>
+        <v>199.04</v>
       </c>
       <c r="C220">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D220">
-        <v>-0.83</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B221">
-        <v>180.19</v>
+        <v>193.44</v>
       </c>
       <c r="C221">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D221">
-        <v>-0.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B222">
-        <v>178.79</v>
+        <v>187.38</v>
       </c>
       <c r="C222">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D222">
-        <v>-0.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B223">
-        <v>179.32</v>
+        <v>191.06</v>
       </c>
       <c r="C223">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D223">
-        <v>-0.63</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B224">
-        <v>180.25</v>
+        <v>200.84</v>
       </c>
       <c r="C224">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D224">
-        <v>-0.12</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B225">
-        <v>180.29</v>
+        <v>204.15</v>
       </c>
       <c r="C225">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D225">
-        <v>-0.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B226">
-        <v>180.36</v>
+        <v>193.82</v>
       </c>
       <c r="C226">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D226">
-        <v>-0.06</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B227">
-        <v>181.47</v>
+        <v>191.11</v>
       </c>
       <c r="C227">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D227">
-        <v>0.5600000000000001</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B228">
-        <v>183.06</v>
+        <v>190.29</v>
       </c>
       <c r="C228">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D228">
-        <v>1.44</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B229">
-        <v>183.42</v>
+        <v>189.9</v>
       </c>
       <c r="C229">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D229">
-        <v>1.64</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B230">
-        <v>182.61</v>
+        <v>190.34</v>
       </c>
       <c r="C230">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D230">
-        <v>1.19</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B231">
-        <v>181.88</v>
+        <v>190.33</v>
       </c>
       <c r="C231">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D231">
-        <v>0.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B232">
-        <v>181.2</v>
+        <v>190.44</v>
       </c>
       <c r="C232">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D232">
-        <v>0.41</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B233">
-        <v>180.89</v>
+        <v>190.43</v>
       </c>
       <c r="C233">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D233">
-        <v>0.23</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B234">
-        <v>181.99</v>
+        <v>190.39</v>
       </c>
       <c r="C234">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D234">
-        <v>0.85</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B235">
-        <v>182.41</v>
+        <v>190.21</v>
       </c>
       <c r="C235">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D235">
-        <v>1.08</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B236">
-        <v>182.93</v>
+        <v>190.31</v>
       </c>
       <c r="C236">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D236">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B237">
-        <v>192.26</v>
+        <v>189.79</v>
       </c>
       <c r="C237">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D237">
-        <v>6.54</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B238">
-        <v>183.97</v>
+        <v>189.51</v>
       </c>
       <c r="C238">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D238">
-        <v>1.94</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B239">
-        <v>181.81</v>
+        <v>189.98</v>
       </c>
       <c r="C239">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D239">
-        <v>0.75</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B240">
-        <v>180.18</v>
+        <v>200.62</v>
       </c>
       <c r="C240">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D240">
-        <v>-0.16</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B241">
-        <v>179.3</v>
+        <v>243.02</v>
       </c>
       <c r="C241">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D241">
-        <v>-0.64</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B242">
-        <v>179.68</v>
+        <v>212.07</v>
       </c>
       <c r="C242">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D242">
-        <v>-0.44</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B243">
-        <v>180.04</v>
+        <v>199.58</v>
       </c>
       <c r="C243">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D243">
-        <v>-0.23</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B244">
-        <v>180.99</v>
+        <v>199.01</v>
       </c>
       <c r="C244">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D244">
-        <v>0.29</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B245">
-        <v>181.04</v>
+        <v>227.33</v>
       </c>
       <c r="C245">
-        <v>180.46</v>
+        <v>178.06</v>
       </c>
       <c r="D245">
-        <v>0.32</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B246">
-        <v>181.95</v>
+        <v>205.73</v>
       </c>
       <c r="C246">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D246">
-        <v>-0</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B247">
-        <v>190.02</v>
+        <v>199.47</v>
       </c>
       <c r="C247">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D247">
-        <v>4.44</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B248">
-        <v>189.89</v>
+        <v>197.33</v>
       </c>
       <c r="C248">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D248">
-        <v>4.36</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B249">
-        <v>185.86</v>
+        <v>196.05</v>
       </c>
       <c r="C249">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D249">
-        <v>2.15</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B250">
-        <v>191.54</v>
+        <v>195.09</v>
       </c>
       <c r="C250">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D250">
-        <v>5.27</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B251">
-        <v>199.04</v>
+        <v>194.75</v>
       </c>
       <c r="C251">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D251">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B252">
-        <v>193.44</v>
+        <v>194.12</v>
       </c>
       <c r="C252">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D252">
-        <v>6.31</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B253">
-        <v>187.38</v>
+        <v>193.64</v>
       </c>
       <c r="C253">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D253">
-        <v>2.98</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B254">
-        <v>191.06</v>
+        <v>192.79</v>
       </c>
       <c r="C254">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D254">
-        <v>5.01</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B255">
-        <v>200.84</v>
+        <v>192.14</v>
       </c>
       <c r="C255">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D255">
-        <v>10.38</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B256">
-        <v>204.15</v>
+        <v>192.29</v>
       </c>
       <c r="C256">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D256">
-        <v>12.2</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B257">
-        <v>193.82</v>
+        <v>192.57</v>
       </c>
       <c r="C257">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D257">
-        <v>6.52</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B258">
-        <v>191.11</v>
+        <v>194.71</v>
       </c>
       <c r="C258">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D258">
-        <v>5.04</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B259">
-        <v>190.29</v>
+        <v>184.57</v>
       </c>
       <c r="C259">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D259">
-        <v>4.58</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B260">
-        <v>189.9</v>
+        <v>158.19</v>
       </c>
       <c r="C260">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D260">
-        <v>4.37</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B261">
-        <v>190.34</v>
+        <v>158.22</v>
       </c>
       <c r="C261">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D261">
-        <v>4.61</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B262">
-        <v>190.33</v>
+        <v>158.54</v>
       </c>
       <c r="C262">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D262">
-        <v>4.61</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B263">
-        <v>190.44</v>
+        <v>157.51</v>
       </c>
       <c r="C263">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D263">
-        <v>4.66</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B264">
-        <v>190.43</v>
+        <v>156.79</v>
       </c>
       <c r="C264">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D264">
-        <v>4.66</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B265">
-        <v>190.39</v>
+        <v>156.77</v>
       </c>
       <c r="C265">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D265">
-        <v>4.64</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B266">
-        <v>190.21</v>
+        <v>156.56</v>
       </c>
       <c r="C266">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D266">
-        <v>4.54</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B267">
-        <v>190.31</v>
+        <v>156.77</v>
       </c>
       <c r="C267">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D267">
-        <v>4.6</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B268">
-        <v>189.79</v>
+        <v>156.24</v>
       </c>
       <c r="C268">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D268">
-        <v>4.31</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B269">
-        <v>189.51</v>
+        <v>155.64</v>
       </c>
       <c r="C269">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D269">
-        <v>4.15</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B270">
-        <v>189.98</v>
+        <v>155.1</v>
       </c>
       <c r="C270">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D270">
-        <v>4.41</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B271">
-        <v>200.62</v>
+        <v>156.3</v>
       </c>
       <c r="C271">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D271">
-        <v>10.26</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B272">
-        <v>243.02</v>
+        <v>156</v>
       </c>
       <c r="C272">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D272">
-        <v>33.56</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B273">
-        <v>212.07</v>
+        <v>156.52</v>
       </c>
       <c r="C273">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D273">
-        <v>16.56</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B274">
-        <v>199.58</v>
+        <v>159.27</v>
       </c>
       <c r="C274">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D274">
-        <v>9.69</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B275">
-        <v>199.01</v>
+        <v>158</v>
       </c>
       <c r="C275">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D275">
-        <v>9.380000000000001</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B276">
-        <v>227.33</v>
+        <v>157</v>
       </c>
       <c r="C276">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D276">
-        <v>27.67</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B277">
-        <v>205.73</v>
+        <v>157</v>
       </c>
       <c r="C277">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D277">
-        <v>15.54</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B278">
-        <v>199.47</v>
+        <v>157</v>
       </c>
       <c r="C278">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D278">
-        <v>12.02</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44016</v>
-      </c>
-      <c r="B279">
-        <v>197.33</v>
+        <v>44047</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
       </c>
       <c r="C279">
-        <v>178.06</v>
-      </c>
-      <c r="D279">
-        <v>10.82</v>
+        <v>174.89</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B280">
-        <v>196.05</v>
+        <v>44048</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
       </c>
       <c r="C280">
-        <v>178.06</v>
-      </c>
-      <c r="D280">
-        <v>10.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B281">
-        <v>195.09</v>
+        <v>44049</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
       </c>
       <c r="C281">
-        <v>178.06</v>
-      </c>
-      <c r="D281">
-        <v>9.57</v>
+        <v>174.89</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B282">
-        <v>194.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
       </c>
       <c r="C282">
-        <v>178.06</v>
-      </c>
-      <c r="D282">
-        <v>9.369999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B283">
-        <v>194.12</v>
+        <v>44051</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
       </c>
       <c r="C283">
-        <v>178.06</v>
-      </c>
-      <c r="D283">
-        <v>9.02</v>
+        <v>174.89</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B284">
-        <v>193.64</v>
+        <v>44052</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>178.06</v>
-      </c>
-      <c r="D284">
-        <v>8.75</v>
+        <v>174.89</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B285">
-        <v>192.79</v>
+        <v>44053</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
       </c>
       <c r="C285">
-        <v>178.06</v>
-      </c>
-      <c r="D285">
-        <v>8.27</v>
+        <v>174.89</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B286">
-        <v>192.14</v>
+        <v>44054</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
       </c>
       <c r="C286">
-        <v>178.06</v>
-      </c>
-      <c r="D286">
-        <v>7.9</v>
+        <v>174.89</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B287">
-        <v>192.29</v>
+        <v>44055</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
       </c>
       <c r="C287">
-        <v>178.06</v>
-      </c>
-      <c r="D287">
-        <v>7.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B288">
-        <v>192.57</v>
+        <v>44056</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>178.06</v>
-      </c>
-      <c r="D288">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B289">
-        <v>194.71</v>
+        <v>44057</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>178.06</v>
-      </c>
-      <c r="D289">
-        <v>9.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B290">
-        <v>184.57</v>
+        <v>44058</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
       </c>
       <c r="C290">
-        <v>178.06</v>
-      </c>
-      <c r="D290">
-        <v>3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B291">
-        <v>158.19</v>
+        <v>44059</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
       </c>
       <c r="C291">
-        <v>178.06</v>
-      </c>
-      <c r="D291">
-        <v>-11.16</v>
+        <v>174.89</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B292">
-        <v>158.22</v>
+        <v>44060</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
       </c>
       <c r="C292">
-        <v>178.06</v>
-      </c>
-      <c r="D292">
-        <v>-11.14</v>
+        <v>174.89</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B293">
-        <v>158.54</v>
+        <v>44061</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
       </c>
       <c r="C293">
-        <v>178.06</v>
-      </c>
-      <c r="D293">
-        <v>-10.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B294">
-        <v>157.51</v>
+        <v>44062</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
       </c>
       <c r="C294">
-        <v>178.06</v>
-      </c>
-      <c r="D294">
-        <v>-11.54</v>
+        <v>174.89</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B295">
-        <v>156.79</v>
+        <v>44063</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
       </c>
       <c r="C295">
-        <v>178.06</v>
-      </c>
-      <c r="D295">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B296">
-        <v>156.77</v>
+        <v>44064</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
       </c>
       <c r="C296">
-        <v>178.06</v>
-      </c>
-      <c r="D296">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B297">
-        <v>156.56</v>
+        <v>44065</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
       </c>
       <c r="C297">
-        <v>178.06</v>
-      </c>
-      <c r="D297">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B298">
-        <v>156.77</v>
+        <v>44066</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
       </c>
       <c r="C298">
-        <v>178.06</v>
-      </c>
-      <c r="D298">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B299">
-        <v>156.24</v>
+        <v>44067</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
       </c>
       <c r="C299">
-        <v>178.06</v>
-      </c>
-      <c r="D299">
-        <v>-12.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B300">
-        <v>155.64</v>
+        <v>44068</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
       </c>
       <c r="C300">
-        <v>178.06</v>
-      </c>
-      <c r="D300">
-        <v>-12.59</v>
+        <v>174.89</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B301">
-        <v>155.1</v>
+        <v>44069</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
       </c>
       <c r="C301">
-        <v>178.06</v>
-      </c>
-      <c r="D301">
-        <v>-12.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B302">
-        <v>156.3</v>
+        <v>44070</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
       </c>
       <c r="C302">
-        <v>178.06</v>
-      </c>
-      <c r="D302">
-        <v>-12.22</v>
+        <v>174.89</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B303">
-        <v>156</v>
+        <v>163.64</v>
       </c>
       <c r="C303">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D303">
-        <v>-12.39</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B304">
-        <v>156.52</v>
+        <v>163.91</v>
       </c>
       <c r="C304">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D304">
-        <v>-12.1</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B305">
-        <v>159.27</v>
+        <v>163.57</v>
       </c>
       <c r="C305">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D305">
-        <v>-10.55</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B306">
-        <v>158</v>
+        <v>163.44</v>
       </c>
       <c r="C306">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D306">
-        <v>-11.27</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B307">
-        <v>157</v>
+        <v>163.22</v>
       </c>
       <c r="C307">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D307">
-        <v>-10.23</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B308">
-        <v>157</v>
+        <v>163.31</v>
       </c>
       <c r="C308">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D308">
-        <v>-10.23</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B309">
-        <v>157</v>
+        <v>163.8</v>
       </c>
       <c r="C309">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D309">
-        <v>-10.23</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B310" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B310">
+        <v>165.49</v>
       </c>
       <c r="C310">
-        <v>174.89</v>
-      </c>
-      <c r="D310" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D310">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B311" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B311">
+        <v>166.85</v>
       </c>
       <c r="C311">
-        <v>174.89</v>
-      </c>
-      <c r="D311" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D311">
+        <v>-5.72</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B312" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B312">
+        <v>166.58</v>
       </c>
       <c r="C312">
-        <v>174.89</v>
-      </c>
-      <c r="D312" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D312">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B313" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B313">
+        <v>165.9</v>
       </c>
       <c r="C313">
-        <v>174.89</v>
-      </c>
-      <c r="D313" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D313">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B314" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B314">
+        <v>165.68</v>
       </c>
       <c r="C314">
-        <v>174.89</v>
-      </c>
-      <c r="D314" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D314">
+        <v>-6.38</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B315" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B315">
+        <v>165.5</v>
       </c>
       <c r="C315">
-        <v>174.89</v>
-      </c>
-      <c r="D315" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D315">
+        <v>-6.48</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B316" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B316">
+        <v>165.97</v>
       </c>
       <c r="C316">
-        <v>174.89</v>
-      </c>
-      <c r="D316" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D316">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B317" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B317">
+        <v>165.58</v>
       </c>
       <c r="C317">
-        <v>174.89</v>
-      </c>
-      <c r="D317" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D317">
+        <v>-6.44</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B318" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B318">
+        <v>165.33</v>
       </c>
       <c r="C318">
-        <v>174.89</v>
-      </c>
-      <c r="D318" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D318">
+        <v>-6.58</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B319" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B319">
+        <v>167.94</v>
       </c>
       <c r="C319">
-        <v>174.89</v>
-      </c>
-      <c r="D319" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D319">
+        <v>-5.11</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B320" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B320">
+        <v>168.38</v>
       </c>
       <c r="C320">
-        <v>174.89</v>
-      </c>
-      <c r="D320" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D320">
+        <v>-4.86</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B321" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B321">
+        <v>167.68</v>
       </c>
       <c r="C321">
-        <v>174.89</v>
-      </c>
-      <c r="D321" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D321">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B322" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B322">
+        <v>167.68</v>
       </c>
       <c r="C322">
-        <v>174.89</v>
-      </c>
-      <c r="D322" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D322">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B323" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B323">
+        <v>168.85</v>
       </c>
       <c r="C323">
-        <v>174.89</v>
-      </c>
-      <c r="D323" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D323">
+        <v>-4.59</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B324" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B324">
+        <v>168.47</v>
       </c>
       <c r="C324">
-        <v>174.89</v>
-      </c>
-      <c r="D324" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D324">
+        <v>-4.81</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B325" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B325">
+        <v>168.24</v>
       </c>
       <c r="C325">
-        <v>174.89</v>
-      </c>
-      <c r="D325" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D325">
+        <v>-4.94</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B326" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B326">
+        <v>167.42</v>
       </c>
       <c r="C326">
-        <v>174.89</v>
-      </c>
-      <c r="D326" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D326">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B327" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B327">
+        <v>167.1</v>
       </c>
       <c r="C327">
-        <v>174.89</v>
-      </c>
-      <c r="D327" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D327">
+        <v>-5.58</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B328" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B328">
+        <v>167.35</v>
       </c>
       <c r="C328">
-        <v>174.89</v>
-      </c>
-      <c r="D328" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D328">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B329" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B329">
+        <v>167.81</v>
       </c>
       <c r="C329">
-        <v>174.89</v>
-      </c>
-      <c r="D329" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D329">
+        <v>-5.18</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B330" t="s">
-        <v>4</v>
+        <v>44098</v>
+      </c>
+      <c r="B330">
+        <v>168.55</v>
       </c>
       <c r="C330">
-        <v>174.89</v>
-      </c>
-      <c r="D330" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D330">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B331" t="s">
-        <v>4</v>
+        <v>44099</v>
+      </c>
+      <c r="B331">
+        <v>168.34</v>
       </c>
       <c r="C331">
-        <v>174.89</v>
-      </c>
-      <c r="D331" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D331">
+        <v>-4.88</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B332" t="s">
-        <v>4</v>
+        <v>44100</v>
+      </c>
+      <c r="B332">
+        <v>167.75</v>
       </c>
       <c r="C332">
-        <v>174.89</v>
-      </c>
-      <c r="D332" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D332">
+        <v>-5.21</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44070</v>
-      </c>
-      <c r="B333" t="s">
-        <v>4</v>
+        <v>44101</v>
+      </c>
+      <c r="B333">
+        <v>167.59</v>
       </c>
       <c r="C333">
-        <v>174.89</v>
-      </c>
-      <c r="D333" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D333">
+        <v>-5.3</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B334">
-        <v>163.64</v>
+        <v>167.8</v>
       </c>
       <c r="C334">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D334">
-        <v>-6.43</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B335">
-        <v>163.91</v>
+        <v>169.27</v>
       </c>
       <c r="C335">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D335">
-        <v>-6.28</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B336">
-        <v>163.57</v>
+        <v>169.25</v>
       </c>
       <c r="C336">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D336">
-        <v>-6.47</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B337">
-        <v>163.44</v>
+        <v>168.84</v>
       </c>
       <c r="C337">
-        <v>174.89</v>
+        <v>180.02</v>
       </c>
       <c r="D337">
-        <v>-6.55</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B338">
-        <v>163.22</v>
+        <v>168.04</v>
       </c>
       <c r="C338">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D338">
-        <v>-7.77</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B339">
-        <v>163.31</v>
+        <v>167.57</v>
       </c>
       <c r="C339">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D339">
-        <v>-7.72</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B340">
-        <v>163.8</v>
+        <v>166.82</v>
       </c>
       <c r="C340">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D340">
-        <v>-7.44</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B341">
-        <v>165.49</v>
+        <v>167.06</v>
       </c>
       <c r="C341">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D341">
-        <v>-6.49</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B342">
-        <v>166.85</v>
+        <v>167.32</v>
       </c>
       <c r="C342">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D342">
-        <v>-5.72</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B343">
-        <v>166.58</v>
+        <v>167.31</v>
       </c>
       <c r="C343">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D343">
-        <v>-5.87</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B344">
-        <v>165.9</v>
+        <v>169.44</v>
       </c>
       <c r="C344">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D344">
-        <v>-6.26</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B345">
-        <v>165.68</v>
+        <v>175.8</v>
       </c>
       <c r="C345">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D345">
-        <v>-6.38</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B346">
-        <v>165.5</v>
+        <v>176.98</v>
       </c>
       <c r="C346">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D346">
-        <v>-6.48</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B347">
-        <v>165.97</v>
+        <v>168.89</v>
       </c>
       <c r="C347">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D347">
-        <v>-6.22</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B348">
-        <v>165.58</v>
+        <v>168.22</v>
       </c>
       <c r="C348">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D348">
-        <v>-6.44</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B349">
-        <v>165.33</v>
+        <v>168.83</v>
       </c>
       <c r="C349">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D349">
-        <v>-6.58</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B350">
-        <v>167.94</v>
+        <v>169.74</v>
       </c>
       <c r="C350">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D350">
-        <v>-5.11</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B351">
-        <v>168.38</v>
+        <v>169.85</v>
       </c>
       <c r="C351">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D351">
-        <v>-4.86</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B352">
-        <v>167.68</v>
+        <v>169.45</v>
       </c>
       <c r="C352">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D352">
-        <v>-5.25</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B353">
-        <v>167.68</v>
+        <v>167.78</v>
       </c>
       <c r="C353">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D353">
-        <v>-5.25</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B354">
-        <v>168.85</v>
+        <v>167.82</v>
       </c>
       <c r="C354">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D354">
-        <v>-4.59</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B355">
-        <v>168.47</v>
+        <v>169.9</v>
       </c>
       <c r="C355">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D355">
-        <v>-4.81</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B356">
-        <v>168.24</v>
+        <v>171.45</v>
       </c>
       <c r="C356">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D356">
-        <v>-4.94</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B357">
-        <v>167.42</v>
+        <v>192.56</v>
       </c>
       <c r="C357">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D357">
-        <v>-5.4</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B358">
-        <v>167.1</v>
+        <v>171.27</v>
       </c>
       <c r="C358">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D358">
-        <v>-5.58</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B359">
-        <v>167.35</v>
+        <v>169.78</v>
       </c>
       <c r="C359">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D359">
-        <v>-5.44</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B360">
-        <v>167.81</v>
+        <v>170.33</v>
       </c>
       <c r="C360">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D360">
-        <v>-5.18</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B361">
-        <v>168.55</v>
+        <v>172.71</v>
       </c>
       <c r="C361">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D361">
-        <v>-4.76</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B362">
-        <v>168.34</v>
+        <v>171.85</v>
       </c>
       <c r="C362">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D362">
-        <v>-4.88</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B363">
-        <v>167.75</v>
+        <v>171.28</v>
       </c>
       <c r="C363">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D363">
-        <v>-5.21</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B364">
-        <v>167.59</v>
+        <v>170.75</v>
       </c>
       <c r="C364">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D364">
-        <v>-5.3</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B365">
-        <v>167.8</v>
+        <v>170.95</v>
       </c>
       <c r="C365">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D365">
-        <v>-5.18</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B366">
-        <v>169.27</v>
+        <v>197.08</v>
       </c>
       <c r="C366">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D366">
-        <v>-4.35</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B367">
-        <v>169.25</v>
+        <v>181.15</v>
       </c>
       <c r="C367">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D367">
-        <v>-4.37</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B368">
-        <v>168.84</v>
-      </c>
-      <c r="C368">
-        <v>180.02</v>
-      </c>
-      <c r="D368">
-        <v>-6.21</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44106</v>
-      </c>
-      <c r="B369">
-        <v>168.04</v>
-      </c>
-      <c r="C369">
-        <v>180.02</v>
-      </c>
-      <c r="D369">
-        <v>-6.65</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44107</v>
-      </c>
-      <c r="B370">
-        <v>167.57</v>
-      </c>
-      <c r="C370">
-        <v>180.02</v>
-      </c>
-      <c r="D370">
-        <v>-6.91</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B371">
-        <v>166.82</v>
-      </c>
-      <c r="C371">
-        <v>180.02</v>
-      </c>
-      <c r="D371">
-        <v>-7.33</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44109</v>
-      </c>
-      <c r="B372">
-        <v>167.06</v>
-      </c>
-      <c r="C372">
-        <v>180.02</v>
-      </c>
-      <c r="D372">
-        <v>-7.2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44110</v>
-      </c>
-      <c r="B373">
-        <v>167.32</v>
-      </c>
-      <c r="C373">
-        <v>180.02</v>
-      </c>
-      <c r="D373">
-        <v>-7.05</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B374">
-        <v>167.31</v>
-      </c>
-      <c r="C374">
-        <v>180.02</v>
-      </c>
-      <c r="D374">
-        <v>-7.06</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B375">
-        <v>169.44</v>
-      </c>
-      <c r="C375">
-        <v>180.02</v>
-      </c>
-      <c r="D375">
-        <v>-5.88</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B376">
-        <v>175.8</v>
-      </c>
-      <c r="C376">
-        <v>180.02</v>
-      </c>
-      <c r="D376">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44114</v>
-      </c>
-      <c r="B377">
-        <v>176.98</v>
-      </c>
-      <c r="C377">
-        <v>180.02</v>
-      </c>
-      <c r="D377">
-        <v>-1.69</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44115</v>
-      </c>
-      <c r="B378">
-        <v>168.89</v>
-      </c>
-      <c r="C378">
-        <v>180.02</v>
-      </c>
-      <c r="D378">
-        <v>-6.19</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44116</v>
-      </c>
-      <c r="B379">
-        <v>168.22</v>
-      </c>
-      <c r="C379">
-        <v>180.02</v>
-      </c>
-      <c r="D379">
-        <v>-6.56</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44117</v>
-      </c>
-      <c r="B380">
-        <v>168.83</v>
-      </c>
-      <c r="C380">
-        <v>180.02</v>
-      </c>
-      <c r="D380">
-        <v>-6.21</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44118</v>
-      </c>
-      <c r="B381">
-        <v>169.74</v>
-      </c>
-      <c r="C381">
-        <v>180.02</v>
-      </c>
-      <c r="D381">
-        <v>-5.71</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B382">
-        <v>169.85</v>
-      </c>
-      <c r="C382">
-        <v>180.02</v>
-      </c>
-      <c r="D382">
-        <v>-5.65</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B383">
-        <v>169.45</v>
-      </c>
-      <c r="C383">
-        <v>180.02</v>
-      </c>
-      <c r="D383">
-        <v>-5.87</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B384">
-        <v>167.78</v>
-      </c>
-      <c r="C384">
-        <v>180.02</v>
-      </c>
-      <c r="D384">
-        <v>-6.8</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B385">
-        <v>167.82</v>
-      </c>
-      <c r="C385">
-        <v>180.02</v>
-      </c>
-      <c r="D385">
-        <v>-6.78</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44123</v>
-      </c>
-      <c r="B386">
-        <v>169.9</v>
-      </c>
-      <c r="C386">
-        <v>180.02</v>
-      </c>
-      <c r="D386">
-        <v>-5.62</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44124</v>
-      </c>
-      <c r="B387">
-        <v>171.45</v>
-      </c>
-      <c r="C387">
-        <v>180.02</v>
-      </c>
-      <c r="D387">
-        <v>-4.76</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B388">
-        <v>192.56</v>
-      </c>
-      <c r="C388">
-        <v>180.02</v>
-      </c>
-      <c r="D388">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44126</v>
-      </c>
-      <c r="B389">
-        <v>171.27</v>
-      </c>
-      <c r="C389">
-        <v>180.02</v>
-      </c>
-      <c r="D389">
-        <v>-4.86</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44127</v>
-      </c>
-      <c r="B390">
-        <v>169.78</v>
-      </c>
-      <c r="C390">
-        <v>180.02</v>
-      </c>
-      <c r="D390">
-        <v>-5.69</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B391">
-        <v>170.33</v>
-      </c>
-      <c r="C391">
-        <v>180.02</v>
-      </c>
-      <c r="D391">
-        <v>-5.38</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B392">
-        <v>172.71</v>
-      </c>
-      <c r="C392">
-        <v>180.02</v>
-      </c>
-      <c r="D392">
-        <v>-4.06</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-4.55</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B14">
+        <v>198.1</v>
+      </c>
+      <c r="C14">
+        <v>179.34</v>
+      </c>
+      <c r="D14">
+        <v>10.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>0.63</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B368">
+        <v>176.74</v>
+      </c>
+      <c r="C368">
+        <v>179.34</v>
+      </c>
+      <c r="D368">
+        <v>-1.45</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B369">
+        <v>176.12</v>
+      </c>
+      <c r="C369">
+        <v>179.34</v>
+      </c>
+      <c r="D369">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B370">
+        <v>177.07</v>
+      </c>
+      <c r="C370">
+        <v>179.34</v>
+      </c>
+      <c r="D370">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B371">
+        <v>183.07</v>
+      </c>
+      <c r="C371">
+        <v>179.34</v>
+      </c>
+      <c r="D371">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B372">
+        <v>187.71</v>
+      </c>
+      <c r="C372">
+        <v>179.34</v>
+      </c>
+      <c r="D372">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B373">
+        <v>181.83</v>
+      </c>
+      <c r="C373">
+        <v>179.34</v>
+      </c>
+      <c r="D373">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B374">
+        <v>181.02</v>
+      </c>
+      <c r="C374">
+        <v>179.34</v>
+      </c>
+      <c r="D374">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B375">
+        <v>180.93</v>
+      </c>
+      <c r="C375">
+        <v>179.34</v>
+      </c>
+      <c r="D375">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B376">
+        <v>181.77</v>
+      </c>
+      <c r="C376">
+        <v>179.34</v>
+      </c>
+      <c r="D376">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B377">
+        <v>219.38</v>
+      </c>
+      <c r="C377">
+        <v>179.34</v>
+      </c>
+      <c r="D377">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B378">
+        <v>234.17</v>
+      </c>
+      <c r="C378">
+        <v>179.34</v>
+      </c>
+      <c r="D378">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B379">
+        <v>242.04</v>
+      </c>
+      <c r="C379">
+        <v>179.34</v>
+      </c>
+      <c r="D379">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B380">
+        <v>219.81</v>
+      </c>
+      <c r="C380">
+        <v>179.34</v>
+      </c>
+      <c r="D380">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B381">
+        <v>216.64</v>
+      </c>
+      <c r="C381">
+        <v>179.34</v>
+      </c>
+      <c r="D381">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B382">
+        <v>213.18</v>
+      </c>
+      <c r="C382">
+        <v>179.34</v>
+      </c>
+      <c r="D382">
+        <v>18.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="B14">
-        <v>198.1</v>
+        <v>201.61</v>
       </c>
       <c r="C14">
         <v>179.34</v>
       </c>
       <c r="D14">
-        <v>10.46</v>
+        <v>12.42</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5966,6 +5966,104 @@
         <v>18.87</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B383">
+        <v>217.07</v>
+      </c>
+      <c r="C383">
+        <v>179.34</v>
+      </c>
+      <c r="D383">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B384">
+        <v>208.06</v>
+      </c>
+      <c r="C384">
+        <v>179.34</v>
+      </c>
+      <c r="D384">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B385">
+        <v>203.52</v>
+      </c>
+      <c r="C385">
+        <v>179.34</v>
+      </c>
+      <c r="D385">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B386">
+        <v>215.35</v>
+      </c>
+      <c r="C386">
+        <v>179.34</v>
+      </c>
+      <c r="D386">
+        <v>20.08</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B387">
+        <v>209.36</v>
+      </c>
+      <c r="C387">
+        <v>179.34</v>
+      </c>
+      <c r="D387">
+        <v>16.74</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B388">
+        <v>205.92</v>
+      </c>
+      <c r="C388">
+        <v>179.34</v>
+      </c>
+      <c r="D388">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B389">
+        <v>204.76</v>
+      </c>
+      <c r="C389">
+        <v>179.34</v>
+      </c>
+      <c r="D389">
+        <v>14.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B2">
-        <v>172.61</v>
+        <v>167.01</v>
       </c>
       <c r="C2">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D2">
-        <v>-3.75</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B3">
-        <v>167.01</v>
+        <v>169.28</v>
       </c>
       <c r="C3">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D3">
-        <v>-8.09</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B4">
-        <v>169.28</v>
+        <v>177.33</v>
       </c>
       <c r="C4">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D4">
-        <v>-9.890000000000001</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B5">
-        <v>177.33</v>
+        <v>176.84</v>
       </c>
       <c r="C5">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D5">
-        <v>-2.81</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B6">
-        <v>176.84</v>
+        <v>173.53</v>
       </c>
       <c r="C6">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D6">
-        <v>-3.74</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B7">
-        <v>173.53</v>
+        <v>180.98</v>
       </c>
       <c r="C7">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D7">
-        <v>-2.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B8">
-        <v>180.98</v>
+        <v>194.54</v>
       </c>
       <c r="C8">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D8">
-        <v>0.28</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B9">
-        <v>194.54</v>
+        <v>176.29</v>
       </c>
       <c r="C9">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D9">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B10">
-        <v>176.29</v>
+        <v>160.79</v>
       </c>
       <c r="C10">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D10">
-        <v>-0.99</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B11">
-        <v>160.79</v>
+        <v>166.96</v>
       </c>
       <c r="C11">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D11">
-        <v>-8.06</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B12">
-        <v>166.96</v>
+        <v>171.83</v>
       </c>
       <c r="C12">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D12">
-        <v>-5.66</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B13">
-        <v>171.83</v>
+        <v>201.54</v>
       </c>
       <c r="C13">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D13">
-        <v>-4.55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B14">
-        <v>201.61</v>
-      </c>
-      <c r="C14">
-        <v>179.34</v>
-      </c>
-      <c r="D14">
-        <v>12.42</v>
+        <v>12.38</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5434 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B2">
-        <v>168.74</v>
+        <v>170.6</v>
       </c>
       <c r="C2">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D2">
-        <v>-5.91</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B3">
-        <v>168.6</v>
+        <v>170.41</v>
       </c>
       <c r="C3">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D3">
-        <v>-5.99</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B4">
-        <v>169.66</v>
+        <v>167.47</v>
       </c>
       <c r="C4">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D4">
-        <v>-5.4</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B5">
-        <v>170.55</v>
+        <v>163</v>
       </c>
       <c r="C5">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D5">
-        <v>-4.9</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B6">
-        <v>172.64</v>
+        <v>166.24</v>
       </c>
       <c r="C6">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D6">
-        <v>-3.74</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B7">
-        <v>175.52</v>
+        <v>172.11</v>
       </c>
       <c r="C7">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D7">
-        <v>-2.13</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B8">
-        <v>169.94</v>
+        <v>166.21</v>
       </c>
       <c r="C8">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D8">
-        <v>-5.24</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B9">
-        <v>169.71</v>
+        <v>164.34</v>
       </c>
       <c r="C9">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D9">
-        <v>-5.37</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B10">
-        <v>169.84</v>
+        <v>164.2</v>
       </c>
       <c r="C10">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D10">
-        <v>-5.3</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B11">
-        <v>177.83</v>
+        <v>164.6</v>
       </c>
       <c r="C11">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D11">
-        <v>-0.84</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B12">
-        <v>177.83</v>
+        <v>165</v>
       </c>
       <c r="C12">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D12">
-        <v>-0.84</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B13">
-        <v>173.33</v>
+        <v>165.1</v>
       </c>
       <c r="C13">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D13">
-        <v>-3.35</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B14">
-        <v>170.06</v>
+        <v>164.36</v>
       </c>
       <c r="C14">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D14">
-        <v>-5.17</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B15">
-        <v>190.94</v>
+        <v>163.99</v>
       </c>
       <c r="C15">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D15">
-        <v>6.47</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B16">
-        <v>176.88</v>
+        <v>164.51</v>
       </c>
       <c r="C16">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D16">
-        <v>-1.38</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B17">
-        <v>171.7</v>
+        <v>169.16</v>
       </c>
       <c r="C17">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D17">
-        <v>-4.26</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B18">
-        <v>170.43</v>
+        <v>174.94</v>
       </c>
       <c r="C18">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D18">
-        <v>-4.97</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B19">
-        <v>169.77</v>
+        <v>173.45</v>
       </c>
       <c r="C19">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D19">
-        <v>-5.34</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43788</v>
+        <v>43818</v>
       </c>
       <c r="B20">
-        <v>169.54</v>
+        <v>169.71</v>
       </c>
       <c r="C20">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D20">
-        <v>-5.46</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B21">
-        <v>169.76</v>
+        <v>167.21</v>
       </c>
       <c r="C21">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D21">
-        <v>-5.34</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B22">
-        <v>169.66</v>
+        <v>188.1</v>
       </c>
       <c r="C22">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D22">
-        <v>-5.4</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43791</v>
+        <v>43821</v>
       </c>
       <c r="B23">
-        <v>169.74</v>
+        <v>167.72</v>
       </c>
       <c r="C23">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D23">
-        <v>-5.35</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43792</v>
+        <v>43822</v>
       </c>
       <c r="B24">
-        <v>169.57</v>
+        <v>164.7</v>
       </c>
       <c r="C24">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D24">
-        <v>-5.45</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43793</v>
+        <v>43823</v>
       </c>
       <c r="B25">
-        <v>171.81</v>
+        <v>164.61</v>
       </c>
       <c r="C25">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D25">
-        <v>-4.2</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43794</v>
+        <v>43824</v>
       </c>
       <c r="B26">
-        <v>169.9</v>
+        <v>164.38</v>
       </c>
       <c r="C26">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D26">
-        <v>-5.27</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="B27">
-        <v>169.24</v>
+        <v>164.08</v>
       </c>
       <c r="C27">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D27">
-        <v>-5.63</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43796</v>
+        <v>43826</v>
       </c>
       <c r="B28">
-        <v>181.16</v>
+        <v>163.36</v>
       </c>
       <c r="C28">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D28">
-        <v>1.01</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43797</v>
+        <v>43827</v>
       </c>
       <c r="B29">
-        <v>181.43</v>
+        <v>163.55</v>
       </c>
       <c r="C29">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D29">
-        <v>1.16</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43798</v>
+        <v>43828</v>
       </c>
       <c r="B30">
-        <v>172.09</v>
+        <v>163.5</v>
       </c>
       <c r="C30">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D30">
-        <v>-4.04</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43799</v>
+        <v>43829</v>
       </c>
       <c r="B31">
-        <v>170.55</v>
+        <v>163.32</v>
       </c>
       <c r="C31">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D31">
-        <v>-4.9</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B32">
-        <v>170.6</v>
+        <v>163.46</v>
       </c>
       <c r="C32">
         <v>181.71</v>
       </c>
       <c r="D32">
-        <v>-6.11</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43801</v>
+        <v>43831</v>
       </c>
       <c r="B33">
-        <v>170.41</v>
+        <v>163.45</v>
       </c>
       <c r="C33">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D33">
-        <v>-6.22</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B34">
-        <v>167.47</v>
+        <v>183.35</v>
       </c>
       <c r="C34">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D34">
-        <v>-7.84</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43803</v>
+        <v>43833</v>
       </c>
       <c r="B35">
-        <v>163</v>
+        <v>175.52</v>
       </c>
       <c r="C35">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D35">
-        <v>-10.3</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43804</v>
+        <v>43834</v>
       </c>
       <c r="B36">
-        <v>166.24</v>
+        <v>173.74</v>
       </c>
       <c r="C36">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D36">
-        <v>-8.51</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43805</v>
+        <v>43835</v>
       </c>
       <c r="B37">
-        <v>172.11</v>
+        <v>181.57</v>
       </c>
       <c r="C37">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D37">
-        <v>-5.28</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43806</v>
+        <v>43836</v>
       </c>
       <c r="B38">
-        <v>166.21</v>
+        <v>167.6</v>
       </c>
       <c r="C38">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D38">
-        <v>-8.529999999999999</v>
+        <v>-10.78</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43807</v>
+        <v>43837</v>
       </c>
       <c r="B39">
-        <v>164.34</v>
+        <v>166.05</v>
       </c>
       <c r="C39">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D39">
-        <v>-9.56</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B40">
-        <v>164.2</v>
+        <v>166.36</v>
       </c>
       <c r="C40">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D40">
-        <v>-9.640000000000001</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B41">
-        <v>164.6</v>
+        <v>166.81</v>
       </c>
       <c r="C41">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D41">
-        <v>-9.41</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B42">
-        <v>165</v>
+        <v>175.46</v>
       </c>
       <c r="C42">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D42">
-        <v>-9.199999999999999</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B43">
-        <v>165.1</v>
+        <v>169.85</v>
       </c>
       <c r="C43">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D43">
-        <v>-9.140000000000001</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B44">
-        <v>164.36</v>
+        <v>171.53</v>
       </c>
       <c r="C44">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D44">
-        <v>-9.550000000000001</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B45">
-        <v>163.99</v>
+        <v>169.51</v>
       </c>
       <c r="C45">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D45">
-        <v>-9.75</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B46">
-        <v>164.51</v>
+        <v>166.66</v>
       </c>
       <c r="C46">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D46">
-        <v>-9.470000000000001</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B47">
-        <v>169.16</v>
+        <v>166.09</v>
       </c>
       <c r="C47">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D47">
-        <v>-6.91</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B48">
-        <v>174.94</v>
+        <v>166.94</v>
       </c>
       <c r="C48">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D48">
-        <v>-3.73</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B49">
-        <v>173.45</v>
+        <v>170.33</v>
       </c>
       <c r="C49">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D49">
-        <v>-4.55</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43818</v>
+        <v>43848</v>
       </c>
       <c r="B50">
-        <v>169.71</v>
+        <v>167.12</v>
       </c>
       <c r="C50">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D50">
-        <v>-6.61</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43819</v>
+        <v>43849</v>
       </c>
       <c r="B51">
-        <v>167.21</v>
+        <v>166.74</v>
       </c>
       <c r="C51">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D51">
-        <v>-7.98</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43820</v>
+        <v>43850</v>
       </c>
       <c r="B52">
-        <v>188.1</v>
+        <v>166.82</v>
       </c>
       <c r="C52">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D52">
-        <v>3.52</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="B53">
-        <v>167.72</v>
+        <v>166.5</v>
       </c>
       <c r="C53">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D53">
-        <v>-7.7</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43822</v>
+        <v>43852</v>
       </c>
       <c r="B54">
-        <v>164.7</v>
+        <v>166</v>
       </c>
       <c r="C54">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D54">
-        <v>-9.359999999999999</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43823</v>
+        <v>43853</v>
       </c>
       <c r="B55">
-        <v>164.61</v>
+        <v>166.55</v>
       </c>
       <c r="C55">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D55">
-        <v>-9.41</v>
+        <v>-11.34</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B56">
-        <v>164.38</v>
+        <v>167.1</v>
       </c>
       <c r="C56">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D56">
-        <v>-9.539999999999999</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B57">
-        <v>164.08</v>
+        <v>166.36</v>
       </c>
       <c r="C57">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D57">
-        <v>-9.699999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B58">
-        <v>163.36</v>
+        <v>166.38</v>
       </c>
       <c r="C58">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D58">
-        <v>-10.1</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B59">
-        <v>163.55</v>
+        <v>166.5</v>
       </c>
       <c r="C59">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D59">
-        <v>-9.99</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B60">
-        <v>163.5</v>
+        <v>168.21</v>
       </c>
       <c r="C60">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D60">
-        <v>-10.02</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B61">
-        <v>163.32</v>
+        <v>168.44</v>
       </c>
       <c r="C61">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D61">
-        <v>-10.12</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B62">
-        <v>163.46</v>
+        <v>170.26</v>
       </c>
       <c r="C62">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D62">
-        <v>-10.04</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B63">
-        <v>163.45</v>
+        <v>173.73</v>
       </c>
       <c r="C63">
         <v>187.86</v>
       </c>
       <c r="D63">
-        <v>-12.99</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B64">
-        <v>183.35</v>
+        <v>172.53</v>
       </c>
       <c r="C64">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D64">
-        <v>-2.4</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B65">
-        <v>175.52</v>
+        <v>170.89</v>
       </c>
       <c r="C65">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D65">
-        <v>-6.57</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B66">
-        <v>173.74</v>
+        <v>172.28</v>
       </c>
       <c r="C66">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D66">
-        <v>-7.52</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B67">
-        <v>181.57</v>
+        <v>171.57</v>
       </c>
       <c r="C67">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D67">
-        <v>-3.35</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B68">
-        <v>167.6</v>
+        <v>171.47</v>
       </c>
       <c r="C68">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D68">
-        <v>-10.78</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B69">
-        <v>166.05</v>
+        <v>180.74</v>
       </c>
       <c r="C69">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D69">
-        <v>-11.61</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B70">
-        <v>166.36</v>
+        <v>185.08</v>
       </c>
       <c r="C70">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D70">
-        <v>-11.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B71">
-        <v>166.81</v>
+        <v>177.7</v>
       </c>
       <c r="C71">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D71">
-        <v>-11.2</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B72">
-        <v>175.46</v>
+        <v>174.41</v>
       </c>
       <c r="C72">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D72">
-        <v>-6.6</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B73">
-        <v>169.85</v>
+        <v>195.2</v>
       </c>
       <c r="C73">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D73">
-        <v>-9.58</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B74">
-        <v>171.53</v>
+        <v>178.53</v>
       </c>
       <c r="C74">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D74">
-        <v>-8.69</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B75">
-        <v>169.51</v>
+        <v>174.52</v>
       </c>
       <c r="C75">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D75">
-        <v>-9.77</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B76">
-        <v>166.66</v>
+        <v>173.31</v>
       </c>
       <c r="C76">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D76">
-        <v>-11.29</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B77">
-        <v>166.09</v>
+        <v>173.48</v>
       </c>
       <c r="C77">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D77">
-        <v>-11.59</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B78">
-        <v>166.94</v>
+        <v>173.28</v>
       </c>
       <c r="C78">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D78">
-        <v>-11.14</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B79">
-        <v>170.33</v>
+        <v>173.41</v>
       </c>
       <c r="C79">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D79">
-        <v>-9.33</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B80">
-        <v>167.12</v>
+        <v>173.76</v>
       </c>
       <c r="C80">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D80">
-        <v>-11.04</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B81">
-        <v>166.74</v>
+        <v>174.28</v>
       </c>
       <c r="C81">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D81">
-        <v>-11.24</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B82">
-        <v>166.82</v>
+        <v>175.51</v>
       </c>
       <c r="C82">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D82">
-        <v>-11.2</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B83">
-        <v>166.5</v>
+        <v>176.18</v>
       </c>
       <c r="C83">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D83">
-        <v>-11.37</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B84">
-        <v>166</v>
+        <v>175.24</v>
       </c>
       <c r="C84">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D84">
-        <v>-11.64</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B85">
-        <v>166.55</v>
+        <v>177.08</v>
       </c>
       <c r="C85">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D85">
-        <v>-11.34</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B86">
-        <v>167.1</v>
+        <v>175.4</v>
       </c>
       <c r="C86">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D86">
-        <v>-11.05</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B87">
-        <v>166.36</v>
+        <v>175.7</v>
       </c>
       <c r="C87">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D87">
-        <v>-11.44</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B88">
-        <v>166.38</v>
+        <v>177.28</v>
       </c>
       <c r="C88">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D88">
-        <v>-11.44</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B89">
-        <v>166.5</v>
+        <v>189.77</v>
       </c>
       <c r="C89">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D89">
-        <v>-11.37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B90">
-        <v>168.21</v>
+        <v>192.17</v>
       </c>
       <c r="C90">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D90">
-        <v>-10.46</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B91">
-        <v>168.44</v>
+        <v>181</v>
       </c>
       <c r="C91">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D91">
-        <v>-10.34</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B92">
-        <v>170.26</v>
+        <v>180.89</v>
       </c>
       <c r="C92">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D92">
-        <v>-9.369999999999999</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B93">
-        <v>173.73</v>
+        <v>182.48</v>
       </c>
       <c r="C93">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D93">
-        <v>-7.52</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B94">
-        <v>172.53</v>
+        <v>184.88</v>
       </c>
       <c r="C94">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D94">
-        <v>-5.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B95">
-        <v>170.89</v>
+        <v>185.24</v>
       </c>
       <c r="C95">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D95">
-        <v>-6.35</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B96">
-        <v>172.28</v>
+        <v>185.14</v>
       </c>
       <c r="C96">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D96">
-        <v>-5.58</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B97">
-        <v>171.57</v>
+        <v>185.64</v>
       </c>
       <c r="C97">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D97">
-        <v>-5.97</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B98">
-        <v>171.47</v>
+        <v>184.94</v>
       </c>
       <c r="C98">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D98">
-        <v>-6.03</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B99">
-        <v>180.74</v>
+        <v>183.45</v>
       </c>
       <c r="C99">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D99">
-        <v>-0.9399999999999999</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B100">
-        <v>185.08</v>
+        <v>182.23</v>
       </c>
       <c r="C100">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D100">
-        <v>1.43</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B101">
-        <v>177.7</v>
+        <v>180.22</v>
       </c>
       <c r="C101">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D101">
-        <v>-2.61</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B102">
-        <v>174.41</v>
+        <v>178.26</v>
       </c>
       <c r="C102">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D102">
-        <v>-4.42</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B103">
-        <v>195.2</v>
+        <v>177.05</v>
       </c>
       <c r="C103">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D103">
-        <v>6.98</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B104">
-        <v>178.53</v>
+        <v>176.65</v>
       </c>
       <c r="C104">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D104">
-        <v>-2.16</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B105">
-        <v>174.52</v>
+        <v>175.85</v>
       </c>
       <c r="C105">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D105">
-        <v>-4.35</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>173.31</v>
+        <v>174.83</v>
       </c>
       <c r="C106">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D106">
-        <v>-5.02</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>173.48</v>
+        <v>175.1</v>
       </c>
       <c r="C107">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D107">
-        <v>-4.92</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>173.28</v>
+        <v>175.43</v>
       </c>
       <c r="C108">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D108">
-        <v>-5.03</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>173.41</v>
+        <v>177.77</v>
       </c>
       <c r="C109">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D109">
-        <v>-4.96</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B110">
-        <v>173.76</v>
+        <v>176.42</v>
       </c>
       <c r="C110">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D110">
-        <v>-4.77</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B111">
-        <v>174.28</v>
+        <v>181.1</v>
       </c>
       <c r="C111">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D111">
-        <v>-4.49</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B112">
-        <v>175.51</v>
+        <v>182.67</v>
       </c>
       <c r="C112">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D112">
-        <v>-3.81</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B113">
-        <v>176.18</v>
+        <v>173.3</v>
       </c>
       <c r="C113">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D113">
-        <v>-3.45</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B114">
-        <v>175.24</v>
+        <v>172.47</v>
       </c>
       <c r="C114">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D114">
-        <v>-3.96</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>177.08</v>
+        <v>171.28</v>
       </c>
       <c r="C115">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D115">
-        <v>-2.95</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B116">
-        <v>175.4</v>
+        <v>170.7</v>
       </c>
       <c r="C116">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D116">
-        <v>-3.87</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B117">
-        <v>175.7</v>
+        <v>170.45</v>
       </c>
       <c r="C117">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D117">
-        <v>-3.71</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B118">
-        <v>177.28</v>
+        <v>169.75</v>
       </c>
       <c r="C118">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D118">
-        <v>-2.84</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B119">
-        <v>189.77</v>
+        <v>169.51</v>
       </c>
       <c r="C119">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B120">
-        <v>192.17</v>
+        <v>169.27</v>
       </c>
       <c r="C120">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D120">
-        <v>5.32</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B121">
-        <v>181</v>
+        <v>169.38</v>
       </c>
       <c r="C121">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D121">
-        <v>-0.8</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B122">
-        <v>180.89</v>
+        <v>170.38</v>
       </c>
       <c r="C122">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D122">
-        <v>-0.87</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B123">
-        <v>182.48</v>
+        <v>170.36</v>
       </c>
       <c r="C123">
         <v>183.71</v>
       </c>
       <c r="D123">
-        <v>-0.67</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B124">
-        <v>184.88</v>
+        <v>170.17</v>
       </c>
       <c r="C124">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D124">
-        <v>0.63</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B125">
-        <v>185.24</v>
+        <v>170.51</v>
       </c>
       <c r="C125">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D125">
-        <v>0.83</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B126">
-        <v>185.14</v>
+        <v>170.17</v>
       </c>
       <c r="C126">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D126">
-        <v>0.77</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B127">
-        <v>185.64</v>
+        <v>168.46</v>
       </c>
       <c r="C127">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D127">
-        <v>1.05</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B128">
-        <v>184.94</v>
+        <v>168.53</v>
       </c>
       <c r="C128">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D128">
-        <v>0.67</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43897</v>
+        <v>43927</v>
       </c>
       <c r="B129">
-        <v>183.45</v>
+        <v>170.89</v>
       </c>
       <c r="C129">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D129">
-        <v>-0.14</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B130">
-        <v>182.23</v>
+        <v>181.5</v>
       </c>
       <c r="C130">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D130">
-        <v>-0.8100000000000001</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B131">
-        <v>180.22</v>
+        <v>171.71</v>
       </c>
       <c r="C131">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D131">
-        <v>-1.9</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B132">
-        <v>178.26</v>
+        <v>170.67</v>
       </c>
       <c r="C132">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D132">
-        <v>-2.97</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B133">
-        <v>177.05</v>
+        <v>170.45</v>
       </c>
       <c r="C133">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D133">
-        <v>-3.63</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B134">
-        <v>176.65</v>
+        <v>170.78</v>
       </c>
       <c r="C134">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D134">
-        <v>-3.85</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B135">
-        <v>175.85</v>
+        <v>171.6</v>
       </c>
       <c r="C135">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D135">
-        <v>-4.28</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B136">
-        <v>174.83</v>
+        <v>172.16</v>
       </c>
       <c r="C136">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D136">
-        <v>-4.83</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B137">
-        <v>175.1</v>
+        <v>175.06</v>
       </c>
       <c r="C137">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D137">
-        <v>-4.69</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B138">
-        <v>175.43</v>
+        <v>174.82</v>
       </c>
       <c r="C138">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D138">
-        <v>-4.51</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B139">
-        <v>177.77</v>
+        <v>172.81</v>
       </c>
       <c r="C139">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D139">
-        <v>-3.23</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B140">
-        <v>176.42</v>
+        <v>172.82</v>
       </c>
       <c r="C140">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D140">
-        <v>-3.97</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B141">
-        <v>181.1</v>
+        <v>173.83</v>
       </c>
       <c r="C141">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D141">
-        <v>-1.42</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B142">
-        <v>182.67</v>
+        <v>174.93</v>
       </c>
       <c r="C142">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D142">
-        <v>-0.57</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B143">
-        <v>173.3</v>
+        <v>175.38</v>
       </c>
       <c r="C143">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D143">
-        <v>-5.67</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B144">
-        <v>172.47</v>
+        <v>174.98</v>
       </c>
       <c r="C144">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D144">
-        <v>-6.12</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B145">
-        <v>171.28</v>
+        <v>175.14</v>
       </c>
       <c r="C145">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D145">
-        <v>-6.77</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B146">
-        <v>170.7</v>
+        <v>174.93</v>
       </c>
       <c r="C146">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D146">
-        <v>-7.08</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B147">
-        <v>170.45</v>
+        <v>174.74</v>
       </c>
       <c r="C147">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D147">
-        <v>-7.22</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B148">
-        <v>169.75</v>
+        <v>175.66</v>
       </c>
       <c r="C148">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D148">
-        <v>-7.6</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B149">
-        <v>169.51</v>
+        <v>175.97</v>
       </c>
       <c r="C149">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D149">
-        <v>-7.73</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B150">
-        <v>169.27</v>
+        <v>175.79</v>
       </c>
       <c r="C150">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D150">
-        <v>-7.86</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B151">
-        <v>169.38</v>
+        <v>176.64</v>
       </c>
       <c r="C151">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D151">
-        <v>-7.8</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="B152">
-        <v>170.38</v>
+        <v>177.46</v>
       </c>
       <c r="C152">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D152">
-        <v>-7.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B153">
-        <v>170.36</v>
+        <v>177.41</v>
       </c>
       <c r="C153">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D153">
-        <v>-7.27</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B154">
-        <v>170.17</v>
+        <v>177.77</v>
       </c>
       <c r="C154">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D154">
-        <v>-4</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="B155">
-        <v>170.51</v>
+        <v>179.3</v>
       </c>
       <c r="C155">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D155">
-        <v>-3.81</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="B156">
-        <v>170.17</v>
+        <v>178.16</v>
       </c>
       <c r="C156">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D156">
-        <v>-4</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B157">
-        <v>168.46</v>
+        <v>177.92</v>
       </c>
       <c r="C157">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D157">
-        <v>-4.96</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B158">
-        <v>168.53</v>
+        <v>177.89</v>
       </c>
       <c r="C158">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D158">
-        <v>-4.92</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43927</v>
+        <v>43957</v>
       </c>
       <c r="B159">
-        <v>170.89</v>
+        <v>178.97</v>
       </c>
       <c r="C159">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D159">
-        <v>-3.59</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B160">
-        <v>181.5</v>
+        <v>180.19</v>
       </c>
       <c r="C160">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D160">
-        <v>2.39</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B161">
-        <v>171.71</v>
+        <v>178.79</v>
       </c>
       <c r="C161">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D161">
-        <v>-3.13</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B162">
-        <v>170.67</v>
+        <v>179.32</v>
       </c>
       <c r="C162">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D162">
-        <v>-3.72</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B163">
-        <v>170.45</v>
+        <v>180.25</v>
       </c>
       <c r="C163">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D163">
-        <v>-3.84</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B164">
-        <v>170.78</v>
+        <v>180.29</v>
       </c>
       <c r="C164">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D164">
-        <v>-3.65</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B165">
-        <v>171.6</v>
+        <v>180.36</v>
       </c>
       <c r="C165">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D165">
-        <v>-3.19</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B166">
-        <v>172.16</v>
+        <v>181.47</v>
       </c>
       <c r="C166">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D166">
-        <v>-2.88</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B167">
-        <v>175.06</v>
+        <v>183.06</v>
       </c>
       <c r="C167">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D167">
-        <v>-1.24</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B168">
-        <v>174.82</v>
+        <v>183.42</v>
       </c>
       <c r="C168">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D168">
-        <v>-1.37</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>172.81</v>
+        <v>182.61</v>
       </c>
       <c r="C169">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D169">
-        <v>-2.51</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B170">
-        <v>172.82</v>
+        <v>181.88</v>
       </c>
       <c r="C170">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D170">
-        <v>-2.5</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B171">
-        <v>173.83</v>
+        <v>181.2</v>
       </c>
       <c r="C171">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D171">
-        <v>-1.93</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B172">
-        <v>174.93</v>
+        <v>180.89</v>
       </c>
       <c r="C172">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D172">
-        <v>-1.31</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B173">
-        <v>175.38</v>
+        <v>181.99</v>
       </c>
       <c r="C173">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D173">
-        <v>-1.06</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B174">
-        <v>174.98</v>
+        <v>182.41</v>
       </c>
       <c r="C174">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D174">
-        <v>-1.28</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B175">
-        <v>175.14</v>
+        <v>182.93</v>
       </c>
       <c r="C175">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D175">
-        <v>-1.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B176">
-        <v>174.93</v>
+        <v>192.26</v>
       </c>
       <c r="C176">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D176">
-        <v>-1.31</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B177">
-        <v>174.74</v>
+        <v>183.97</v>
       </c>
       <c r="C177">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D177">
-        <v>-1.42</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B178">
-        <v>175.66</v>
+        <v>181.81</v>
       </c>
       <c r="C178">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D178">
-        <v>-0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B179">
-        <v>175.97</v>
+        <v>180.18</v>
       </c>
       <c r="C179">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D179">
-        <v>-0.73</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B180">
-        <v>175.79</v>
+        <v>179.3</v>
       </c>
       <c r="C180">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D180">
-        <v>-0.83</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B181">
-        <v>176.64</v>
+        <v>179.68</v>
       </c>
       <c r="C181">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D181">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B182">
-        <v>177.46</v>
+        <v>180.04</v>
       </c>
       <c r="C182">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D182">
-        <v>0.11</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B183">
-        <v>177.41</v>
+        <v>180.99</v>
       </c>
       <c r="C183">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D183">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B184">
-        <v>177.77</v>
+        <v>181.04</v>
       </c>
       <c r="C184">
         <v>180.46</v>
       </c>
       <c r="D184">
-        <v>-1.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B185">
-        <v>179.3</v>
+        <v>181.95</v>
       </c>
       <c r="C185">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D185">
-        <v>-0.64</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B186">
-        <v>178.16</v>
+        <v>190.02</v>
       </c>
       <c r="C186">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D186">
-        <v>-1.28</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B187">
-        <v>177.92</v>
+        <v>189.89</v>
       </c>
       <c r="C187">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D187">
-        <v>-1.41</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B188">
-        <v>177.89</v>
+        <v>185.86</v>
       </c>
       <c r="C188">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D188">
-        <v>-1.43</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B189">
-        <v>178.97</v>
+        <v>191.54</v>
       </c>
       <c r="C189">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D189">
-        <v>-0.83</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B190">
-        <v>180.19</v>
+        <v>199.04</v>
       </c>
       <c r="C190">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D190">
-        <v>-0.15</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B191">
-        <v>178.79</v>
+        <v>193.44</v>
       </c>
       <c r="C191">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D191">
-        <v>-0.93</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B192">
-        <v>179.32</v>
+        <v>187.38</v>
       </c>
       <c r="C192">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D192">
-        <v>-0.63</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B193">
-        <v>180.25</v>
+        <v>191.06</v>
       </c>
       <c r="C193">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D193">
-        <v>-0.12</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B194">
-        <v>180.29</v>
+        <v>200.84</v>
       </c>
       <c r="C194">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D194">
-        <v>-0.1</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B195">
-        <v>180.36</v>
+        <v>204.15</v>
       </c>
       <c r="C195">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D195">
-        <v>-0.06</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B196">
-        <v>181.47</v>
+        <v>193.82</v>
       </c>
       <c r="C196">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D196">
-        <v>0.5600000000000001</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B197">
-        <v>183.06</v>
+        <v>191.11</v>
       </c>
       <c r="C197">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D197">
-        <v>1.44</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B198">
-        <v>183.42</v>
+        <v>190.29</v>
       </c>
       <c r="C198">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D198">
-        <v>1.64</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B199">
-        <v>182.61</v>
+        <v>189.9</v>
       </c>
       <c r="C199">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D199">
-        <v>1.19</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B200">
-        <v>181.88</v>
+        <v>190.34</v>
       </c>
       <c r="C200">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D200">
-        <v>0.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B201">
-        <v>181.2</v>
+        <v>190.33</v>
       </c>
       <c r="C201">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D201">
-        <v>0.41</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B202">
-        <v>180.89</v>
+        <v>190.44</v>
       </c>
       <c r="C202">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D202">
-        <v>0.23</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B203">
-        <v>181.99</v>
+        <v>190.43</v>
       </c>
       <c r="C203">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D203">
-        <v>0.85</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B204">
-        <v>182.41</v>
+        <v>190.39</v>
       </c>
       <c r="C204">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D204">
-        <v>1.08</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B205">
-        <v>182.93</v>
+        <v>190.21</v>
       </c>
       <c r="C205">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D205">
-        <v>1.36</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B206">
-        <v>192.26</v>
+        <v>190.31</v>
       </c>
       <c r="C206">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D206">
-        <v>6.54</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B207">
-        <v>183.97</v>
+        <v>189.79</v>
       </c>
       <c r="C207">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D207">
-        <v>1.94</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B208">
-        <v>181.81</v>
+        <v>189.51</v>
       </c>
       <c r="C208">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D208">
-        <v>0.75</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B209">
-        <v>180.18</v>
+        <v>189.98</v>
       </c>
       <c r="C209">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D209">
-        <v>-0.16</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B210">
-        <v>179.3</v>
+        <v>200.62</v>
       </c>
       <c r="C210">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D210">
-        <v>-0.64</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B211">
-        <v>179.68</v>
+        <v>243.02</v>
       </c>
       <c r="C211">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D211">
-        <v>-0.44</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B212">
-        <v>180.04</v>
+        <v>212.07</v>
       </c>
       <c r="C212">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D212">
-        <v>-0.23</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B213">
-        <v>180.99</v>
+        <v>199.58</v>
       </c>
       <c r="C213">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D213">
-        <v>0.29</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B214">
-        <v>181.04</v>
+        <v>199.01</v>
       </c>
       <c r="C214">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D214">
-        <v>0.32</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B215">
-        <v>181.95</v>
+        <v>227.33</v>
       </c>
       <c r="C215">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D215">
-        <v>-0</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B216">
-        <v>190.02</v>
+        <v>205.73</v>
       </c>
       <c r="C216">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D216">
-        <v>4.44</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B217">
-        <v>189.89</v>
+        <v>199.47</v>
       </c>
       <c r="C217">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D217">
-        <v>4.36</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B218">
-        <v>185.86</v>
+        <v>197.33</v>
       </c>
       <c r="C218">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D218">
-        <v>2.15</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B219">
-        <v>191.54</v>
+        <v>196.05</v>
       </c>
       <c r="C219">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D219">
-        <v>5.27</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B220">
-        <v>199.04</v>
+        <v>195.09</v>
       </c>
       <c r="C220">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D220">
-        <v>9.390000000000001</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B221">
-        <v>193.44</v>
+        <v>194.75</v>
       </c>
       <c r="C221">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D221">
-        <v>6.31</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B222">
-        <v>187.38</v>
+        <v>194.12</v>
       </c>
       <c r="C222">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D222">
-        <v>2.98</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B223">
-        <v>191.06</v>
+        <v>193.64</v>
       </c>
       <c r="C223">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D223">
-        <v>5.01</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B224">
-        <v>200.84</v>
+        <v>192.79</v>
       </c>
       <c r="C224">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D224">
-        <v>10.38</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B225">
-        <v>204.15</v>
+        <v>192.14</v>
       </c>
       <c r="C225">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D225">
-        <v>12.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B226">
-        <v>193.82</v>
+        <v>192.29</v>
       </c>
       <c r="C226">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D226">
-        <v>6.52</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B227">
-        <v>191.11</v>
+        <v>192.57</v>
       </c>
       <c r="C227">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D227">
-        <v>5.04</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B228">
-        <v>190.29</v>
+        <v>194.71</v>
       </c>
       <c r="C228">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D228">
-        <v>4.58</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B229">
-        <v>189.9</v>
+        <v>184.57</v>
       </c>
       <c r="C229">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D229">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B230">
-        <v>190.34</v>
+        <v>158.19</v>
       </c>
       <c r="C230">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D230">
-        <v>4.61</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B231">
-        <v>190.33</v>
+        <v>158.22</v>
       </c>
       <c r="C231">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D231">
-        <v>4.61</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B232">
-        <v>190.44</v>
+        <v>158.54</v>
       </c>
       <c r="C232">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D232">
-        <v>4.66</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B233">
-        <v>190.43</v>
+        <v>157.51</v>
       </c>
       <c r="C233">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D233">
-        <v>4.66</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B234">
-        <v>190.39</v>
+        <v>156.79</v>
       </c>
       <c r="C234">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D234">
-        <v>4.64</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B235">
-        <v>190.21</v>
+        <v>156.77</v>
       </c>
       <c r="C235">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D235">
-        <v>4.54</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B236">
-        <v>190.31</v>
+        <v>156.56</v>
       </c>
       <c r="C236">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D236">
-        <v>4.6</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B237">
-        <v>189.79</v>
+        <v>156.77</v>
       </c>
       <c r="C237">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D237">
-        <v>4.31</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B238">
-        <v>189.51</v>
+        <v>156.24</v>
       </c>
       <c r="C238">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D238">
-        <v>4.15</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B239">
-        <v>189.98</v>
+        <v>155.64</v>
       </c>
       <c r="C239">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D239">
-        <v>4.41</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B240">
-        <v>200.62</v>
+        <v>155.1</v>
       </c>
       <c r="C240">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D240">
-        <v>10.26</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B241">
-        <v>243.02</v>
+        <v>156.3</v>
       </c>
       <c r="C241">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D241">
-        <v>33.56</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B242">
-        <v>212.07</v>
+        <v>156</v>
       </c>
       <c r="C242">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D242">
-        <v>16.56</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B243">
-        <v>199.58</v>
+        <v>156.52</v>
       </c>
       <c r="C243">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D243">
-        <v>9.69</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B244">
-        <v>199.01</v>
+        <v>159.27</v>
       </c>
       <c r="C244">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D244">
-        <v>9.380000000000001</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B245">
-        <v>227.33</v>
+        <v>158</v>
       </c>
       <c r="C245">
         <v>178.06</v>
       </c>
       <c r="D245">
-        <v>27.67</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B246">
-        <v>205.73</v>
+        <v>157</v>
       </c>
       <c r="C246">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D246">
-        <v>15.54</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B247">
-        <v>199.47</v>
+        <v>157</v>
       </c>
       <c r="C247">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D247">
-        <v>12.02</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B248">
-        <v>197.33</v>
+        <v>157</v>
       </c>
       <c r="C248">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D248">
-        <v>10.82</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B249">
-        <v>196.05</v>
+        <v>44047</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
       </c>
       <c r="C249">
-        <v>178.06</v>
-      </c>
-      <c r="D249">
-        <v>10.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B250">
-        <v>195.09</v>
+        <v>44048</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
       </c>
       <c r="C250">
-        <v>178.06</v>
-      </c>
-      <c r="D250">
-        <v>9.57</v>
+        <v>174.89</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B251">
-        <v>194.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>178.06</v>
-      </c>
-      <c r="D251">
-        <v>9.369999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B252">
-        <v>194.12</v>
+        <v>44050</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>178.06</v>
-      </c>
-      <c r="D252">
-        <v>9.02</v>
+        <v>174.89</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B253">
-        <v>193.64</v>
+        <v>44051</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
       </c>
       <c r="C253">
-        <v>178.06</v>
-      </c>
-      <c r="D253">
-        <v>8.75</v>
+        <v>174.89</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B254">
-        <v>192.79</v>
+        <v>44052</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
       </c>
       <c r="C254">
-        <v>178.06</v>
-      </c>
-      <c r="D254">
-        <v>8.27</v>
+        <v>174.89</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B255">
-        <v>192.14</v>
+        <v>44053</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
       </c>
       <c r="C255">
-        <v>178.06</v>
-      </c>
-      <c r="D255">
-        <v>7.9</v>
+        <v>174.89</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B256">
-        <v>192.29</v>
+        <v>44054</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
       </c>
       <c r="C256">
-        <v>178.06</v>
-      </c>
-      <c r="D256">
-        <v>7.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B257">
-        <v>192.57</v>
+        <v>44055</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
       </c>
       <c r="C257">
-        <v>178.06</v>
-      </c>
-      <c r="D257">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B258">
-        <v>194.71</v>
+        <v>44056</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
       </c>
       <c r="C258">
-        <v>178.06</v>
-      </c>
-      <c r="D258">
-        <v>9.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B259">
-        <v>184.57</v>
+        <v>44057</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
       </c>
       <c r="C259">
-        <v>178.06</v>
-      </c>
-      <c r="D259">
-        <v>3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B260">
-        <v>158.19</v>
+        <v>44058</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>178.06</v>
-      </c>
-      <c r="D260">
-        <v>-11.16</v>
+        <v>174.89</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B261">
-        <v>158.22</v>
+        <v>44059</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
       </c>
       <c r="C261">
-        <v>178.06</v>
-      </c>
-      <c r="D261">
-        <v>-11.14</v>
+        <v>174.89</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B262">
-        <v>158.54</v>
+        <v>44060</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
       </c>
       <c r="C262">
-        <v>178.06</v>
-      </c>
-      <c r="D262">
-        <v>-10.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B263">
-        <v>157.51</v>
+        <v>44061</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
       </c>
       <c r="C263">
-        <v>178.06</v>
-      </c>
-      <c r="D263">
-        <v>-11.54</v>
+        <v>174.89</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B264">
-        <v>156.79</v>
+        <v>44062</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
       </c>
       <c r="C264">
-        <v>178.06</v>
-      </c>
-      <c r="D264">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B265">
-        <v>156.77</v>
+        <v>44063</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
       </c>
       <c r="C265">
-        <v>178.06</v>
-      </c>
-      <c r="D265">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B266">
-        <v>156.56</v>
+        <v>44064</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
       </c>
       <c r="C266">
-        <v>178.06</v>
-      </c>
-      <c r="D266">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B267">
-        <v>156.77</v>
+        <v>44065</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
       </c>
       <c r="C267">
-        <v>178.06</v>
-      </c>
-      <c r="D267">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B268">
-        <v>156.24</v>
+        <v>44066</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
       </c>
       <c r="C268">
-        <v>178.06</v>
-      </c>
-      <c r="D268">
-        <v>-12.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B269">
-        <v>155.64</v>
+        <v>44067</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
       </c>
       <c r="C269">
-        <v>178.06</v>
-      </c>
-      <c r="D269">
-        <v>-12.59</v>
+        <v>174.89</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B270">
-        <v>155.1</v>
+        <v>44068</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
       </c>
       <c r="C270">
-        <v>178.06</v>
-      </c>
-      <c r="D270">
-        <v>-12.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B271">
-        <v>156.3</v>
+        <v>44069</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
       </c>
       <c r="C271">
-        <v>178.06</v>
-      </c>
-      <c r="D271">
-        <v>-12.22</v>
+        <v>174.89</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44040</v>
-      </c>
-      <c r="B272">
-        <v>156</v>
+        <v>44070</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
       </c>
       <c r="C272">
-        <v>178.06</v>
-      </c>
-      <c r="D272">
-        <v>-12.39</v>
+        <v>174.89</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B273">
-        <v>156.52</v>
+        <v>163.64</v>
       </c>
       <c r="C273">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D273">
-        <v>-12.1</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B274">
-        <v>159.27</v>
+        <v>163.91</v>
       </c>
       <c r="C274">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D274">
-        <v>-10.55</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B275">
-        <v>158</v>
+        <v>163.57</v>
       </c>
       <c r="C275">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D275">
-        <v>-11.27</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B276">
-        <v>157</v>
+        <v>163.44</v>
       </c>
       <c r="C276">
         <v>174.89</v>
       </c>
       <c r="D276">
-        <v>-10.23</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B277">
-        <v>157</v>
+        <v>163.22</v>
       </c>
       <c r="C277">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D277">
-        <v>-10.23</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B278">
-        <v>157</v>
+        <v>163.31</v>
       </c>
       <c r="C278">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D278">
-        <v>-10.23</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B279" t="s">
-        <v>4</v>
+        <v>44077</v>
+      </c>
+      <c r="B279">
+        <v>163.8</v>
       </c>
       <c r="C279">
-        <v>174.89</v>
-      </c>
-      <c r="D279" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D279">
+        <v>-7.44</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B280" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B280">
+        <v>165.49</v>
       </c>
       <c r="C280">
-        <v>174.89</v>
-      </c>
-      <c r="D280" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D280">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B281" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B281">
+        <v>166.85</v>
       </c>
       <c r="C281">
-        <v>174.89</v>
-      </c>
-      <c r="D281" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D281">
+        <v>-5.72</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B282" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B282">
+        <v>166.58</v>
       </c>
       <c r="C282">
-        <v>174.89</v>
-      </c>
-      <c r="D282" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D282">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B283" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B283">
+        <v>165.9</v>
       </c>
       <c r="C283">
-        <v>174.89</v>
-      </c>
-      <c r="D283" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D283">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B284" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B284">
+        <v>165.68</v>
       </c>
       <c r="C284">
-        <v>174.89</v>
-      </c>
-      <c r="D284" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D284">
+        <v>-6.38</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B285" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B285">
+        <v>165.5</v>
       </c>
       <c r="C285">
-        <v>174.89</v>
-      </c>
-      <c r="D285" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D285">
+        <v>-6.48</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B286" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B286">
+        <v>165.97</v>
       </c>
       <c r="C286">
-        <v>174.89</v>
-      </c>
-      <c r="D286" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D286">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B287" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B287">
+        <v>165.58</v>
       </c>
       <c r="C287">
-        <v>174.89</v>
-      </c>
-      <c r="D287" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D287">
+        <v>-6.44</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B288" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B288">
+        <v>165.33</v>
       </c>
       <c r="C288">
-        <v>174.89</v>
-      </c>
-      <c r="D288" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D288">
+        <v>-6.58</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B289" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B289">
+        <v>167.94</v>
       </c>
       <c r="C289">
-        <v>174.89</v>
-      </c>
-      <c r="D289" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D289">
+        <v>-5.11</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B290" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B290">
+        <v>168.38</v>
       </c>
       <c r="C290">
-        <v>174.89</v>
-      </c>
-      <c r="D290" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D290">
+        <v>-4.86</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B291" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B291">
+        <v>167.68</v>
       </c>
       <c r="C291">
-        <v>174.89</v>
-      </c>
-      <c r="D291" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D291">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B292" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B292">
+        <v>167.68</v>
       </c>
       <c r="C292">
-        <v>174.89</v>
-      </c>
-      <c r="D292" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D292">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B293" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B293">
+        <v>168.85</v>
       </c>
       <c r="C293">
-        <v>174.89</v>
-      </c>
-      <c r="D293" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D293">
+        <v>-4.59</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B294" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B294">
+        <v>168.47</v>
       </c>
       <c r="C294">
-        <v>174.89</v>
-      </c>
-      <c r="D294" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D294">
+        <v>-4.81</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B295" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B295">
+        <v>168.24</v>
       </c>
       <c r="C295">
-        <v>174.89</v>
-      </c>
-      <c r="D295" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D295">
+        <v>-4.94</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B296" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B296">
+        <v>167.42</v>
       </c>
       <c r="C296">
-        <v>174.89</v>
-      </c>
-      <c r="D296" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D296">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B297" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B297">
+        <v>167.1</v>
       </c>
       <c r="C297">
-        <v>174.89</v>
-      </c>
-      <c r="D297" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D297">
+        <v>-5.58</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B298" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B298">
+        <v>167.35</v>
       </c>
       <c r="C298">
-        <v>174.89</v>
-      </c>
-      <c r="D298" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D298">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B299" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B299">
+        <v>167.81</v>
       </c>
       <c r="C299">
-        <v>174.89</v>
-      </c>
-      <c r="D299" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D299">
+        <v>-5.18</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B300" t="s">
-        <v>4</v>
+        <v>44098</v>
+      </c>
+      <c r="B300">
+        <v>168.55</v>
       </c>
       <c r="C300">
-        <v>174.89</v>
-      </c>
-      <c r="D300" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D300">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B301" t="s">
-        <v>4</v>
+        <v>44099</v>
+      </c>
+      <c r="B301">
+        <v>168.34</v>
       </c>
       <c r="C301">
-        <v>174.89</v>
-      </c>
-      <c r="D301" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D301">
+        <v>-4.88</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44070</v>
-      </c>
-      <c r="B302" t="s">
-        <v>4</v>
+        <v>44100</v>
+      </c>
+      <c r="B302">
+        <v>167.75</v>
       </c>
       <c r="C302">
-        <v>174.89</v>
-      </c>
-      <c r="D302" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D302">
+        <v>-5.21</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B303">
-        <v>163.64</v>
+        <v>167.59</v>
       </c>
       <c r="C303">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D303">
-        <v>-6.43</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B304">
-        <v>163.91</v>
+        <v>167.8</v>
       </c>
       <c r="C304">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D304">
-        <v>-6.28</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B305">
-        <v>163.57</v>
+        <v>169.27</v>
       </c>
       <c r="C305">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D305">
-        <v>-6.47</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B306">
-        <v>163.44</v>
+        <v>169.25</v>
       </c>
       <c r="C306">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D306">
-        <v>-6.55</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B307">
-        <v>163.22</v>
+        <v>168.84</v>
       </c>
       <c r="C307">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D307">
-        <v>-7.77</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B308">
-        <v>163.31</v>
+        <v>168.04</v>
       </c>
       <c r="C308">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D308">
-        <v>-7.72</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B309">
-        <v>163.8</v>
+        <v>167.57</v>
       </c>
       <c r="C309">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D309">
-        <v>-7.44</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B310">
-        <v>165.49</v>
+        <v>166.82</v>
       </c>
       <c r="C310">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D310">
-        <v>-6.49</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B311">
-        <v>166.85</v>
+        <v>167.06</v>
       </c>
       <c r="C311">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D311">
-        <v>-5.72</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B312">
-        <v>166.58</v>
+        <v>167.32</v>
       </c>
       <c r="C312">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D312">
-        <v>-5.87</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B313">
-        <v>165.9</v>
+        <v>167.31</v>
       </c>
       <c r="C313">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D313">
-        <v>-6.26</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B314">
-        <v>165.68</v>
+        <v>169.44</v>
       </c>
       <c r="C314">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D314">
-        <v>-6.38</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B315">
-        <v>165.5</v>
+        <v>175.8</v>
       </c>
       <c r="C315">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D315">
-        <v>-6.48</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B316">
-        <v>165.97</v>
+        <v>176.98</v>
       </c>
       <c r="C316">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D316">
-        <v>-6.22</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B317">
-        <v>165.58</v>
+        <v>168.89</v>
       </c>
       <c r="C317">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D317">
-        <v>-6.44</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B318">
-        <v>165.33</v>
+        <v>168.22</v>
       </c>
       <c r="C318">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D318">
-        <v>-6.58</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B319">
-        <v>167.94</v>
+        <v>168.83</v>
       </c>
       <c r="C319">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D319">
-        <v>-5.11</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B320">
-        <v>168.38</v>
+        <v>169.74</v>
       </c>
       <c r="C320">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D320">
-        <v>-4.86</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B321">
-        <v>167.68</v>
+        <v>169.85</v>
       </c>
       <c r="C321">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D321">
-        <v>-5.25</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B322">
-        <v>167.68</v>
+        <v>169.45</v>
       </c>
       <c r="C322">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D322">
-        <v>-5.25</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B323">
-        <v>168.85</v>
+        <v>167.78</v>
       </c>
       <c r="C323">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D323">
-        <v>-4.59</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B324">
-        <v>168.47</v>
+        <v>167.82</v>
       </c>
       <c r="C324">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D324">
-        <v>-4.81</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B325">
-        <v>168.24</v>
+        <v>169.9</v>
       </c>
       <c r="C325">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D325">
-        <v>-4.94</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B326">
-        <v>167.42</v>
+        <v>171.45</v>
       </c>
       <c r="C326">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D326">
-        <v>-5.4</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B327">
-        <v>167.1</v>
+        <v>192.56</v>
       </c>
       <c r="C327">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D327">
-        <v>-5.58</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B328">
-        <v>167.35</v>
+        <v>171.27</v>
       </c>
       <c r="C328">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D328">
-        <v>-5.44</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B329">
-        <v>167.81</v>
+        <v>169.78</v>
       </c>
       <c r="C329">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D329">
-        <v>-5.18</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B330">
-        <v>168.55</v>
+        <v>170.33</v>
       </c>
       <c r="C330">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D330">
-        <v>-4.76</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B331">
-        <v>168.34</v>
+        <v>172.71</v>
       </c>
       <c r="C331">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D331">
-        <v>-4.88</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B332">
-        <v>167.75</v>
+        <v>171.85</v>
       </c>
       <c r="C332">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D332">
-        <v>-5.21</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B333">
-        <v>167.59</v>
+        <v>171.28</v>
       </c>
       <c r="C333">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D333">
-        <v>-5.3</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B334">
-        <v>167.8</v>
+        <v>170.75</v>
       </c>
       <c r="C334">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D334">
-        <v>-5.18</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B335">
-        <v>169.27</v>
+        <v>170.95</v>
       </c>
       <c r="C335">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D335">
-        <v>-4.35</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B336">
-        <v>169.25</v>
+        <v>197.08</v>
       </c>
       <c r="C336">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D336">
-        <v>-4.37</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337">
-        <v>168.84</v>
+        <v>181.15</v>
       </c>
       <c r="C337">
         <v>180.02</v>
       </c>
       <c r="D337">
-        <v>-6.21</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B338">
-        <v>168.04</v>
+        <v>176.74</v>
       </c>
       <c r="C338">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D338">
-        <v>-6.65</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B339">
-        <v>167.57</v>
+        <v>176.12</v>
       </c>
       <c r="C339">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D339">
-        <v>-6.91</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B340">
-        <v>166.82</v>
+        <v>177.07</v>
       </c>
       <c r="C340">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D340">
-        <v>-7.33</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B341">
-        <v>167.06</v>
+        <v>183.07</v>
       </c>
       <c r="C341">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D341">
-        <v>-7.2</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B342">
-        <v>167.32</v>
+        <v>187.71</v>
       </c>
       <c r="C342">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D342">
-        <v>-7.05</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B343">
-        <v>167.31</v>
+        <v>181.83</v>
       </c>
       <c r="C343">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D343">
-        <v>-7.06</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B344">
-        <v>169.44</v>
+        <v>181.02</v>
       </c>
       <c r="C344">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D344">
-        <v>-5.88</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B345">
-        <v>175.8</v>
+        <v>180.93</v>
       </c>
       <c r="C345">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D345">
-        <v>-2.34</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B346">
-        <v>176.98</v>
+        <v>181.77</v>
       </c>
       <c r="C346">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D346">
-        <v>-1.69</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B347">
-        <v>168.89</v>
+        <v>219.38</v>
       </c>
       <c r="C347">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D347">
-        <v>-6.19</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B348">
-        <v>168.22</v>
+        <v>234.17</v>
       </c>
       <c r="C348">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D348">
-        <v>-6.56</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B349">
-        <v>168.83</v>
+        <v>242.04</v>
       </c>
       <c r="C349">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D349">
-        <v>-6.21</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B350">
-        <v>169.74</v>
+        <v>219.81</v>
       </c>
       <c r="C350">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D350">
-        <v>-5.71</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B351">
-        <v>169.85</v>
+        <v>216.64</v>
       </c>
       <c r="C351">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D351">
-        <v>-5.65</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B352">
-        <v>169.45</v>
+        <v>213.18</v>
       </c>
       <c r="C352">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D352">
-        <v>-5.87</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B353">
-        <v>167.78</v>
+        <v>217.07</v>
       </c>
       <c r="C353">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D353">
-        <v>-6.8</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B354">
-        <v>167.82</v>
+        <v>208.06</v>
       </c>
       <c r="C354">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D354">
-        <v>-6.78</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B355">
-        <v>169.9</v>
+        <v>203.52</v>
       </c>
       <c r="C355">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D355">
-        <v>-5.62</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B356">
-        <v>171.45</v>
+        <v>215.37</v>
       </c>
       <c r="C356">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D356">
-        <v>-4.76</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B357">
-        <v>192.56</v>
+        <v>209.37</v>
       </c>
       <c r="C357">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D357">
-        <v>6.97</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B358">
-        <v>171.27</v>
+        <v>205.92</v>
       </c>
       <c r="C358">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D358">
-        <v>-4.86</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B359">
-        <v>169.78</v>
+        <v>204.76</v>
       </c>
       <c r="C359">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D359">
-        <v>-5.69</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B360">
-        <v>170.33</v>
+        <v>203.03</v>
       </c>
       <c r="C360">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D360">
-        <v>-5.38</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B361">
-        <v>172.71</v>
+        <v>199.81</v>
       </c>
       <c r="C361">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D361">
-        <v>-4.06</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B362">
-        <v>171.85</v>
+        <v>197.45</v>
       </c>
       <c r="C362">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D362">
-        <v>-4.54</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B363">
-        <v>171.28</v>
+        <v>196.24</v>
       </c>
       <c r="C363">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D363">
-        <v>-4.85</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B364">
-        <v>170.75</v>
+        <v>197.44</v>
       </c>
       <c r="C364">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D364">
-        <v>-5.15</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B365">
-        <v>170.95</v>
+        <v>212.78</v>
       </c>
       <c r="C365">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D365">
-        <v>-5.04</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B366">
-        <v>197.08</v>
+        <v>202.44</v>
       </c>
       <c r="C366">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D366">
-        <v>9.48</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B367">
-        <v>181.15</v>
+        <v>201.49</v>
       </c>
       <c r="C367">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D367">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B368">
-        <v>176.74</v>
-      </c>
-      <c r="C368">
-        <v>179.34</v>
-      </c>
-      <c r="D368">
-        <v>-1.45</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B369">
-        <v>176.12</v>
-      </c>
-      <c r="C369">
-        <v>179.34</v>
-      </c>
-      <c r="D369">
-        <v>-1.79</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B370">
-        <v>177.07</v>
-      </c>
-      <c r="C370">
-        <v>179.34</v>
-      </c>
-      <c r="D370">
-        <v>-1.27</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B371">
-        <v>183.07</v>
-      </c>
-      <c r="C371">
-        <v>179.34</v>
-      </c>
-      <c r="D371">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B372">
-        <v>187.71</v>
-      </c>
-      <c r="C372">
-        <v>179.34</v>
-      </c>
-      <c r="D372">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B373">
-        <v>181.83</v>
-      </c>
-      <c r="C373">
-        <v>179.34</v>
-      </c>
-      <c r="D373">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B374">
-        <v>181.02</v>
-      </c>
-      <c r="C374">
-        <v>179.34</v>
-      </c>
-      <c r="D374">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B375">
-        <v>180.93</v>
-      </c>
-      <c r="C375">
-        <v>179.34</v>
-      </c>
-      <c r="D375">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44144</v>
-      </c>
-      <c r="B376">
-        <v>181.77</v>
-      </c>
-      <c r="C376">
-        <v>179.34</v>
-      </c>
-      <c r="D376">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44145</v>
-      </c>
-      <c r="B377">
-        <v>219.38</v>
-      </c>
-      <c r="C377">
-        <v>179.34</v>
-      </c>
-      <c r="D377">
-        <v>22.33</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B378">
-        <v>234.17</v>
-      </c>
-      <c r="C378">
-        <v>179.34</v>
-      </c>
-      <c r="D378">
-        <v>30.57</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B379">
-        <v>242.04</v>
-      </c>
-      <c r="C379">
-        <v>179.34</v>
-      </c>
-      <c r="D379">
-        <v>34.96</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B380">
-        <v>219.81</v>
-      </c>
-      <c r="C380">
-        <v>179.34</v>
-      </c>
-      <c r="D380">
-        <v>22.57</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B381">
-        <v>216.64</v>
-      </c>
-      <c r="C381">
-        <v>179.34</v>
-      </c>
-      <c r="D381">
-        <v>20.79</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B382">
-        <v>213.18</v>
-      </c>
-      <c r="C382">
-        <v>179.34</v>
-      </c>
-      <c r="D382">
-        <v>18.87</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B383">
-        <v>217.07</v>
-      </c>
-      <c r="C383">
-        <v>179.34</v>
-      </c>
-      <c r="D383">
-        <v>21.04</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B384">
-        <v>208.06</v>
-      </c>
-      <c r="C384">
-        <v>179.34</v>
-      </c>
-      <c r="D384">
-        <v>16.01</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B385">
-        <v>203.52</v>
-      </c>
-      <c r="C385">
-        <v>179.34</v>
-      </c>
-      <c r="D385">
-        <v>13.48</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B386">
-        <v>215.35</v>
-      </c>
-      <c r="C386">
-        <v>179.34</v>
-      </c>
-      <c r="D386">
-        <v>20.08</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B387">
-        <v>209.36</v>
-      </c>
-      <c r="C387">
-        <v>179.34</v>
-      </c>
-      <c r="D387">
-        <v>16.74</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B388">
-        <v>205.92</v>
-      </c>
-      <c r="C388">
-        <v>179.34</v>
-      </c>
-      <c r="D388">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B389">
-        <v>204.76</v>
-      </c>
-      <c r="C389">
-        <v>179.34</v>
-      </c>
-      <c r="D389">
-        <v>14.17</v>
+        <v>12.35</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -420,170 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B2">
-        <v>167.01</v>
+        <v>169.28</v>
       </c>
       <c r="C2">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D2">
-        <v>-8.09</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B3">
-        <v>169.28</v>
+        <v>177.33</v>
       </c>
       <c r="C3">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D3">
-        <v>-9.890000000000001</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B4">
-        <v>177.33</v>
+        <v>176.84</v>
       </c>
       <c r="C4">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D4">
-        <v>-2.81</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B5">
-        <v>176.84</v>
+        <v>173.53</v>
       </c>
       <c r="C5">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D5">
-        <v>-3.74</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B6">
-        <v>173.53</v>
+        <v>180.98</v>
       </c>
       <c r="C6">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D6">
-        <v>-2.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>180.98</v>
+        <v>194.54</v>
       </c>
       <c r="C7">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D7">
-        <v>0.28</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B8">
-        <v>194.54</v>
+        <v>176.29</v>
       </c>
       <c r="C8">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D8">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B9">
-        <v>176.29</v>
+        <v>160.79</v>
       </c>
       <c r="C9">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D9">
-        <v>-0.99</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B10">
-        <v>160.79</v>
+        <v>166.96</v>
       </c>
       <c r="C10">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D10">
-        <v>-8.06</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B11">
-        <v>166.96</v>
+        <v>171.83</v>
       </c>
       <c r="C11">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D11">
-        <v>-5.66</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B12">
-        <v>171.83</v>
+        <v>201.54</v>
       </c>
       <c r="C12">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D12">
-        <v>-4.55</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B13">
-        <v>201.54</v>
+        <v>217.22</v>
       </c>
       <c r="C13">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D13">
-        <v>12.38</v>
+        <v>19.54</v>
       </c>
     </row>
   </sheetData>
@@ -620,5126 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B2">
-        <v>170.6</v>
+        <v>163.45</v>
       </c>
       <c r="C2">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D2">
-        <v>-6.11</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B3">
-        <v>170.41</v>
+        <v>183.35</v>
       </c>
       <c r="C3">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D3">
-        <v>-6.22</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B4">
-        <v>167.47</v>
+        <v>175.52</v>
       </c>
       <c r="C4">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D4">
-        <v>-7.84</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B5">
-        <v>163</v>
+        <v>173.74</v>
       </c>
       <c r="C5">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D5">
-        <v>-10.3</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B6">
-        <v>166.24</v>
+        <v>181.57</v>
       </c>
       <c r="C6">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D6">
-        <v>-8.51</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B7">
-        <v>172.11</v>
+        <v>167.6</v>
       </c>
       <c r="C7">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D7">
-        <v>-5.28</v>
+        <v>-10.78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B8">
-        <v>166.21</v>
+        <v>166.05</v>
       </c>
       <c r="C8">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D8">
-        <v>-8.529999999999999</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B9">
-        <v>164.34</v>
+        <v>166.36</v>
       </c>
       <c r="C9">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D9">
-        <v>-9.56</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B10">
-        <v>164.2</v>
+        <v>166.81</v>
       </c>
       <c r="C10">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D10">
-        <v>-9.640000000000001</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B11">
-        <v>164.6</v>
+        <v>175.46</v>
       </c>
       <c r="C11">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D11">
-        <v>-9.41</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B12">
-        <v>165</v>
+        <v>169.85</v>
       </c>
       <c r="C12">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D12">
-        <v>-9.199999999999999</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B13">
-        <v>165.1</v>
+        <v>171.53</v>
       </c>
       <c r="C13">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D13">
-        <v>-9.140000000000001</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B14">
-        <v>164.36</v>
+        <v>169.51</v>
       </c>
       <c r="C14">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D14">
-        <v>-9.550000000000001</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B15">
-        <v>163.99</v>
+        <v>166.66</v>
       </c>
       <c r="C15">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D15">
-        <v>-9.75</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B16">
-        <v>164.51</v>
+        <v>166.09</v>
       </c>
       <c r="C16">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D16">
-        <v>-9.470000000000001</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B17">
-        <v>169.16</v>
+        <v>166.94</v>
       </c>
       <c r="C17">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D17">
-        <v>-6.91</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B18">
-        <v>174.94</v>
+        <v>170.33</v>
       </c>
       <c r="C18">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D18">
-        <v>-3.73</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B19">
-        <v>173.45</v>
+        <v>167.12</v>
       </c>
       <c r="C19">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D19">
-        <v>-4.55</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B20">
-        <v>169.71</v>
+        <v>166.74</v>
       </c>
       <c r="C20">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D20">
-        <v>-6.61</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B21">
-        <v>167.21</v>
+        <v>166.82</v>
       </c>
       <c r="C21">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D21">
-        <v>-7.98</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B22">
-        <v>188.1</v>
+        <v>166.5</v>
       </c>
       <c r="C22">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D22">
-        <v>3.52</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B23">
-        <v>167.72</v>
+        <v>166</v>
       </c>
       <c r="C23">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D23">
-        <v>-7.7</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B24">
-        <v>164.7</v>
+        <v>166.55</v>
       </c>
       <c r="C24">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D24">
-        <v>-9.359999999999999</v>
+        <v>-11.34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B25">
-        <v>164.61</v>
+        <v>167.1</v>
       </c>
       <c r="C25">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D25">
-        <v>-9.41</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B26">
-        <v>164.38</v>
+        <v>166.36</v>
       </c>
       <c r="C26">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D26">
-        <v>-9.539999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B27">
-        <v>164.08</v>
+        <v>166.38</v>
       </c>
       <c r="C27">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D27">
-        <v>-9.699999999999999</v>
+        <v>-11.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B28">
-        <v>163.36</v>
+        <v>166.5</v>
       </c>
       <c r="C28">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D28">
-        <v>-10.1</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B29">
-        <v>163.55</v>
+        <v>168.21</v>
       </c>
       <c r="C29">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D29">
-        <v>-9.99</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B30">
-        <v>163.5</v>
+        <v>168.44</v>
       </c>
       <c r="C30">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D30">
-        <v>-10.02</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B31">
-        <v>163.32</v>
+        <v>170.26</v>
       </c>
       <c r="C31">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D31">
-        <v>-10.12</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B32">
-        <v>163.46</v>
+        <v>173.73</v>
       </c>
       <c r="C32">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D32">
-        <v>-10.04</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B33">
-        <v>163.45</v>
+        <v>172.53</v>
       </c>
       <c r="C33">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D33">
-        <v>-12.99</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B34">
-        <v>183.35</v>
+        <v>170.89</v>
       </c>
       <c r="C34">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D34">
-        <v>-2.4</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B35">
-        <v>175.52</v>
+        <v>172.28</v>
       </c>
       <c r="C35">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D35">
-        <v>-6.57</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B36">
-        <v>173.74</v>
+        <v>171.57</v>
       </c>
       <c r="C36">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D36">
-        <v>-7.52</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B37">
-        <v>181.57</v>
+        <v>171.47</v>
       </c>
       <c r="C37">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D37">
-        <v>-3.35</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B38">
-        <v>167.6</v>
+        <v>180.74</v>
       </c>
       <c r="C38">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D38">
-        <v>-10.78</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B39">
-        <v>166.05</v>
+        <v>185.08</v>
       </c>
       <c r="C39">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D39">
-        <v>-11.61</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B40">
-        <v>166.36</v>
+        <v>177.7</v>
       </c>
       <c r="C40">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D40">
-        <v>-11.44</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B41">
-        <v>166.81</v>
+        <v>174.41</v>
       </c>
       <c r="C41">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D41">
-        <v>-11.2</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B42">
-        <v>175.46</v>
+        <v>195.2</v>
       </c>
       <c r="C42">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D42">
-        <v>-6.6</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B43">
-        <v>169.85</v>
+        <v>178.53</v>
       </c>
       <c r="C43">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D43">
-        <v>-9.58</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B44">
-        <v>171.53</v>
+        <v>174.52</v>
       </c>
       <c r="C44">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D44">
-        <v>-8.69</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B45">
-        <v>169.51</v>
+        <v>173.31</v>
       </c>
       <c r="C45">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D45">
-        <v>-9.77</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B46">
-        <v>166.66</v>
+        <v>173.48</v>
       </c>
       <c r="C46">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D46">
-        <v>-11.29</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B47">
-        <v>166.09</v>
+        <v>173.28</v>
       </c>
       <c r="C47">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D47">
-        <v>-11.59</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B48">
-        <v>166.94</v>
+        <v>173.41</v>
       </c>
       <c r="C48">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D48">
-        <v>-11.14</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B49">
-        <v>170.33</v>
+        <v>173.76</v>
       </c>
       <c r="C49">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D49">
-        <v>-9.33</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B50">
-        <v>167.12</v>
+        <v>174.28</v>
       </c>
       <c r="C50">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D50">
-        <v>-11.04</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B51">
-        <v>166.74</v>
+        <v>175.51</v>
       </c>
       <c r="C51">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D51">
-        <v>-11.24</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B52">
-        <v>166.82</v>
+        <v>176.18</v>
       </c>
       <c r="C52">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D52">
-        <v>-11.2</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B53">
-        <v>166.5</v>
+        <v>175.24</v>
       </c>
       <c r="C53">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D53">
-        <v>-11.37</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B54">
-        <v>166</v>
+        <v>177.08</v>
       </c>
       <c r="C54">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D54">
-        <v>-11.64</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B55">
-        <v>166.55</v>
+        <v>175.4</v>
       </c>
       <c r="C55">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D55">
-        <v>-11.34</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B56">
-        <v>167.1</v>
+        <v>175.7</v>
       </c>
       <c r="C56">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D56">
-        <v>-11.05</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B57">
-        <v>166.36</v>
+        <v>177.28</v>
       </c>
       <c r="C57">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D57">
-        <v>-11.44</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B58">
-        <v>166.38</v>
+        <v>189.77</v>
       </c>
       <c r="C58">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D58">
-        <v>-11.44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B59">
-        <v>166.5</v>
+        <v>192.17</v>
       </c>
       <c r="C59">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D59">
-        <v>-11.37</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B60">
-        <v>168.21</v>
+        <v>181</v>
       </c>
       <c r="C60">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D60">
-        <v>-10.46</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B61">
-        <v>168.44</v>
+        <v>180.89</v>
       </c>
       <c r="C61">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D61">
-        <v>-10.34</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B62">
-        <v>170.26</v>
+        <v>182.48</v>
       </c>
       <c r="C62">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D62">
-        <v>-9.369999999999999</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B63">
-        <v>173.73</v>
+        <v>184.88</v>
       </c>
       <c r="C63">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D63">
-        <v>-7.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B64">
-        <v>172.53</v>
+        <v>185.24</v>
       </c>
       <c r="C64">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D64">
-        <v>-5.44</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B65">
-        <v>170.89</v>
+        <v>185.14</v>
       </c>
       <c r="C65">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D65">
-        <v>-6.35</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B66">
-        <v>172.28</v>
+        <v>185.64</v>
       </c>
       <c r="C66">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D66">
-        <v>-5.58</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B67">
-        <v>171.57</v>
+        <v>184.94</v>
       </c>
       <c r="C67">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D67">
-        <v>-5.97</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B68">
-        <v>171.47</v>
+        <v>183.45</v>
       </c>
       <c r="C68">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D68">
-        <v>-6.03</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B69">
-        <v>180.74</v>
+        <v>182.23</v>
       </c>
       <c r="C69">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D69">
-        <v>-0.9399999999999999</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B70">
-        <v>185.08</v>
+        <v>180.22</v>
       </c>
       <c r="C70">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D70">
-        <v>1.43</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B71">
-        <v>177.7</v>
+        <v>178.26</v>
       </c>
       <c r="C71">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D71">
-        <v>-2.61</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B72">
-        <v>174.41</v>
+        <v>177.05</v>
       </c>
       <c r="C72">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D72">
-        <v>-4.42</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B73">
-        <v>195.2</v>
+        <v>176.65</v>
       </c>
       <c r="C73">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D73">
-        <v>6.98</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B74">
-        <v>178.53</v>
+        <v>175.85</v>
       </c>
       <c r="C74">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D74">
-        <v>-2.16</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B75">
-        <v>174.52</v>
+        <v>174.83</v>
       </c>
       <c r="C75">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D75">
-        <v>-4.35</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B76">
-        <v>173.31</v>
+        <v>175.1</v>
       </c>
       <c r="C76">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D76">
-        <v>-5.02</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B77">
-        <v>173.48</v>
+        <v>175.43</v>
       </c>
       <c r="C77">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D77">
-        <v>-4.92</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B78">
-        <v>173.28</v>
+        <v>177.77</v>
       </c>
       <c r="C78">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D78">
-        <v>-5.03</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B79">
-        <v>173.41</v>
+        <v>176.42</v>
       </c>
       <c r="C79">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D79">
-        <v>-4.96</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B80">
-        <v>173.76</v>
+        <v>181.1</v>
       </c>
       <c r="C80">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D80">
-        <v>-4.77</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B81">
-        <v>174.28</v>
+        <v>182.67</v>
       </c>
       <c r="C81">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D81">
-        <v>-4.49</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B82">
-        <v>175.51</v>
+        <v>173.3</v>
       </c>
       <c r="C82">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D82">
-        <v>-3.81</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B83">
-        <v>176.18</v>
+        <v>172.47</v>
       </c>
       <c r="C83">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D83">
-        <v>-3.45</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B84">
-        <v>175.24</v>
+        <v>171.28</v>
       </c>
       <c r="C84">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D84">
-        <v>-3.96</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B85">
-        <v>177.08</v>
+        <v>170.7</v>
       </c>
       <c r="C85">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D85">
-        <v>-2.95</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B86">
-        <v>175.4</v>
+        <v>170.45</v>
       </c>
       <c r="C86">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D86">
-        <v>-3.87</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B87">
-        <v>175.7</v>
+        <v>169.75</v>
       </c>
       <c r="C87">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D87">
-        <v>-3.71</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B88">
-        <v>177.28</v>
+        <v>169.51</v>
       </c>
       <c r="C88">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D88">
-        <v>-2.84</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B89">
-        <v>189.77</v>
+        <v>169.27</v>
       </c>
       <c r="C89">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B90">
-        <v>192.17</v>
+        <v>169.38</v>
       </c>
       <c r="C90">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D90">
-        <v>5.32</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>181</v>
+        <v>170.38</v>
       </c>
       <c r="C91">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D91">
-        <v>-0.8</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>180.89</v>
+        <v>170.36</v>
       </c>
       <c r="C92">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D92">
-        <v>-0.87</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>182.48</v>
+        <v>170.17</v>
       </c>
       <c r="C93">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D93">
-        <v>-0.67</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B94">
-        <v>184.88</v>
+        <v>170.51</v>
       </c>
       <c r="C94">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D94">
-        <v>0.63</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>185.24</v>
+        <v>170.17</v>
       </c>
       <c r="C95">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D95">
-        <v>0.83</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>185.14</v>
+        <v>168.46</v>
       </c>
       <c r="C96">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D96">
-        <v>0.77</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>185.64</v>
+        <v>168.53</v>
       </c>
       <c r="C97">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D97">
-        <v>1.05</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B98">
-        <v>184.94</v>
+        <v>170.89</v>
       </c>
       <c r="C98">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D98">
-        <v>0.67</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B99">
-        <v>183.45</v>
+        <v>181.5</v>
       </c>
       <c r="C99">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D99">
-        <v>-0.14</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B100">
-        <v>182.23</v>
+        <v>171.71</v>
       </c>
       <c r="C100">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D100">
-        <v>-0.8100000000000001</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B101">
-        <v>180.22</v>
+        <v>170.67</v>
       </c>
       <c r="C101">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D101">
-        <v>-1.9</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B102">
-        <v>178.26</v>
+        <v>170.45</v>
       </c>
       <c r="C102">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D102">
-        <v>-2.97</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B103">
-        <v>177.05</v>
+        <v>170.78</v>
       </c>
       <c r="C103">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D103">
-        <v>-3.63</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B104">
-        <v>176.65</v>
+        <v>171.6</v>
       </c>
       <c r="C104">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D104">
-        <v>-3.85</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B105">
-        <v>175.85</v>
+        <v>172.16</v>
       </c>
       <c r="C105">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D105">
-        <v>-4.28</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B106">
-        <v>174.83</v>
+        <v>175.06</v>
       </c>
       <c r="C106">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D106">
-        <v>-4.83</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B107">
-        <v>175.1</v>
+        <v>174.82</v>
       </c>
       <c r="C107">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D107">
-        <v>-4.69</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B108">
-        <v>175.43</v>
+        <v>172.81</v>
       </c>
       <c r="C108">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D108">
-        <v>-4.51</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B109">
-        <v>177.77</v>
+        <v>172.82</v>
       </c>
       <c r="C109">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D109">
-        <v>-3.23</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B110">
-        <v>176.42</v>
+        <v>173.83</v>
       </c>
       <c r="C110">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D110">
-        <v>-3.97</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B111">
-        <v>181.1</v>
+        <v>174.93</v>
       </c>
       <c r="C111">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D111">
-        <v>-1.42</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B112">
-        <v>182.67</v>
+        <v>175.38</v>
       </c>
       <c r="C112">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D112">
-        <v>-0.57</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B113">
-        <v>173.3</v>
+        <v>174.98</v>
       </c>
       <c r="C113">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D113">
-        <v>-5.67</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B114">
-        <v>172.47</v>
+        <v>175.14</v>
       </c>
       <c r="C114">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D114">
-        <v>-6.12</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B115">
-        <v>171.28</v>
+        <v>174.93</v>
       </c>
       <c r="C115">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D115">
-        <v>-6.77</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B116">
-        <v>170.7</v>
+        <v>174.74</v>
       </c>
       <c r="C116">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D116">
-        <v>-7.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B117">
-        <v>170.45</v>
+        <v>175.66</v>
       </c>
       <c r="C117">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D117">
-        <v>-7.22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B118">
-        <v>169.75</v>
+        <v>175.97</v>
       </c>
       <c r="C118">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D118">
-        <v>-7.6</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B119">
-        <v>169.51</v>
+        <v>175.79</v>
       </c>
       <c r="C119">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D119">
-        <v>-7.73</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B120">
-        <v>169.27</v>
+        <v>176.64</v>
       </c>
       <c r="C120">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D120">
-        <v>-7.86</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B121">
-        <v>169.38</v>
+        <v>177.46</v>
       </c>
       <c r="C121">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D121">
-        <v>-7.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B122">
-        <v>170.38</v>
+        <v>177.41</v>
       </c>
       <c r="C122">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D122">
-        <v>-7.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B123">
-        <v>170.36</v>
+        <v>177.77</v>
       </c>
       <c r="C123">
-        <v>183.71</v>
+        <v>180.46</v>
       </c>
       <c r="D123">
-        <v>-7.27</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B124">
-        <v>170.17</v>
+        <v>179.3</v>
       </c>
       <c r="C124">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D124">
-        <v>-4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B125">
-        <v>170.51</v>
+        <v>178.16</v>
       </c>
       <c r="C125">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D125">
-        <v>-3.81</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B126">
-        <v>170.17</v>
+        <v>177.92</v>
       </c>
       <c r="C126">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D126">
-        <v>-4</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B127">
-        <v>168.46</v>
+        <v>177.89</v>
       </c>
       <c r="C127">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D127">
-        <v>-4.96</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B128">
-        <v>168.53</v>
+        <v>178.97</v>
       </c>
       <c r="C128">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D128">
-        <v>-4.92</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B129">
-        <v>170.89</v>
+        <v>180.19</v>
       </c>
       <c r="C129">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D129">
-        <v>-3.59</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B130">
-        <v>181.5</v>
+        <v>178.79</v>
       </c>
       <c r="C130">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D130">
-        <v>2.39</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B131">
-        <v>171.71</v>
+        <v>179.32</v>
       </c>
       <c r="C131">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D131">
-        <v>-3.13</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B132">
-        <v>170.67</v>
+        <v>180.25</v>
       </c>
       <c r="C132">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D132">
-        <v>-3.72</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B133">
-        <v>170.45</v>
+        <v>180.29</v>
       </c>
       <c r="C133">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D133">
-        <v>-3.84</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B134">
-        <v>170.78</v>
+        <v>180.36</v>
       </c>
       <c r="C134">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D134">
-        <v>-3.65</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B135">
-        <v>171.6</v>
+        <v>181.47</v>
       </c>
       <c r="C135">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D135">
-        <v>-3.19</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B136">
-        <v>172.16</v>
+        <v>183.06</v>
       </c>
       <c r="C136">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D136">
-        <v>-2.88</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B137">
-        <v>175.06</v>
+        <v>183.42</v>
       </c>
       <c r="C137">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D137">
-        <v>-1.24</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B138">
-        <v>174.82</v>
+        <v>182.61</v>
       </c>
       <c r="C138">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D138">
-        <v>-1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B139">
-        <v>172.81</v>
+        <v>181.88</v>
       </c>
       <c r="C139">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D139">
-        <v>-2.51</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B140">
-        <v>172.82</v>
+        <v>181.2</v>
       </c>
       <c r="C140">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D140">
-        <v>-2.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B141">
-        <v>173.83</v>
+        <v>180.89</v>
       </c>
       <c r="C141">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D141">
-        <v>-1.93</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B142">
-        <v>174.93</v>
+        <v>181.99</v>
       </c>
       <c r="C142">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D142">
-        <v>-1.31</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B143">
-        <v>175.38</v>
+        <v>182.41</v>
       </c>
       <c r="C143">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D143">
-        <v>-1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B144">
-        <v>174.98</v>
+        <v>182.93</v>
       </c>
       <c r="C144">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D144">
-        <v>-1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B145">
-        <v>175.14</v>
+        <v>192.26</v>
       </c>
       <c r="C145">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D145">
-        <v>-1.2</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B146">
-        <v>174.93</v>
+        <v>183.97</v>
       </c>
       <c r="C146">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D146">
-        <v>-1.31</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B147">
-        <v>174.74</v>
+        <v>181.81</v>
       </c>
       <c r="C147">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D147">
-        <v>-1.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B148">
-        <v>175.66</v>
+        <v>180.18</v>
       </c>
       <c r="C148">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D148">
-        <v>-0.9</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B149">
-        <v>175.97</v>
+        <v>179.3</v>
       </c>
       <c r="C149">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D149">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B150">
-        <v>175.79</v>
+        <v>179.68</v>
       </c>
       <c r="C150">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D150">
-        <v>-0.83</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B151">
-        <v>176.64</v>
+        <v>180.04</v>
       </c>
       <c r="C151">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D151">
-        <v>-0.35</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B152">
-        <v>177.46</v>
+        <v>180.99</v>
       </c>
       <c r="C152">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D152">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B153">
-        <v>177.41</v>
+        <v>181.04</v>
       </c>
       <c r="C153">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D153">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B154">
-        <v>177.77</v>
+        <v>181.95</v>
       </c>
       <c r="C154">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D154">
-        <v>-1.49</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B155">
-        <v>179.3</v>
+        <v>190.02</v>
       </c>
       <c r="C155">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D155">
-        <v>-0.64</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B156">
-        <v>178.16</v>
+        <v>189.89</v>
       </c>
       <c r="C156">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D156">
-        <v>-1.28</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B157">
-        <v>177.92</v>
+        <v>185.86</v>
       </c>
       <c r="C157">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D157">
-        <v>-1.41</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B158">
-        <v>177.89</v>
+        <v>191.54</v>
       </c>
       <c r="C158">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D158">
-        <v>-1.43</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B159">
-        <v>178.97</v>
+        <v>199.04</v>
       </c>
       <c r="C159">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D159">
-        <v>-0.83</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B160">
-        <v>180.19</v>
+        <v>193.44</v>
       </c>
       <c r="C160">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D160">
-        <v>-0.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B161">
-        <v>178.79</v>
+        <v>187.38</v>
       </c>
       <c r="C161">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D161">
-        <v>-0.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B162">
-        <v>179.32</v>
+        <v>191.06</v>
       </c>
       <c r="C162">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D162">
-        <v>-0.63</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B163">
-        <v>180.25</v>
+        <v>200.84</v>
       </c>
       <c r="C163">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D163">
-        <v>-0.12</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B164">
-        <v>180.29</v>
+        <v>204.15</v>
       </c>
       <c r="C164">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D164">
-        <v>-0.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B165">
-        <v>180.36</v>
+        <v>193.82</v>
       </c>
       <c r="C165">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D165">
-        <v>-0.06</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B166">
-        <v>181.47</v>
+        <v>191.11</v>
       </c>
       <c r="C166">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D166">
-        <v>0.5600000000000001</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B167">
-        <v>183.06</v>
+        <v>190.29</v>
       </c>
       <c r="C167">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D167">
-        <v>1.44</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B168">
-        <v>183.42</v>
+        <v>189.9</v>
       </c>
       <c r="C168">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D168">
-        <v>1.64</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B169">
-        <v>182.61</v>
+        <v>190.34</v>
       </c>
       <c r="C169">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D169">
-        <v>1.19</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B170">
-        <v>181.88</v>
+        <v>190.33</v>
       </c>
       <c r="C170">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D170">
-        <v>0.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B171">
-        <v>181.2</v>
+        <v>190.44</v>
       </c>
       <c r="C171">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D171">
-        <v>0.41</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B172">
-        <v>180.89</v>
+        <v>190.43</v>
       </c>
       <c r="C172">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D172">
-        <v>0.23</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B173">
-        <v>181.99</v>
+        <v>190.39</v>
       </c>
       <c r="C173">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D173">
-        <v>0.85</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B174">
-        <v>182.41</v>
+        <v>190.21</v>
       </c>
       <c r="C174">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D174">
-        <v>1.08</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B175">
-        <v>182.93</v>
+        <v>190.31</v>
       </c>
       <c r="C175">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D175">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B176">
-        <v>192.26</v>
+        <v>189.79</v>
       </c>
       <c r="C176">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D176">
-        <v>6.54</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B177">
-        <v>183.97</v>
+        <v>189.51</v>
       </c>
       <c r="C177">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D177">
-        <v>1.94</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B178">
-        <v>181.81</v>
+        <v>189.98</v>
       </c>
       <c r="C178">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D178">
-        <v>0.75</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B179">
-        <v>180.18</v>
+        <v>200.62</v>
       </c>
       <c r="C179">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D179">
-        <v>-0.16</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B180">
-        <v>179.3</v>
+        <v>243.02</v>
       </c>
       <c r="C180">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D180">
-        <v>-0.64</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B181">
-        <v>179.68</v>
+        <v>212.07</v>
       </c>
       <c r="C181">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D181">
-        <v>-0.44</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B182">
-        <v>180.04</v>
+        <v>199.58</v>
       </c>
       <c r="C182">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D182">
-        <v>-0.23</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B183">
-        <v>180.99</v>
+        <v>199.01</v>
       </c>
       <c r="C183">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D183">
-        <v>0.29</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B184">
-        <v>181.04</v>
+        <v>227.33</v>
       </c>
       <c r="C184">
-        <v>180.46</v>
+        <v>178.06</v>
       </c>
       <c r="D184">
-        <v>0.32</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B185">
-        <v>181.95</v>
+        <v>205.73</v>
       </c>
       <c r="C185">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D185">
-        <v>-0</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B186">
-        <v>190.02</v>
+        <v>199.47</v>
       </c>
       <c r="C186">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D186">
-        <v>4.44</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B187">
-        <v>189.89</v>
+        <v>197.33</v>
       </c>
       <c r="C187">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D187">
-        <v>4.36</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B188">
-        <v>185.86</v>
+        <v>196.05</v>
       </c>
       <c r="C188">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D188">
-        <v>2.15</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B189">
-        <v>191.54</v>
+        <v>195.09</v>
       </c>
       <c r="C189">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D189">
-        <v>5.27</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B190">
-        <v>199.04</v>
+        <v>194.75</v>
       </c>
       <c r="C190">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D190">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B191">
-        <v>193.44</v>
+        <v>194.12</v>
       </c>
       <c r="C191">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D191">
-        <v>6.31</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B192">
-        <v>187.38</v>
+        <v>193.64</v>
       </c>
       <c r="C192">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D192">
-        <v>2.98</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B193">
-        <v>191.06</v>
+        <v>192.79</v>
       </c>
       <c r="C193">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D193">
-        <v>5.01</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B194">
-        <v>200.84</v>
+        <v>192.14</v>
       </c>
       <c r="C194">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D194">
-        <v>10.38</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B195">
-        <v>204.15</v>
+        <v>192.29</v>
       </c>
       <c r="C195">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D195">
-        <v>12.2</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B196">
-        <v>193.82</v>
+        <v>192.57</v>
       </c>
       <c r="C196">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D196">
-        <v>6.52</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B197">
-        <v>191.11</v>
+        <v>194.71</v>
       </c>
       <c r="C197">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D197">
-        <v>5.04</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B198">
-        <v>190.29</v>
+        <v>184.57</v>
       </c>
       <c r="C198">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D198">
-        <v>4.58</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B199">
-        <v>189.9</v>
+        <v>158.19</v>
       </c>
       <c r="C199">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D199">
-        <v>4.37</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B200">
-        <v>190.34</v>
+        <v>158.22</v>
       </c>
       <c r="C200">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D200">
-        <v>4.61</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B201">
-        <v>190.33</v>
+        <v>158.54</v>
       </c>
       <c r="C201">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D201">
-        <v>4.61</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B202">
-        <v>190.44</v>
+        <v>157.51</v>
       </c>
       <c r="C202">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D202">
-        <v>4.66</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B203">
-        <v>190.43</v>
+        <v>156.79</v>
       </c>
       <c r="C203">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D203">
-        <v>4.66</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B204">
-        <v>190.39</v>
+        <v>156.77</v>
       </c>
       <c r="C204">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D204">
-        <v>4.64</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B205">
-        <v>190.21</v>
+        <v>156.56</v>
       </c>
       <c r="C205">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D205">
-        <v>4.54</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B206">
-        <v>190.31</v>
+        <v>156.77</v>
       </c>
       <c r="C206">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D206">
-        <v>4.6</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B207">
-        <v>189.79</v>
+        <v>156.24</v>
       </c>
       <c r="C207">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D207">
-        <v>4.31</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B208">
-        <v>189.51</v>
+        <v>155.64</v>
       </c>
       <c r="C208">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D208">
-        <v>4.15</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B209">
-        <v>189.98</v>
+        <v>155.1</v>
       </c>
       <c r="C209">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D209">
-        <v>4.41</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B210">
-        <v>200.62</v>
+        <v>156.3</v>
       </c>
       <c r="C210">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D210">
-        <v>10.26</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B211">
-        <v>243.02</v>
+        <v>156</v>
       </c>
       <c r="C211">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D211">
-        <v>33.56</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B212">
-        <v>212.07</v>
+        <v>156.52</v>
       </c>
       <c r="C212">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D212">
-        <v>16.56</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B213">
-        <v>199.58</v>
+        <v>159.27</v>
       </c>
       <c r="C213">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D213">
-        <v>9.69</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B214">
-        <v>199.01</v>
+        <v>158</v>
       </c>
       <c r="C214">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D214">
-        <v>9.380000000000001</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B215">
-        <v>227.33</v>
+        <v>157</v>
       </c>
       <c r="C215">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D215">
-        <v>27.67</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B216">
-        <v>205.73</v>
+        <v>157</v>
       </c>
       <c r="C216">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D216">
-        <v>15.54</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B217">
-        <v>199.47</v>
+        <v>157</v>
       </c>
       <c r="C217">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D217">
-        <v>12.02</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44016</v>
-      </c>
-      <c r="B218">
-        <v>197.33</v>
+        <v>44047</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>178.06</v>
-      </c>
-      <c r="D218">
-        <v>10.82</v>
+        <v>174.89</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B219">
-        <v>196.05</v>
+        <v>44048</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>178.06</v>
-      </c>
-      <c r="D219">
-        <v>10.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B220">
-        <v>195.09</v>
+        <v>44049</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
       </c>
       <c r="C220">
-        <v>178.06</v>
-      </c>
-      <c r="D220">
-        <v>9.57</v>
+        <v>174.89</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B221">
-        <v>194.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>178.06</v>
-      </c>
-      <c r="D221">
-        <v>9.369999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B222">
-        <v>194.12</v>
+        <v>44051</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
       </c>
       <c r="C222">
-        <v>178.06</v>
-      </c>
-      <c r="D222">
-        <v>9.02</v>
+        <v>174.89</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B223">
-        <v>193.64</v>
+        <v>44052</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>178.06</v>
-      </c>
-      <c r="D223">
-        <v>8.75</v>
+        <v>174.89</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B224">
-        <v>192.79</v>
+        <v>44053</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>178.06</v>
-      </c>
-      <c r="D224">
-        <v>8.27</v>
+        <v>174.89</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B225">
-        <v>192.14</v>
+        <v>44054</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>178.06</v>
-      </c>
-      <c r="D225">
-        <v>7.9</v>
+        <v>174.89</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B226">
-        <v>192.29</v>
+        <v>44055</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>178.06</v>
-      </c>
-      <c r="D226">
-        <v>7.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B227">
-        <v>192.57</v>
+        <v>44056</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
       </c>
       <c r="C227">
-        <v>178.06</v>
-      </c>
-      <c r="D227">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B228">
-        <v>194.71</v>
+        <v>44057</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
       </c>
       <c r="C228">
-        <v>178.06</v>
-      </c>
-      <c r="D228">
-        <v>9.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B229">
-        <v>184.57</v>
+        <v>44058</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
       </c>
       <c r="C229">
-        <v>178.06</v>
-      </c>
-      <c r="D229">
-        <v>3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B230">
-        <v>158.19</v>
+        <v>44059</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
       </c>
       <c r="C230">
-        <v>178.06</v>
-      </c>
-      <c r="D230">
-        <v>-11.16</v>
+        <v>174.89</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B231">
-        <v>158.22</v>
+        <v>44060</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>178.06</v>
-      </c>
-      <c r="D231">
-        <v>-11.14</v>
+        <v>174.89</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B232">
-        <v>158.54</v>
+        <v>44061</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
       </c>
       <c r="C232">
-        <v>178.06</v>
-      </c>
-      <c r="D232">
-        <v>-10.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B233">
-        <v>157.51</v>
+        <v>44062</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
       </c>
       <c r="C233">
-        <v>178.06</v>
-      </c>
-      <c r="D233">
-        <v>-11.54</v>
+        <v>174.89</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B234">
-        <v>156.79</v>
+        <v>44063</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
       </c>
       <c r="C234">
-        <v>178.06</v>
-      </c>
-      <c r="D234">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B235">
-        <v>156.77</v>
+        <v>44064</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4</v>
       </c>
       <c r="C235">
-        <v>178.06</v>
-      </c>
-      <c r="D235">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B236">
-        <v>156.56</v>
+        <v>44065</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>178.06</v>
-      </c>
-      <c r="D236">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B237">
-        <v>156.77</v>
+        <v>44066</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>178.06</v>
-      </c>
-      <c r="D237">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B238">
-        <v>156.24</v>
+        <v>44067</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
       </c>
       <c r="C238">
-        <v>178.06</v>
-      </c>
-      <c r="D238">
-        <v>-12.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B239">
-        <v>155.64</v>
+        <v>44068</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>178.06</v>
-      </c>
-      <c r="D239">
-        <v>-12.59</v>
+        <v>174.89</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B240">
-        <v>155.1</v>
+        <v>44069</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
       </c>
       <c r="C240">
-        <v>178.06</v>
-      </c>
-      <c r="D240">
-        <v>-12.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B241">
-        <v>156.3</v>
+        <v>44070</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
       </c>
       <c r="C241">
-        <v>178.06</v>
-      </c>
-      <c r="D241">
-        <v>-12.22</v>
+        <v>174.89</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B242">
-        <v>156</v>
+        <v>163.64</v>
       </c>
       <c r="C242">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D242">
-        <v>-12.39</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B243">
-        <v>156.52</v>
+        <v>163.91</v>
       </c>
       <c r="C243">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D243">
-        <v>-12.1</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B244">
-        <v>159.27</v>
+        <v>163.57</v>
       </c>
       <c r="C244">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D244">
-        <v>-10.55</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B245">
-        <v>158</v>
+        <v>163.44</v>
       </c>
       <c r="C245">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D245">
-        <v>-11.27</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B246">
-        <v>157</v>
+        <v>163.22</v>
       </c>
       <c r="C246">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D246">
-        <v>-10.23</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B247">
-        <v>157</v>
+        <v>163.31</v>
       </c>
       <c r="C247">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D247">
-        <v>-10.23</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B248">
-        <v>157</v>
+        <v>163.8</v>
       </c>
       <c r="C248">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D248">
-        <v>-10.23</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B249" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B249">
+        <v>165.49</v>
       </c>
       <c r="C249">
-        <v>174.89</v>
-      </c>
-      <c r="D249" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D249">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B250" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B250">
+        <v>166.85</v>
       </c>
       <c r="C250">
-        <v>174.89</v>
-      </c>
-      <c r="D250" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D250">
+        <v>-5.72</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B251" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B251">
+        <v>166.58</v>
       </c>
       <c r="C251">
-        <v>174.89</v>
-      </c>
-      <c r="D251" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D251">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B252" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B252">
+        <v>165.9</v>
       </c>
       <c r="C252">
-        <v>174.89</v>
-      </c>
-      <c r="D252" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D252">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B253" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B253">
+        <v>165.68</v>
       </c>
       <c r="C253">
-        <v>174.89</v>
-      </c>
-      <c r="D253" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D253">
+        <v>-6.38</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B254" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B254">
+        <v>165.5</v>
       </c>
       <c r="C254">
-        <v>174.89</v>
-      </c>
-      <c r="D254" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D254">
+        <v>-6.48</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B255" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B255">
+        <v>165.97</v>
       </c>
       <c r="C255">
-        <v>174.89</v>
-      </c>
-      <c r="D255" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D255">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B256" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B256">
+        <v>165.58</v>
       </c>
       <c r="C256">
-        <v>174.89</v>
-      </c>
-      <c r="D256" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D256">
+        <v>-6.44</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B257" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B257">
+        <v>165.33</v>
       </c>
       <c r="C257">
-        <v>174.89</v>
-      </c>
-      <c r="D257" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D257">
+        <v>-6.58</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B258" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B258">
+        <v>167.94</v>
       </c>
       <c r="C258">
-        <v>174.89</v>
-      </c>
-      <c r="D258" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D258">
+        <v>-5.11</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B259" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B259">
+        <v>168.38</v>
       </c>
       <c r="C259">
-        <v>174.89</v>
-      </c>
-      <c r="D259" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D259">
+        <v>-4.86</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B260" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B260">
+        <v>167.68</v>
       </c>
       <c r="C260">
-        <v>174.89</v>
-      </c>
-      <c r="D260" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D260">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B261" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B261">
+        <v>167.68</v>
       </c>
       <c r="C261">
-        <v>174.89</v>
-      </c>
-      <c r="D261" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D261">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B262" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B262">
+        <v>168.85</v>
       </c>
       <c r="C262">
-        <v>174.89</v>
-      </c>
-      <c r="D262" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D262">
+        <v>-4.59</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B263" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B263">
+        <v>168.47</v>
       </c>
       <c r="C263">
-        <v>174.89</v>
-      </c>
-      <c r="D263" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D263">
+        <v>-4.81</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B264" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B264">
+        <v>168.24</v>
       </c>
       <c r="C264">
-        <v>174.89</v>
-      </c>
-      <c r="D264" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D264">
+        <v>-4.94</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B265" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B265">
+        <v>167.42</v>
       </c>
       <c r="C265">
-        <v>174.89</v>
-      </c>
-      <c r="D265" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D265">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B266" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B266">
+        <v>167.1</v>
       </c>
       <c r="C266">
-        <v>174.89</v>
-      </c>
-      <c r="D266" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D266">
+        <v>-5.58</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B267" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B267">
+        <v>167.35</v>
       </c>
       <c r="C267">
-        <v>174.89</v>
-      </c>
-      <c r="D267" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D267">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B268" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B268">
+        <v>167.81</v>
       </c>
       <c r="C268">
-        <v>174.89</v>
-      </c>
-      <c r="D268" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D268">
+        <v>-5.18</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B269" t="s">
-        <v>4</v>
+        <v>44098</v>
+      </c>
+      <c r="B269">
+        <v>168.55</v>
       </c>
       <c r="C269">
-        <v>174.89</v>
-      </c>
-      <c r="D269" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D269">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B270" t="s">
-        <v>4</v>
+        <v>44099</v>
+      </c>
+      <c r="B270">
+        <v>168.34</v>
       </c>
       <c r="C270">
-        <v>174.89</v>
-      </c>
-      <c r="D270" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D270">
+        <v>-4.88</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B271" t="s">
-        <v>4</v>
+        <v>44100</v>
+      </c>
+      <c r="B271">
+        <v>167.75</v>
       </c>
       <c r="C271">
-        <v>174.89</v>
-      </c>
-      <c r="D271" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D271">
+        <v>-5.21</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44070</v>
-      </c>
-      <c r="B272" t="s">
-        <v>4</v>
+        <v>44101</v>
+      </c>
+      <c r="B272">
+        <v>167.59</v>
       </c>
       <c r="C272">
-        <v>174.89</v>
-      </c>
-      <c r="D272" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D272">
+        <v>-5.3</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B273">
-        <v>163.64</v>
+        <v>167.8</v>
       </c>
       <c r="C273">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D273">
-        <v>-6.43</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B274">
-        <v>163.91</v>
+        <v>169.27</v>
       </c>
       <c r="C274">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D274">
-        <v>-6.28</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B275">
-        <v>163.57</v>
+        <v>169.25</v>
       </c>
       <c r="C275">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D275">
-        <v>-6.47</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B276">
-        <v>163.44</v>
+        <v>168.84</v>
       </c>
       <c r="C276">
-        <v>174.89</v>
+        <v>180.02</v>
       </c>
       <c r="D276">
-        <v>-6.55</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B277">
-        <v>163.22</v>
+        <v>168.04</v>
       </c>
       <c r="C277">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D277">
-        <v>-7.77</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B278">
-        <v>163.31</v>
+        <v>167.57</v>
       </c>
       <c r="C278">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D278">
-        <v>-7.72</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B279">
-        <v>163.8</v>
+        <v>166.82</v>
       </c>
       <c r="C279">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D279">
-        <v>-7.44</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B280">
-        <v>165.49</v>
+        <v>167.06</v>
       </c>
       <c r="C280">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D280">
-        <v>-6.49</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B281">
-        <v>166.85</v>
+        <v>167.32</v>
       </c>
       <c r="C281">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D281">
-        <v>-5.72</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B282">
-        <v>166.58</v>
+        <v>167.31</v>
       </c>
       <c r="C282">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D282">
-        <v>-5.87</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B283">
-        <v>165.9</v>
+        <v>169.44</v>
       </c>
       <c r="C283">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D283">
-        <v>-6.26</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B284">
-        <v>165.68</v>
+        <v>175.8</v>
       </c>
       <c r="C284">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D284">
-        <v>-6.38</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B285">
-        <v>165.5</v>
+        <v>176.98</v>
       </c>
       <c r="C285">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D285">
-        <v>-6.48</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B286">
-        <v>165.97</v>
+        <v>168.89</v>
       </c>
       <c r="C286">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D286">
-        <v>-6.22</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B287">
-        <v>165.58</v>
+        <v>168.22</v>
       </c>
       <c r="C287">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D287">
-        <v>-6.44</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B288">
-        <v>165.33</v>
+        <v>168.83</v>
       </c>
       <c r="C288">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D288">
-        <v>-6.58</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B289">
-        <v>167.94</v>
+        <v>169.74</v>
       </c>
       <c r="C289">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D289">
-        <v>-5.11</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B290">
-        <v>168.38</v>
+        <v>169.85</v>
       </c>
       <c r="C290">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D290">
-        <v>-4.86</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B291">
-        <v>167.68</v>
+        <v>169.45</v>
       </c>
       <c r="C291">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D291">
-        <v>-5.25</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B292">
-        <v>167.68</v>
+        <v>167.78</v>
       </c>
       <c r="C292">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D292">
-        <v>-5.25</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B293">
-        <v>168.85</v>
+        <v>167.82</v>
       </c>
       <c r="C293">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D293">
-        <v>-4.59</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B294">
-        <v>168.47</v>
+        <v>169.9</v>
       </c>
       <c r="C294">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D294">
-        <v>-4.81</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B295">
-        <v>168.24</v>
+        <v>171.45</v>
       </c>
       <c r="C295">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D295">
-        <v>-4.94</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B296">
-        <v>167.42</v>
+        <v>192.56</v>
       </c>
       <c r="C296">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D296">
-        <v>-5.4</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B297">
-        <v>167.1</v>
+        <v>171.27</v>
       </c>
       <c r="C297">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D297">
-        <v>-5.58</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B298">
-        <v>167.35</v>
+        <v>169.78</v>
       </c>
       <c r="C298">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D298">
-        <v>-5.44</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B299">
-        <v>167.81</v>
+        <v>170.33</v>
       </c>
       <c r="C299">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D299">
-        <v>-5.18</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B300">
-        <v>168.55</v>
+        <v>172.71</v>
       </c>
       <c r="C300">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D300">
-        <v>-4.76</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B301">
-        <v>168.34</v>
+        <v>171.85</v>
       </c>
       <c r="C301">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D301">
-        <v>-4.88</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B302">
-        <v>167.75</v>
+        <v>171.28</v>
       </c>
       <c r="C302">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D302">
-        <v>-5.21</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B303">
-        <v>167.59</v>
+        <v>170.75</v>
       </c>
       <c r="C303">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D303">
-        <v>-5.3</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B304">
-        <v>167.8</v>
+        <v>170.95</v>
       </c>
       <c r="C304">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D304">
-        <v>-5.18</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B305">
-        <v>169.27</v>
+        <v>197.08</v>
       </c>
       <c r="C305">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D305">
-        <v>-4.35</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B306">
-        <v>169.25</v>
+        <v>181.15</v>
       </c>
       <c r="C306">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D306">
-        <v>-4.37</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B307">
-        <v>168.84</v>
+        <v>176.74</v>
       </c>
       <c r="C307">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D307">
-        <v>-6.21</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B308">
-        <v>168.04</v>
+        <v>176.12</v>
       </c>
       <c r="C308">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D308">
-        <v>-6.65</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B309">
-        <v>167.57</v>
+        <v>177.07</v>
       </c>
       <c r="C309">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D309">
-        <v>-6.91</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B310">
-        <v>166.82</v>
+        <v>183.07</v>
       </c>
       <c r="C310">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D310">
-        <v>-7.33</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B311">
-        <v>167.06</v>
+        <v>187.71</v>
       </c>
       <c r="C311">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D311">
-        <v>-7.2</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B312">
-        <v>167.32</v>
+        <v>181.83</v>
       </c>
       <c r="C312">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D312">
-        <v>-7.05</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B313">
-        <v>167.31</v>
+        <v>181.02</v>
       </c>
       <c r="C313">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D313">
-        <v>-7.06</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B314">
-        <v>169.44</v>
+        <v>180.93</v>
       </c>
       <c r="C314">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D314">
-        <v>-5.88</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B315">
-        <v>175.8</v>
+        <v>181.77</v>
       </c>
       <c r="C315">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D315">
-        <v>-2.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B316">
-        <v>176.98</v>
+        <v>219.38</v>
       </c>
       <c r="C316">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D316">
-        <v>-1.69</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B317">
-        <v>168.89</v>
+        <v>234.17</v>
       </c>
       <c r="C317">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D317">
-        <v>-6.19</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B318">
-        <v>168.22</v>
+        <v>242.04</v>
       </c>
       <c r="C318">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D318">
-        <v>-6.56</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B319">
-        <v>168.83</v>
+        <v>219.81</v>
       </c>
       <c r="C319">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D319">
-        <v>-6.21</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B320">
-        <v>169.74</v>
+        <v>216.64</v>
       </c>
       <c r="C320">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D320">
-        <v>-5.71</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B321">
-        <v>169.85</v>
+        <v>213.18</v>
       </c>
       <c r="C321">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D321">
-        <v>-5.65</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B322">
-        <v>169.45</v>
+        <v>217.07</v>
       </c>
       <c r="C322">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D322">
-        <v>-5.87</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B323">
-        <v>167.78</v>
+        <v>208.06</v>
       </c>
       <c r="C323">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D323">
-        <v>-6.8</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B324">
-        <v>167.82</v>
+        <v>203.52</v>
       </c>
       <c r="C324">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D324">
-        <v>-6.78</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B325">
-        <v>169.9</v>
+        <v>215.37</v>
       </c>
       <c r="C325">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D325">
-        <v>-5.62</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B326">
-        <v>171.45</v>
+        <v>209.37</v>
       </c>
       <c r="C326">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D326">
-        <v>-4.76</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B327">
-        <v>192.56</v>
+        <v>205.92</v>
       </c>
       <c r="C327">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D327">
-        <v>6.97</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B328">
-        <v>171.27</v>
+        <v>204.76</v>
       </c>
       <c r="C328">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D328">
-        <v>-4.86</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B329">
-        <v>169.78</v>
+        <v>203.03</v>
       </c>
       <c r="C329">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D329">
-        <v>-5.69</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B330">
-        <v>170.33</v>
+        <v>199.81</v>
       </c>
       <c r="C330">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D330">
-        <v>-5.38</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B331">
-        <v>172.71</v>
+        <v>197.45</v>
       </c>
       <c r="C331">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D331">
-        <v>-4.06</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B332">
-        <v>171.85</v>
+        <v>196.24</v>
       </c>
       <c r="C332">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D332">
-        <v>-4.54</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B333">
-        <v>171.28</v>
+        <v>197.44</v>
       </c>
       <c r="C333">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D333">
-        <v>-4.85</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B334">
-        <v>170.75</v>
+        <v>212.78</v>
       </c>
       <c r="C334">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D334">
-        <v>-5.15</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B335">
-        <v>170.95</v>
+        <v>202.44</v>
       </c>
       <c r="C335">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D335">
-        <v>-5.04</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B336">
-        <v>197.08</v>
+        <v>201.49</v>
       </c>
       <c r="C336">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D336">
-        <v>9.48</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B337">
-        <v>181.15</v>
+        <v>198.81</v>
       </c>
       <c r="C337">
-        <v>180.02</v>
+        <v>181.71</v>
       </c>
       <c r="D337">
-        <v>0.63</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B338">
-        <v>176.74</v>
+        <v>200.14</v>
       </c>
       <c r="C338">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D338">
-        <v>-1.45</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B339">
-        <v>176.12</v>
+        <v>202.79</v>
       </c>
       <c r="C339">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D339">
-        <v>-1.79</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B340">
-        <v>177.07</v>
+        <v>204.7</v>
       </c>
       <c r="C340">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D340">
-        <v>-1.27</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B341">
-        <v>183.07</v>
+        <v>211.64</v>
       </c>
       <c r="C341">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D341">
-        <v>2.08</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B342">
-        <v>187.71</v>
+        <v>210.55</v>
       </c>
       <c r="C342">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D342">
-        <v>4.67</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B343">
-        <v>181.83</v>
+        <v>208.7</v>
       </c>
       <c r="C343">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D343">
-        <v>1.39</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B344">
-        <v>181.02</v>
+        <v>208.39</v>
       </c>
       <c r="C344">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D344">
-        <v>0.9399999999999999</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B345">
-        <v>180.93</v>
+        <v>207.67</v>
       </c>
       <c r="C345">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D345">
-        <v>0.88</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B346">
-        <v>181.77</v>
+        <v>207.28</v>
       </c>
       <c r="C346">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D346">
-        <v>1.35</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B347">
-        <v>219.38</v>
+        <v>209.04</v>
       </c>
       <c r="C347">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D347">
-        <v>22.33</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B348">
-        <v>234.17</v>
+        <v>208.68</v>
       </c>
       <c r="C348">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D348">
-        <v>30.57</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B349">
-        <v>242.04</v>
+        <v>212.29</v>
       </c>
       <c r="C349">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D349">
-        <v>34.96</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B350">
-        <v>219.81</v>
+        <v>215.25</v>
       </c>
       <c r="C350">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D350">
-        <v>22.57</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B351">
-        <v>216.64</v>
+        <v>215.41</v>
       </c>
       <c r="C351">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D351">
-        <v>20.79</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B352">
-        <v>213.18</v>
+        <v>215.96</v>
       </c>
       <c r="C352">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D352">
-        <v>18.87</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B353">
-        <v>217.07</v>
+        <v>235.07</v>
       </c>
       <c r="C353">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D353">
-        <v>21.04</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B354">
-        <v>208.06</v>
+        <v>226.14</v>
       </c>
       <c r="C354">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D354">
-        <v>16.01</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B355">
-        <v>203.52</v>
+        <v>240.36</v>
       </c>
       <c r="C355">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D355">
-        <v>13.48</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B356">
-        <v>215.37</v>
+        <v>239.77</v>
       </c>
       <c r="C356">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D356">
-        <v>20.09</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B357">
-        <v>209.37</v>
+        <v>252.89</v>
       </c>
       <c r="C357">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D357">
-        <v>16.74</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B358">
-        <v>205.92</v>
+        <v>229.23</v>
       </c>
       <c r="C358">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D358">
-        <v>14.82</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B359">
-        <v>204.76</v>
+        <v>222.22</v>
       </c>
       <c r="C359">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D359">
-        <v>14.17</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B360">
-        <v>203.03</v>
+        <v>218.97</v>
       </c>
       <c r="C360">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D360">
-        <v>13.21</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B361">
-        <v>199.81</v>
+        <v>215.82</v>
       </c>
       <c r="C361">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D361">
-        <v>11.41</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B362">
-        <v>197.45</v>
+        <v>214.96</v>
       </c>
       <c r="C362">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D362">
-        <v>10.1</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B363">
-        <v>196.24</v>
+        <v>214.49</v>
       </c>
       <c r="C363">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D363">
-        <v>9.42</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B364">
-        <v>197.44</v>
+        <v>216.58</v>
       </c>
       <c r="C364">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D364">
-        <v>10.09</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B365">
-        <v>212.78</v>
+        <v>217.15</v>
       </c>
       <c r="C365">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D365">
-        <v>18.65</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B366">
-        <v>202.44</v>
+        <v>220.7</v>
       </c>
       <c r="C366">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D366">
-        <v>12.88</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B367">
-        <v>201.49</v>
+        <v>232.1</v>
       </c>
       <c r="C367">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D367">
-        <v>12.35</v>
+        <v>27.73</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>19.54</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>226.07</v>
+      </c>
+      <c r="C14">
+        <v>187.86</v>
+      </c>
+      <c r="D14">
+        <v>20.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>27.73</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B368">
+        <v>234</v>
+      </c>
+      <c r="C368">
+        <v>187.86</v>
+      </c>
+      <c r="D368">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B369">
+        <v>226.04</v>
+      </c>
+      <c r="C369">
+        <v>187.86</v>
+      </c>
+      <c r="D369">
+        <v>20.33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B370">
+        <v>223.51</v>
+      </c>
+      <c r="C370">
+        <v>187.86</v>
+      </c>
+      <c r="D370">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B371">
+        <v>219.49</v>
+      </c>
+      <c r="C371">
+        <v>187.86</v>
+      </c>
+      <c r="D371">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B372">
+        <v>218.69</v>
+      </c>
+      <c r="C372">
+        <v>187.86</v>
+      </c>
+      <c r="D372">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B373">
+        <v>219.36</v>
+      </c>
+      <c r="C373">
+        <v>187.86</v>
+      </c>
+      <c r="D373">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B374">
+        <v>221.33</v>
+      </c>
+      <c r="C374">
+        <v>187.86</v>
+      </c>
+      <c r="D374">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B375">
+        <v>231.38</v>
+      </c>
+      <c r="C375">
+        <v>187.86</v>
+      </c>
+      <c r="D375">
+        <v>23.16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B376">
+        <v>244.18</v>
+      </c>
+      <c r="C376">
+        <v>187.86</v>
+      </c>
+      <c r="D376">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B377">
+        <v>228.93</v>
+      </c>
+      <c r="C377">
+        <v>187.86</v>
+      </c>
+      <c r="D377">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B378">
+        <v>227.06</v>
+      </c>
+      <c r="C378">
+        <v>187.86</v>
+      </c>
+      <c r="D378">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B379">
+        <v>223.24</v>
+      </c>
+      <c r="C379">
+        <v>187.86</v>
+      </c>
+      <c r="D379">
+        <v>18.83</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B380">
+        <v>225.46</v>
+      </c>
+      <c r="C380">
+        <v>187.86</v>
+      </c>
+      <c r="D380">
+        <v>20.01</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B381">
+        <v>224.2</v>
+      </c>
+      <c r="C381">
+        <v>187.86</v>
+      </c>
+      <c r="D381">
+        <v>19.34</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B382">
+        <v>224.12</v>
+      </c>
+      <c r="C382">
+        <v>187.86</v>
+      </c>
+      <c r="D382">
+        <v>19.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B2">
-        <v>169.28</v>
+        <v>177.33</v>
       </c>
       <c r="C2">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D2">
-        <v>-9.890000000000001</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B3">
-        <v>177.33</v>
+        <v>176.84</v>
       </c>
       <c r="C3">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D3">
-        <v>-2.81</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B4">
-        <v>176.84</v>
+        <v>173.53</v>
       </c>
       <c r="C4">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D4">
-        <v>-3.74</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B5">
-        <v>173.53</v>
+        <v>180.98</v>
       </c>
       <c r="C5">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D5">
-        <v>-2.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B6">
-        <v>180.98</v>
+        <v>194.54</v>
       </c>
       <c r="C6">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D6">
-        <v>0.28</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B7">
-        <v>194.54</v>
+        <v>176.29</v>
       </c>
       <c r="C7">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D7">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B8">
-        <v>176.29</v>
+        <v>160.79</v>
       </c>
       <c r="C8">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D8">
-        <v>-0.99</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B9">
-        <v>160.79</v>
+        <v>166.96</v>
       </c>
       <c r="C9">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D9">
-        <v>-8.06</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B10">
-        <v>166.96</v>
+        <v>171.83</v>
       </c>
       <c r="C10">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D10">
-        <v>-5.66</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B11">
-        <v>171.83</v>
+        <v>201.54</v>
       </c>
       <c r="C11">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D11">
-        <v>-4.55</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B12">
-        <v>201.54</v>
+        <v>217.22</v>
       </c>
       <c r="C12">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D12">
-        <v>12.38</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B13">
-        <v>217.22</v>
+        <v>239.8</v>
       </c>
       <c r="C13">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D13">
-        <v>19.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>226.07</v>
-      </c>
-      <c r="C14">
-        <v>187.86</v>
-      </c>
-      <c r="D14">
-        <v>20.34</v>
+        <v>27.65</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5336 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B2">
-        <v>163.45</v>
+        <v>172.53</v>
       </c>
       <c r="C2">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D2">
-        <v>-12.99</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B3">
-        <v>183.35</v>
+        <v>170.89</v>
       </c>
       <c r="C3">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D3">
-        <v>-2.4</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B4">
-        <v>175.52</v>
+        <v>172.28</v>
       </c>
       <c r="C4">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D4">
-        <v>-6.57</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B5">
-        <v>173.74</v>
+        <v>171.57</v>
       </c>
       <c r="C5">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D5">
-        <v>-7.52</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B6">
-        <v>181.57</v>
+        <v>171.47</v>
       </c>
       <c r="C6">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D6">
-        <v>-3.35</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B7">
-        <v>167.6</v>
+        <v>180.74</v>
       </c>
       <c r="C7">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D7">
-        <v>-10.78</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B8">
-        <v>166.05</v>
+        <v>185.08</v>
       </c>
       <c r="C8">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D8">
-        <v>-11.61</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B9">
-        <v>166.36</v>
+        <v>177.7</v>
       </c>
       <c r="C9">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D9">
-        <v>-11.44</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B10">
-        <v>166.81</v>
+        <v>174.41</v>
       </c>
       <c r="C10">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D10">
-        <v>-11.2</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B11">
-        <v>175.46</v>
+        <v>195.2</v>
       </c>
       <c r="C11">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D11">
-        <v>-6.6</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B12">
-        <v>169.85</v>
+        <v>178.53</v>
       </c>
       <c r="C12">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D12">
-        <v>-9.58</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B13">
-        <v>171.53</v>
+        <v>174.52</v>
       </c>
       <c r="C13">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D13">
-        <v>-8.69</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B14">
-        <v>169.51</v>
+        <v>173.31</v>
       </c>
       <c r="C14">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D14">
-        <v>-9.77</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B15">
-        <v>166.66</v>
+        <v>173.48</v>
       </c>
       <c r="C15">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D15">
-        <v>-11.29</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B16">
-        <v>166.09</v>
+        <v>173.28</v>
       </c>
       <c r="C16">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D16">
-        <v>-11.59</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B17">
-        <v>166.94</v>
+        <v>173.41</v>
       </c>
       <c r="C17">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D17">
-        <v>-11.14</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B18">
-        <v>170.33</v>
+        <v>173.76</v>
       </c>
       <c r="C18">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D18">
-        <v>-9.33</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B19">
-        <v>167.12</v>
+        <v>174.28</v>
       </c>
       <c r="C19">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D19">
-        <v>-11.04</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B20">
-        <v>166.74</v>
+        <v>175.51</v>
       </c>
       <c r="C20">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D20">
-        <v>-11.24</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B21">
-        <v>166.82</v>
+        <v>176.18</v>
       </c>
       <c r="C21">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D21">
-        <v>-11.2</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B22">
-        <v>166.5</v>
+        <v>175.24</v>
       </c>
       <c r="C22">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D22">
-        <v>-11.37</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B23">
-        <v>166</v>
+        <v>177.08</v>
       </c>
       <c r="C23">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D23">
-        <v>-11.64</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B24">
-        <v>166.55</v>
+        <v>175.4</v>
       </c>
       <c r="C24">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D24">
-        <v>-11.34</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B25">
-        <v>167.1</v>
+        <v>175.7</v>
       </c>
       <c r="C25">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D25">
-        <v>-11.05</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B26">
-        <v>166.36</v>
+        <v>177.28</v>
       </c>
       <c r="C26">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D26">
-        <v>-11.44</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B27">
-        <v>166.38</v>
+        <v>189.77</v>
       </c>
       <c r="C27">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D27">
-        <v>-11.44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B28">
-        <v>166.5</v>
+        <v>192.17</v>
       </c>
       <c r="C28">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D28">
-        <v>-11.37</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B29">
-        <v>168.21</v>
+        <v>181</v>
       </c>
       <c r="C29">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D29">
-        <v>-10.46</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B30">
-        <v>168.44</v>
+        <v>180.89</v>
       </c>
       <c r="C30">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D30">
-        <v>-10.34</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B31">
-        <v>170.26</v>
+        <v>182.48</v>
       </c>
       <c r="C31">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D31">
-        <v>-9.369999999999999</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B32">
-        <v>173.73</v>
+        <v>184.88</v>
       </c>
       <c r="C32">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D32">
-        <v>-7.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B33">
-        <v>172.53</v>
+        <v>185.24</v>
       </c>
       <c r="C33">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D33">
-        <v>-5.44</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B34">
-        <v>170.89</v>
+        <v>185.14</v>
       </c>
       <c r="C34">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D34">
-        <v>-6.35</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B35">
-        <v>172.28</v>
+        <v>185.64</v>
       </c>
       <c r="C35">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D35">
-        <v>-5.58</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B36">
-        <v>171.57</v>
+        <v>184.94</v>
       </c>
       <c r="C36">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D36">
-        <v>-5.97</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B37">
-        <v>171.47</v>
+        <v>183.45</v>
       </c>
       <c r="C37">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D37">
-        <v>-6.03</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B38">
-        <v>180.74</v>
+        <v>182.23</v>
       </c>
       <c r="C38">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D38">
-        <v>-0.9399999999999999</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B39">
-        <v>185.08</v>
+        <v>180.22</v>
       </c>
       <c r="C39">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D39">
-        <v>1.43</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B40">
-        <v>177.7</v>
+        <v>178.26</v>
       </c>
       <c r="C40">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D40">
-        <v>-2.61</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B41">
-        <v>174.41</v>
+        <v>177.05</v>
       </c>
       <c r="C41">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D41">
-        <v>-4.42</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B42">
-        <v>195.2</v>
+        <v>176.65</v>
       </c>
       <c r="C42">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D42">
-        <v>6.98</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B43">
-        <v>178.53</v>
+        <v>175.85</v>
       </c>
       <c r="C43">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D43">
-        <v>-2.16</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B44">
-        <v>174.52</v>
+        <v>174.83</v>
       </c>
       <c r="C44">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D44">
-        <v>-4.35</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B45">
-        <v>173.31</v>
+        <v>175.1</v>
       </c>
       <c r="C45">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D45">
-        <v>-5.02</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B46">
-        <v>173.48</v>
+        <v>175.43</v>
       </c>
       <c r="C46">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D46">
-        <v>-4.92</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>173.28</v>
+        <v>177.77</v>
       </c>
       <c r="C47">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D47">
-        <v>-5.03</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B48">
-        <v>173.41</v>
+        <v>176.42</v>
       </c>
       <c r="C48">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D48">
-        <v>-4.96</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B49">
-        <v>173.76</v>
+        <v>181.1</v>
       </c>
       <c r="C49">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D49">
-        <v>-4.77</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B50">
-        <v>174.28</v>
+        <v>182.67</v>
       </c>
       <c r="C50">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D50">
-        <v>-4.49</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B51">
-        <v>175.51</v>
+        <v>173.3</v>
       </c>
       <c r="C51">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D51">
-        <v>-3.81</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B52">
-        <v>176.18</v>
+        <v>172.47</v>
       </c>
       <c r="C52">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D52">
-        <v>-3.45</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B53">
-        <v>175.24</v>
+        <v>171.28</v>
       </c>
       <c r="C53">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D53">
-        <v>-3.96</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>177.08</v>
+        <v>170.7</v>
       </c>
       <c r="C54">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D54">
-        <v>-2.95</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B55">
-        <v>175.4</v>
+        <v>170.45</v>
       </c>
       <c r="C55">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D55">
-        <v>-3.87</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B56">
-        <v>175.7</v>
+        <v>169.75</v>
       </c>
       <c r="C56">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D56">
-        <v>-3.71</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B57">
-        <v>177.28</v>
+        <v>169.51</v>
       </c>
       <c r="C57">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D57">
-        <v>-2.84</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B58">
-        <v>189.77</v>
+        <v>169.27</v>
       </c>
       <c r="C58">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B59">
-        <v>192.17</v>
+        <v>169.38</v>
       </c>
       <c r="C59">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D59">
-        <v>5.32</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B60">
-        <v>181</v>
+        <v>170.38</v>
       </c>
       <c r="C60">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D60">
-        <v>-0.8</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B61">
-        <v>180.89</v>
+        <v>170.36</v>
       </c>
       <c r="C61">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D61">
-        <v>-0.87</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62">
-        <v>182.48</v>
+        <v>170.17</v>
       </c>
       <c r="C62">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D62">
-        <v>-0.67</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B63">
-        <v>184.88</v>
+        <v>170.51</v>
       </c>
       <c r="C63">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D63">
-        <v>0.63</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B64">
-        <v>185.24</v>
+        <v>170.17</v>
       </c>
       <c r="C64">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D64">
-        <v>0.83</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B65">
-        <v>185.14</v>
+        <v>168.46</v>
       </c>
       <c r="C65">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D65">
-        <v>0.77</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B66">
-        <v>185.64</v>
+        <v>168.53</v>
       </c>
       <c r="C66">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D66">
-        <v>1.05</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B67">
-        <v>184.94</v>
+        <v>170.89</v>
       </c>
       <c r="C67">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D67">
-        <v>0.67</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B68">
-        <v>183.45</v>
+        <v>181.5</v>
       </c>
       <c r="C68">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D68">
-        <v>-0.14</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B69">
-        <v>182.23</v>
+        <v>171.71</v>
       </c>
       <c r="C69">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D69">
-        <v>-0.8100000000000001</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B70">
-        <v>180.22</v>
+        <v>170.67</v>
       </c>
       <c r="C70">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D70">
-        <v>-1.9</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B71">
-        <v>178.26</v>
+        <v>170.45</v>
       </c>
       <c r="C71">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D71">
-        <v>-2.97</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B72">
-        <v>177.05</v>
+        <v>170.78</v>
       </c>
       <c r="C72">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D72">
-        <v>-3.63</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B73">
-        <v>176.65</v>
+        <v>171.6</v>
       </c>
       <c r="C73">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D73">
-        <v>-3.85</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B74">
-        <v>175.85</v>
+        <v>172.16</v>
       </c>
       <c r="C74">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D74">
-        <v>-4.28</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>174.83</v>
+        <v>175.06</v>
       </c>
       <c r="C75">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D75">
-        <v>-4.83</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>175.1</v>
+        <v>174.82</v>
       </c>
       <c r="C76">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D76">
-        <v>-4.69</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>175.43</v>
+        <v>172.81</v>
       </c>
       <c r="C77">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D77">
-        <v>-4.51</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>177.77</v>
+        <v>172.82</v>
       </c>
       <c r="C78">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D78">
-        <v>-3.23</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B79">
-        <v>176.42</v>
+        <v>173.83</v>
       </c>
       <c r="C79">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D79">
-        <v>-3.97</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B80">
-        <v>181.1</v>
+        <v>174.93</v>
       </c>
       <c r="C80">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D80">
-        <v>-1.42</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B81">
-        <v>182.67</v>
+        <v>175.38</v>
       </c>
       <c r="C81">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D81">
-        <v>-0.57</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B82">
-        <v>173.3</v>
+        <v>174.98</v>
       </c>
       <c r="C82">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D82">
-        <v>-5.67</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B83">
-        <v>172.47</v>
+        <v>175.14</v>
       </c>
       <c r="C83">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D83">
-        <v>-6.12</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>171.28</v>
+        <v>174.93</v>
       </c>
       <c r="C84">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D84">
-        <v>-6.77</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B85">
-        <v>170.7</v>
+        <v>174.74</v>
       </c>
       <c r="C85">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D85">
-        <v>-7.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B86">
-        <v>170.45</v>
+        <v>175.66</v>
       </c>
       <c r="C86">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D86">
-        <v>-7.22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B87">
-        <v>169.75</v>
+        <v>175.97</v>
       </c>
       <c r="C87">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D87">
-        <v>-7.6</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B88">
-        <v>169.51</v>
+        <v>175.79</v>
       </c>
       <c r="C88">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D88">
-        <v>-7.73</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B89">
-        <v>169.27</v>
+        <v>176.64</v>
       </c>
       <c r="C89">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D89">
-        <v>-7.86</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B90">
-        <v>169.38</v>
+        <v>177.46</v>
       </c>
       <c r="C90">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D90">
-        <v>-7.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B91">
-        <v>170.38</v>
+        <v>177.41</v>
       </c>
       <c r="C91">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D91">
-        <v>-7.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B92">
-        <v>170.36</v>
+        <v>177.77</v>
       </c>
       <c r="C92">
-        <v>183.71</v>
+        <v>180.46</v>
       </c>
       <c r="D92">
-        <v>-7.27</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B93">
-        <v>170.17</v>
+        <v>179.3</v>
       </c>
       <c r="C93">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D93">
-        <v>-4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B94">
-        <v>170.51</v>
+        <v>178.16</v>
       </c>
       <c r="C94">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D94">
-        <v>-3.81</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B95">
-        <v>170.17</v>
+        <v>177.92</v>
       </c>
       <c r="C95">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D95">
-        <v>-4</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B96">
-        <v>168.46</v>
+        <v>177.89</v>
       </c>
       <c r="C96">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D96">
-        <v>-4.96</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B97">
-        <v>168.53</v>
+        <v>178.97</v>
       </c>
       <c r="C97">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D97">
-        <v>-4.92</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B98">
-        <v>170.89</v>
+        <v>180.19</v>
       </c>
       <c r="C98">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D98">
-        <v>-3.59</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B99">
-        <v>181.5</v>
+        <v>178.79</v>
       </c>
       <c r="C99">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D99">
-        <v>2.39</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B100">
-        <v>171.71</v>
+        <v>179.32</v>
       </c>
       <c r="C100">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D100">
-        <v>-3.13</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B101">
-        <v>170.67</v>
+        <v>180.25</v>
       </c>
       <c r="C101">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D101">
-        <v>-3.72</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B102">
-        <v>170.45</v>
+        <v>180.29</v>
       </c>
       <c r="C102">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D102">
-        <v>-3.84</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B103">
-        <v>170.78</v>
+        <v>180.36</v>
       </c>
       <c r="C103">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D103">
-        <v>-3.65</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B104">
-        <v>171.6</v>
+        <v>181.47</v>
       </c>
       <c r="C104">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D104">
-        <v>-3.19</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B105">
-        <v>172.16</v>
+        <v>183.06</v>
       </c>
       <c r="C105">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D105">
-        <v>-2.88</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B106">
-        <v>175.06</v>
+        <v>183.42</v>
       </c>
       <c r="C106">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D106">
-        <v>-1.24</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B107">
-        <v>174.82</v>
+        <v>182.61</v>
       </c>
       <c r="C107">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D107">
-        <v>-1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B108">
-        <v>172.81</v>
+        <v>181.88</v>
       </c>
       <c r="C108">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D108">
-        <v>-2.51</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B109">
-        <v>172.82</v>
+        <v>181.2</v>
       </c>
       <c r="C109">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D109">
-        <v>-2.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B110">
-        <v>173.83</v>
+        <v>180.89</v>
       </c>
       <c r="C110">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D110">
-        <v>-1.93</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B111">
-        <v>174.93</v>
+        <v>181.99</v>
       </c>
       <c r="C111">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D111">
-        <v>-1.31</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B112">
-        <v>175.38</v>
+        <v>182.41</v>
       </c>
       <c r="C112">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D112">
-        <v>-1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B113">
-        <v>174.98</v>
+        <v>182.93</v>
       </c>
       <c r="C113">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D113">
-        <v>-1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B114">
-        <v>175.14</v>
+        <v>192.26</v>
       </c>
       <c r="C114">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D114">
-        <v>-1.2</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B115">
-        <v>174.93</v>
+        <v>183.97</v>
       </c>
       <c r="C115">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D115">
-        <v>-1.31</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B116">
-        <v>174.74</v>
+        <v>181.81</v>
       </c>
       <c r="C116">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D116">
-        <v>-1.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B117">
-        <v>175.66</v>
+        <v>180.18</v>
       </c>
       <c r="C117">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D117">
-        <v>-0.9</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B118">
-        <v>175.97</v>
+        <v>179.3</v>
       </c>
       <c r="C118">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D118">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B119">
-        <v>175.79</v>
+        <v>179.68</v>
       </c>
       <c r="C119">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D119">
-        <v>-0.83</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B120">
-        <v>176.64</v>
+        <v>180.04</v>
       </c>
       <c r="C120">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D120">
-        <v>-0.35</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B121">
-        <v>177.46</v>
+        <v>180.99</v>
       </c>
       <c r="C121">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D121">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B122">
-        <v>177.41</v>
+        <v>181.04</v>
       </c>
       <c r="C122">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D122">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B123">
-        <v>177.77</v>
+        <v>181.95</v>
       </c>
       <c r="C123">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D123">
-        <v>-1.49</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B124">
-        <v>179.3</v>
+        <v>190.02</v>
       </c>
       <c r="C124">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D124">
-        <v>-0.64</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B125">
-        <v>178.16</v>
+        <v>189.89</v>
       </c>
       <c r="C125">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D125">
-        <v>-1.28</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B126">
-        <v>177.92</v>
+        <v>185.86</v>
       </c>
       <c r="C126">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D126">
-        <v>-1.41</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B127">
-        <v>177.89</v>
+        <v>191.54</v>
       </c>
       <c r="C127">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D127">
-        <v>-1.43</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B128">
-        <v>178.97</v>
+        <v>199.04</v>
       </c>
       <c r="C128">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D128">
-        <v>-0.83</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B129">
-        <v>180.19</v>
+        <v>193.44</v>
       </c>
       <c r="C129">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D129">
-        <v>-0.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B130">
-        <v>178.79</v>
+        <v>187.38</v>
       </c>
       <c r="C130">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D130">
-        <v>-0.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B131">
-        <v>179.32</v>
+        <v>191.06</v>
       </c>
       <c r="C131">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D131">
-        <v>-0.63</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B132">
-        <v>180.25</v>
+        <v>200.84</v>
       </c>
       <c r="C132">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D132">
-        <v>-0.12</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B133">
-        <v>180.29</v>
+        <v>204.15</v>
       </c>
       <c r="C133">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D133">
-        <v>-0.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B134">
-        <v>180.36</v>
+        <v>193.82</v>
       </c>
       <c r="C134">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D134">
-        <v>-0.06</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B135">
-        <v>181.47</v>
+        <v>191.11</v>
       </c>
       <c r="C135">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D135">
-        <v>0.5600000000000001</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B136">
-        <v>183.06</v>
+        <v>190.29</v>
       </c>
       <c r="C136">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D136">
-        <v>1.44</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B137">
-        <v>183.42</v>
+        <v>189.9</v>
       </c>
       <c r="C137">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D137">
-        <v>1.64</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>182.61</v>
+        <v>190.34</v>
       </c>
       <c r="C138">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D138">
-        <v>1.19</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B139">
-        <v>181.88</v>
+        <v>190.33</v>
       </c>
       <c r="C139">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D139">
-        <v>0.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B140">
-        <v>181.2</v>
+        <v>190.44</v>
       </c>
       <c r="C140">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D140">
-        <v>0.41</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B141">
-        <v>180.89</v>
+        <v>190.43</v>
       </c>
       <c r="C141">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D141">
-        <v>0.23</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B142">
-        <v>181.99</v>
+        <v>190.39</v>
       </c>
       <c r="C142">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D142">
-        <v>0.85</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B143">
-        <v>182.41</v>
+        <v>190.21</v>
       </c>
       <c r="C143">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D143">
-        <v>1.08</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B144">
-        <v>182.93</v>
+        <v>190.31</v>
       </c>
       <c r="C144">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D144">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B145">
-        <v>192.26</v>
+        <v>189.79</v>
       </c>
       <c r="C145">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D145">
-        <v>6.54</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B146">
-        <v>183.97</v>
+        <v>189.51</v>
       </c>
       <c r="C146">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D146">
-        <v>1.94</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B147">
-        <v>181.81</v>
+        <v>189.98</v>
       </c>
       <c r="C147">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D147">
-        <v>0.75</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B148">
-        <v>180.18</v>
+        <v>200.62</v>
       </c>
       <c r="C148">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D148">
-        <v>-0.16</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B149">
-        <v>179.3</v>
+        <v>243.02</v>
       </c>
       <c r="C149">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D149">
-        <v>-0.64</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B150">
-        <v>179.68</v>
+        <v>212.07</v>
       </c>
       <c r="C150">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D150">
-        <v>-0.44</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B151">
-        <v>180.04</v>
+        <v>199.58</v>
       </c>
       <c r="C151">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D151">
-        <v>-0.23</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B152">
-        <v>180.99</v>
+        <v>199.01</v>
       </c>
       <c r="C152">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D152">
-        <v>0.29</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B153">
-        <v>181.04</v>
+        <v>227.33</v>
       </c>
       <c r="C153">
-        <v>180.46</v>
+        <v>178.06</v>
       </c>
       <c r="D153">
-        <v>0.32</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B154">
-        <v>181.95</v>
+        <v>205.73</v>
       </c>
       <c r="C154">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D154">
-        <v>-0</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B155">
-        <v>190.02</v>
+        <v>199.47</v>
       </c>
       <c r="C155">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D155">
-        <v>4.44</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B156">
-        <v>189.89</v>
+        <v>197.33</v>
       </c>
       <c r="C156">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D156">
-        <v>4.36</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B157">
-        <v>185.86</v>
+        <v>196.05</v>
       </c>
       <c r="C157">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D157">
-        <v>2.15</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B158">
-        <v>191.54</v>
+        <v>195.09</v>
       </c>
       <c r="C158">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D158">
-        <v>5.27</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B159">
-        <v>199.04</v>
+        <v>194.75</v>
       </c>
       <c r="C159">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D159">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B160">
-        <v>193.44</v>
+        <v>194.12</v>
       </c>
       <c r="C160">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D160">
-        <v>6.31</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B161">
-        <v>187.38</v>
+        <v>193.64</v>
       </c>
       <c r="C161">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D161">
-        <v>2.98</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B162">
-        <v>191.06</v>
+        <v>192.79</v>
       </c>
       <c r="C162">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D162">
-        <v>5.01</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B163">
-        <v>200.84</v>
+        <v>192.14</v>
       </c>
       <c r="C163">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D163">
-        <v>10.38</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B164">
-        <v>204.15</v>
+        <v>192.29</v>
       </c>
       <c r="C164">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D164">
-        <v>12.2</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B165">
-        <v>193.82</v>
+        <v>192.57</v>
       </c>
       <c r="C165">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D165">
-        <v>6.52</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B166">
-        <v>191.11</v>
+        <v>194.71</v>
       </c>
       <c r="C166">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D166">
-        <v>5.04</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B167">
-        <v>190.29</v>
+        <v>184.57</v>
       </c>
       <c r="C167">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D167">
-        <v>4.58</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B168">
-        <v>189.9</v>
+        <v>158.19</v>
       </c>
       <c r="C168">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D168">
-        <v>4.37</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B169">
-        <v>190.34</v>
+        <v>158.22</v>
       </c>
       <c r="C169">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D169">
-        <v>4.61</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B170">
-        <v>190.33</v>
+        <v>158.54</v>
       </c>
       <c r="C170">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D170">
-        <v>4.61</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B171">
-        <v>190.44</v>
+        <v>157.51</v>
       </c>
       <c r="C171">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D171">
-        <v>4.66</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B172">
-        <v>190.43</v>
+        <v>156.79</v>
       </c>
       <c r="C172">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D172">
-        <v>4.66</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B173">
-        <v>190.39</v>
+        <v>156.77</v>
       </c>
       <c r="C173">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D173">
-        <v>4.64</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B174">
-        <v>190.21</v>
+        <v>156.56</v>
       </c>
       <c r="C174">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D174">
-        <v>4.54</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B175">
-        <v>190.31</v>
+        <v>156.77</v>
       </c>
       <c r="C175">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D175">
-        <v>4.6</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B176">
-        <v>189.79</v>
+        <v>156.24</v>
       </c>
       <c r="C176">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D176">
-        <v>4.31</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B177">
-        <v>189.51</v>
+        <v>155.64</v>
       </c>
       <c r="C177">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D177">
-        <v>4.15</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B178">
-        <v>189.98</v>
+        <v>155.1</v>
       </c>
       <c r="C178">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D178">
-        <v>4.41</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B179">
-        <v>200.62</v>
+        <v>156.3</v>
       </c>
       <c r="C179">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D179">
-        <v>10.26</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B180">
-        <v>243.02</v>
+        <v>156</v>
       </c>
       <c r="C180">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D180">
-        <v>33.56</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B181">
-        <v>212.07</v>
+        <v>156.52</v>
       </c>
       <c r="C181">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D181">
-        <v>16.56</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B182">
-        <v>199.58</v>
+        <v>159.27</v>
       </c>
       <c r="C182">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D182">
-        <v>9.69</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B183">
-        <v>199.01</v>
+        <v>158</v>
       </c>
       <c r="C183">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D183">
-        <v>9.380000000000001</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B184">
-        <v>227.33</v>
+        <v>157</v>
       </c>
       <c r="C184">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D184">
-        <v>27.67</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B185">
-        <v>205.73</v>
+        <v>157</v>
       </c>
       <c r="C185">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D185">
-        <v>15.54</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B186">
-        <v>199.47</v>
+        <v>157</v>
       </c>
       <c r="C186">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D186">
-        <v>12.02</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44016</v>
-      </c>
-      <c r="B187">
-        <v>197.33</v>
+        <v>44047</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>178.06</v>
-      </c>
-      <c r="D187">
-        <v>10.82</v>
+        <v>174.89</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B188">
-        <v>196.05</v>
+        <v>44048</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>178.06</v>
-      </c>
-      <c r="D188">
-        <v>10.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B189">
-        <v>195.09</v>
+        <v>44049</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>178.06</v>
-      </c>
-      <c r="D189">
-        <v>9.57</v>
+        <v>174.89</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B190">
-        <v>194.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>178.06</v>
-      </c>
-      <c r="D190">
-        <v>9.369999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B191">
-        <v>194.12</v>
+        <v>44051</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>178.06</v>
-      </c>
-      <c r="D191">
-        <v>9.02</v>
+        <v>174.89</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B192">
-        <v>193.64</v>
+        <v>44052</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
       </c>
       <c r="C192">
-        <v>178.06</v>
-      </c>
-      <c r="D192">
-        <v>8.75</v>
+        <v>174.89</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B193">
-        <v>192.79</v>
+        <v>44053</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
       </c>
       <c r="C193">
-        <v>178.06</v>
-      </c>
-      <c r="D193">
-        <v>8.27</v>
+        <v>174.89</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B194">
-        <v>192.14</v>
+        <v>44054</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
       </c>
       <c r="C194">
-        <v>178.06</v>
-      </c>
-      <c r="D194">
-        <v>7.9</v>
+        <v>174.89</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B195">
-        <v>192.29</v>
+        <v>44055</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>178.06</v>
-      </c>
-      <c r="D195">
-        <v>7.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B196">
-        <v>192.57</v>
+        <v>44056</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>178.06</v>
-      </c>
-      <c r="D196">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B197">
-        <v>194.71</v>
+        <v>44057</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>178.06</v>
-      </c>
-      <c r="D197">
-        <v>9.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B198">
-        <v>184.57</v>
+        <v>44058</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
       </c>
       <c r="C198">
-        <v>178.06</v>
-      </c>
-      <c r="D198">
-        <v>3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B199">
-        <v>158.19</v>
+        <v>44059</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>178.06</v>
-      </c>
-      <c r="D199">
-        <v>-11.16</v>
+        <v>174.89</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B200">
-        <v>158.22</v>
+        <v>44060</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
       </c>
       <c r="C200">
-        <v>178.06</v>
-      </c>
-      <c r="D200">
-        <v>-11.14</v>
+        <v>174.89</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B201">
-        <v>158.54</v>
+        <v>44061</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>178.06</v>
-      </c>
-      <c r="D201">
-        <v>-10.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B202">
-        <v>157.51</v>
+        <v>44062</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
       </c>
       <c r="C202">
-        <v>178.06</v>
-      </c>
-      <c r="D202">
-        <v>-11.54</v>
+        <v>174.89</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B203">
-        <v>156.79</v>
+        <v>44063</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
       </c>
       <c r="C203">
-        <v>178.06</v>
-      </c>
-      <c r="D203">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B204">
-        <v>156.77</v>
+        <v>44064</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>178.06</v>
-      </c>
-      <c r="D204">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B205">
-        <v>156.56</v>
+        <v>44065</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>178.06</v>
-      </c>
-      <c r="D205">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B206">
-        <v>156.77</v>
+        <v>44066</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
       </c>
       <c r="C206">
-        <v>178.06</v>
-      </c>
-      <c r="D206">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B207">
-        <v>156.24</v>
+        <v>44067</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>178.06</v>
-      </c>
-      <c r="D207">
-        <v>-12.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B208">
-        <v>155.64</v>
+        <v>44068</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
       </c>
       <c r="C208">
-        <v>178.06</v>
-      </c>
-      <c r="D208">
-        <v>-12.59</v>
+        <v>174.89</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B209">
-        <v>155.1</v>
+        <v>44069</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
       </c>
       <c r="C209">
-        <v>178.06</v>
-      </c>
-      <c r="D209">
-        <v>-12.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B210">
-        <v>156.3</v>
+        <v>44070</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>178.06</v>
-      </c>
-      <c r="D210">
-        <v>-12.22</v>
+        <v>174.89</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B211">
-        <v>156</v>
+        <v>163.64</v>
       </c>
       <c r="C211">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D211">
-        <v>-12.39</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B212">
-        <v>156.52</v>
+        <v>163.91</v>
       </c>
       <c r="C212">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D212">
-        <v>-12.1</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B213">
-        <v>159.27</v>
+        <v>163.57</v>
       </c>
       <c r="C213">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D213">
-        <v>-10.55</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B214">
-        <v>158</v>
+        <v>163.44</v>
       </c>
       <c r="C214">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D214">
-        <v>-11.27</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B215">
-        <v>157</v>
+        <v>163.22</v>
       </c>
       <c r="C215">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D215">
-        <v>-10.23</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B216">
-        <v>157</v>
+        <v>163.31</v>
       </c>
       <c r="C216">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D216">
-        <v>-10.23</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B217">
-        <v>157</v>
+        <v>163.8</v>
       </c>
       <c r="C217">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D217">
-        <v>-10.23</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B218" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B218">
+        <v>165.49</v>
       </c>
       <c r="C218">
-        <v>174.89</v>
-      </c>
-      <c r="D218" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D218">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B219" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B219">
+        <v>166.85</v>
       </c>
       <c r="C219">
-        <v>174.89</v>
-      </c>
-      <c r="D219" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D219">
+        <v>-5.72</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B220">
+        <v>166.58</v>
       </c>
       <c r="C220">
-        <v>174.89</v>
-      </c>
-      <c r="D220" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D220">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B221">
+        <v>165.9</v>
       </c>
       <c r="C221">
-        <v>174.89</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D221">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B222" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B222">
+        <v>165.68</v>
       </c>
       <c r="C222">
-        <v>174.89</v>
-      </c>
-      <c r="D222" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D222">
+        <v>-6.38</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B223" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B223">
+        <v>165.5</v>
       </c>
       <c r="C223">
-        <v>174.89</v>
-      </c>
-      <c r="D223" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D223">
+        <v>-6.48</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B224" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B224">
+        <v>165.97</v>
       </c>
       <c r="C224">
-        <v>174.89</v>
-      </c>
-      <c r="D224" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D224">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B225" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B225">
+        <v>165.58</v>
       </c>
       <c r="C225">
-        <v>174.89</v>
-      </c>
-      <c r="D225" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D225">
+        <v>-6.44</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B226" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B226">
+        <v>165.33</v>
       </c>
       <c r="C226">
-        <v>174.89</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D226">
+        <v>-6.58</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B227" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B227">
+        <v>167.94</v>
       </c>
       <c r="C227">
-        <v>174.89</v>
-      </c>
-      <c r="D227" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D227">
+        <v>-5.11</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B228" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B228">
+        <v>168.38</v>
       </c>
       <c r="C228">
-        <v>174.89</v>
-      </c>
-      <c r="D228" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D228">
+        <v>-4.86</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B229" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B229">
+        <v>167.68</v>
       </c>
       <c r="C229">
-        <v>174.89</v>
-      </c>
-      <c r="D229" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D229">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B230" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B230">
+        <v>167.68</v>
       </c>
       <c r="C230">
-        <v>174.89</v>
-      </c>
-      <c r="D230" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D230">
+        <v>-5.25</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B231">
+        <v>168.85</v>
       </c>
       <c r="C231">
-        <v>174.89</v>
-      </c>
-      <c r="D231" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D231">
+        <v>-4.59</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B232">
+        <v>168.47</v>
       </c>
       <c r="C232">
-        <v>174.89</v>
-      </c>
-      <c r="D232" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D232">
+        <v>-4.81</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B233">
+        <v>168.24</v>
       </c>
       <c r="C233">
-        <v>174.89</v>
-      </c>
-      <c r="D233" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D233">
+        <v>-4.94</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B234">
+        <v>167.42</v>
       </c>
       <c r="C234">
-        <v>174.89</v>
-      </c>
-      <c r="D234" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D234">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B235">
+        <v>167.1</v>
       </c>
       <c r="C235">
-        <v>174.89</v>
-      </c>
-      <c r="D235" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D235">
+        <v>-5.58</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B236">
+        <v>167.35</v>
       </c>
       <c r="C236">
-        <v>174.89</v>
-      </c>
-      <c r="D236" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D236">
+        <v>-5.44</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B237">
+        <v>167.81</v>
       </c>
       <c r="C237">
-        <v>174.89</v>
-      </c>
-      <c r="D237" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D237">
+        <v>-5.18</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
+        <v>44098</v>
+      </c>
+      <c r="B238">
+        <v>168.55</v>
       </c>
       <c r="C238">
-        <v>174.89</v>
-      </c>
-      <c r="D238" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D238">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
+        <v>44099</v>
+      </c>
+      <c r="B239">
+        <v>168.34</v>
       </c>
       <c r="C239">
-        <v>174.89</v>
-      </c>
-      <c r="D239" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D239">
+        <v>-4.88</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
+        <v>44100</v>
+      </c>
+      <c r="B240">
+        <v>167.75</v>
       </c>
       <c r="C240">
-        <v>174.89</v>
-      </c>
-      <c r="D240" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D240">
+        <v>-5.21</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44070</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
+        <v>44101</v>
+      </c>
+      <c r="B241">
+        <v>167.59</v>
       </c>
       <c r="C241">
-        <v>174.89</v>
-      </c>
-      <c r="D241" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D241">
+        <v>-5.3</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B242">
-        <v>163.64</v>
+        <v>167.8</v>
       </c>
       <c r="C242">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D242">
-        <v>-6.43</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B243">
-        <v>163.91</v>
+        <v>169.27</v>
       </c>
       <c r="C243">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D243">
-        <v>-6.28</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B244">
-        <v>163.57</v>
+        <v>169.25</v>
       </c>
       <c r="C244">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D244">
-        <v>-6.47</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B245">
-        <v>163.44</v>
+        <v>168.84</v>
       </c>
       <c r="C245">
-        <v>174.89</v>
+        <v>180.02</v>
       </c>
       <c r="D245">
-        <v>-6.55</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B246">
-        <v>163.22</v>
+        <v>168.04</v>
       </c>
       <c r="C246">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D246">
-        <v>-7.77</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B247">
-        <v>163.31</v>
+        <v>167.57</v>
       </c>
       <c r="C247">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D247">
-        <v>-7.72</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B248">
-        <v>163.8</v>
+        <v>166.82</v>
       </c>
       <c r="C248">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D248">
-        <v>-7.44</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B249">
-        <v>165.49</v>
+        <v>167.06</v>
       </c>
       <c r="C249">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D249">
-        <v>-6.49</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B250">
-        <v>166.85</v>
+        <v>167.32</v>
       </c>
       <c r="C250">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D250">
-        <v>-5.72</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B251">
-        <v>166.58</v>
+        <v>167.31</v>
       </c>
       <c r="C251">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D251">
-        <v>-5.87</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B252">
-        <v>165.9</v>
+        <v>169.44</v>
       </c>
       <c r="C252">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D252">
-        <v>-6.26</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B253">
-        <v>165.68</v>
+        <v>175.8</v>
       </c>
       <c r="C253">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D253">
-        <v>-6.38</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B254">
-        <v>165.5</v>
+        <v>176.98</v>
       </c>
       <c r="C254">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D254">
-        <v>-6.48</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B255">
-        <v>165.97</v>
+        <v>168.89</v>
       </c>
       <c r="C255">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D255">
-        <v>-6.22</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B256">
-        <v>165.58</v>
+        <v>168.22</v>
       </c>
       <c r="C256">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D256">
-        <v>-6.44</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B257">
-        <v>165.33</v>
+        <v>168.83</v>
       </c>
       <c r="C257">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D257">
-        <v>-6.58</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B258">
-        <v>167.94</v>
+        <v>169.74</v>
       </c>
       <c r="C258">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D258">
-        <v>-5.11</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B259">
-        <v>168.38</v>
+        <v>169.85</v>
       </c>
       <c r="C259">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D259">
-        <v>-4.86</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B260">
-        <v>167.68</v>
+        <v>169.45</v>
       </c>
       <c r="C260">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D260">
-        <v>-5.25</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B261">
-        <v>167.68</v>
+        <v>167.78</v>
       </c>
       <c r="C261">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D261">
-        <v>-5.25</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B262">
-        <v>168.85</v>
+        <v>167.82</v>
       </c>
       <c r="C262">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D262">
-        <v>-4.59</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B263">
-        <v>168.47</v>
+        <v>169.9</v>
       </c>
       <c r="C263">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D263">
-        <v>-4.81</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B264">
-        <v>168.24</v>
+        <v>171.45</v>
       </c>
       <c r="C264">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D264">
-        <v>-4.94</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B265">
-        <v>167.42</v>
+        <v>192.56</v>
       </c>
       <c r="C265">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D265">
-        <v>-5.4</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B266">
-        <v>167.1</v>
+        <v>171.27</v>
       </c>
       <c r="C266">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D266">
-        <v>-5.58</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B267">
-        <v>167.35</v>
+        <v>169.78</v>
       </c>
       <c r="C267">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D267">
-        <v>-5.44</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B268">
-        <v>167.81</v>
+        <v>170.33</v>
       </c>
       <c r="C268">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D268">
-        <v>-5.18</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B269">
-        <v>168.55</v>
+        <v>172.71</v>
       </c>
       <c r="C269">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D269">
-        <v>-4.76</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B270">
-        <v>168.34</v>
+        <v>171.85</v>
       </c>
       <c r="C270">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D270">
-        <v>-4.88</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B271">
-        <v>167.75</v>
+        <v>171.28</v>
       </c>
       <c r="C271">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D271">
-        <v>-5.21</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B272">
-        <v>167.59</v>
+        <v>170.75</v>
       </c>
       <c r="C272">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D272">
-        <v>-5.3</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B273">
-        <v>167.8</v>
+        <v>170.95</v>
       </c>
       <c r="C273">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D273">
-        <v>-5.18</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B274">
-        <v>169.27</v>
+        <v>197.08</v>
       </c>
       <c r="C274">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D274">
-        <v>-4.35</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B275">
-        <v>169.25</v>
+        <v>181.15</v>
       </c>
       <c r="C275">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D275">
-        <v>-4.37</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B276">
-        <v>168.84</v>
+        <v>176.74</v>
       </c>
       <c r="C276">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D276">
-        <v>-6.21</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B277">
-        <v>168.04</v>
+        <v>176.12</v>
       </c>
       <c r="C277">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D277">
-        <v>-6.65</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B278">
-        <v>167.57</v>
+        <v>177.07</v>
       </c>
       <c r="C278">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D278">
-        <v>-6.91</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B279">
-        <v>166.82</v>
+        <v>183.07</v>
       </c>
       <c r="C279">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D279">
-        <v>-7.33</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B280">
-        <v>167.06</v>
+        <v>187.71</v>
       </c>
       <c r="C280">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D280">
-        <v>-7.2</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B281">
-        <v>167.32</v>
+        <v>181.83</v>
       </c>
       <c r="C281">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D281">
-        <v>-7.05</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B282">
-        <v>167.31</v>
+        <v>181.02</v>
       </c>
       <c r="C282">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D282">
-        <v>-7.06</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B283">
-        <v>169.44</v>
+        <v>180.93</v>
       </c>
       <c r="C283">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D283">
-        <v>-5.88</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B284">
-        <v>175.8</v>
+        <v>181.77</v>
       </c>
       <c r="C284">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D284">
-        <v>-2.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B285">
-        <v>176.98</v>
+        <v>219.38</v>
       </c>
       <c r="C285">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D285">
-        <v>-1.69</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B286">
-        <v>168.89</v>
+        <v>234.17</v>
       </c>
       <c r="C286">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D286">
-        <v>-6.19</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B287">
-        <v>168.22</v>
+        <v>242.04</v>
       </c>
       <c r="C287">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D287">
-        <v>-6.56</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B288">
-        <v>168.83</v>
+        <v>219.81</v>
       </c>
       <c r="C288">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D288">
-        <v>-6.21</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B289">
-        <v>169.74</v>
+        <v>216.64</v>
       </c>
       <c r="C289">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D289">
-        <v>-5.71</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B290">
-        <v>169.85</v>
+        <v>213.18</v>
       </c>
       <c r="C290">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D290">
-        <v>-5.65</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B291">
-        <v>169.45</v>
+        <v>217.07</v>
       </c>
       <c r="C291">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D291">
-        <v>-5.87</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B292">
-        <v>167.78</v>
+        <v>208.06</v>
       </c>
       <c r="C292">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D292">
-        <v>-6.8</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B293">
-        <v>167.82</v>
+        <v>203.52</v>
       </c>
       <c r="C293">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D293">
-        <v>-6.78</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B294">
-        <v>169.9</v>
+        <v>215.37</v>
       </c>
       <c r="C294">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D294">
-        <v>-5.62</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B295">
-        <v>171.45</v>
+        <v>209.37</v>
       </c>
       <c r="C295">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D295">
-        <v>-4.76</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B296">
-        <v>192.56</v>
+        <v>205.92</v>
       </c>
       <c r="C296">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D296">
-        <v>6.97</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B297">
-        <v>171.27</v>
+        <v>204.76</v>
       </c>
       <c r="C297">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D297">
-        <v>-4.86</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B298">
-        <v>169.78</v>
+        <v>203.03</v>
       </c>
       <c r="C298">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D298">
-        <v>-5.69</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B299">
-        <v>170.33</v>
+        <v>199.81</v>
       </c>
       <c r="C299">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D299">
-        <v>-5.38</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B300">
-        <v>172.71</v>
+        <v>197.45</v>
       </c>
       <c r="C300">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D300">
-        <v>-4.06</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B301">
-        <v>171.85</v>
+        <v>196.24</v>
       </c>
       <c r="C301">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D301">
-        <v>-4.54</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B302">
-        <v>171.28</v>
+        <v>197.44</v>
       </c>
       <c r="C302">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D302">
-        <v>-4.85</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B303">
-        <v>170.75</v>
+        <v>212.78</v>
       </c>
       <c r="C303">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D303">
-        <v>-5.15</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B304">
-        <v>170.95</v>
+        <v>202.44</v>
       </c>
       <c r="C304">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D304">
-        <v>-5.04</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B305">
-        <v>197.08</v>
+        <v>201.49</v>
       </c>
       <c r="C305">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D305">
-        <v>9.48</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B306">
-        <v>181.15</v>
+        <v>198.81</v>
       </c>
       <c r="C306">
-        <v>180.02</v>
+        <v>181.71</v>
       </c>
       <c r="D306">
-        <v>0.63</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B307">
-        <v>176.74</v>
+        <v>200.14</v>
       </c>
       <c r="C307">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D307">
-        <v>-1.45</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B308">
-        <v>176.12</v>
+        <v>202.79</v>
       </c>
       <c r="C308">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D308">
-        <v>-1.79</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B309">
-        <v>177.07</v>
+        <v>204.7</v>
       </c>
       <c r="C309">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D309">
-        <v>-1.27</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B310">
-        <v>183.07</v>
+        <v>211.64</v>
       </c>
       <c r="C310">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D310">
-        <v>2.08</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B311">
-        <v>187.71</v>
+        <v>210.55</v>
       </c>
       <c r="C311">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D311">
-        <v>4.67</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B312">
-        <v>181.83</v>
+        <v>208.7</v>
       </c>
       <c r="C312">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D312">
-        <v>1.39</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B313">
-        <v>181.02</v>
+        <v>208.39</v>
       </c>
       <c r="C313">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D313">
-        <v>0.9399999999999999</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B314">
-        <v>180.93</v>
+        <v>207.67</v>
       </c>
       <c r="C314">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D314">
-        <v>0.88</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B315">
-        <v>181.77</v>
+        <v>207.28</v>
       </c>
       <c r="C315">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D315">
-        <v>1.35</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B316">
-        <v>219.38</v>
+        <v>209.04</v>
       </c>
       <c r="C316">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D316">
-        <v>22.33</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B317">
-        <v>234.17</v>
+        <v>208.68</v>
       </c>
       <c r="C317">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D317">
-        <v>30.57</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B318">
-        <v>242.04</v>
+        <v>212.29</v>
       </c>
       <c r="C318">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D318">
-        <v>34.96</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B319">
-        <v>219.81</v>
+        <v>215.25</v>
       </c>
       <c r="C319">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D319">
-        <v>22.57</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B320">
-        <v>216.64</v>
+        <v>215.41</v>
       </c>
       <c r="C320">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D320">
-        <v>20.79</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B321">
-        <v>213.18</v>
+        <v>215.96</v>
       </c>
       <c r="C321">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D321">
-        <v>18.87</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B322">
-        <v>217.07</v>
+        <v>235.07</v>
       </c>
       <c r="C322">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D322">
-        <v>21.04</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B323">
-        <v>208.06</v>
+        <v>226.14</v>
       </c>
       <c r="C323">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D323">
-        <v>16.01</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B324">
-        <v>203.52</v>
+        <v>240.36</v>
       </c>
       <c r="C324">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D324">
-        <v>13.48</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B325">
-        <v>215.37</v>
+        <v>239.77</v>
       </c>
       <c r="C325">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D325">
-        <v>20.09</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B326">
-        <v>209.37</v>
+        <v>252.89</v>
       </c>
       <c r="C326">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D326">
-        <v>16.74</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B327">
-        <v>205.92</v>
+        <v>229.23</v>
       </c>
       <c r="C327">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D327">
-        <v>14.82</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B328">
-        <v>204.76</v>
+        <v>222.22</v>
       </c>
       <c r="C328">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D328">
-        <v>14.17</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B329">
-        <v>203.03</v>
+        <v>218.97</v>
       </c>
       <c r="C329">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D329">
-        <v>13.21</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B330">
-        <v>199.81</v>
+        <v>215.82</v>
       </c>
       <c r="C330">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D330">
-        <v>11.41</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B331">
-        <v>197.45</v>
+        <v>214.96</v>
       </c>
       <c r="C331">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D331">
-        <v>10.1</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B332">
-        <v>196.24</v>
+        <v>214.49</v>
       </c>
       <c r="C332">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D332">
-        <v>9.42</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B333">
-        <v>197.44</v>
+        <v>216.58</v>
       </c>
       <c r="C333">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D333">
-        <v>10.09</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B334">
-        <v>212.78</v>
+        <v>217.15</v>
       </c>
       <c r="C334">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D334">
-        <v>18.65</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B335">
-        <v>202.44</v>
+        <v>220.7</v>
       </c>
       <c r="C335">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D335">
-        <v>12.88</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B336">
-        <v>201.49</v>
+        <v>232.1</v>
       </c>
       <c r="C336">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D336">
-        <v>12.35</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B337">
-        <v>198.81</v>
+        <v>234</v>
       </c>
       <c r="C337">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D337">
-        <v>9.41</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44167</v>
+        <v>44198</v>
       </c>
       <c r="B338">
-        <v>200.14</v>
+        <v>226.04</v>
       </c>
       <c r="C338">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D338">
-        <v>10.14</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44168</v>
+        <v>44199</v>
       </c>
       <c r="B339">
-        <v>202.79</v>
+        <v>223.51</v>
       </c>
       <c r="C339">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D339">
-        <v>11.6</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44169</v>
+        <v>44200</v>
       </c>
       <c r="B340">
-        <v>204.7</v>
+        <v>219.49</v>
       </c>
       <c r="C340">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D340">
-        <v>12.65</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44170</v>
+        <v>44201</v>
       </c>
       <c r="B341">
-        <v>211.64</v>
+        <v>218.69</v>
       </c>
       <c r="C341">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D341">
-        <v>16.47</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44171</v>
+        <v>44202</v>
       </c>
       <c r="B342">
-        <v>210.55</v>
+        <v>219.36</v>
       </c>
       <c r="C342">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D342">
-        <v>15.87</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44172</v>
+        <v>44203</v>
       </c>
       <c r="B343">
-        <v>208.7</v>
+        <v>221.33</v>
       </c>
       <c r="C343">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D343">
-        <v>14.85</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44173</v>
+        <v>44204</v>
       </c>
       <c r="B344">
-        <v>208.39</v>
+        <v>231.38</v>
       </c>
       <c r="C344">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D344">
-        <v>14.68</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44174</v>
+        <v>44205</v>
       </c>
       <c r="B345">
-        <v>207.67</v>
+        <v>244.18</v>
       </c>
       <c r="C345">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D345">
-        <v>14.28</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44175</v>
+        <v>44206</v>
       </c>
       <c r="B346">
-        <v>207.28</v>
+        <v>228.93</v>
       </c>
       <c r="C346">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D346">
-        <v>14.07</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44176</v>
+        <v>44207</v>
       </c>
       <c r="B347">
-        <v>209.04</v>
+        <v>227.06</v>
       </c>
       <c r="C347">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D347">
-        <v>15.04</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44177</v>
+        <v>44208</v>
       </c>
       <c r="B348">
-        <v>208.68</v>
+        <v>223.24</v>
       </c>
       <c r="C348">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D348">
-        <v>14.84</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44178</v>
+        <v>44209</v>
       </c>
       <c r="B349">
-        <v>212.29</v>
+        <v>225.46</v>
       </c>
       <c r="C349">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D349">
-        <v>16.83</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44179</v>
+        <v>44210</v>
       </c>
       <c r="B350">
-        <v>215.25</v>
+        <v>224.2</v>
       </c>
       <c r="C350">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D350">
-        <v>18.46</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44180</v>
+        <v>44211</v>
       </c>
       <c r="B351">
-        <v>215.41</v>
+        <v>224.12</v>
       </c>
       <c r="C351">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D351">
-        <v>18.54</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44181</v>
+        <v>44212</v>
       </c>
       <c r="B352">
-        <v>215.96</v>
+        <v>229.21</v>
       </c>
       <c r="C352">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D352">
-        <v>18.85</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44182</v>
+        <v>44213</v>
       </c>
       <c r="B353">
-        <v>235.07</v>
+        <v>229.68</v>
       </c>
       <c r="C353">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D353">
-        <v>29.37</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44183</v>
+        <v>44214</v>
       </c>
       <c r="B354">
-        <v>226.14</v>
+        <v>231.54</v>
       </c>
       <c r="C354">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D354">
-        <v>24.45</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44184</v>
+        <v>44215</v>
       </c>
       <c r="B355">
-        <v>240.36</v>
+        <v>293.62</v>
       </c>
       <c r="C355">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D355">
-        <v>32.28</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44185</v>
+        <v>44216</v>
       </c>
       <c r="B356">
-        <v>239.77</v>
+        <v>248.61</v>
       </c>
       <c r="C356">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D356">
-        <v>31.95</v>
+        <v>32.34</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="B357">
-        <v>252.89</v>
+        <v>239.72</v>
       </c>
       <c r="C357">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D357">
-        <v>39.17</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44187</v>
+        <v>44218</v>
       </c>
       <c r="B358">
-        <v>229.23</v>
+        <v>240.41</v>
       </c>
       <c r="C358">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D358">
-        <v>26.15</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44188</v>
+        <v>44219</v>
       </c>
       <c r="B359">
-        <v>222.22</v>
+        <v>245.04</v>
       </c>
       <c r="C359">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D359">
-        <v>22.29</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44189</v>
+        <v>44220</v>
       </c>
       <c r="B360">
-        <v>218.97</v>
+        <v>264.11</v>
       </c>
       <c r="C360">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D360">
-        <v>20.5</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44190</v>
+        <v>44221</v>
       </c>
       <c r="B361">
-        <v>215.82</v>
+        <v>246.61</v>
       </c>
       <c r="C361">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D361">
-        <v>18.77</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44191</v>
+        <v>44222</v>
       </c>
       <c r="B362">
-        <v>214.96</v>
+        <v>248.92</v>
       </c>
       <c r="C362">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D362">
-        <v>18.3</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44192</v>
+        <v>44223</v>
       </c>
       <c r="B363">
-        <v>214.49</v>
+        <v>247.18</v>
       </c>
       <c r="C363">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D363">
-        <v>18.04</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="B364">
-        <v>216.58</v>
+        <v>249.86</v>
       </c>
       <c r="C364">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D364">
-        <v>19.19</v>
+        <v>33.01</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="B365">
-        <v>217.15</v>
+        <v>242.59</v>
       </c>
       <c r="C365">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D365">
-        <v>19.5</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44195</v>
+        <v>44226</v>
       </c>
       <c r="B366">
-        <v>220.7</v>
+        <v>307.32</v>
       </c>
       <c r="C366">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D366">
-        <v>21.46</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B367">
-        <v>232.1</v>
+        <v>278.52</v>
       </c>
       <c r="C367">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D367">
-        <v>27.73</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B368">
-        <v>234</v>
-      </c>
-      <c r="C368">
-        <v>187.86</v>
-      </c>
-      <c r="D368">
-        <v>24.56</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B369">
-        <v>226.04</v>
-      </c>
-      <c r="C369">
-        <v>187.86</v>
-      </c>
-      <c r="D369">
-        <v>20.33</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B370">
-        <v>223.51</v>
-      </c>
-      <c r="C370">
-        <v>187.86</v>
-      </c>
-      <c r="D370">
-        <v>18.98</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B371">
-        <v>219.49</v>
-      </c>
-      <c r="C371">
-        <v>187.86</v>
-      </c>
-      <c r="D371">
-        <v>16.84</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B372">
-        <v>218.69</v>
-      </c>
-      <c r="C372">
-        <v>187.86</v>
-      </c>
-      <c r="D372">
-        <v>16.41</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B373">
-        <v>219.36</v>
-      </c>
-      <c r="C373">
-        <v>187.86</v>
-      </c>
-      <c r="D373">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B374">
-        <v>221.33</v>
-      </c>
-      <c r="C374">
-        <v>187.86</v>
-      </c>
-      <c r="D374">
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B375">
-        <v>231.38</v>
-      </c>
-      <c r="C375">
-        <v>187.86</v>
-      </c>
-      <c r="D375">
-        <v>23.16</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B376">
-        <v>244.18</v>
-      </c>
-      <c r="C376">
-        <v>187.86</v>
-      </c>
-      <c r="D376">
-        <v>29.98</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B377">
-        <v>228.93</v>
-      </c>
-      <c r="C377">
-        <v>187.86</v>
-      </c>
-      <c r="D377">
-        <v>21.86</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B378">
-        <v>227.06</v>
-      </c>
-      <c r="C378">
-        <v>187.86</v>
-      </c>
-      <c r="D378">
-        <v>20.87</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B379">
-        <v>223.24</v>
-      </c>
-      <c r="C379">
-        <v>187.86</v>
-      </c>
-      <c r="D379">
-        <v>18.83</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B380">
-        <v>225.46</v>
-      </c>
-      <c r="C380">
-        <v>187.86</v>
-      </c>
-      <c r="D380">
-        <v>20.01</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B381">
-        <v>224.2</v>
-      </c>
-      <c r="C381">
-        <v>187.86</v>
-      </c>
-      <c r="D381">
-        <v>19.34</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B382">
-        <v>224.12</v>
-      </c>
-      <c r="C382">
-        <v>187.86</v>
-      </c>
-      <c r="D382">
-        <v>19.31</v>
+        <v>48.26</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -423,13 +423,13 @@
         <v>43890</v>
       </c>
       <c r="B2">
-        <v>177.33</v>
+        <v>177.49</v>
       </c>
       <c r="C2">
         <v>182.47</v>
       </c>
       <c r="D2">
-        <v>-2.81</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>43921</v>
       </c>
       <c r="B3">
-        <v>176.84</v>
+        <v>176.8</v>
       </c>
       <c r="C3">
         <v>183.71</v>
       </c>
       <c r="D3">
-        <v>-3.74</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>43951</v>
       </c>
       <c r="B4">
-        <v>173.53</v>
+        <v>173.56</v>
       </c>
       <c r="C4">
         <v>177.26</v>
       </c>
       <c r="D4">
-        <v>-2.1</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>43982</v>
       </c>
       <c r="B5">
-        <v>180.98</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>180.46</v>
       </c>
       <c r="D5">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>44012</v>
       </c>
       <c r="B6">
-        <v>194.54</v>
+        <v>194.73</v>
       </c>
       <c r="C6">
         <v>181.95</v>
       </c>
       <c r="D6">
-        <v>6.92</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>44043</v>
       </c>
       <c r="B7">
-        <v>176.29</v>
+        <v>175.95</v>
       </c>
       <c r="C7">
         <v>178.06</v>
       </c>
       <c r="D7">
-        <v>-0.99</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>44074</v>
       </c>
       <c r="B8">
-        <v>160.79</v>
+        <v>161.98</v>
       </c>
       <c r="C8">
         <v>174.89</v>
       </c>
       <c r="D8">
-        <v>-8.06</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -521,13 +521,13 @@
         <v>44104</v>
       </c>
       <c r="B9">
-        <v>166.96</v>
+        <v>166.98</v>
       </c>
       <c r="C9">
         <v>176.98</v>
       </c>
       <c r="D9">
-        <v>-5.66</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -535,13 +535,13 @@
         <v>44135</v>
       </c>
       <c r="B10">
-        <v>171.83</v>
+        <v>171.76</v>
       </c>
       <c r="C10">
         <v>180.02</v>
       </c>
       <c r="D10">
-        <v>-4.55</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -549,13 +549,13 @@
         <v>44165</v>
       </c>
       <c r="B11">
-        <v>201.54</v>
+        <v>202.63</v>
       </c>
       <c r="C11">
         <v>179.34</v>
       </c>
       <c r="D11">
-        <v>12.38</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -563,13 +563,13 @@
         <v>44196</v>
       </c>
       <c r="B12">
-        <v>217.22</v>
+        <v>217.4</v>
       </c>
       <c r="C12">
         <v>181.71</v>
       </c>
       <c r="D12">
-        <v>19.54</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -577,13 +577,27 @@
         <v>44227</v>
       </c>
       <c r="B13">
-        <v>239.8</v>
+        <v>240.44</v>
       </c>
       <c r="C13">
         <v>187.86</v>
       </c>
       <c r="D13">
-        <v>27.65</v>
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B14">
+        <v>242.57</v>
+      </c>
+      <c r="C14">
+        <v>182.47</v>
+      </c>
+      <c r="D14">
+        <v>32.94</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -623,13 +637,13 @@
         <v>43862</v>
       </c>
       <c r="B2">
-        <v>172.53</v>
+        <v>172.47</v>
       </c>
       <c r="C2">
         <v>182.47</v>
       </c>
       <c r="D2">
-        <v>-5.44</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -637,13 +651,13 @@
         <v>43863</v>
       </c>
       <c r="B3">
-        <v>170.89</v>
+        <v>171.14</v>
       </c>
       <c r="C3">
         <v>182.47</v>
       </c>
       <c r="D3">
-        <v>-6.35</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -665,13 +679,13 @@
         <v>43865</v>
       </c>
       <c r="B5">
-        <v>171.57</v>
+        <v>171.45</v>
       </c>
       <c r="C5">
         <v>182.47</v>
       </c>
       <c r="D5">
-        <v>-5.97</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -679,13 +693,13 @@
         <v>43866</v>
       </c>
       <c r="B6">
-        <v>171.47</v>
+        <v>172.12</v>
       </c>
       <c r="C6">
         <v>182.47</v>
       </c>
       <c r="D6">
-        <v>-6.03</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -693,13 +707,13 @@
         <v>43867</v>
       </c>
       <c r="B7">
-        <v>180.74</v>
+        <v>186.53</v>
       </c>
       <c r="C7">
         <v>182.47</v>
       </c>
       <c r="D7">
-        <v>-0.9399999999999999</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -707,13 +721,13 @@
         <v>43868</v>
       </c>
       <c r="B8">
-        <v>185.08</v>
+        <v>183.06</v>
       </c>
       <c r="C8">
         <v>182.47</v>
       </c>
       <c r="D8">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -721,13 +735,13 @@
         <v>43869</v>
       </c>
       <c r="B9">
-        <v>177.7</v>
+        <v>176.68</v>
       </c>
       <c r="C9">
         <v>182.47</v>
       </c>
       <c r="D9">
-        <v>-2.61</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -735,13 +749,13 @@
         <v>43870</v>
       </c>
       <c r="B10">
-        <v>174.41</v>
+        <v>174.99</v>
       </c>
       <c r="C10">
         <v>182.47</v>
       </c>
       <c r="D10">
-        <v>-4.42</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -749,13 +763,13 @@
         <v>43871</v>
       </c>
       <c r="B11">
-        <v>195.2</v>
+        <v>195.66</v>
       </c>
       <c r="C11">
         <v>182.47</v>
       </c>
       <c r="D11">
-        <v>6.98</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -763,13 +777,13 @@
         <v>43872</v>
       </c>
       <c r="B12">
-        <v>178.53</v>
+        <v>177.59</v>
       </c>
       <c r="C12">
         <v>182.47</v>
       </c>
       <c r="D12">
-        <v>-2.16</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -777,13 +791,13 @@
         <v>43873</v>
       </c>
       <c r="B13">
-        <v>174.52</v>
+        <v>174.29</v>
       </c>
       <c r="C13">
         <v>182.47</v>
       </c>
       <c r="D13">
-        <v>-4.35</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -791,13 +805,13 @@
         <v>43874</v>
       </c>
       <c r="B14">
-        <v>173.31</v>
+        <v>173.29</v>
       </c>
       <c r="C14">
         <v>182.47</v>
       </c>
       <c r="D14">
-        <v>-5.02</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -847,13 +861,13 @@
         <v>43878</v>
       </c>
       <c r="B18">
-        <v>173.76</v>
+        <v>173.89</v>
       </c>
       <c r="C18">
         <v>182.47</v>
       </c>
       <c r="D18">
-        <v>-4.77</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -875,13 +889,13 @@
         <v>43880</v>
       </c>
       <c r="B20">
-        <v>175.51</v>
+        <v>175.76</v>
       </c>
       <c r="C20">
         <v>182.47</v>
       </c>
       <c r="D20">
-        <v>-3.81</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -889,13 +903,13 @@
         <v>43881</v>
       </c>
       <c r="B21">
-        <v>176.18</v>
+        <v>176.05</v>
       </c>
       <c r="C21">
         <v>182.47</v>
       </c>
       <c r="D21">
-        <v>-3.45</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -903,13 +917,13 @@
         <v>43882</v>
       </c>
       <c r="B22">
-        <v>175.24</v>
+        <v>175.33</v>
       </c>
       <c r="C22">
         <v>182.47</v>
       </c>
       <c r="D22">
-        <v>-3.96</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -917,13 +931,13 @@
         <v>43883</v>
       </c>
       <c r="B23">
-        <v>177.08</v>
+        <v>177.11</v>
       </c>
       <c r="C23">
         <v>182.47</v>
       </c>
       <c r="D23">
-        <v>-2.95</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -931,13 +945,13 @@
         <v>43884</v>
       </c>
       <c r="B24">
-        <v>175.4</v>
+        <v>175.27</v>
       </c>
       <c r="C24">
         <v>182.47</v>
       </c>
       <c r="D24">
-        <v>-3.87</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -945,13 +959,13 @@
         <v>43885</v>
       </c>
       <c r="B25">
-        <v>175.7</v>
+        <v>175.82</v>
       </c>
       <c r="C25">
         <v>182.47</v>
       </c>
       <c r="D25">
-        <v>-3.71</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -959,13 +973,13 @@
         <v>43886</v>
       </c>
       <c r="B26">
-        <v>177.28</v>
+        <v>178.91</v>
       </c>
       <c r="C26">
         <v>182.47</v>
       </c>
       <c r="D26">
-        <v>-2.84</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -973,13 +987,13 @@
         <v>43887</v>
       </c>
       <c r="B27">
-        <v>189.77</v>
+        <v>191.21</v>
       </c>
       <c r="C27">
         <v>182.47</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -987,13 +1001,13 @@
         <v>43888</v>
       </c>
       <c r="B28">
-        <v>192.17</v>
+        <v>189.91</v>
       </c>
       <c r="C28">
         <v>182.47</v>
       </c>
       <c r="D28">
-        <v>5.32</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1001,13 +1015,13 @@
         <v>43889</v>
       </c>
       <c r="B29">
-        <v>181</v>
+        <v>180.7</v>
       </c>
       <c r="C29">
         <v>182.47</v>
       </c>
       <c r="D29">
-        <v>-0.8</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1015,13 +1029,13 @@
         <v>43890</v>
       </c>
       <c r="B30">
-        <v>180.89</v>
+        <v>181.14</v>
       </c>
       <c r="C30">
         <v>182.47</v>
       </c>
       <c r="D30">
-        <v>-0.87</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1029,13 +1043,13 @@
         <v>43891</v>
       </c>
       <c r="B31">
-        <v>182.48</v>
+        <v>182.62</v>
       </c>
       <c r="C31">
         <v>183.71</v>
       </c>
       <c r="D31">
-        <v>-0.67</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1043,13 +1057,13 @@
         <v>43892</v>
       </c>
       <c r="B32">
-        <v>184.88</v>
+        <v>185.1</v>
       </c>
       <c r="C32">
         <v>183.71</v>
       </c>
       <c r="D32">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1057,13 +1071,13 @@
         <v>43893</v>
       </c>
       <c r="B33">
-        <v>185.24</v>
+        <v>185.18</v>
       </c>
       <c r="C33">
         <v>183.71</v>
       </c>
       <c r="D33">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1071,13 +1085,13 @@
         <v>43894</v>
       </c>
       <c r="B34">
-        <v>185.14</v>
+        <v>185.2</v>
       </c>
       <c r="C34">
         <v>183.71</v>
       </c>
       <c r="D34">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1099,13 +1113,13 @@
         <v>43896</v>
       </c>
       <c r="B36">
-        <v>184.94</v>
+        <v>184.81</v>
       </c>
       <c r="C36">
         <v>183.71</v>
       </c>
       <c r="D36">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1113,13 +1127,13 @@
         <v>43897</v>
       </c>
       <c r="B37">
-        <v>183.45</v>
+        <v>183.22</v>
       </c>
       <c r="C37">
         <v>183.71</v>
       </c>
       <c r="D37">
-        <v>-0.14</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1127,13 +1141,13 @@
         <v>43898</v>
       </c>
       <c r="B38">
-        <v>182.23</v>
+        <v>182.06</v>
       </c>
       <c r="C38">
         <v>183.71</v>
       </c>
       <c r="D38">
-        <v>-0.8100000000000001</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1141,13 +1155,13 @@
         <v>43899</v>
       </c>
       <c r="B39">
-        <v>180.22</v>
+        <v>179.94</v>
       </c>
       <c r="C39">
         <v>183.71</v>
       </c>
       <c r="D39">
-        <v>-1.9</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1155,13 +1169,13 @@
         <v>43900</v>
       </c>
       <c r="B40">
-        <v>178.26</v>
+        <v>178.07</v>
       </c>
       <c r="C40">
         <v>183.71</v>
       </c>
       <c r="D40">
-        <v>-2.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1169,13 +1183,13 @@
         <v>43901</v>
       </c>
       <c r="B41">
-        <v>177.05</v>
+        <v>176.96</v>
       </c>
       <c r="C41">
         <v>183.71</v>
       </c>
       <c r="D41">
-        <v>-3.63</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1183,13 +1197,13 @@
         <v>43902</v>
       </c>
       <c r="B42">
-        <v>176.65</v>
+        <v>176.6</v>
       </c>
       <c r="C42">
         <v>183.71</v>
       </c>
       <c r="D42">
-        <v>-3.85</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1197,13 +1211,13 @@
         <v>43903</v>
       </c>
       <c r="B43">
-        <v>175.85</v>
+        <v>175.73</v>
       </c>
       <c r="C43">
         <v>183.71</v>
       </c>
       <c r="D43">
-        <v>-4.28</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1211,13 +1225,13 @@
         <v>43904</v>
       </c>
       <c r="B44">
-        <v>174.83</v>
+        <v>174.74</v>
       </c>
       <c r="C44">
         <v>183.71</v>
       </c>
       <c r="D44">
-        <v>-4.83</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1225,13 +1239,13 @@
         <v>43905</v>
       </c>
       <c r="B45">
-        <v>175.1</v>
+        <v>175.2</v>
       </c>
       <c r="C45">
         <v>183.71</v>
       </c>
       <c r="D45">
-        <v>-4.69</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1239,13 +1253,13 @@
         <v>43906</v>
       </c>
       <c r="B46">
-        <v>175.43</v>
+        <v>175.78</v>
       </c>
       <c r="C46">
         <v>183.71</v>
       </c>
       <c r="D46">
-        <v>-4.51</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1253,13 +1267,13 @@
         <v>43907</v>
       </c>
       <c r="B47">
-        <v>177.77</v>
+        <v>177.51</v>
       </c>
       <c r="C47">
         <v>183.71</v>
       </c>
       <c r="D47">
-        <v>-3.23</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1267,13 +1281,13 @@
         <v>43908</v>
       </c>
       <c r="B48">
-        <v>176.42</v>
+        <v>177.7</v>
       </c>
       <c r="C48">
         <v>183.71</v>
       </c>
       <c r="D48">
-        <v>-3.97</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1281,13 +1295,13 @@
         <v>43909</v>
       </c>
       <c r="B49">
-        <v>181.1</v>
+        <v>181.24</v>
       </c>
       <c r="C49">
         <v>183.71</v>
       </c>
       <c r="D49">
-        <v>-1.42</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1295,13 +1309,13 @@
         <v>43910</v>
       </c>
       <c r="B50">
-        <v>182.67</v>
+        <v>181.1</v>
       </c>
       <c r="C50">
         <v>183.71</v>
       </c>
       <c r="D50">
-        <v>-0.57</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1309,13 +1323,13 @@
         <v>43911</v>
       </c>
       <c r="B51">
-        <v>173.3</v>
+        <v>173.1</v>
       </c>
       <c r="C51">
         <v>183.71</v>
       </c>
       <c r="D51">
-        <v>-5.67</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1323,13 +1337,13 @@
         <v>43912</v>
       </c>
       <c r="B52">
-        <v>172.47</v>
+        <v>172.28</v>
       </c>
       <c r="C52">
         <v>183.71</v>
       </c>
       <c r="D52">
-        <v>-6.12</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1337,13 +1351,13 @@
         <v>43913</v>
       </c>
       <c r="B53">
-        <v>171.28</v>
+        <v>171.17</v>
       </c>
       <c r="C53">
         <v>183.71</v>
       </c>
       <c r="D53">
-        <v>-6.77</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1351,13 +1365,13 @@
         <v>43914</v>
       </c>
       <c r="B54">
-        <v>170.7</v>
+        <v>170.62</v>
       </c>
       <c r="C54">
         <v>183.71</v>
       </c>
       <c r="D54">
-        <v>-7.08</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1379,13 +1393,13 @@
         <v>43916</v>
       </c>
       <c r="B56">
-        <v>169.75</v>
+        <v>169.62</v>
       </c>
       <c r="C56">
         <v>183.71</v>
       </c>
       <c r="D56">
-        <v>-7.6</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1421,13 +1435,13 @@
         <v>43919</v>
       </c>
       <c r="B59">
-        <v>169.38</v>
+        <v>169.5</v>
       </c>
       <c r="C59">
         <v>183.71</v>
       </c>
       <c r="D59">
-        <v>-7.8</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1477,13 +1491,13 @@
         <v>43923</v>
       </c>
       <c r="B63">
-        <v>170.51</v>
+        <v>170.54</v>
       </c>
       <c r="C63">
         <v>177.26</v>
       </c>
       <c r="D63">
-        <v>-3.81</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1491,13 +1505,13 @@
         <v>43924</v>
       </c>
       <c r="B64">
-        <v>170.17</v>
+        <v>169.96</v>
       </c>
       <c r="C64">
         <v>177.26</v>
       </c>
       <c r="D64">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1505,13 +1519,13 @@
         <v>43925</v>
       </c>
       <c r="B65">
-        <v>168.46</v>
+        <v>168.42</v>
       </c>
       <c r="C65">
         <v>177.26</v>
       </c>
       <c r="D65">
-        <v>-4.96</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1519,13 +1533,13 @@
         <v>43926</v>
       </c>
       <c r="B66">
-        <v>168.53</v>
+        <v>168.59</v>
       </c>
       <c r="C66">
         <v>177.26</v>
       </c>
       <c r="D66">
-        <v>-4.92</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1533,13 +1547,13 @@
         <v>43927</v>
       </c>
       <c r="B67">
-        <v>170.89</v>
+        <v>173.26</v>
       </c>
       <c r="C67">
         <v>177.26</v>
       </c>
       <c r="D67">
-        <v>-3.59</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1547,13 +1561,13 @@
         <v>43928</v>
       </c>
       <c r="B68">
-        <v>181.5</v>
+        <v>179.66</v>
       </c>
       <c r="C68">
         <v>177.26</v>
       </c>
       <c r="D68">
-        <v>2.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1561,13 +1575,13 @@
         <v>43929</v>
       </c>
       <c r="B69">
-        <v>171.71</v>
+        <v>171.45</v>
       </c>
       <c r="C69">
         <v>177.26</v>
       </c>
       <c r="D69">
-        <v>-3.13</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1575,13 +1589,13 @@
         <v>43930</v>
       </c>
       <c r="B70">
-        <v>170.67</v>
+        <v>170.55</v>
       </c>
       <c r="C70">
         <v>177.26</v>
       </c>
       <c r="D70">
-        <v>-3.72</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1589,13 +1603,13 @@
         <v>43931</v>
       </c>
       <c r="B71">
-        <v>170.45</v>
+        <v>170.57</v>
       </c>
       <c r="C71">
         <v>177.26</v>
       </c>
       <c r="D71">
-        <v>-3.84</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1617,13 +1631,13 @@
         <v>43933</v>
       </c>
       <c r="B73">
-        <v>171.6</v>
+        <v>171.73</v>
       </c>
       <c r="C73">
         <v>177.26</v>
       </c>
       <c r="D73">
-        <v>-3.19</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1631,13 +1645,13 @@
         <v>43934</v>
       </c>
       <c r="B74">
-        <v>172.16</v>
+        <v>172.2</v>
       </c>
       <c r="C74">
         <v>177.26</v>
       </c>
       <c r="D74">
-        <v>-2.88</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1645,13 +1659,13 @@
         <v>43935</v>
       </c>
       <c r="B75">
-        <v>175.06</v>
+        <v>175.54</v>
       </c>
       <c r="C75">
         <v>177.26</v>
       </c>
       <c r="D75">
-        <v>-1.24</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1659,13 +1673,13 @@
         <v>43936</v>
       </c>
       <c r="B76">
-        <v>174.82</v>
+        <v>174.43</v>
       </c>
       <c r="C76">
         <v>177.26</v>
       </c>
       <c r="D76">
-        <v>-1.37</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1673,13 +1687,13 @@
         <v>43937</v>
       </c>
       <c r="B77">
-        <v>172.81</v>
+        <v>172.73</v>
       </c>
       <c r="C77">
         <v>177.26</v>
       </c>
       <c r="D77">
-        <v>-2.51</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1687,13 +1701,13 @@
         <v>43938</v>
       </c>
       <c r="B78">
-        <v>172.82</v>
+        <v>172.91</v>
       </c>
       <c r="C78">
         <v>177.26</v>
       </c>
       <c r="D78">
-        <v>-2.5</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1701,13 +1715,13 @@
         <v>43939</v>
       </c>
       <c r="B79">
-        <v>173.83</v>
+        <v>173.97</v>
       </c>
       <c r="C79">
         <v>177.26</v>
       </c>
       <c r="D79">
-        <v>-1.93</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1715,13 +1729,13 @@
         <v>43940</v>
       </c>
       <c r="B80">
-        <v>174.93</v>
+        <v>175.06</v>
       </c>
       <c r="C80">
         <v>177.26</v>
       </c>
       <c r="D80">
-        <v>-1.31</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1729,13 +1743,13 @@
         <v>43941</v>
       </c>
       <c r="B81">
-        <v>175.38</v>
+        <v>175.3</v>
       </c>
       <c r="C81">
         <v>177.26</v>
       </c>
       <c r="D81">
-        <v>-1.06</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1743,13 +1757,13 @@
         <v>43942</v>
       </c>
       <c r="B82">
-        <v>174.98</v>
+        <v>175.03</v>
       </c>
       <c r="C82">
         <v>177.26</v>
       </c>
       <c r="D82">
-        <v>-1.28</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1757,7 +1771,7 @@
         <v>43943</v>
       </c>
       <c r="B83">
-        <v>175.14</v>
+        <v>175.12</v>
       </c>
       <c r="C83">
         <v>177.26</v>
@@ -1771,13 +1785,13 @@
         <v>43944</v>
       </c>
       <c r="B84">
-        <v>174.93</v>
+        <v>174.88</v>
       </c>
       <c r="C84">
         <v>177.26</v>
       </c>
       <c r="D84">
-        <v>-1.31</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1785,13 +1799,13 @@
         <v>43945</v>
       </c>
       <c r="B85">
-        <v>174.74</v>
+        <v>174.8</v>
       </c>
       <c r="C85">
         <v>177.26</v>
       </c>
       <c r="D85">
-        <v>-1.42</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1799,13 +1813,13 @@
         <v>43946</v>
       </c>
       <c r="B86">
-        <v>175.66</v>
+        <v>175.75</v>
       </c>
       <c r="C86">
         <v>177.26</v>
       </c>
       <c r="D86">
-        <v>-0.9</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1813,13 +1827,13 @@
         <v>43947</v>
       </c>
       <c r="B87">
-        <v>175.97</v>
+        <v>175.99</v>
       </c>
       <c r="C87">
         <v>177.26</v>
       </c>
       <c r="D87">
-        <v>-0.73</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1827,13 +1841,13 @@
         <v>43948</v>
       </c>
       <c r="B88">
-        <v>175.79</v>
+        <v>175.8</v>
       </c>
       <c r="C88">
         <v>177.26</v>
       </c>
       <c r="D88">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1841,13 +1855,13 @@
         <v>43949</v>
       </c>
       <c r="B89">
-        <v>176.64</v>
+        <v>176.72</v>
       </c>
       <c r="C89">
         <v>177.26</v>
       </c>
       <c r="D89">
-        <v>-0.35</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1855,13 +1869,13 @@
         <v>43950</v>
       </c>
       <c r="B90">
-        <v>177.46</v>
+        <v>177.61</v>
       </c>
       <c r="C90">
         <v>177.26</v>
       </c>
       <c r="D90">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1869,13 +1883,13 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>177.41</v>
+        <v>177.29</v>
       </c>
       <c r="C91">
         <v>177.26</v>
       </c>
       <c r="D91">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1883,13 +1897,13 @@
         <v>43952</v>
       </c>
       <c r="B92">
-        <v>177.77</v>
+        <v>178.02</v>
       </c>
       <c r="C92">
         <v>180.46</v>
       </c>
       <c r="D92">
-        <v>-1.49</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1897,13 +1911,13 @@
         <v>43953</v>
       </c>
       <c r="B93">
-        <v>179.3</v>
+        <v>179.25</v>
       </c>
       <c r="C93">
         <v>180.46</v>
       </c>
       <c r="D93">
-        <v>-0.64</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1911,13 +1925,13 @@
         <v>43954</v>
       </c>
       <c r="B94">
-        <v>178.16</v>
+        <v>178.03</v>
       </c>
       <c r="C94">
         <v>180.46</v>
       </c>
       <c r="D94">
-        <v>-1.28</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1925,13 +1939,13 @@
         <v>43955</v>
       </c>
       <c r="B95">
-        <v>177.92</v>
+        <v>177.95</v>
       </c>
       <c r="C95">
         <v>180.46</v>
       </c>
       <c r="D95">
-        <v>-1.41</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1939,13 +1953,13 @@
         <v>43956</v>
       </c>
       <c r="B96">
-        <v>177.89</v>
+        <v>177.91</v>
       </c>
       <c r="C96">
         <v>180.46</v>
       </c>
       <c r="D96">
-        <v>-1.43</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1953,13 +1967,13 @@
         <v>43957</v>
       </c>
       <c r="B97">
-        <v>178.97</v>
+        <v>179.22</v>
       </c>
       <c r="C97">
         <v>180.46</v>
       </c>
       <c r="D97">
-        <v>-0.83</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1967,13 +1981,13 @@
         <v>43958</v>
       </c>
       <c r="B98">
-        <v>180.19</v>
+        <v>180.04</v>
       </c>
       <c r="C98">
         <v>180.46</v>
       </c>
       <c r="D98">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1981,13 +1995,13 @@
         <v>43959</v>
       </c>
       <c r="B99">
-        <v>178.79</v>
+        <v>178.8</v>
       </c>
       <c r="C99">
         <v>180.46</v>
       </c>
       <c r="D99">
-        <v>-0.93</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1995,13 +2009,13 @@
         <v>43960</v>
       </c>
       <c r="B100">
-        <v>179.32</v>
+        <v>179.4</v>
       </c>
       <c r="C100">
         <v>180.46</v>
       </c>
       <c r="D100">
-        <v>-0.63</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2009,13 +2023,13 @@
         <v>43961</v>
       </c>
       <c r="B101">
-        <v>180.25</v>
+        <v>180.32</v>
       </c>
       <c r="C101">
         <v>180.46</v>
       </c>
       <c r="D101">
-        <v>-0.12</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2023,13 +2037,13 @@
         <v>43962</v>
       </c>
       <c r="B102">
-        <v>180.29</v>
+        <v>180.31</v>
       </c>
       <c r="C102">
         <v>180.46</v>
       </c>
       <c r="D102">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2037,13 +2051,13 @@
         <v>43963</v>
       </c>
       <c r="B103">
-        <v>180.36</v>
+        <v>180.46</v>
       </c>
       <c r="C103">
         <v>180.46</v>
       </c>
       <c r="D103">
-        <v>-0.06</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2051,13 +2065,13 @@
         <v>43964</v>
       </c>
       <c r="B104">
-        <v>181.47</v>
+        <v>181.59</v>
       </c>
       <c r="C104">
         <v>180.46</v>
       </c>
       <c r="D104">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2065,13 +2079,13 @@
         <v>43965</v>
       </c>
       <c r="B105">
-        <v>183.06</v>
+        <v>183.21</v>
       </c>
       <c r="C105">
         <v>180.46</v>
       </c>
       <c r="D105">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2079,13 +2093,13 @@
         <v>43966</v>
       </c>
       <c r="B106">
-        <v>183.42</v>
+        <v>183.4</v>
       </c>
       <c r="C106">
         <v>180.46</v>
       </c>
       <c r="D106">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2093,13 +2107,13 @@
         <v>43967</v>
       </c>
       <c r="B107">
-        <v>182.61</v>
+        <v>182.53</v>
       </c>
       <c r="C107">
         <v>180.46</v>
       </c>
       <c r="D107">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2107,13 +2121,13 @@
         <v>43968</v>
       </c>
       <c r="B108">
-        <v>181.88</v>
+        <v>181.78</v>
       </c>
       <c r="C108">
         <v>180.46</v>
       </c>
       <c r="D108">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2121,13 +2135,13 @@
         <v>43969</v>
       </c>
       <c r="B109">
-        <v>181.2</v>
+        <v>181.12</v>
       </c>
       <c r="C109">
         <v>180.46</v>
       </c>
       <c r="D109">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2135,13 +2149,13 @@
         <v>43970</v>
       </c>
       <c r="B110">
-        <v>180.89</v>
+        <v>180.94</v>
       </c>
       <c r="C110">
         <v>180.46</v>
       </c>
       <c r="D110">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2149,13 +2163,13 @@
         <v>43971</v>
       </c>
       <c r="B111">
-        <v>181.99</v>
+        <v>182.06</v>
       </c>
       <c r="C111">
         <v>180.46</v>
       </c>
       <c r="D111">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2163,13 +2177,13 @@
         <v>43972</v>
       </c>
       <c r="B112">
-        <v>182.41</v>
+        <v>182.48</v>
       </c>
       <c r="C112">
         <v>180.46</v>
       </c>
       <c r="D112">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2177,13 +2191,13 @@
         <v>43973</v>
       </c>
       <c r="B113">
-        <v>182.93</v>
+        <v>183.89</v>
       </c>
       <c r="C113">
         <v>180.46</v>
       </c>
       <c r="D113">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2191,13 +2205,13 @@
         <v>43974</v>
       </c>
       <c r="B114">
-        <v>192.26</v>
+        <v>191.86</v>
       </c>
       <c r="C114">
         <v>180.46</v>
       </c>
       <c r="D114">
-        <v>6.54</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2205,13 +2219,13 @@
         <v>43975</v>
       </c>
       <c r="B115">
-        <v>183.97</v>
+        <v>183.33</v>
       </c>
       <c r="C115">
         <v>180.46</v>
       </c>
       <c r="D115">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2219,13 +2233,13 @@
         <v>43976</v>
       </c>
       <c r="B116">
-        <v>181.81</v>
+        <v>181.7</v>
       </c>
       <c r="C116">
         <v>180.46</v>
       </c>
       <c r="D116">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2233,13 +2247,13 @@
         <v>43977</v>
       </c>
       <c r="B117">
-        <v>180.18</v>
+        <v>180.04</v>
       </c>
       <c r="C117">
         <v>180.46</v>
       </c>
       <c r="D117">
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2247,13 +2261,13 @@
         <v>43978</v>
       </c>
       <c r="B118">
-        <v>179.3</v>
+        <v>179.22</v>
       </c>
       <c r="C118">
         <v>180.46</v>
       </c>
       <c r="D118">
-        <v>-0.64</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2261,13 +2275,13 @@
         <v>43979</v>
       </c>
       <c r="B119">
-        <v>179.68</v>
+        <v>179.76</v>
       </c>
       <c r="C119">
         <v>180.46</v>
       </c>
       <c r="D119">
-        <v>-0.44</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2275,13 +2289,13 @@
         <v>43980</v>
       </c>
       <c r="B120">
-        <v>180.04</v>
+        <v>180.17</v>
       </c>
       <c r="C120">
         <v>180.46</v>
       </c>
       <c r="D120">
-        <v>-0.23</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2289,13 +2303,13 @@
         <v>43981</v>
       </c>
       <c r="B121">
-        <v>180.99</v>
+        <v>181.02</v>
       </c>
       <c r="C121">
         <v>180.46</v>
       </c>
       <c r="D121">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2303,13 +2317,13 @@
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>181.04</v>
+        <v>181.08</v>
       </c>
       <c r="C122">
         <v>180.46</v>
       </c>
       <c r="D122">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2317,13 +2331,13 @@
         <v>43983</v>
       </c>
       <c r="B123">
-        <v>181.95</v>
+        <v>182.23</v>
       </c>
       <c r="C123">
         <v>181.95</v>
       </c>
       <c r="D123">
-        <v>-0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2331,13 +2345,13 @@
         <v>43984</v>
       </c>
       <c r="B124">
-        <v>190.02</v>
+        <v>191.3</v>
       </c>
       <c r="C124">
         <v>181.95</v>
       </c>
       <c r="D124">
-        <v>4.44</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2345,13 +2359,13 @@
         <v>43985</v>
       </c>
       <c r="B125">
-        <v>189.89</v>
+        <v>188.88</v>
       </c>
       <c r="C125">
         <v>181.95</v>
       </c>
       <c r="D125">
-        <v>4.36</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2359,13 +2373,13 @@
         <v>43986</v>
       </c>
       <c r="B126">
-        <v>185.86</v>
+        <v>186</v>
       </c>
       <c r="C126">
         <v>181.95</v>
       </c>
       <c r="D126">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2373,13 +2387,13 @@
         <v>43987</v>
       </c>
       <c r="B127">
-        <v>191.54</v>
+        <v>192.16</v>
       </c>
       <c r="C127">
         <v>181.95</v>
       </c>
       <c r="D127">
-        <v>5.27</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2387,13 +2401,13 @@
         <v>43988</v>
       </c>
       <c r="B128">
-        <v>199.04</v>
+        <v>200.12</v>
       </c>
       <c r="C128">
         <v>181.95</v>
       </c>
       <c r="D128">
-        <v>9.390000000000001</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2401,13 +2415,13 @@
         <v>43989</v>
       </c>
       <c r="B129">
-        <v>193.44</v>
+        <v>191.83</v>
       </c>
       <c r="C129">
         <v>181.95</v>
       </c>
       <c r="D129">
-        <v>6.31</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2415,13 +2429,13 @@
         <v>43990</v>
       </c>
       <c r="B130">
-        <v>187.38</v>
+        <v>187.4</v>
       </c>
       <c r="C130">
         <v>181.95</v>
       </c>
       <c r="D130">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2429,13 +2443,13 @@
         <v>43991</v>
       </c>
       <c r="B131">
-        <v>191.06</v>
+        <v>191.68</v>
       </c>
       <c r="C131">
         <v>181.95</v>
       </c>
       <c r="D131">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2443,13 +2457,13 @@
         <v>43992</v>
       </c>
       <c r="B132">
-        <v>200.84</v>
+        <v>203.07</v>
       </c>
       <c r="C132">
         <v>181.95</v>
       </c>
       <c r="D132">
-        <v>10.38</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2457,13 +2471,13 @@
         <v>43993</v>
       </c>
       <c r="B133">
-        <v>204.15</v>
+        <v>202.34</v>
       </c>
       <c r="C133">
         <v>181.95</v>
       </c>
       <c r="D133">
-        <v>12.2</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2471,13 +2485,13 @@
         <v>43994</v>
       </c>
       <c r="B134">
-        <v>193.82</v>
+        <v>193.26</v>
       </c>
       <c r="C134">
         <v>181.95</v>
       </c>
       <c r="D134">
-        <v>6.52</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2485,13 +2499,13 @@
         <v>43995</v>
       </c>
       <c r="B135">
-        <v>191.11</v>
+        <v>191.01</v>
       </c>
       <c r="C135">
         <v>181.95</v>
       </c>
       <c r="D135">
-        <v>5.04</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2499,13 +2513,13 @@
         <v>43996</v>
       </c>
       <c r="B136">
-        <v>190.29</v>
+        <v>190.17</v>
       </c>
       <c r="C136">
         <v>181.95</v>
       </c>
       <c r="D136">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2527,13 +2541,13 @@
         <v>43998</v>
       </c>
       <c r="B138">
-        <v>190.34</v>
+        <v>190.38</v>
       </c>
       <c r="C138">
         <v>181.95</v>
       </c>
       <c r="D138">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2541,13 +2555,13 @@
         <v>43999</v>
       </c>
       <c r="B139">
-        <v>190.33</v>
+        <v>190.32</v>
       </c>
       <c r="C139">
         <v>181.95</v>
       </c>
       <c r="D139">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2555,13 +2569,13 @@
         <v>44000</v>
       </c>
       <c r="B140">
-        <v>190.44</v>
+        <v>190.51</v>
       </c>
       <c r="C140">
         <v>181.95</v>
       </c>
       <c r="D140">
-        <v>4.66</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2569,13 +2583,13 @@
         <v>44001</v>
       </c>
       <c r="B141">
-        <v>190.43</v>
+        <v>190.38</v>
       </c>
       <c r="C141">
         <v>181.95</v>
       </c>
       <c r="D141">
-        <v>4.66</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2597,13 +2611,13 @@
         <v>44003</v>
       </c>
       <c r="B143">
-        <v>190.21</v>
+        <v>190.23</v>
       </c>
       <c r="C143">
         <v>181.95</v>
       </c>
       <c r="D143">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2611,13 +2625,13 @@
         <v>44004</v>
       </c>
       <c r="B144">
-        <v>190.31</v>
+        <v>190.27</v>
       </c>
       <c r="C144">
         <v>181.95</v>
       </c>
       <c r="D144">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2625,13 +2639,13 @@
         <v>44005</v>
       </c>
       <c r="B145">
-        <v>189.79</v>
+        <v>189.77</v>
       </c>
       <c r="C145">
         <v>181.95</v>
       </c>
       <c r="D145">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2639,13 +2653,13 @@
         <v>44006</v>
       </c>
       <c r="B146">
-        <v>189.51</v>
+        <v>189.44</v>
       </c>
       <c r="C146">
         <v>181.95</v>
       </c>
       <c r="D146">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2653,13 +2667,13 @@
         <v>44007</v>
       </c>
       <c r="B147">
-        <v>189.98</v>
+        <v>191.01</v>
       </c>
       <c r="C147">
         <v>181.95</v>
       </c>
       <c r="D147">
-        <v>4.41</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2667,13 +2681,13 @@
         <v>44008</v>
       </c>
       <c r="B148">
-        <v>200.62</v>
+        <v>201.09</v>
       </c>
       <c r="C148">
         <v>181.95</v>
       </c>
       <c r="D148">
-        <v>10.26</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2681,13 +2695,13 @@
         <v>44009</v>
       </c>
       <c r="B149">
-        <v>243.02</v>
+        <v>246.3</v>
       </c>
       <c r="C149">
         <v>181.95</v>
       </c>
       <c r="D149">
-        <v>33.56</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2695,13 +2709,13 @@
         <v>44010</v>
       </c>
       <c r="B150">
-        <v>212.07</v>
+        <v>208.86</v>
       </c>
       <c r="C150">
         <v>181.95</v>
       </c>
       <c r="D150">
-        <v>16.56</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2709,13 +2723,13 @@
         <v>44011</v>
       </c>
       <c r="B151">
-        <v>199.58</v>
+        <v>198.96</v>
       </c>
       <c r="C151">
         <v>181.95</v>
       </c>
       <c r="D151">
-        <v>9.69</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2723,13 +2737,13 @@
         <v>44012</v>
       </c>
       <c r="B152">
-        <v>199.01</v>
+        <v>202.73</v>
       </c>
       <c r="C152">
         <v>181.95</v>
       </c>
       <c r="D152">
-        <v>9.380000000000001</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2737,13 +2751,13 @@
         <v>44013</v>
       </c>
       <c r="B153">
-        <v>227.33</v>
+        <v>223.74</v>
       </c>
       <c r="C153">
         <v>178.06</v>
       </c>
       <c r="D153">
-        <v>27.67</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2751,13 +2765,13 @@
         <v>44014</v>
       </c>
       <c r="B154">
-        <v>205.73</v>
+        <v>204.38</v>
       </c>
       <c r="C154">
         <v>178.06</v>
       </c>
       <c r="D154">
-        <v>15.54</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2765,13 +2779,13 @@
         <v>44015</v>
       </c>
       <c r="B155">
-        <v>199.47</v>
+        <v>199.14</v>
       </c>
       <c r="C155">
         <v>178.06</v>
       </c>
       <c r="D155">
-        <v>12.02</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2779,13 +2793,13 @@
         <v>44016</v>
       </c>
       <c r="B156">
-        <v>197.33</v>
+        <v>197.18</v>
       </c>
       <c r="C156">
         <v>178.06</v>
       </c>
       <c r="D156">
-        <v>10.82</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2793,13 +2807,13 @@
         <v>44017</v>
       </c>
       <c r="B157">
-        <v>196.05</v>
+        <v>195.84</v>
       </c>
       <c r="C157">
         <v>178.06</v>
       </c>
       <c r="D157">
-        <v>10.1</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2807,13 +2821,13 @@
         <v>44018</v>
       </c>
       <c r="B158">
-        <v>195.09</v>
+        <v>195.05</v>
       </c>
       <c r="C158">
         <v>178.06</v>
       </c>
       <c r="D158">
-        <v>9.57</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2821,13 +2835,13 @@
         <v>44019</v>
       </c>
       <c r="B159">
-        <v>194.75</v>
+        <v>194.69</v>
       </c>
       <c r="C159">
         <v>178.06</v>
       </c>
       <c r="D159">
-        <v>9.369999999999999</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2835,13 +2849,13 @@
         <v>44020</v>
       </c>
       <c r="B160">
-        <v>194.12</v>
+        <v>194.06</v>
       </c>
       <c r="C160">
         <v>178.06</v>
       </c>
       <c r="D160">
-        <v>9.02</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2849,13 +2863,13 @@
         <v>44021</v>
       </c>
       <c r="B161">
-        <v>193.64</v>
+        <v>193.58</v>
       </c>
       <c r="C161">
         <v>178.06</v>
       </c>
       <c r="D161">
-        <v>8.75</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2863,13 +2877,13 @@
         <v>44022</v>
       </c>
       <c r="B162">
-        <v>192.79</v>
+        <v>192.72</v>
       </c>
       <c r="C162">
         <v>178.06</v>
       </c>
       <c r="D162">
-        <v>8.27</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2877,13 +2891,13 @@
         <v>44023</v>
       </c>
       <c r="B163">
-        <v>192.14</v>
+        <v>192.01</v>
       </c>
       <c r="C163">
         <v>178.06</v>
       </c>
       <c r="D163">
-        <v>7.9</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2891,13 +2905,13 @@
         <v>44024</v>
       </c>
       <c r="B164">
-        <v>192.29</v>
+        <v>192.42</v>
       </c>
       <c r="C164">
         <v>178.06</v>
       </c>
       <c r="D164">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2919,13 +2933,13 @@
         <v>44026</v>
       </c>
       <c r="B166">
-        <v>194.71</v>
+        <v>195.12</v>
       </c>
       <c r="C166">
         <v>178.06</v>
       </c>
       <c r="D166">
-        <v>9.35</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2933,13 +2947,13 @@
         <v>44027</v>
       </c>
       <c r="B167">
-        <v>184.57</v>
+        <v>179.7</v>
       </c>
       <c r="C167">
         <v>178.06</v>
       </c>
       <c r="D167">
-        <v>3.65</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2947,13 +2961,13 @@
         <v>44028</v>
       </c>
       <c r="B168">
-        <v>158.19</v>
+        <v>158.06</v>
       </c>
       <c r="C168">
         <v>178.06</v>
       </c>
       <c r="D168">
-        <v>-11.16</v>
+        <v>-11.23</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2961,13 +2975,13 @@
         <v>44029</v>
       </c>
       <c r="B169">
-        <v>158.22</v>
+        <v>158.34</v>
       </c>
       <c r="C169">
         <v>178.06</v>
       </c>
       <c r="D169">
-        <v>-11.14</v>
+        <v>-11.07</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2975,13 +2989,13 @@
         <v>44030</v>
       </c>
       <c r="B170">
-        <v>158.54</v>
+        <v>158.42</v>
       </c>
       <c r="C170">
         <v>178.06</v>
       </c>
       <c r="D170">
-        <v>-10.96</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2989,13 +3003,13 @@
         <v>44031</v>
       </c>
       <c r="B171">
-        <v>157.51</v>
+        <v>157.39</v>
       </c>
       <c r="C171">
         <v>178.06</v>
       </c>
       <c r="D171">
-        <v>-11.54</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3017,7 +3031,7 @@
         <v>44033</v>
       </c>
       <c r="B173">
-        <v>156.77</v>
+        <v>156.76</v>
       </c>
       <c r="C173">
         <v>178.06</v>
@@ -3031,7 +3045,7 @@
         <v>44034</v>
       </c>
       <c r="B174">
-        <v>156.56</v>
+        <v>156.57</v>
       </c>
       <c r="C174">
         <v>178.06</v>
@@ -3059,13 +3073,13 @@
         <v>44036</v>
       </c>
       <c r="B176">
-        <v>156.24</v>
+        <v>156.12</v>
       </c>
       <c r="C176">
         <v>178.06</v>
       </c>
       <c r="D176">
-        <v>-12.26</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3073,13 +3087,13 @@
         <v>44037</v>
       </c>
       <c r="B177">
-        <v>155.64</v>
+        <v>155.5</v>
       </c>
       <c r="C177">
         <v>178.06</v>
       </c>
       <c r="D177">
-        <v>-12.59</v>
+        <v>-12.67</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3087,13 +3101,13 @@
         <v>44038</v>
       </c>
       <c r="B178">
-        <v>155.1</v>
+        <v>155.23</v>
       </c>
       <c r="C178">
         <v>178.06</v>
       </c>
       <c r="D178">
-        <v>-12.89</v>
+        <v>-12.82</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3129,13 +3143,13 @@
         <v>44041</v>
       </c>
       <c r="B181">
-        <v>156.52</v>
+        <v>157.15</v>
       </c>
       <c r="C181">
         <v>178.06</v>
       </c>
       <c r="D181">
-        <v>-12.1</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3143,13 +3157,13 @@
         <v>44042</v>
       </c>
       <c r="B182">
-        <v>159.27</v>
+        <v>158.9</v>
       </c>
       <c r="C182">
         <v>178.06</v>
       </c>
       <c r="D182">
-        <v>-10.55</v>
+        <v>-10.76</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3534,14 +3548,14 @@
       <c r="A210" s="2">
         <v>44070</v>
       </c>
-      <c r="B210" t="s">
-        <v>4</v>
+      <c r="B210">
+        <v>168</v>
       </c>
       <c r="C210">
         <v>174.89</v>
       </c>
-      <c r="D210" t="s">
-        <v>4</v>
+      <c r="D210">
+        <v>-3.94</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3549,13 +3563,13 @@
         <v>44071</v>
       </c>
       <c r="B211">
-        <v>163.64</v>
+        <v>166.02</v>
       </c>
       <c r="C211">
         <v>174.89</v>
       </c>
       <c r="D211">
-        <v>-6.43</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3591,13 +3605,13 @@
         <v>44074</v>
       </c>
       <c r="B214">
-        <v>163.44</v>
+        <v>163.34</v>
       </c>
       <c r="C214">
         <v>174.89</v>
       </c>
       <c r="D214">
-        <v>-6.55</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3605,13 +3619,13 @@
         <v>44075</v>
       </c>
       <c r="B215">
-        <v>163.22</v>
+        <v>163.19</v>
       </c>
       <c r="C215">
         <v>176.98</v>
       </c>
       <c r="D215">
-        <v>-7.77</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3619,13 +3633,13 @@
         <v>44076</v>
       </c>
       <c r="B216">
-        <v>163.31</v>
+        <v>163.4</v>
       </c>
       <c r="C216">
         <v>176.98</v>
       </c>
       <c r="D216">
-        <v>-7.72</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3633,13 +3647,13 @@
         <v>44077</v>
       </c>
       <c r="B217">
-        <v>163.8</v>
+        <v>163.84</v>
       </c>
       <c r="C217">
         <v>176.98</v>
       </c>
       <c r="D217">
-        <v>-7.44</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3647,13 +3661,13 @@
         <v>44078</v>
       </c>
       <c r="B218">
-        <v>165.49</v>
+        <v>165.86</v>
       </c>
       <c r="C218">
         <v>176.98</v>
       </c>
       <c r="D218">
-        <v>-6.49</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3661,13 +3675,13 @@
         <v>44079</v>
       </c>
       <c r="B219">
-        <v>166.85</v>
+        <v>166.83</v>
       </c>
       <c r="C219">
         <v>176.98</v>
       </c>
       <c r="D219">
-        <v>-5.72</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3675,13 +3689,13 @@
         <v>44080</v>
       </c>
       <c r="B220">
-        <v>166.58</v>
+        <v>166.53</v>
       </c>
       <c r="C220">
         <v>176.98</v>
       </c>
       <c r="D220">
-        <v>-5.87</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3689,13 +3703,13 @@
         <v>44081</v>
       </c>
       <c r="B221">
-        <v>165.9</v>
+        <v>165.84</v>
       </c>
       <c r="C221">
         <v>176.98</v>
       </c>
       <c r="D221">
-        <v>-6.26</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3703,13 +3717,13 @@
         <v>44082</v>
       </c>
       <c r="B222">
-        <v>165.68</v>
+        <v>165.6</v>
       </c>
       <c r="C222">
         <v>176.98</v>
       </c>
       <c r="D222">
-        <v>-6.38</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3717,13 +3731,13 @@
         <v>44083</v>
       </c>
       <c r="B223">
-        <v>165.5</v>
+        <v>165.57</v>
       </c>
       <c r="C223">
         <v>176.98</v>
       </c>
       <c r="D223">
-        <v>-6.48</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3745,13 +3759,13 @@
         <v>44085</v>
       </c>
       <c r="B225">
-        <v>165.58</v>
+        <v>165.53</v>
       </c>
       <c r="C225">
         <v>176.98</v>
       </c>
       <c r="D225">
-        <v>-6.44</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3759,13 +3773,13 @@
         <v>44086</v>
       </c>
       <c r="B226">
-        <v>165.33</v>
+        <v>165.31</v>
       </c>
       <c r="C226">
         <v>176.98</v>
       </c>
       <c r="D226">
-        <v>-6.58</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3773,13 +3787,13 @@
         <v>44087</v>
       </c>
       <c r="B227">
-        <v>167.94</v>
+        <v>168.38</v>
       </c>
       <c r="C227">
         <v>176.98</v>
       </c>
       <c r="D227">
-        <v>-5.11</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3787,13 +3801,13 @@
         <v>44088</v>
       </c>
       <c r="B228">
-        <v>168.38</v>
+        <v>168.35</v>
       </c>
       <c r="C228">
         <v>176.98</v>
       </c>
       <c r="D228">
-        <v>-4.86</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3801,13 +3815,13 @@
         <v>44089</v>
       </c>
       <c r="B229">
-        <v>167.68</v>
+        <v>167.46</v>
       </c>
       <c r="C229">
         <v>176.98</v>
       </c>
       <c r="D229">
-        <v>-5.25</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3815,13 +3829,13 @@
         <v>44090</v>
       </c>
       <c r="B230">
-        <v>167.68</v>
+        <v>167.96</v>
       </c>
       <c r="C230">
         <v>176.98</v>
       </c>
       <c r="D230">
-        <v>-5.25</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3829,13 +3843,13 @@
         <v>44091</v>
       </c>
       <c r="B231">
-        <v>168.85</v>
+        <v>168.78</v>
       </c>
       <c r="C231">
         <v>176.98</v>
       </c>
       <c r="D231">
-        <v>-4.59</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3843,13 +3857,13 @@
         <v>44092</v>
       </c>
       <c r="B232">
-        <v>168.47</v>
+        <v>168.39</v>
       </c>
       <c r="C232">
         <v>176.98</v>
       </c>
       <c r="D232">
-        <v>-4.81</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3871,13 +3885,13 @@
         <v>44094</v>
       </c>
       <c r="B234">
-        <v>167.42</v>
+        <v>167.29</v>
       </c>
       <c r="C234">
         <v>176.98</v>
       </c>
       <c r="D234">
-        <v>-5.4</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3899,13 +3913,13 @@
         <v>44096</v>
       </c>
       <c r="B236">
-        <v>167.35</v>
+        <v>167.38</v>
       </c>
       <c r="C236">
         <v>176.98</v>
       </c>
       <c r="D236">
-        <v>-5.44</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3913,13 +3927,13 @@
         <v>44097</v>
       </c>
       <c r="B237">
-        <v>167.81</v>
+        <v>167.92</v>
       </c>
       <c r="C237">
         <v>176.98</v>
       </c>
       <c r="D237">
-        <v>-5.18</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3927,13 +3941,13 @@
         <v>44098</v>
       </c>
       <c r="B238">
-        <v>168.55</v>
+        <v>168.68</v>
       </c>
       <c r="C238">
         <v>176.98</v>
       </c>
       <c r="D238">
-        <v>-4.76</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3941,13 +3955,13 @@
         <v>44099</v>
       </c>
       <c r="B239">
-        <v>168.34</v>
+        <v>168.22</v>
       </c>
       <c r="C239">
         <v>176.98</v>
       </c>
       <c r="D239">
-        <v>-4.88</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3983,13 +3997,13 @@
         <v>44102</v>
       </c>
       <c r="B242">
-        <v>167.8</v>
+        <v>167.93</v>
       </c>
       <c r="C242">
         <v>176.98</v>
       </c>
       <c r="D242">
-        <v>-5.18</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4011,13 +4025,13 @@
         <v>44104</v>
       </c>
       <c r="B244">
-        <v>169.25</v>
+        <v>169.3</v>
       </c>
       <c r="C244">
         <v>176.98</v>
       </c>
       <c r="D244">
-        <v>-4.37</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4025,13 +4039,13 @@
         <v>44105</v>
       </c>
       <c r="B245">
-        <v>168.84</v>
+        <v>168.71</v>
       </c>
       <c r="C245">
         <v>180.02</v>
       </c>
       <c r="D245">
-        <v>-6.21</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4039,13 +4053,13 @@
         <v>44106</v>
       </c>
       <c r="B246">
-        <v>168.04</v>
+        <v>168.07</v>
       </c>
       <c r="C246">
         <v>180.02</v>
       </c>
       <c r="D246">
-        <v>-6.65</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4053,13 +4067,13 @@
         <v>44107</v>
       </c>
       <c r="B247">
-        <v>167.57</v>
+        <v>167.36</v>
       </c>
       <c r="C247">
         <v>180.02</v>
       </c>
       <c r="D247">
-        <v>-6.91</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4081,13 +4095,13 @@
         <v>44109</v>
       </c>
       <c r="B249">
-        <v>167.06</v>
+        <v>167.11</v>
       </c>
       <c r="C249">
         <v>180.02</v>
       </c>
       <c r="D249">
-        <v>-7.2</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4095,13 +4109,13 @@
         <v>44110</v>
       </c>
       <c r="B250">
-        <v>167.32</v>
+        <v>167.4</v>
       </c>
       <c r="C250">
         <v>180.02</v>
       </c>
       <c r="D250">
-        <v>-7.05</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4109,13 +4123,13 @@
         <v>44111</v>
       </c>
       <c r="B251">
-        <v>167.31</v>
+        <v>167.27</v>
       </c>
       <c r="C251">
         <v>180.02</v>
       </c>
       <c r="D251">
-        <v>-7.06</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4123,13 +4137,13 @@
         <v>44112</v>
       </c>
       <c r="B252">
-        <v>169.44</v>
+        <v>169.85</v>
       </c>
       <c r="C252">
         <v>180.02</v>
       </c>
       <c r="D252">
-        <v>-5.88</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4137,13 +4151,13 @@
         <v>44113</v>
       </c>
       <c r="B253">
-        <v>175.8</v>
+        <v>177.24</v>
       </c>
       <c r="C253">
         <v>180.02</v>
       </c>
       <c r="D253">
-        <v>-2.34</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4151,13 +4165,13 @@
         <v>44114</v>
       </c>
       <c r="B254">
-        <v>176.98</v>
+        <v>175.45</v>
       </c>
       <c r="C254">
         <v>180.02</v>
       </c>
       <c r="D254">
-        <v>-1.69</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4165,13 +4179,13 @@
         <v>44115</v>
       </c>
       <c r="B255">
-        <v>168.89</v>
+        <v>168.59</v>
       </c>
       <c r="C255">
         <v>180.02</v>
       </c>
       <c r="D255">
-        <v>-6.19</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4179,13 +4193,13 @@
         <v>44116</v>
       </c>
       <c r="B256">
-        <v>168.22</v>
+        <v>168.29</v>
       </c>
       <c r="C256">
         <v>180.02</v>
       </c>
       <c r="D256">
-        <v>-6.56</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4193,13 +4207,13 @@
         <v>44117</v>
       </c>
       <c r="B257">
-        <v>168.83</v>
+        <v>168.96</v>
       </c>
       <c r="C257">
         <v>180.02</v>
       </c>
       <c r="D257">
-        <v>-6.21</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4221,13 +4235,13 @@
         <v>44119</v>
       </c>
       <c r="B259">
-        <v>169.85</v>
+        <v>169.82</v>
       </c>
       <c r="C259">
         <v>180.02</v>
       </c>
       <c r="D259">
-        <v>-5.65</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4235,13 +4249,13 @@
         <v>44120</v>
       </c>
       <c r="B260">
-        <v>169.45</v>
+        <v>169.33</v>
       </c>
       <c r="C260">
         <v>180.02</v>
       </c>
       <c r="D260">
-        <v>-5.87</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4249,13 +4263,13 @@
         <v>44121</v>
       </c>
       <c r="B261">
-        <v>167.78</v>
+        <v>167.67</v>
       </c>
       <c r="C261">
         <v>180.02</v>
       </c>
       <c r="D261">
-        <v>-6.8</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4263,13 +4277,13 @@
         <v>44122</v>
       </c>
       <c r="B262">
-        <v>167.82</v>
+        <v>167.96</v>
       </c>
       <c r="C262">
         <v>180.02</v>
       </c>
       <c r="D262">
-        <v>-6.78</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4277,13 +4291,13 @@
         <v>44123</v>
       </c>
       <c r="B263">
-        <v>169.9</v>
+        <v>170.15</v>
       </c>
       <c r="C263">
         <v>180.02</v>
       </c>
       <c r="D263">
-        <v>-5.62</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4291,13 +4305,13 @@
         <v>44124</v>
       </c>
       <c r="B264">
-        <v>171.45</v>
+        <v>172.44</v>
       </c>
       <c r="C264">
         <v>180.02</v>
       </c>
       <c r="D264">
-        <v>-4.76</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4305,13 +4319,13 @@
         <v>44125</v>
       </c>
       <c r="B265">
-        <v>192.56</v>
+        <v>188.45</v>
       </c>
       <c r="C265">
         <v>180.02</v>
       </c>
       <c r="D265">
-        <v>6.97</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4319,13 +4333,13 @@
         <v>44126</v>
       </c>
       <c r="B266">
-        <v>171.27</v>
+        <v>170.88</v>
       </c>
       <c r="C266">
         <v>180.02</v>
       </c>
       <c r="D266">
-        <v>-4.86</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4333,13 +4347,13 @@
         <v>44127</v>
       </c>
       <c r="B267">
-        <v>169.78</v>
+        <v>169.74</v>
       </c>
       <c r="C267">
         <v>180.02</v>
       </c>
       <c r="D267">
-        <v>-5.69</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4347,13 +4361,13 @@
         <v>44128</v>
       </c>
       <c r="B268">
-        <v>170.33</v>
+        <v>170.58</v>
       </c>
       <c r="C268">
         <v>180.02</v>
       </c>
       <c r="D268">
-        <v>-5.38</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4361,13 +4375,13 @@
         <v>44129</v>
       </c>
       <c r="B269">
-        <v>172.71</v>
+        <v>172.81</v>
       </c>
       <c r="C269">
         <v>180.02</v>
       </c>
       <c r="D269">
-        <v>-4.06</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4375,13 +4389,13 @@
         <v>44130</v>
       </c>
       <c r="B270">
-        <v>171.85</v>
+        <v>171.71</v>
       </c>
       <c r="C270">
         <v>180.02</v>
       </c>
       <c r="D270">
-        <v>-4.54</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4389,13 +4403,13 @@
         <v>44131</v>
       </c>
       <c r="B271">
-        <v>171.28</v>
+        <v>171.23</v>
       </c>
       <c r="C271">
         <v>180.02</v>
       </c>
       <c r="D271">
-        <v>-4.85</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4403,13 +4417,13 @@
         <v>44132</v>
       </c>
       <c r="B272">
-        <v>170.75</v>
+        <v>170.76</v>
       </c>
       <c r="C272">
         <v>180.02</v>
       </c>
       <c r="D272">
-        <v>-5.15</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4417,13 +4431,13 @@
         <v>44133</v>
       </c>
       <c r="B273">
-        <v>170.95</v>
+        <v>172.07</v>
       </c>
       <c r="C273">
         <v>180.02</v>
       </c>
       <c r="D273">
-        <v>-5.04</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4431,13 +4445,13 @@
         <v>44134</v>
       </c>
       <c r="B274">
-        <v>197.08</v>
+        <v>198.05</v>
       </c>
       <c r="C274">
         <v>180.02</v>
       </c>
       <c r="D274">
-        <v>9.48</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4445,13 +4459,13 @@
         <v>44135</v>
       </c>
       <c r="B275">
-        <v>181.15</v>
+        <v>179.88</v>
       </c>
       <c r="C275">
         <v>180.02</v>
       </c>
       <c r="D275">
-        <v>0.63</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4459,13 +4473,13 @@
         <v>44136</v>
       </c>
       <c r="B276">
-        <v>176.74</v>
+        <v>176.68</v>
       </c>
       <c r="C276">
         <v>179.34</v>
       </c>
       <c r="D276">
-        <v>-1.45</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4473,13 +4487,13 @@
         <v>44137</v>
       </c>
       <c r="B277">
-        <v>176.12</v>
+        <v>176.21</v>
       </c>
       <c r="C277">
         <v>179.34</v>
       </c>
       <c r="D277">
-        <v>-1.79</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4487,13 +4501,13 @@
         <v>44138</v>
       </c>
       <c r="B278">
-        <v>177.07</v>
+        <v>177.35</v>
       </c>
       <c r="C278">
         <v>179.34</v>
       </c>
       <c r="D278">
-        <v>-1.27</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4501,13 +4515,13 @@
         <v>44139</v>
       </c>
       <c r="B279">
-        <v>183.07</v>
+        <v>184.46</v>
       </c>
       <c r="C279">
         <v>179.34</v>
       </c>
       <c r="D279">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4515,13 +4529,13 @@
         <v>44140</v>
       </c>
       <c r="B280">
-        <v>187.71</v>
+        <v>186.83</v>
       </c>
       <c r="C280">
         <v>179.34</v>
       </c>
       <c r="D280">
-        <v>4.67</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4529,13 +4543,13 @@
         <v>44141</v>
       </c>
       <c r="B281">
-        <v>181.83</v>
+        <v>181.56</v>
       </c>
       <c r="C281">
         <v>179.34</v>
       </c>
       <c r="D281">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4543,13 +4557,13 @@
         <v>44142</v>
       </c>
       <c r="B282">
-        <v>181.02</v>
+        <v>180.99</v>
       </c>
       <c r="C282">
         <v>179.34</v>
       </c>
       <c r="D282">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4557,13 +4571,13 @@
         <v>44143</v>
       </c>
       <c r="B283">
-        <v>180.93</v>
+        <v>181</v>
       </c>
       <c r="C283">
         <v>179.34</v>
       </c>
       <c r="D283">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4571,13 +4585,13 @@
         <v>44144</v>
       </c>
       <c r="B284">
-        <v>181.77</v>
+        <v>182.56</v>
       </c>
       <c r="C284">
         <v>179.34</v>
       </c>
       <c r="D284">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4585,13 +4599,13 @@
         <v>44145</v>
       </c>
       <c r="B285">
-        <v>219.38</v>
+        <v>255.75</v>
       </c>
       <c r="C285">
         <v>179.34</v>
       </c>
       <c r="D285">
-        <v>22.33</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4599,13 +4613,13 @@
         <v>44146</v>
       </c>
       <c r="B286">
-        <v>234.17</v>
+        <v>237.01</v>
       </c>
       <c r="C286">
         <v>179.34</v>
       </c>
       <c r="D286">
-        <v>30.57</v>
+        <v>32.16</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4613,13 +4627,13 @@
         <v>44147</v>
       </c>
       <c r="B287">
-        <v>242.04</v>
+        <v>236.95</v>
       </c>
       <c r="C287">
         <v>179.34</v>
       </c>
       <c r="D287">
-        <v>34.96</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4627,13 +4641,13 @@
         <v>44148</v>
       </c>
       <c r="B288">
-        <v>219.81</v>
+        <v>219.59</v>
       </c>
       <c r="C288">
         <v>179.34</v>
       </c>
       <c r="D288">
-        <v>22.57</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4641,13 +4655,13 @@
         <v>44149</v>
       </c>
       <c r="B289">
-        <v>216.64</v>
+        <v>215.9</v>
       </c>
       <c r="C289">
         <v>179.34</v>
       </c>
       <c r="D289">
-        <v>20.79</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4655,13 +4669,13 @@
         <v>44150</v>
       </c>
       <c r="B290">
-        <v>213.18</v>
+        <v>213.68</v>
       </c>
       <c r="C290">
         <v>179.34</v>
       </c>
       <c r="D290">
-        <v>18.87</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4669,13 +4683,13 @@
         <v>44151</v>
       </c>
       <c r="B291">
-        <v>217.07</v>
+        <v>216.01</v>
       </c>
       <c r="C291">
         <v>179.34</v>
       </c>
       <c r="D291">
-        <v>21.04</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4683,13 +4697,13 @@
         <v>44152</v>
       </c>
       <c r="B292">
-        <v>208.06</v>
+        <v>207.39</v>
       </c>
       <c r="C292">
         <v>179.34</v>
       </c>
       <c r="D292">
-        <v>16.01</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4697,13 +4711,13 @@
         <v>44153</v>
       </c>
       <c r="B293">
-        <v>203.52</v>
+        <v>204.34</v>
       </c>
       <c r="C293">
         <v>179.34</v>
       </c>
       <c r="D293">
-        <v>13.48</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4711,13 +4725,13 @@
         <v>44154</v>
       </c>
       <c r="B294">
-        <v>215.37</v>
+        <v>215.38</v>
       </c>
       <c r="C294">
         <v>179.34</v>
       </c>
       <c r="D294">
-        <v>20.09</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4725,13 +4739,13 @@
         <v>44155</v>
       </c>
       <c r="B295">
-        <v>209.37</v>
+        <v>208.71</v>
       </c>
       <c r="C295">
         <v>179.34</v>
       </c>
       <c r="D295">
-        <v>16.74</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4739,13 +4753,13 @@
         <v>44156</v>
       </c>
       <c r="B296">
-        <v>205.92</v>
+        <v>205.71</v>
       </c>
       <c r="C296">
         <v>179.34</v>
       </c>
       <c r="D296">
-        <v>14.82</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4753,13 +4767,13 @@
         <v>44157</v>
       </c>
       <c r="B297">
-        <v>204.76</v>
+        <v>204.64</v>
       </c>
       <c r="C297">
         <v>179.34</v>
       </c>
       <c r="D297">
-        <v>14.17</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4767,13 +4781,13 @@
         <v>44158</v>
       </c>
       <c r="B298">
-        <v>203.03</v>
+        <v>202.69</v>
       </c>
       <c r="C298">
         <v>179.34</v>
       </c>
       <c r="D298">
-        <v>13.21</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4781,13 +4795,13 @@
         <v>44159</v>
       </c>
       <c r="B299">
-        <v>199.81</v>
+        <v>199.35</v>
       </c>
       <c r="C299">
         <v>179.34</v>
       </c>
       <c r="D299">
-        <v>11.41</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4795,13 +4809,13 @@
         <v>44160</v>
       </c>
       <c r="B300">
-        <v>197.45</v>
+        <v>197.32</v>
       </c>
       <c r="C300">
         <v>179.34</v>
       </c>
       <c r="D300">
-        <v>10.1</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4809,7 +4823,7 @@
         <v>44161</v>
       </c>
       <c r="B301">
-        <v>196.24</v>
+        <v>196.23</v>
       </c>
       <c r="C301">
         <v>179.34</v>
@@ -4823,13 +4837,13 @@
         <v>44162</v>
       </c>
       <c r="B302">
-        <v>197.44</v>
+        <v>202.62</v>
       </c>
       <c r="C302">
         <v>179.34</v>
       </c>
       <c r="D302">
-        <v>10.09</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4837,13 +4851,13 @@
         <v>44163</v>
       </c>
       <c r="B303">
-        <v>212.78</v>
+        <v>208.7</v>
       </c>
       <c r="C303">
         <v>179.34</v>
       </c>
       <c r="D303">
-        <v>18.65</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4851,13 +4865,13 @@
         <v>44164</v>
       </c>
       <c r="B304">
-        <v>202.44</v>
+        <v>202.72</v>
       </c>
       <c r="C304">
         <v>179.34</v>
       </c>
       <c r="D304">
-        <v>12.88</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4865,13 +4879,13 @@
         <v>44165</v>
       </c>
       <c r="B305">
-        <v>201.49</v>
+        <v>200.68</v>
       </c>
       <c r="C305">
         <v>179.34</v>
       </c>
       <c r="D305">
-        <v>12.35</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4879,13 +4893,13 @@
         <v>44166</v>
       </c>
       <c r="B306">
-        <v>198.81</v>
+        <v>198.94</v>
       </c>
       <c r="C306">
         <v>181.71</v>
       </c>
       <c r="D306">
-        <v>9.41</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4893,13 +4907,13 @@
         <v>44167</v>
       </c>
       <c r="B307">
-        <v>200.14</v>
+        <v>200.27</v>
       </c>
       <c r="C307">
         <v>181.71</v>
       </c>
       <c r="D307">
-        <v>10.14</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4907,13 +4921,13 @@
         <v>44168</v>
       </c>
       <c r="B308">
-        <v>202.79</v>
+        <v>203.34</v>
       </c>
       <c r="C308">
         <v>181.71</v>
       </c>
       <c r="D308">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4921,13 +4935,13 @@
         <v>44169</v>
       </c>
       <c r="B309">
-        <v>204.7</v>
+        <v>205.33</v>
       </c>
       <c r="C309">
         <v>181.71</v>
       </c>
       <c r="D309">
-        <v>12.65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4949,13 +4963,13 @@
         <v>44171</v>
       </c>
       <c r="B311">
-        <v>210.55</v>
+        <v>210.33</v>
       </c>
       <c r="C311">
         <v>181.71</v>
       </c>
       <c r="D311">
-        <v>15.87</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4963,13 +4977,13 @@
         <v>44172</v>
       </c>
       <c r="B312">
-        <v>208.7</v>
+        <v>208.63</v>
       </c>
       <c r="C312">
         <v>181.71</v>
       </c>
       <c r="D312">
-        <v>14.85</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4977,13 +4991,13 @@
         <v>44173</v>
       </c>
       <c r="B313">
-        <v>208.39</v>
+        <v>208.33</v>
       </c>
       <c r="C313">
         <v>181.71</v>
       </c>
       <c r="D313">
-        <v>14.68</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4991,7 +5005,7 @@
         <v>44174</v>
       </c>
       <c r="B314">
-        <v>207.67</v>
+        <v>207.66</v>
       </c>
       <c r="C314">
         <v>181.71</v>
@@ -5005,13 +5019,13 @@
         <v>44175</v>
       </c>
       <c r="B315">
-        <v>207.28</v>
+        <v>207.71</v>
       </c>
       <c r="C315">
         <v>181.71</v>
       </c>
       <c r="D315">
-        <v>14.07</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5019,13 +5033,13 @@
         <v>44176</v>
       </c>
       <c r="B316">
-        <v>209.04</v>
+        <v>208.77</v>
       </c>
       <c r="C316">
         <v>181.71</v>
       </c>
       <c r="D316">
-        <v>15.04</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5033,13 +5047,13 @@
         <v>44177</v>
       </c>
       <c r="B317">
-        <v>208.68</v>
+        <v>208.74</v>
       </c>
       <c r="C317">
         <v>181.71</v>
       </c>
       <c r="D317">
-        <v>14.84</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5047,13 +5061,13 @@
         <v>44178</v>
       </c>
       <c r="B318">
-        <v>212.29</v>
+        <v>213.19</v>
       </c>
       <c r="C318">
         <v>181.71</v>
       </c>
       <c r="D318">
-        <v>16.83</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5061,13 +5075,13 @@
         <v>44179</v>
       </c>
       <c r="B319">
-        <v>215.25</v>
+        <v>214.96</v>
       </c>
       <c r="C319">
         <v>181.71</v>
       </c>
       <c r="D319">
-        <v>18.46</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5075,13 +5089,13 @@
         <v>44180</v>
       </c>
       <c r="B320">
-        <v>215.41</v>
+        <v>215.64</v>
       </c>
       <c r="C320">
         <v>181.71</v>
       </c>
       <c r="D320">
-        <v>18.54</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5089,13 +5103,13 @@
         <v>44181</v>
       </c>
       <c r="B321">
-        <v>215.96</v>
+        <v>217.72</v>
       </c>
       <c r="C321">
         <v>181.71</v>
       </c>
       <c r="D321">
-        <v>18.85</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5103,13 +5117,13 @@
         <v>44182</v>
       </c>
       <c r="B322">
-        <v>235.07</v>
+        <v>235.19</v>
       </c>
       <c r="C322">
         <v>181.71</v>
       </c>
       <c r="D322">
-        <v>29.37</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5117,13 +5131,13 @@
         <v>44183</v>
       </c>
       <c r="B323">
-        <v>226.14</v>
+        <v>227.26</v>
       </c>
       <c r="C323">
         <v>181.71</v>
       </c>
       <c r="D323">
-        <v>24.45</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5131,13 +5145,13 @@
         <v>44184</v>
       </c>
       <c r="B324">
-        <v>240.36</v>
+        <v>241.16</v>
       </c>
       <c r="C324">
         <v>181.71</v>
       </c>
       <c r="D324">
-        <v>32.28</v>
+        <v>32.71</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5145,13 +5159,13 @@
         <v>44185</v>
       </c>
       <c r="B325">
-        <v>239.77</v>
+        <v>243.26</v>
       </c>
       <c r="C325">
         <v>181.71</v>
       </c>
       <c r="D325">
-        <v>31.95</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5159,13 +5173,13 @@
         <v>44186</v>
       </c>
       <c r="B326">
-        <v>252.89</v>
+        <v>248.15</v>
       </c>
       <c r="C326">
         <v>181.71</v>
       </c>
       <c r="D326">
-        <v>39.17</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5173,13 +5187,13 @@
         <v>44187</v>
       </c>
       <c r="B327">
-        <v>229.23</v>
+        <v>227.71</v>
       </c>
       <c r="C327">
         <v>181.71</v>
       </c>
       <c r="D327">
-        <v>26.15</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5187,13 +5201,13 @@
         <v>44188</v>
       </c>
       <c r="B328">
-        <v>222.22</v>
+        <v>221.81</v>
       </c>
       <c r="C328">
         <v>181.71</v>
       </c>
       <c r="D328">
-        <v>22.29</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5201,13 +5215,13 @@
         <v>44189</v>
       </c>
       <c r="B329">
-        <v>218.97</v>
+        <v>218.5</v>
       </c>
       <c r="C329">
         <v>181.71</v>
       </c>
       <c r="D329">
-        <v>20.5</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5215,13 +5229,13 @@
         <v>44190</v>
       </c>
       <c r="B330">
-        <v>215.82</v>
+        <v>215.64</v>
       </c>
       <c r="C330">
         <v>181.71</v>
       </c>
       <c r="D330">
-        <v>18.77</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5229,13 +5243,13 @@
         <v>44191</v>
       </c>
       <c r="B331">
-        <v>214.96</v>
+        <v>214.84</v>
       </c>
       <c r="C331">
         <v>181.71</v>
       </c>
       <c r="D331">
-        <v>18.3</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5243,13 +5257,13 @@
         <v>44192</v>
       </c>
       <c r="B332">
-        <v>214.49</v>
+        <v>214.56</v>
       </c>
       <c r="C332">
         <v>181.71</v>
       </c>
       <c r="D332">
-        <v>18.04</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5257,13 +5271,13 @@
         <v>44193</v>
       </c>
       <c r="B333">
-        <v>216.58</v>
+        <v>216.76</v>
       </c>
       <c r="C333">
         <v>181.71</v>
       </c>
       <c r="D333">
-        <v>19.19</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5271,13 +5285,13 @@
         <v>44194</v>
       </c>
       <c r="B334">
-        <v>217.15</v>
+        <v>217.34</v>
       </c>
       <c r="C334">
         <v>181.71</v>
       </c>
       <c r="D334">
-        <v>19.5</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5285,13 +5299,13 @@
         <v>44195</v>
       </c>
       <c r="B335">
-        <v>220.7</v>
+        <v>220.83</v>
       </c>
       <c r="C335">
         <v>181.71</v>
       </c>
       <c r="D335">
-        <v>21.46</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5299,13 +5313,13 @@
         <v>44196</v>
       </c>
       <c r="B336">
-        <v>232.1</v>
+        <v>235.2</v>
       </c>
       <c r="C336">
         <v>181.71</v>
       </c>
       <c r="D336">
-        <v>27.73</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5313,13 +5327,13 @@
         <v>44197</v>
       </c>
       <c r="B337">
-        <v>234</v>
+        <v>231.89</v>
       </c>
       <c r="C337">
         <v>187.86</v>
       </c>
       <c r="D337">
-        <v>24.56</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5327,13 +5341,13 @@
         <v>44198</v>
       </c>
       <c r="B338">
-        <v>226.04</v>
+        <v>225.55</v>
       </c>
       <c r="C338">
         <v>187.86</v>
       </c>
       <c r="D338">
-        <v>20.33</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5341,13 +5355,13 @@
         <v>44199</v>
       </c>
       <c r="B339">
-        <v>223.51</v>
+        <v>223.32</v>
       </c>
       <c r="C339">
         <v>187.86</v>
       </c>
       <c r="D339">
-        <v>18.98</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5355,13 +5369,13 @@
         <v>44200</v>
       </c>
       <c r="B340">
-        <v>219.49</v>
+        <v>219.08</v>
       </c>
       <c r="C340">
         <v>187.86</v>
       </c>
       <c r="D340">
-        <v>16.84</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5369,13 +5383,13 @@
         <v>44201</v>
       </c>
       <c r="B341">
-        <v>218.69</v>
+        <v>218.74</v>
       </c>
       <c r="C341">
         <v>187.86</v>
       </c>
       <c r="D341">
-        <v>16.41</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5383,13 +5397,13 @@
         <v>44202</v>
       </c>
       <c r="B342">
-        <v>219.36</v>
+        <v>219.53</v>
       </c>
       <c r="C342">
         <v>187.86</v>
       </c>
       <c r="D342">
-        <v>16.77</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5397,13 +5411,13 @@
         <v>44203</v>
       </c>
       <c r="B343">
-        <v>221.33</v>
+        <v>222.94</v>
       </c>
       <c r="C343">
         <v>187.86</v>
       </c>
       <c r="D343">
-        <v>17.82</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5411,13 +5425,13 @@
         <v>44204</v>
       </c>
       <c r="B344">
-        <v>231.38</v>
+        <v>233.9</v>
       </c>
       <c r="C344">
         <v>187.86</v>
       </c>
       <c r="D344">
-        <v>23.16</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5425,13 +5439,13 @@
         <v>44205</v>
       </c>
       <c r="B345">
-        <v>244.18</v>
+        <v>241.69</v>
       </c>
       <c r="C345">
         <v>187.86</v>
       </c>
       <c r="D345">
-        <v>29.98</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5439,13 +5453,13 @@
         <v>44206</v>
       </c>
       <c r="B346">
-        <v>228.93</v>
+        <v>228.45</v>
       </c>
       <c r="C346">
         <v>187.86</v>
       </c>
       <c r="D346">
-        <v>21.86</v>
+        <v>21.61</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5453,13 +5467,13 @@
         <v>44207</v>
       </c>
       <c r="B347">
-        <v>227.06</v>
+        <v>226.41</v>
       </c>
       <c r="C347">
         <v>187.86</v>
       </c>
       <c r="D347">
-        <v>20.87</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5467,13 +5481,13 @@
         <v>44208</v>
       </c>
       <c r="B348">
-        <v>223.24</v>
+        <v>223.28</v>
       </c>
       <c r="C348">
         <v>187.86</v>
       </c>
       <c r="D348">
-        <v>18.83</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5481,7 +5495,7 @@
         <v>44209</v>
       </c>
       <c r="B349">
-        <v>225.46</v>
+        <v>225.45</v>
       </c>
       <c r="C349">
         <v>187.86</v>
@@ -5495,13 +5509,13 @@
         <v>44210</v>
       </c>
       <c r="B350">
-        <v>224.2</v>
+        <v>224.29</v>
       </c>
       <c r="C350">
         <v>187.86</v>
       </c>
       <c r="D350">
-        <v>19.34</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5509,13 +5523,13 @@
         <v>44211</v>
       </c>
       <c r="B351">
-        <v>224.12</v>
+        <v>224.44</v>
       </c>
       <c r="C351">
         <v>187.86</v>
       </c>
       <c r="D351">
-        <v>19.31</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5523,13 +5537,13 @@
         <v>44212</v>
       </c>
       <c r="B352">
-        <v>229.21</v>
+        <v>229.57</v>
       </c>
       <c r="C352">
         <v>187.86</v>
       </c>
       <c r="D352">
-        <v>22.01</v>
+        <v>22.21</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5537,13 +5551,13 @@
         <v>44213</v>
       </c>
       <c r="B353">
-        <v>229.68</v>
+        <v>229.5</v>
       </c>
       <c r="C353">
         <v>187.86</v>
       </c>
       <c r="D353">
-        <v>22.26</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5551,13 +5565,13 @@
         <v>44214</v>
       </c>
       <c r="B354">
-        <v>231.54</v>
+        <v>261.75</v>
       </c>
       <c r="C354">
         <v>187.86</v>
       </c>
       <c r="D354">
-        <v>23.25</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5565,13 +5579,13 @@
         <v>44215</v>
       </c>
       <c r="B355">
-        <v>293.62</v>
+        <v>282.46</v>
       </c>
       <c r="C355">
         <v>187.86</v>
       </c>
       <c r="D355">
-        <v>56.3</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5579,13 +5593,13 @@
         <v>44216</v>
       </c>
       <c r="B356">
-        <v>248.61</v>
+        <v>246.8</v>
       </c>
       <c r="C356">
         <v>187.86</v>
       </c>
       <c r="D356">
-        <v>32.34</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5593,13 +5607,13 @@
         <v>44217</v>
       </c>
       <c r="B357">
-        <v>239.72</v>
+        <v>239.92</v>
       </c>
       <c r="C357">
         <v>187.86</v>
       </c>
       <c r="D357">
-        <v>27.61</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5607,13 +5621,13 @@
         <v>44218</v>
       </c>
       <c r="B358">
-        <v>240.41</v>
+        <v>242.48</v>
       </c>
       <c r="C358">
         <v>187.86</v>
       </c>
       <c r="D358">
-        <v>27.97</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5621,13 +5635,13 @@
         <v>44219</v>
       </c>
       <c r="B359">
-        <v>245.04</v>
+        <v>259.32</v>
       </c>
       <c r="C359">
         <v>187.86</v>
       </c>
       <c r="D359">
-        <v>30.44</v>
+        <v>38.04</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5635,13 +5649,13 @@
         <v>44220</v>
       </c>
       <c r="B360">
-        <v>264.11</v>
+        <v>257.82</v>
       </c>
       <c r="C360">
         <v>187.86</v>
       </c>
       <c r="D360">
-        <v>40.59</v>
+        <v>37.24</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5649,13 +5663,13 @@
         <v>44221</v>
       </c>
       <c r="B361">
-        <v>246.61</v>
+        <v>247.48</v>
       </c>
       <c r="C361">
         <v>187.86</v>
       </c>
       <c r="D361">
-        <v>31.28</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5663,13 +5677,13 @@
         <v>44222</v>
       </c>
       <c r="B362">
-        <v>248.92</v>
+        <v>247.49</v>
       </c>
       <c r="C362">
         <v>187.86</v>
       </c>
       <c r="D362">
-        <v>32.5</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5677,13 +5691,13 @@
         <v>44223</v>
       </c>
       <c r="B363">
-        <v>247.18</v>
+        <v>248.75</v>
       </c>
       <c r="C363">
         <v>187.86</v>
       </c>
       <c r="D363">
-        <v>31.58</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5691,13 +5705,13 @@
         <v>44224</v>
       </c>
       <c r="B364">
-        <v>249.86</v>
+        <v>248.2</v>
       </c>
       <c r="C364">
         <v>187.86</v>
       </c>
       <c r="D364">
-        <v>33.01</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5705,13 +5719,13 @@
         <v>44225</v>
       </c>
       <c r="B365">
-        <v>242.59</v>
+        <v>242.64</v>
       </c>
       <c r="C365">
         <v>187.86</v>
       </c>
       <c r="D365">
-        <v>29.13</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5719,13 +5733,13 @@
         <v>44226</v>
       </c>
       <c r="B366">
-        <v>307.32</v>
+        <v>306.29</v>
       </c>
       <c r="C366">
         <v>187.86</v>
       </c>
       <c r="D366">
-        <v>63.59</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5733,13 +5747,223 @@
         <v>44227</v>
       </c>
       <c r="B367">
-        <v>278.52</v>
+        <v>274.2</v>
       </c>
       <c r="C367">
         <v>187.86</v>
       </c>
       <c r="D367">
-        <v>48.26</v>
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B368">
+        <v>260.83</v>
+      </c>
+      <c r="C368">
+        <v>182.47</v>
+      </c>
+      <c r="D368">
+        <v>42.95</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B369">
+        <v>258.7</v>
+      </c>
+      <c r="C369">
+        <v>182.47</v>
+      </c>
+      <c r="D369">
+        <v>41.78</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B370">
+        <v>250.23</v>
+      </c>
+      <c r="C370">
+        <v>182.47</v>
+      </c>
+      <c r="D370">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B371">
+        <v>246.91</v>
+      </c>
+      <c r="C371">
+        <v>182.47</v>
+      </c>
+      <c r="D371">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B372">
+        <v>243.44</v>
+      </c>
+      <c r="C372">
+        <v>182.47</v>
+      </c>
+      <c r="D372">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B373">
+        <v>238.57</v>
+      </c>
+      <c r="C373">
+        <v>182.47</v>
+      </c>
+      <c r="D373">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B374">
+        <v>236.16</v>
+      </c>
+      <c r="C374">
+        <v>182.47</v>
+      </c>
+      <c r="D374">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B375">
+        <v>234.71</v>
+      </c>
+      <c r="C375">
+        <v>182.47</v>
+      </c>
+      <c r="D375">
+        <v>28.63</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B376">
+        <v>234.47</v>
+      </c>
+      <c r="C376">
+        <v>182.47</v>
+      </c>
+      <c r="D376">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B377">
+        <v>234.43</v>
+      </c>
+      <c r="C377">
+        <v>182.47</v>
+      </c>
+      <c r="D377">
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B378">
+        <v>234.52</v>
+      </c>
+      <c r="C378">
+        <v>182.47</v>
+      </c>
+      <c r="D378">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B379">
+        <v>235.02</v>
+      </c>
+      <c r="C379">
+        <v>182.47</v>
+      </c>
+      <c r="D379">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B380">
+        <v>240.04</v>
+      </c>
+      <c r="C380">
+        <v>182.47</v>
+      </c>
+      <c r="D380">
+        <v>31.55</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B381">
+        <v>246.97</v>
+      </c>
+      <c r="C381">
+        <v>182.47</v>
+      </c>
+      <c r="D381">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B382">
+        <v>243.56</v>
+      </c>
+      <c r="C382">
+        <v>182.47</v>
+      </c>
+      <c r="D382">
+        <v>33.48</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>177.49</v>
+        <v>194.73</v>
       </c>
       <c r="C2">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D2">
-        <v>-2.73</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B3">
-        <v>176.8</v>
+        <v>175.95</v>
       </c>
       <c r="C3">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D3">
-        <v>-3.76</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B4">
-        <v>173.56</v>
+        <v>161.98</v>
       </c>
       <c r="C4">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D4">
-        <v>-2.08</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B5">
-        <v>181</v>
+        <v>166.98</v>
       </c>
       <c r="C5">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D5">
-        <v>0.29</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B6">
-        <v>194.73</v>
+        <v>171.76</v>
       </c>
       <c r="C6">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D6">
-        <v>7.02</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B7">
-        <v>175.95</v>
+        <v>202.63</v>
       </c>
       <c r="C7">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D7">
-        <v>-1.18</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="B8">
-        <v>161.98</v>
+        <v>217.4</v>
       </c>
       <c r="C8">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D8">
-        <v>-7.38</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="B9">
-        <v>166.98</v>
+        <v>240.44</v>
       </c>
       <c r="C9">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D9">
-        <v>-5.65</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44135</v>
+        <v>44255</v>
       </c>
       <c r="B10">
-        <v>171.76</v>
+        <v>242.99</v>
       </c>
       <c r="C10">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D10">
-        <v>-4.59</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B11">
-        <v>202.63</v>
+        <v>203.07</v>
       </c>
       <c r="C11">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D11">
-        <v>12.99</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44196</v>
+        <v>44316</v>
       </c>
       <c r="B12">
-        <v>217.4</v>
+        <v>171.48</v>
       </c>
       <c r="C12">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D12">
-        <v>19.64</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44227</v>
+        <v>44347</v>
       </c>
       <c r="B13">
-        <v>240.44</v>
+        <v>175.98</v>
       </c>
       <c r="C13">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D13">
-        <v>27.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B14">
-        <v>242.57</v>
-      </c>
-      <c r="C14">
-        <v>182.47</v>
-      </c>
-      <c r="D14">
-        <v>32.94</v>
+        <v>-2.48</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5336 +620,5112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="B2">
-        <v>172.47</v>
+        <v>182.23</v>
       </c>
       <c r="C2">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D2">
-        <v>-5.48</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43863</v>
+        <v>43984</v>
       </c>
       <c r="B3">
-        <v>171.14</v>
+        <v>191.3</v>
       </c>
       <c r="C3">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D3">
-        <v>-6.21</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43864</v>
+        <v>43985</v>
       </c>
       <c r="B4">
-        <v>172.28</v>
+        <v>188.88</v>
       </c>
       <c r="C4">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D4">
-        <v>-5.58</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43865</v>
+        <v>43986</v>
       </c>
       <c r="B5">
-        <v>171.45</v>
+        <v>186</v>
       </c>
       <c r="C5">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D5">
-        <v>-6.04</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43866</v>
+        <v>43987</v>
       </c>
       <c r="B6">
-        <v>172.12</v>
+        <v>192.16</v>
       </c>
       <c r="C6">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D6">
-        <v>-5.67</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43867</v>
+        <v>43988</v>
       </c>
       <c r="B7">
-        <v>186.53</v>
+        <v>200.12</v>
       </c>
       <c r="C7">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D7">
-        <v>2.23</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43868</v>
+        <v>43989</v>
       </c>
       <c r="B8">
-        <v>183.06</v>
+        <v>191.83</v>
       </c>
       <c r="C8">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D8">
-        <v>0.33</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43869</v>
+        <v>43990</v>
       </c>
       <c r="B9">
-        <v>176.68</v>
+        <v>187.4</v>
       </c>
       <c r="C9">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D9">
-        <v>-3.17</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43870</v>
+        <v>43991</v>
       </c>
       <c r="B10">
-        <v>174.99</v>
+        <v>191.68</v>
       </c>
       <c r="C10">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D10">
-        <v>-4.1</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43871</v>
+        <v>43992</v>
       </c>
       <c r="B11">
-        <v>195.66</v>
+        <v>203.07</v>
       </c>
       <c r="C11">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D11">
-        <v>7.23</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43872</v>
+        <v>43993</v>
       </c>
       <c r="B12">
-        <v>177.59</v>
+        <v>202.34</v>
       </c>
       <c r="C12">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D12">
-        <v>-2.67</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43873</v>
+        <v>43994</v>
       </c>
       <c r="B13">
-        <v>174.29</v>
+        <v>193.26</v>
       </c>
       <c r="C13">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D13">
-        <v>-4.48</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43874</v>
+        <v>43995</v>
       </c>
       <c r="B14">
-        <v>173.29</v>
+        <v>191.01</v>
       </c>
       <c r="C14">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D14">
-        <v>-5.03</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43875</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>173.48</v>
+        <v>190.17</v>
       </c>
       <c r="C15">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D15">
-        <v>-4.92</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43876</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>173.28</v>
+        <v>189.9</v>
       </c>
       <c r="C16">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D16">
-        <v>-5.03</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43877</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>173.41</v>
+        <v>190.38</v>
       </c>
       <c r="C17">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D17">
-        <v>-4.96</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43878</v>
+        <v>43999</v>
       </c>
       <c r="B18">
-        <v>173.89</v>
+        <v>190.32</v>
       </c>
       <c r="C18">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D18">
-        <v>-4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>174.28</v>
+        <v>190.51</v>
       </c>
       <c r="C19">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D19">
-        <v>-4.49</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>175.76</v>
+        <v>190.38</v>
       </c>
       <c r="C20">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D20">
-        <v>-3.67</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43881</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>176.05</v>
+        <v>190.39</v>
       </c>
       <c r="C21">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D21">
-        <v>-3.51</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43882</v>
+        <v>44003</v>
       </c>
       <c r="B22">
-        <v>175.33</v>
+        <v>190.23</v>
       </c>
       <c r="C22">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D22">
-        <v>-3.91</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43883</v>
+        <v>44004</v>
       </c>
       <c r="B23">
-        <v>177.11</v>
+        <v>190.27</v>
       </c>
       <c r="C23">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D23">
-        <v>-2.93</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43884</v>
+        <v>44005</v>
       </c>
       <c r="B24">
-        <v>175.27</v>
+        <v>189.77</v>
       </c>
       <c r="C24">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D24">
-        <v>-3.94</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43885</v>
+        <v>44006</v>
       </c>
       <c r="B25">
-        <v>175.82</v>
+        <v>189.44</v>
       </c>
       <c r="C25">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D25">
-        <v>-3.64</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43886</v>
+        <v>44007</v>
       </c>
       <c r="B26">
-        <v>178.91</v>
+        <v>191.01</v>
       </c>
       <c r="C26">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D26">
-        <v>-1.95</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43887</v>
+        <v>44008</v>
       </c>
       <c r="B27">
-        <v>191.21</v>
+        <v>201.09</v>
       </c>
       <c r="C27">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D27">
-        <v>4.79</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43888</v>
+        <v>44009</v>
       </c>
       <c r="B28">
-        <v>189.91</v>
+        <v>246.3</v>
       </c>
       <c r="C28">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D28">
-        <v>4.08</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43889</v>
+        <v>44010</v>
       </c>
       <c r="B29">
-        <v>180.7</v>
+        <v>208.86</v>
       </c>
       <c r="C29">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D29">
-        <v>-0.97</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43890</v>
+        <v>44011</v>
       </c>
       <c r="B30">
-        <v>181.14</v>
+        <v>198.96</v>
       </c>
       <c r="C30">
-        <v>182.47</v>
+        <v>181.95</v>
       </c>
       <c r="D30">
-        <v>-0.73</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43891</v>
+        <v>44012</v>
       </c>
       <c r="B31">
-        <v>182.62</v>
+        <v>202.73</v>
       </c>
       <c r="C31">
-        <v>183.71</v>
+        <v>181.95</v>
       </c>
       <c r="D31">
-        <v>-0.59</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43892</v>
+        <v>44013</v>
       </c>
       <c r="B32">
-        <v>185.1</v>
+        <v>223.74</v>
       </c>
       <c r="C32">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D32">
-        <v>0.76</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43893</v>
+        <v>44014</v>
       </c>
       <c r="B33">
-        <v>185.18</v>
+        <v>204.38</v>
       </c>
       <c r="C33">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43894</v>
+        <v>44015</v>
       </c>
       <c r="B34">
-        <v>185.2</v>
+        <v>199.14</v>
       </c>
       <c r="C34">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D34">
-        <v>0.8100000000000001</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43895</v>
+        <v>44016</v>
       </c>
       <c r="B35">
-        <v>185.64</v>
+        <v>197.18</v>
       </c>
       <c r="C35">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D35">
-        <v>1.05</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43896</v>
+        <v>44017</v>
       </c>
       <c r="B36">
-        <v>184.81</v>
+        <v>195.84</v>
       </c>
       <c r="C36">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D36">
-        <v>0.6</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43897</v>
+        <v>44018</v>
       </c>
       <c r="B37">
-        <v>183.22</v>
+        <v>195.05</v>
       </c>
       <c r="C37">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D37">
-        <v>-0.27</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43898</v>
+        <v>44019</v>
       </c>
       <c r="B38">
-        <v>182.06</v>
+        <v>194.69</v>
       </c>
       <c r="C38">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D38">
-        <v>-0.9</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43899</v>
+        <v>44020</v>
       </c>
       <c r="B39">
-        <v>179.94</v>
+        <v>194.06</v>
       </c>
       <c r="C39">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D39">
-        <v>-2.05</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43900</v>
+        <v>44021</v>
       </c>
       <c r="B40">
-        <v>178.07</v>
+        <v>193.58</v>
       </c>
       <c r="C40">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D40">
-        <v>-3.07</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43901</v>
+        <v>44022</v>
       </c>
       <c r="B41">
-        <v>176.96</v>
+        <v>192.72</v>
       </c>
       <c r="C41">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D41">
-        <v>-3.68</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43902</v>
+        <v>44023</v>
       </c>
       <c r="B42">
-        <v>176.6</v>
+        <v>192.01</v>
       </c>
       <c r="C42">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D42">
-        <v>-3.87</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43903</v>
+        <v>44024</v>
       </c>
       <c r="B43">
-        <v>175.73</v>
+        <v>192.42</v>
       </c>
       <c r="C43">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D43">
-        <v>-4.35</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43904</v>
+        <v>44025</v>
       </c>
       <c r="B44">
-        <v>174.74</v>
+        <v>192.57</v>
       </c>
       <c r="C44">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D44">
-        <v>-4.88</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43905</v>
+        <v>44026</v>
       </c>
       <c r="B45">
-        <v>175.2</v>
+        <v>195.12</v>
       </c>
       <c r="C45">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D45">
-        <v>-4.63</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43906</v>
+        <v>44027</v>
       </c>
       <c r="B46">
-        <v>175.78</v>
+        <v>179.7</v>
       </c>
       <c r="C46">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D46">
-        <v>-4.32</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43907</v>
+        <v>44028</v>
       </c>
       <c r="B47">
-        <v>177.51</v>
+        <v>158.06</v>
       </c>
       <c r="C47">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D47">
-        <v>-3.38</v>
+        <v>-11.23</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43908</v>
+        <v>44029</v>
       </c>
       <c r="B48">
-        <v>177.7</v>
+        <v>158.34</v>
       </c>
       <c r="C48">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D48">
-        <v>-3.27</v>
+        <v>-11.07</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43909</v>
+        <v>44030</v>
       </c>
       <c r="B49">
-        <v>181.24</v>
+        <v>158.42</v>
       </c>
       <c r="C49">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D49">
-        <v>-1.35</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43910</v>
+        <v>44031</v>
       </c>
       <c r="B50">
-        <v>181.1</v>
+        <v>157.39</v>
       </c>
       <c r="C50">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D50">
-        <v>-1.42</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43911</v>
+        <v>44032</v>
       </c>
       <c r="B51">
-        <v>173.1</v>
+        <v>156.79</v>
       </c>
       <c r="C51">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D51">
-        <v>-5.77</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43912</v>
+        <v>44033</v>
       </c>
       <c r="B52">
-        <v>172.28</v>
+        <v>156.76</v>
       </c>
       <c r="C52">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D52">
-        <v>-6.22</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43913</v>
+        <v>44034</v>
       </c>
       <c r="B53">
-        <v>171.17</v>
+        <v>156.57</v>
       </c>
       <c r="C53">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D53">
-        <v>-6.83</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43914</v>
+        <v>44035</v>
       </c>
       <c r="B54">
-        <v>170.62</v>
+        <v>156.77</v>
       </c>
       <c r="C54">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D54">
-        <v>-7.12</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43915</v>
+        <v>44036</v>
       </c>
       <c r="B55">
-        <v>170.45</v>
+        <v>156.12</v>
       </c>
       <c r="C55">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D55">
-        <v>-7.22</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43916</v>
+        <v>44037</v>
       </c>
       <c r="B56">
-        <v>169.62</v>
+        <v>155.5</v>
       </c>
       <c r="C56">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D56">
-        <v>-7.67</v>
+        <v>-12.67</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43917</v>
+        <v>44038</v>
       </c>
       <c r="B57">
-        <v>169.51</v>
+        <v>155.23</v>
       </c>
       <c r="C57">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D57">
-        <v>-7.73</v>
+        <v>-12.82</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43918</v>
+        <v>44039</v>
       </c>
       <c r="B58">
-        <v>169.27</v>
+        <v>156.3</v>
       </c>
       <c r="C58">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D58">
-        <v>-7.86</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43919</v>
+        <v>44040</v>
       </c>
       <c r="B59">
-        <v>169.5</v>
+        <v>156</v>
       </c>
       <c r="C59">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D59">
-        <v>-7.74</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43920</v>
+        <v>44041</v>
       </c>
       <c r="B60">
-        <v>170.38</v>
+        <v>157.15</v>
       </c>
       <c r="C60">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D60">
-        <v>-7.26</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43921</v>
+        <v>44042</v>
       </c>
       <c r="B61">
-        <v>170.36</v>
+        <v>158.9</v>
       </c>
       <c r="C61">
-        <v>183.71</v>
+        <v>178.06</v>
       </c>
       <c r="D61">
-        <v>-7.27</v>
+        <v>-10.76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43922</v>
+        <v>44043</v>
       </c>
       <c r="B62">
-        <v>170.17</v>
+        <v>158</v>
       </c>
       <c r="C62">
-        <v>177.26</v>
+        <v>178.06</v>
       </c>
       <c r="D62">
-        <v>-4</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43923</v>
+        <v>44044</v>
       </c>
       <c r="B63">
-        <v>170.54</v>
+        <v>157</v>
       </c>
       <c r="C63">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D63">
-        <v>-3.79</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43924</v>
+        <v>44045</v>
       </c>
       <c r="B64">
-        <v>169.96</v>
+        <v>157</v>
       </c>
       <c r="C64">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D64">
-        <v>-4.12</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43925</v>
+        <v>44046</v>
       </c>
       <c r="B65">
-        <v>168.42</v>
+        <v>157</v>
       </c>
       <c r="C65">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D65">
-        <v>-4.99</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43926</v>
-      </c>
-      <c r="B66">
-        <v>168.59</v>
+        <v>44047</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>177.26</v>
-      </c>
-      <c r="D66">
-        <v>-4.89</v>
+        <v>174.89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B67">
-        <v>173.26</v>
+        <v>44048</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>177.26</v>
-      </c>
-      <c r="D67">
-        <v>-2.25</v>
+        <v>174.89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B68">
-        <v>179.66</v>
+        <v>44049</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>177.26</v>
-      </c>
-      <c r="D68">
-        <v>1.35</v>
+        <v>174.89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B69">
-        <v>171.45</v>
+        <v>44050</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>177.26</v>
-      </c>
-      <c r="D69">
-        <v>-3.28</v>
+        <v>174.89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B70">
-        <v>170.55</v>
+        <v>44051</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>177.26</v>
-      </c>
-      <c r="D70">
-        <v>-3.78</v>
+        <v>174.89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B71">
-        <v>170.57</v>
+        <v>44052</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>177.26</v>
-      </c>
-      <c r="D71">
-        <v>-3.77</v>
+        <v>174.89</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B72">
-        <v>170.78</v>
+        <v>44053</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>177.26</v>
-      </c>
-      <c r="D72">
-        <v>-3.65</v>
+        <v>174.89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43933</v>
-      </c>
-      <c r="B73">
-        <v>171.73</v>
+        <v>44054</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>177.26</v>
-      </c>
-      <c r="D73">
-        <v>-3.12</v>
+        <v>174.89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B74">
-        <v>172.2</v>
+        <v>44055</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>177.26</v>
-      </c>
-      <c r="D74">
-        <v>-2.85</v>
+        <v>174.89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B75">
-        <v>175.54</v>
+        <v>44056</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>177.26</v>
-      </c>
-      <c r="D75">
-        <v>-0.97</v>
+        <v>174.89</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43936</v>
-      </c>
-      <c r="B76">
-        <v>174.43</v>
+        <v>44057</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>177.26</v>
-      </c>
-      <c r="D76">
-        <v>-1.6</v>
+        <v>174.89</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43937</v>
-      </c>
-      <c r="B77">
-        <v>172.73</v>
+        <v>44058</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>177.26</v>
-      </c>
-      <c r="D77">
-        <v>-2.55</v>
+        <v>174.89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43938</v>
-      </c>
-      <c r="B78">
-        <v>172.91</v>
+        <v>44059</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>177.26</v>
-      </c>
-      <c r="D78">
-        <v>-2.45</v>
+        <v>174.89</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43939</v>
-      </c>
-      <c r="B79">
-        <v>173.97</v>
+        <v>44060</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>177.26</v>
-      </c>
-      <c r="D79">
-        <v>-1.85</v>
+        <v>174.89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43940</v>
-      </c>
-      <c r="B80">
-        <v>175.06</v>
+        <v>44061</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>177.26</v>
-      </c>
-      <c r="D80">
-        <v>-1.24</v>
+        <v>174.89</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43941</v>
-      </c>
-      <c r="B81">
-        <v>175.3</v>
+        <v>44062</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>177.26</v>
-      </c>
-      <c r="D81">
-        <v>-1.1</v>
+        <v>174.89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43942</v>
-      </c>
-      <c r="B82">
-        <v>175.03</v>
+        <v>44063</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>177.26</v>
-      </c>
-      <c r="D82">
-        <v>-1.26</v>
+        <v>174.89</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43943</v>
-      </c>
-      <c r="B83">
-        <v>175.12</v>
+        <v>44064</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>177.26</v>
-      </c>
-      <c r="D83">
-        <v>-1.2</v>
+        <v>174.89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43944</v>
-      </c>
-      <c r="B84">
-        <v>174.88</v>
+        <v>44065</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>177.26</v>
-      </c>
-      <c r="D84">
-        <v>-1.34</v>
+        <v>174.89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43945</v>
-      </c>
-      <c r="B85">
-        <v>174.8</v>
+        <v>44066</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>177.26</v>
-      </c>
-      <c r="D85">
-        <v>-1.38</v>
+        <v>174.89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B86">
-        <v>175.75</v>
+        <v>44067</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>177.26</v>
-      </c>
-      <c r="D86">
-        <v>-0.85</v>
+        <v>174.89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43947</v>
-      </c>
-      <c r="B87">
-        <v>175.99</v>
+        <v>44068</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>177.26</v>
-      </c>
-      <c r="D87">
-        <v>-0.71</v>
+        <v>174.89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43948</v>
-      </c>
-      <c r="B88">
-        <v>175.8</v>
+        <v>44069</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>177.26</v>
-      </c>
-      <c r="D88">
-        <v>-0.82</v>
+        <v>174.89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43949</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>176.72</v>
+        <v>168</v>
       </c>
       <c r="C89">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D89">
-        <v>-0.3</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43950</v>
+        <v>44071</v>
       </c>
       <c r="B90">
-        <v>177.61</v>
+        <v>166.02</v>
       </c>
       <c r="C90">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D90">
-        <v>0.2</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43951</v>
+        <v>44072</v>
       </c>
       <c r="B91">
-        <v>177.29</v>
+        <v>163.91</v>
       </c>
       <c r="C91">
-        <v>177.26</v>
+        <v>174.89</v>
       </c>
       <c r="D91">
-        <v>0.02</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43952</v>
+        <v>44073</v>
       </c>
       <c r="B92">
-        <v>178.02</v>
+        <v>163.57</v>
       </c>
       <c r="C92">
-        <v>180.46</v>
+        <v>174.89</v>
       </c>
       <c r="D92">
-        <v>-1.35</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43953</v>
+        <v>44074</v>
       </c>
       <c r="B93">
-        <v>179.25</v>
+        <v>163.34</v>
       </c>
       <c r="C93">
-        <v>180.46</v>
+        <v>174.89</v>
       </c>
       <c r="D93">
-        <v>-0.67</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43954</v>
+        <v>44075</v>
       </c>
       <c r="B94">
-        <v>178.03</v>
+        <v>163.19</v>
       </c>
       <c r="C94">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D94">
-        <v>-1.35</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43955</v>
+        <v>44076</v>
       </c>
       <c r="B95">
-        <v>177.95</v>
+        <v>163.4</v>
       </c>
       <c r="C95">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D95">
-        <v>-1.39</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>177.91</v>
+        <v>163.84</v>
       </c>
       <c r="C96">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D96">
-        <v>-1.42</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43957</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>179.22</v>
+        <v>165.86</v>
       </c>
       <c r="C97">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D97">
-        <v>-0.6899999999999999</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43958</v>
+        <v>44079</v>
       </c>
       <c r="B98">
-        <v>180.04</v>
+        <v>166.83</v>
       </c>
       <c r="C98">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D98">
-        <v>-0.23</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43959</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>178.8</v>
+        <v>166.53</v>
       </c>
       <c r="C99">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D99">
-        <v>-0.92</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43960</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>179.4</v>
+        <v>165.84</v>
       </c>
       <c r="C100">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D100">
-        <v>-0.59</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43961</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>180.32</v>
+        <v>165.6</v>
       </c>
       <c r="C101">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D101">
-        <v>-0.08</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43962</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>180.31</v>
+        <v>165.57</v>
       </c>
       <c r="C102">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D102">
-        <v>-0.08</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43963</v>
+        <v>44084</v>
       </c>
       <c r="B103">
-        <v>180.46</v>
+        <v>165.97</v>
       </c>
       <c r="C103">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D103">
-        <v>-0</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43964</v>
+        <v>44085</v>
       </c>
       <c r="B104">
-        <v>181.59</v>
+        <v>165.53</v>
       </c>
       <c r="C104">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D104">
-        <v>0.63</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43965</v>
+        <v>44086</v>
       </c>
       <c r="B105">
-        <v>183.21</v>
+        <v>165.31</v>
       </c>
       <c r="C105">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D105">
-        <v>1.52</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43966</v>
+        <v>44087</v>
       </c>
       <c r="B106">
-        <v>183.4</v>
+        <v>168.38</v>
       </c>
       <c r="C106">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D106">
-        <v>1.62</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43967</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>182.53</v>
+        <v>168.35</v>
       </c>
       <c r="C107">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D107">
-        <v>1.15</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43968</v>
+        <v>44089</v>
       </c>
       <c r="B108">
-        <v>181.78</v>
+        <v>167.46</v>
       </c>
       <c r="C108">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D108">
-        <v>0.73</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43969</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>181.12</v>
+        <v>167.96</v>
       </c>
       <c r="C109">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D109">
-        <v>0.37</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43970</v>
+        <v>44091</v>
       </c>
       <c r="B110">
-        <v>180.94</v>
+        <v>168.78</v>
       </c>
       <c r="C110">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D110">
-        <v>0.26</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43971</v>
+        <v>44092</v>
       </c>
       <c r="B111">
-        <v>182.06</v>
+        <v>168.39</v>
       </c>
       <c r="C111">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D111">
-        <v>0.89</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43972</v>
+        <v>44093</v>
       </c>
       <c r="B112">
-        <v>182.48</v>
+        <v>168.24</v>
       </c>
       <c r="C112">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D112">
-        <v>1.12</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43973</v>
+        <v>44094</v>
       </c>
       <c r="B113">
-        <v>183.89</v>
+        <v>167.29</v>
       </c>
       <c r="C113">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D113">
-        <v>1.9</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43974</v>
+        <v>44095</v>
       </c>
       <c r="B114">
-        <v>191.86</v>
+        <v>167.1</v>
       </c>
       <c r="C114">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D114">
-        <v>6.32</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43975</v>
+        <v>44096</v>
       </c>
       <c r="B115">
-        <v>183.33</v>
+        <v>167.38</v>
       </c>
       <c r="C115">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D115">
-        <v>1.59</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43976</v>
+        <v>44097</v>
       </c>
       <c r="B116">
-        <v>181.7</v>
+        <v>167.92</v>
       </c>
       <c r="C116">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D116">
-        <v>0.68</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43977</v>
+        <v>44098</v>
       </c>
       <c r="B117">
-        <v>180.04</v>
+        <v>168.68</v>
       </c>
       <c r="C117">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D117">
-        <v>-0.23</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43978</v>
+        <v>44099</v>
       </c>
       <c r="B118">
-        <v>179.22</v>
+        <v>168.22</v>
       </c>
       <c r="C118">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D118">
-        <v>-0.6899999999999999</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43979</v>
+        <v>44100</v>
       </c>
       <c r="B119">
-        <v>179.76</v>
+        <v>167.75</v>
       </c>
       <c r="C119">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D119">
-        <v>-0.39</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43980</v>
+        <v>44101</v>
       </c>
       <c r="B120">
-        <v>180.17</v>
+        <v>167.59</v>
       </c>
       <c r="C120">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D120">
-        <v>-0.17</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43981</v>
+        <v>44102</v>
       </c>
       <c r="B121">
-        <v>181.02</v>
+        <v>167.93</v>
       </c>
       <c r="C121">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D121">
-        <v>0.31</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43982</v>
+        <v>44103</v>
       </c>
       <c r="B122">
-        <v>181.08</v>
+        <v>169.27</v>
       </c>
       <c r="C122">
-        <v>180.46</v>
+        <v>176.98</v>
       </c>
       <c r="D122">
-        <v>0.34</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43983</v>
+        <v>44104</v>
       </c>
       <c r="B123">
-        <v>182.23</v>
+        <v>169.3</v>
       </c>
       <c r="C123">
-        <v>181.95</v>
+        <v>176.98</v>
       </c>
       <c r="D123">
-        <v>0.15</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43984</v>
+        <v>44105</v>
       </c>
       <c r="B124">
-        <v>191.3</v>
+        <v>168.71</v>
       </c>
       <c r="C124">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D124">
-        <v>5.14</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43985</v>
+        <v>44106</v>
       </c>
       <c r="B125">
-        <v>188.88</v>
+        <v>168.07</v>
       </c>
       <c r="C125">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D125">
-        <v>3.81</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43986</v>
+        <v>44107</v>
       </c>
       <c r="B126">
-        <v>186</v>
+        <v>167.36</v>
       </c>
       <c r="C126">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D126">
-        <v>2.23</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43987</v>
+        <v>44108</v>
       </c>
       <c r="B127">
-        <v>192.16</v>
+        <v>166.82</v>
       </c>
       <c r="C127">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D127">
-        <v>5.61</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43988</v>
+        <v>44109</v>
       </c>
       <c r="B128">
-        <v>200.12</v>
+        <v>167.11</v>
       </c>
       <c r="C128">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D128">
-        <v>9.99</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43989</v>
+        <v>44110</v>
       </c>
       <c r="B129">
-        <v>191.83</v>
+        <v>167.4</v>
       </c>
       <c r="C129">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D129">
-        <v>5.43</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43990</v>
+        <v>44111</v>
       </c>
       <c r="B130">
-        <v>187.4</v>
+        <v>167.27</v>
       </c>
       <c r="C130">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D130">
-        <v>2.99</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43991</v>
+        <v>44112</v>
       </c>
       <c r="B131">
-        <v>191.68</v>
+        <v>169.85</v>
       </c>
       <c r="C131">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D131">
-        <v>5.35</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43992</v>
+        <v>44113</v>
       </c>
       <c r="B132">
-        <v>203.07</v>
+        <v>177.24</v>
       </c>
       <c r="C132">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D132">
-        <v>11.61</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43993</v>
+        <v>44114</v>
       </c>
       <c r="B133">
-        <v>202.34</v>
+        <v>175.45</v>
       </c>
       <c r="C133">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D133">
-        <v>11.21</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43994</v>
+        <v>44115</v>
       </c>
       <c r="B134">
-        <v>193.26</v>
+        <v>168.59</v>
       </c>
       <c r="C134">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D134">
-        <v>6.22</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43995</v>
+        <v>44116</v>
       </c>
       <c r="B135">
-        <v>191.01</v>
+        <v>168.29</v>
       </c>
       <c r="C135">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D135">
-        <v>4.98</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43996</v>
+        <v>44117</v>
       </c>
       <c r="B136">
-        <v>190.17</v>
+        <v>168.96</v>
       </c>
       <c r="C136">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D136">
-        <v>4.52</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43997</v>
+        <v>44118</v>
       </c>
       <c r="B137">
-        <v>189.9</v>
+        <v>169.74</v>
       </c>
       <c r="C137">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D137">
-        <v>4.37</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43998</v>
+        <v>44119</v>
       </c>
       <c r="B138">
-        <v>190.38</v>
+        <v>169.82</v>
       </c>
       <c r="C138">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D138">
-        <v>4.63</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43999</v>
+        <v>44120</v>
       </c>
       <c r="B139">
-        <v>190.32</v>
+        <v>169.33</v>
       </c>
       <c r="C139">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D139">
-        <v>4.6</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44000</v>
+        <v>44121</v>
       </c>
       <c r="B140">
-        <v>190.51</v>
+        <v>167.67</v>
       </c>
       <c r="C140">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D140">
-        <v>4.7</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44001</v>
+        <v>44122</v>
       </c>
       <c r="B141">
-        <v>190.38</v>
+        <v>167.96</v>
       </c>
       <c r="C141">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D141">
-        <v>4.63</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44002</v>
+        <v>44123</v>
       </c>
       <c r="B142">
-        <v>190.39</v>
+        <v>170.15</v>
       </c>
       <c r="C142">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D142">
-        <v>4.64</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44003</v>
+        <v>44124</v>
       </c>
       <c r="B143">
-        <v>190.23</v>
+        <v>172.44</v>
       </c>
       <c r="C143">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D143">
-        <v>4.55</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44004</v>
+        <v>44125</v>
       </c>
       <c r="B144">
-        <v>190.27</v>
+        <v>188.45</v>
       </c>
       <c r="C144">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D144">
-        <v>4.57</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44005</v>
+        <v>44126</v>
       </c>
       <c r="B145">
-        <v>189.77</v>
+        <v>170.88</v>
       </c>
       <c r="C145">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D145">
-        <v>4.3</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44006</v>
+        <v>44127</v>
       </c>
       <c r="B146">
-        <v>189.44</v>
+        <v>169.74</v>
       </c>
       <c r="C146">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D146">
-        <v>4.11</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44007</v>
+        <v>44128</v>
       </c>
       <c r="B147">
-        <v>191.01</v>
+        <v>170.58</v>
       </c>
       <c r="C147">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D147">
-        <v>4.98</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44008</v>
+        <v>44129</v>
       </c>
       <c r="B148">
-        <v>201.09</v>
+        <v>172.81</v>
       </c>
       <c r="C148">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D148">
-        <v>10.52</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44009</v>
+        <v>44130</v>
       </c>
       <c r="B149">
-        <v>246.3</v>
+        <v>171.71</v>
       </c>
       <c r="C149">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D149">
-        <v>35.37</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44010</v>
+        <v>44131</v>
       </c>
       <c r="B150">
-        <v>208.86</v>
+        <v>171.23</v>
       </c>
       <c r="C150">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D150">
-        <v>14.79</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44011</v>
+        <v>44132</v>
       </c>
       <c r="B151">
-        <v>198.96</v>
+        <v>170.76</v>
       </c>
       <c r="C151">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D151">
-        <v>9.35</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44012</v>
+        <v>44133</v>
       </c>
       <c r="B152">
-        <v>202.73</v>
+        <v>172.07</v>
       </c>
       <c r="C152">
-        <v>181.95</v>
+        <v>180.02</v>
       </c>
       <c r="D152">
-        <v>11.42</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44013</v>
+        <v>44134</v>
       </c>
       <c r="B153">
-        <v>223.74</v>
+        <v>198.05</v>
       </c>
       <c r="C153">
-        <v>178.06</v>
+        <v>180.02</v>
       </c>
       <c r="D153">
-        <v>25.65</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44014</v>
+        <v>44135</v>
       </c>
       <c r="B154">
-        <v>204.38</v>
+        <v>179.88</v>
       </c>
       <c r="C154">
-        <v>178.06</v>
+        <v>180.02</v>
       </c>
       <c r="D154">
-        <v>14.78</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44015</v>
+        <v>44136</v>
       </c>
       <c r="B155">
-        <v>199.14</v>
+        <v>176.68</v>
       </c>
       <c r="C155">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D155">
-        <v>11.84</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44016</v>
+        <v>44137</v>
       </c>
       <c r="B156">
-        <v>197.18</v>
+        <v>176.21</v>
       </c>
       <c r="C156">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D156">
-        <v>10.74</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44017</v>
+        <v>44138</v>
       </c>
       <c r="B157">
-        <v>195.84</v>
+        <v>177.35</v>
       </c>
       <c r="C157">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D157">
-        <v>9.99</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44018</v>
+        <v>44139</v>
       </c>
       <c r="B158">
-        <v>195.05</v>
+        <v>184.46</v>
       </c>
       <c r="C158">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D158">
-        <v>9.539999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44019</v>
+        <v>44140</v>
       </c>
       <c r="B159">
-        <v>194.69</v>
+        <v>186.83</v>
       </c>
       <c r="C159">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D159">
-        <v>9.34</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44020</v>
+        <v>44141</v>
       </c>
       <c r="B160">
-        <v>194.06</v>
+        <v>181.56</v>
       </c>
       <c r="C160">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D160">
-        <v>8.99</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44021</v>
+        <v>44142</v>
       </c>
       <c r="B161">
-        <v>193.58</v>
+        <v>180.99</v>
       </c>
       <c r="C161">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D161">
-        <v>8.720000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44022</v>
+        <v>44143</v>
       </c>
       <c r="B162">
-        <v>192.72</v>
+        <v>181</v>
       </c>
       <c r="C162">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D162">
-        <v>8.23</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44023</v>
+        <v>44144</v>
       </c>
       <c r="B163">
-        <v>192.01</v>
+        <v>182.56</v>
       </c>
       <c r="C163">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D163">
-        <v>7.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44024</v>
+        <v>44145</v>
       </c>
       <c r="B164">
-        <v>192.42</v>
+        <v>255.75</v>
       </c>
       <c r="C164">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D164">
-        <v>8.06</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44025</v>
+        <v>44146</v>
       </c>
       <c r="B165">
-        <v>192.57</v>
+        <v>237.01</v>
       </c>
       <c r="C165">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D165">
-        <v>8.15</v>
+        <v>32.16</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44026</v>
+        <v>44147</v>
       </c>
       <c r="B166">
-        <v>195.12</v>
+        <v>236.95</v>
       </c>
       <c r="C166">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D166">
-        <v>9.58</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44027</v>
+        <v>44148</v>
       </c>
       <c r="B167">
-        <v>179.7</v>
+        <v>219.59</v>
       </c>
       <c r="C167">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D167">
-        <v>0.92</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44028</v>
+        <v>44149</v>
       </c>
       <c r="B168">
-        <v>158.06</v>
+        <v>215.9</v>
       </c>
       <c r="C168">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D168">
-        <v>-11.23</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44029</v>
+        <v>44150</v>
       </c>
       <c r="B169">
-        <v>158.34</v>
+        <v>213.68</v>
       </c>
       <c r="C169">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D169">
-        <v>-11.07</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44030</v>
+        <v>44151</v>
       </c>
       <c r="B170">
-        <v>158.42</v>
+        <v>216.01</v>
       </c>
       <c r="C170">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D170">
-        <v>-11.03</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44031</v>
+        <v>44152</v>
       </c>
       <c r="B171">
-        <v>157.39</v>
+        <v>207.39</v>
       </c>
       <c r="C171">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D171">
-        <v>-11.61</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44032</v>
+        <v>44153</v>
       </c>
       <c r="B172">
-        <v>156.79</v>
+        <v>204.34</v>
       </c>
       <c r="C172">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D172">
-        <v>-11.95</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44033</v>
+        <v>44154</v>
       </c>
       <c r="B173">
-        <v>156.76</v>
+        <v>215.38</v>
       </c>
       <c r="C173">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D173">
-        <v>-11.96</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44034</v>
+        <v>44155</v>
       </c>
       <c r="B174">
-        <v>156.57</v>
+        <v>208.71</v>
       </c>
       <c r="C174">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D174">
-        <v>-12.07</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44035</v>
+        <v>44156</v>
       </c>
       <c r="B175">
-        <v>156.77</v>
+        <v>205.71</v>
       </c>
       <c r="C175">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D175">
-        <v>-11.96</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44036</v>
+        <v>44157</v>
       </c>
       <c r="B176">
-        <v>156.12</v>
+        <v>204.64</v>
       </c>
       <c r="C176">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D176">
-        <v>-12.32</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44037</v>
+        <v>44158</v>
       </c>
       <c r="B177">
-        <v>155.5</v>
+        <v>202.69</v>
       </c>
       <c r="C177">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D177">
-        <v>-12.67</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44038</v>
+        <v>44159</v>
       </c>
       <c r="B178">
-        <v>155.23</v>
+        <v>199.35</v>
       </c>
       <c r="C178">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D178">
-        <v>-12.82</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44039</v>
+        <v>44160</v>
       </c>
       <c r="B179">
-        <v>156.3</v>
+        <v>197.32</v>
       </c>
       <c r="C179">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D179">
-        <v>-12.22</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44040</v>
+        <v>44161</v>
       </c>
       <c r="B180">
-        <v>156</v>
+        <v>196.23</v>
       </c>
       <c r="C180">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D180">
-        <v>-12.39</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44041</v>
+        <v>44162</v>
       </c>
       <c r="B181">
-        <v>157.15</v>
+        <v>202.62</v>
       </c>
       <c r="C181">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D181">
-        <v>-11.75</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44042</v>
+        <v>44163</v>
       </c>
       <c r="B182">
-        <v>158.9</v>
+        <v>208.7</v>
       </c>
       <c r="C182">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D182">
-        <v>-10.76</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44043</v>
+        <v>44164</v>
       </c>
       <c r="B183">
-        <v>158</v>
+        <v>202.72</v>
       </c>
       <c r="C183">
-        <v>178.06</v>
+        <v>179.34</v>
       </c>
       <c r="D183">
-        <v>-11.27</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44044</v>
+        <v>44165</v>
       </c>
       <c r="B184">
-        <v>157</v>
+        <v>200.68</v>
       </c>
       <c r="C184">
-        <v>174.89</v>
+        <v>179.34</v>
       </c>
       <c r="D184">
-        <v>-10.23</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44045</v>
+        <v>44166</v>
       </c>
       <c r="B185">
-        <v>157</v>
+        <v>198.94</v>
       </c>
       <c r="C185">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D185">
-        <v>-10.23</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44046</v>
+        <v>44167</v>
       </c>
       <c r="B186">
-        <v>157</v>
+        <v>200.27</v>
       </c>
       <c r="C186">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D186">
-        <v>-10.23</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
+        <v>44168</v>
+      </c>
+      <c r="B187">
+        <v>203.34</v>
       </c>
       <c r="C187">
-        <v>174.89</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D187">
+        <v>11.9</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4</v>
+        <v>44169</v>
+      </c>
+      <c r="B188">
+        <v>205.33</v>
       </c>
       <c r="C188">
-        <v>174.89</v>
-      </c>
-      <c r="D188" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D188">
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B189" t="s">
-        <v>4</v>
+        <v>44170</v>
+      </c>
+      <c r="B189">
+        <v>211.64</v>
       </c>
       <c r="C189">
-        <v>174.89</v>
-      </c>
-      <c r="D189" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D189">
+        <v>16.47</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>44171</v>
+      </c>
+      <c r="B190">
+        <v>210.33</v>
       </c>
       <c r="C190">
-        <v>174.89</v>
-      </c>
-      <c r="D190" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D190">
+        <v>15.75</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
+        <v>44172</v>
+      </c>
+      <c r="B191">
+        <v>208.63</v>
       </c>
       <c r="C191">
-        <v>174.89</v>
-      </c>
-      <c r="D191" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D191">
+        <v>14.81</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
+        <v>44173</v>
+      </c>
+      <c r="B192">
+        <v>208.33</v>
       </c>
       <c r="C192">
-        <v>174.89</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D192">
+        <v>14.65</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B193" t="s">
-        <v>4</v>
+        <v>44174</v>
+      </c>
+      <c r="B193">
+        <v>207.66</v>
       </c>
       <c r="C193">
-        <v>174.89</v>
-      </c>
-      <c r="D193" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D193">
+        <v>14.28</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4</v>
+        <v>44175</v>
+      </c>
+      <c r="B194">
+        <v>207.71</v>
       </c>
       <c r="C194">
-        <v>174.89</v>
-      </c>
-      <c r="D194" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D194">
+        <v>14.31</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
+        <v>44176</v>
+      </c>
+      <c r="B195">
+        <v>208.77</v>
       </c>
       <c r="C195">
-        <v>174.89</v>
-      </c>
-      <c r="D195" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D195">
+        <v>14.89</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4</v>
+        <v>44177</v>
+      </c>
+      <c r="B196">
+        <v>208.74</v>
       </c>
       <c r="C196">
-        <v>174.89</v>
-      </c>
-      <c r="D196" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D196">
+        <v>14.87</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4</v>
+        <v>44178</v>
+      </c>
+      <c r="B197">
+        <v>213.19</v>
       </c>
       <c r="C197">
-        <v>174.89</v>
-      </c>
-      <c r="D197" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D197">
+        <v>17.32</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
+        <v>44179</v>
+      </c>
+      <c r="B198">
+        <v>214.96</v>
       </c>
       <c r="C198">
-        <v>174.89</v>
-      </c>
-      <c r="D198" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D198">
+        <v>18.3</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
+        <v>44180</v>
+      </c>
+      <c r="B199">
+        <v>215.64</v>
       </c>
       <c r="C199">
-        <v>174.89</v>
-      </c>
-      <c r="D199" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D199">
+        <v>18.67</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B200" t="s">
-        <v>4</v>
+        <v>44181</v>
+      </c>
+      <c r="B200">
+        <v>217.72</v>
       </c>
       <c r="C200">
-        <v>174.89</v>
-      </c>
-      <c r="D200" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D200">
+        <v>19.82</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B201" t="s">
-        <v>4</v>
+        <v>44182</v>
+      </c>
+      <c r="B201">
+        <v>235.19</v>
       </c>
       <c r="C201">
-        <v>174.89</v>
-      </c>
-      <c r="D201" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D201">
+        <v>29.43</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B202" t="s">
-        <v>4</v>
+        <v>44183</v>
+      </c>
+      <c r="B202">
+        <v>227.26</v>
       </c>
       <c r="C202">
-        <v>174.89</v>
-      </c>
-      <c r="D202" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D202">
+        <v>25.07</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B203" t="s">
-        <v>4</v>
+        <v>44184</v>
+      </c>
+      <c r="B203">
+        <v>241.16</v>
       </c>
       <c r="C203">
-        <v>174.89</v>
-      </c>
-      <c r="D203" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D203">
+        <v>32.71</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B204" t="s">
-        <v>4</v>
+        <v>44185</v>
+      </c>
+      <c r="B204">
+        <v>243.26</v>
       </c>
       <c r="C204">
-        <v>174.89</v>
-      </c>
-      <c r="D204" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D204">
+        <v>33.87</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B205" t="s">
-        <v>4</v>
+        <v>44186</v>
+      </c>
+      <c r="B205">
+        <v>248.15</v>
       </c>
       <c r="C205">
-        <v>174.89</v>
-      </c>
-      <c r="D205" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D205">
+        <v>36.56</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B206" t="s">
-        <v>4</v>
+        <v>44187</v>
+      </c>
+      <c r="B206">
+        <v>227.71</v>
       </c>
       <c r="C206">
-        <v>174.89</v>
-      </c>
-      <c r="D206" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D206">
+        <v>25.31</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B207" t="s">
-        <v>4</v>
+        <v>44188</v>
+      </c>
+      <c r="B207">
+        <v>221.81</v>
       </c>
       <c r="C207">
-        <v>174.89</v>
-      </c>
-      <c r="D207" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D207">
+        <v>22.07</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B208" t="s">
-        <v>4</v>
+        <v>44189</v>
+      </c>
+      <c r="B208">
+        <v>218.5</v>
       </c>
       <c r="C208">
-        <v>174.89</v>
-      </c>
-      <c r="D208" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D208">
+        <v>20.25</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B209" t="s">
-        <v>4</v>
+        <v>44190</v>
+      </c>
+      <c r="B209">
+        <v>215.64</v>
       </c>
       <c r="C209">
-        <v>174.89</v>
-      </c>
-      <c r="D209" t="s">
-        <v>4</v>
+        <v>181.71</v>
+      </c>
+      <c r="D209">
+        <v>18.67</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44070</v>
+        <v>44191</v>
       </c>
       <c r="B210">
-        <v>168</v>
+        <v>214.84</v>
       </c>
       <c r="C210">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D210">
-        <v>-3.94</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44071</v>
+        <v>44192</v>
       </c>
       <c r="B211">
-        <v>166.02</v>
+        <v>214.56</v>
       </c>
       <c r="C211">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D211">
-        <v>-5.07</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44072</v>
+        <v>44193</v>
       </c>
       <c r="B212">
-        <v>163.91</v>
+        <v>216.76</v>
       </c>
       <c r="C212">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D212">
-        <v>-6.28</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44073</v>
+        <v>44194</v>
       </c>
       <c r="B213">
-        <v>163.57</v>
+        <v>217.34</v>
       </c>
       <c r="C213">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D213">
-        <v>-6.47</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44074</v>
+        <v>44195</v>
       </c>
       <c r="B214">
-        <v>163.34</v>
+        <v>220.83</v>
       </c>
       <c r="C214">
-        <v>174.89</v>
+        <v>181.71</v>
       </c>
       <c r="D214">
-        <v>-6.6</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44075</v>
+        <v>44196</v>
       </c>
       <c r="B215">
-        <v>163.19</v>
+        <v>235.2</v>
       </c>
       <c r="C215">
-        <v>176.98</v>
+        <v>181.71</v>
       </c>
       <c r="D215">
-        <v>-7.79</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44076</v>
+        <v>44197</v>
       </c>
       <c r="B216">
-        <v>163.4</v>
+        <v>231.89</v>
       </c>
       <c r="C216">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D216">
-        <v>-7.67</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44077</v>
+        <v>44198</v>
       </c>
       <c r="B217">
-        <v>163.84</v>
+        <v>225.55</v>
       </c>
       <c r="C217">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D217">
-        <v>-7.42</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44078</v>
+        <v>44199</v>
       </c>
       <c r="B218">
-        <v>165.86</v>
+        <v>223.32</v>
       </c>
       <c r="C218">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D218">
-        <v>-6.28</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44079</v>
+        <v>44200</v>
       </c>
       <c r="B219">
-        <v>166.83</v>
+        <v>219.08</v>
       </c>
       <c r="C219">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D219">
-        <v>-5.73</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44080</v>
+        <v>44201</v>
       </c>
       <c r="B220">
-        <v>166.53</v>
+        <v>218.74</v>
       </c>
       <c r="C220">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D220">
-        <v>-5.9</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44081</v>
+        <v>44202</v>
       </c>
       <c r="B221">
-        <v>165.84</v>
+        <v>219.53</v>
       </c>
       <c r="C221">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D221">
-        <v>-6.29</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44082</v>
+        <v>44203</v>
       </c>
       <c r="B222">
-        <v>165.6</v>
+        <v>222.94</v>
       </c>
       <c r="C222">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D222">
-        <v>-6.43</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44083</v>
+        <v>44204</v>
       </c>
       <c r="B223">
-        <v>165.57</v>
+        <v>233.9</v>
       </c>
       <c r="C223">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D223">
-        <v>-6.44</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44084</v>
+        <v>44205</v>
       </c>
       <c r="B224">
-        <v>165.97</v>
+        <v>241.69</v>
       </c>
       <c r="C224">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D224">
-        <v>-6.22</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44085</v>
+        <v>44206</v>
       </c>
       <c r="B225">
-        <v>165.53</v>
+        <v>228.45</v>
       </c>
       <c r="C225">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D225">
-        <v>-6.47</v>
+        <v>21.61</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44086</v>
+        <v>44207</v>
       </c>
       <c r="B226">
-        <v>165.31</v>
+        <v>226.41</v>
       </c>
       <c r="C226">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D226">
-        <v>-6.59</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44087</v>
+        <v>44208</v>
       </c>
       <c r="B227">
-        <v>168.38</v>
+        <v>223.28</v>
       </c>
       <c r="C227">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D227">
-        <v>-4.86</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44088</v>
+        <v>44209</v>
       </c>
       <c r="B228">
-        <v>168.35</v>
+        <v>225.45</v>
       </c>
       <c r="C228">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D228">
-        <v>-4.87</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44089</v>
+        <v>44210</v>
       </c>
       <c r="B229">
-        <v>167.46</v>
+        <v>224.29</v>
       </c>
       <c r="C229">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D229">
-        <v>-5.38</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44090</v>
+        <v>44211</v>
       </c>
       <c r="B230">
-        <v>167.96</v>
+        <v>224.44</v>
       </c>
       <c r="C230">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D230">
-        <v>-5.1</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44091</v>
+        <v>44212</v>
       </c>
       <c r="B231">
-        <v>168.78</v>
+        <v>229.57</v>
       </c>
       <c r="C231">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D231">
-        <v>-4.63</v>
+        <v>22.21</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44092</v>
+        <v>44213</v>
       </c>
       <c r="B232">
-        <v>168.39</v>
+        <v>229.5</v>
       </c>
       <c r="C232">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D232">
-        <v>-4.85</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44093</v>
+        <v>44214</v>
       </c>
       <c r="B233">
-        <v>168.24</v>
+        <v>261.75</v>
       </c>
       <c r="C233">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D233">
-        <v>-4.94</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44094</v>
+        <v>44215</v>
       </c>
       <c r="B234">
-        <v>167.29</v>
+        <v>282.46</v>
       </c>
       <c r="C234">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D234">
-        <v>-5.47</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44095</v>
+        <v>44216</v>
       </c>
       <c r="B235">
-        <v>167.1</v>
+        <v>246.8</v>
       </c>
       <c r="C235">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D235">
-        <v>-5.58</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44096</v>
+        <v>44217</v>
       </c>
       <c r="B236">
-        <v>167.38</v>
+        <v>239.92</v>
       </c>
       <c r="C236">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D236">
-        <v>-5.42</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44097</v>
+        <v>44218</v>
       </c>
       <c r="B237">
-        <v>167.92</v>
+        <v>242.48</v>
       </c>
       <c r="C237">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D237">
-        <v>-5.12</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44098</v>
+        <v>44219</v>
       </c>
       <c r="B238">
-        <v>168.68</v>
+        <v>259.32</v>
       </c>
       <c r="C238">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D238">
-        <v>-4.69</v>
+        <v>38.04</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44099</v>
+        <v>44220</v>
       </c>
       <c r="B239">
-        <v>168.22</v>
+        <v>257.82</v>
       </c>
       <c r="C239">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D239">
-        <v>-4.95</v>
+        <v>37.24</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44100</v>
+        <v>44221</v>
       </c>
       <c r="B240">
-        <v>167.75</v>
+        <v>247.48</v>
       </c>
       <c r="C240">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D240">
-        <v>-5.21</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44101</v>
+        <v>44222</v>
       </c>
       <c r="B241">
-        <v>167.59</v>
+        <v>247.49</v>
       </c>
       <c r="C241">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D241">
-        <v>-5.3</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44102</v>
+        <v>44223</v>
       </c>
       <c r="B242">
-        <v>167.93</v>
+        <v>248.75</v>
       </c>
       <c r="C242">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D242">
-        <v>-5.11</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44103</v>
+        <v>44224</v>
       </c>
       <c r="B243">
-        <v>169.27</v>
+        <v>248.2</v>
       </c>
       <c r="C243">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D243">
-        <v>-4.35</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44104</v>
+        <v>44225</v>
       </c>
       <c r="B244">
-        <v>169.3</v>
+        <v>242.64</v>
       </c>
       <c r="C244">
-        <v>176.98</v>
+        <v>187.86</v>
       </c>
       <c r="D244">
-        <v>-4.34</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44105</v>
+        <v>44226</v>
       </c>
       <c r="B245">
-        <v>168.71</v>
+        <v>306.29</v>
       </c>
       <c r="C245">
-        <v>180.02</v>
+        <v>187.86</v>
       </c>
       <c r="D245">
-        <v>-6.28</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44106</v>
+        <v>44227</v>
       </c>
       <c r="B246">
-        <v>168.07</v>
+        <v>274.2</v>
       </c>
       <c r="C246">
-        <v>180.02</v>
+        <v>187.86</v>
       </c>
       <c r="D246">
-        <v>-6.64</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44107</v>
+        <v>44228</v>
       </c>
       <c r="B247">
-        <v>167.36</v>
+        <v>260.83</v>
       </c>
       <c r="C247">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D247">
-        <v>-7.03</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44108</v>
+        <v>44229</v>
       </c>
       <c r="B248">
-        <v>166.82</v>
+        <v>258.7</v>
       </c>
       <c r="C248">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D248">
-        <v>-7.33</v>
+        <v>41.78</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44109</v>
+        <v>44230</v>
       </c>
       <c r="B249">
-        <v>167.11</v>
+        <v>250.23</v>
       </c>
       <c r="C249">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D249">
-        <v>-7.17</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44110</v>
+        <v>44231</v>
       </c>
       <c r="B250">
-        <v>167.4</v>
+        <v>246.91</v>
       </c>
       <c r="C250">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D250">
-        <v>-7.01</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44111</v>
+        <v>44232</v>
       </c>
       <c r="B251">
-        <v>167.27</v>
+        <v>243.44</v>
       </c>
       <c r="C251">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D251">
-        <v>-7.08</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44112</v>
+        <v>44233</v>
       </c>
       <c r="B252">
-        <v>169.85</v>
+        <v>238.57</v>
       </c>
       <c r="C252">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D252">
-        <v>-5.65</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44113</v>
+        <v>44234</v>
       </c>
       <c r="B253">
-        <v>177.24</v>
+        <v>236.16</v>
       </c>
       <c r="C253">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D253">
-        <v>-1.54</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44114</v>
+        <v>44235</v>
       </c>
       <c r="B254">
-        <v>175.45</v>
+        <v>234.71</v>
       </c>
       <c r="C254">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D254">
-        <v>-2.54</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44115</v>
+        <v>44236</v>
       </c>
       <c r="B255">
-        <v>168.59</v>
+        <v>234.47</v>
       </c>
       <c r="C255">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D255">
-        <v>-6.35</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44116</v>
+        <v>44237</v>
       </c>
       <c r="B256">
-        <v>168.29</v>
+        <v>234.43</v>
       </c>
       <c r="C256">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D256">
-        <v>-6.52</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44117</v>
+        <v>44238</v>
       </c>
       <c r="B257">
-        <v>168.96</v>
+        <v>234.52</v>
       </c>
       <c r="C257">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D257">
-        <v>-6.15</v>
+        <v>28.53</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44118</v>
+        <v>44239</v>
       </c>
       <c r="B258">
-        <v>169.74</v>
+        <v>235.02</v>
       </c>
       <c r="C258">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D258">
-        <v>-5.71</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44119</v>
+        <v>44240</v>
       </c>
       <c r="B259">
-        <v>169.82</v>
+        <v>240.04</v>
       </c>
       <c r="C259">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D259">
-        <v>-5.66</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44120</v>
+        <v>44241</v>
       </c>
       <c r="B260">
-        <v>169.33</v>
+        <v>246.97</v>
       </c>
       <c r="C260">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D260">
-        <v>-5.94</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44121</v>
+        <v>44242</v>
       </c>
       <c r="B261">
-        <v>167.67</v>
+        <v>243.56</v>
       </c>
       <c r="C261">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D261">
-        <v>-6.86</v>
+        <v>33.48</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44122</v>
+        <v>44243</v>
       </c>
       <c r="B262">
-        <v>167.96</v>
+        <v>247.97</v>
       </c>
       <c r="C262">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D262">
-        <v>-6.7</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44123</v>
+        <v>44244</v>
       </c>
       <c r="B263">
-        <v>170.15</v>
+        <v>241.26</v>
       </c>
       <c r="C263">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D263">
-        <v>-5.49</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44124</v>
+        <v>44245</v>
       </c>
       <c r="B264">
-        <v>172.44</v>
+        <v>240.11</v>
       </c>
       <c r="C264">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D264">
-        <v>-4.21</v>
+        <v>31.59</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44125</v>
+        <v>44246</v>
       </c>
       <c r="B265">
-        <v>188.45</v>
+        <v>239.25</v>
       </c>
       <c r="C265">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D265">
-        <v>4.68</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44126</v>
+        <v>44247</v>
       </c>
       <c r="B266">
-        <v>170.88</v>
+        <v>239.34</v>
       </c>
       <c r="C266">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D266">
-        <v>-5.08</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44127</v>
+        <v>44248</v>
       </c>
       <c r="B267">
-        <v>169.74</v>
+        <v>239.7</v>
       </c>
       <c r="C267">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D267">
-        <v>-5.71</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44128</v>
+        <v>44249</v>
       </c>
       <c r="B268">
-        <v>170.58</v>
+        <v>240</v>
       </c>
       <c r="C268">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D268">
-        <v>-5.24</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44129</v>
+        <v>44250</v>
       </c>
       <c r="B269">
-        <v>172.81</v>
+        <v>240.5</v>
       </c>
       <c r="C269">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D269">
-        <v>-4</v>
+        <v>31.81</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44130</v>
+        <v>44251</v>
       </c>
       <c r="B270">
-        <v>171.71</v>
+        <v>245.05</v>
       </c>
       <c r="C270">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D270">
-        <v>-4.62</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44131</v>
+        <v>44252</v>
       </c>
       <c r="B271">
-        <v>171.23</v>
+        <v>249.97</v>
       </c>
       <c r="C271">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D271">
-        <v>-4.88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44132</v>
+        <v>44253</v>
       </c>
       <c r="B272">
-        <v>170.76</v>
+        <v>249.15</v>
       </c>
       <c r="C272">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D272">
-        <v>-5.14</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44133</v>
+        <v>44254</v>
       </c>
       <c r="B273">
-        <v>172.07</v>
+        <v>244.89</v>
       </c>
       <c r="C273">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D273">
-        <v>-4.41</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44134</v>
+        <v>44255</v>
       </c>
       <c r="B274">
-        <v>198.05</v>
+        <v>247.85</v>
       </c>
       <c r="C274">
-        <v>180.02</v>
+        <v>182.47</v>
       </c>
       <c r="D274">
-        <v>10.02</v>
+        <v>35.84</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44135</v>
+        <v>44256</v>
       </c>
       <c r="B275">
-        <v>179.88</v>
+        <v>265.46</v>
       </c>
       <c r="C275">
-        <v>180.02</v>
+        <v>183.71</v>
       </c>
       <c r="D275">
-        <v>-0.08</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44136</v>
+        <v>44257</v>
       </c>
       <c r="B276">
-        <v>176.68</v>
+        <v>267.36</v>
       </c>
       <c r="C276">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D276">
-        <v>-1.49</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44137</v>
+        <v>44258</v>
       </c>
       <c r="B277">
-        <v>176.21</v>
+        <v>274.8</v>
       </c>
       <c r="C277">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D277">
-        <v>-1.75</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44138</v>
+        <v>44259</v>
       </c>
       <c r="B278">
-        <v>177.35</v>
+        <v>276.12</v>
       </c>
       <c r="C278">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D278">
-        <v>-1.11</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44139</v>
+        <v>44260</v>
       </c>
       <c r="B279">
-        <v>184.46</v>
+        <v>272.77</v>
       </c>
       <c r="C279">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D279">
-        <v>2.85</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44140</v>
+        <v>44261</v>
       </c>
       <c r="B280">
-        <v>186.83</v>
+        <v>267.18</v>
       </c>
       <c r="C280">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D280">
-        <v>4.18</v>
+        <v>45.43</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44141</v>
+        <v>44262</v>
       </c>
       <c r="B281">
-        <v>181.56</v>
+        <v>289.36</v>
       </c>
       <c r="C281">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D281">
-        <v>1.24</v>
+        <v>57.51</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44142</v>
+        <v>44263</v>
       </c>
       <c r="B282">
-        <v>180.99</v>
+        <v>266.71</v>
       </c>
       <c r="C282">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D282">
-        <v>0.92</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44143</v>
+        <v>44264</v>
       </c>
       <c r="B283">
-        <v>181</v>
+        <v>268.85</v>
       </c>
       <c r="C283">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D283">
-        <v>0.92</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44144</v>
+        <v>44265</v>
       </c>
       <c r="B284">
-        <v>182.56</v>
+        <v>266.73</v>
       </c>
       <c r="C284">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D284">
-        <v>1.8</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44145</v>
+        <v>44266</v>
       </c>
       <c r="B285">
-        <v>255.75</v>
+        <v>214.26</v>
       </c>
       <c r="C285">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D285">
-        <v>42.6</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44146</v>
+        <v>44267</v>
       </c>
       <c r="B286">
-        <v>237.01</v>
+        <v>169.51</v>
       </c>
       <c r="C286">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D286">
-        <v>32.16</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44147</v>
+        <v>44268</v>
       </c>
       <c r="B287">
-        <v>236.95</v>
+        <v>168.08</v>
       </c>
       <c r="C287">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D287">
-        <v>32.12</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44148</v>
+        <v>44269</v>
       </c>
       <c r="B288">
-        <v>219.59</v>
+        <v>167.58</v>
       </c>
       <c r="C288">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D288">
-        <v>22.44</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44149</v>
+        <v>44270</v>
       </c>
       <c r="B289">
-        <v>215.9</v>
+        <v>170.93</v>
       </c>
       <c r="C289">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D289">
-        <v>20.38</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44150</v>
+        <v>44271</v>
       </c>
       <c r="B290">
-        <v>213.68</v>
+        <v>167.41</v>
       </c>
       <c r="C290">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D290">
-        <v>19.15</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44151</v>
+        <v>44272</v>
       </c>
       <c r="B291">
-        <v>216.01</v>
+        <v>167.35</v>
       </c>
       <c r="C291">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D291">
-        <v>20.45</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44152</v>
+        <v>44273</v>
       </c>
       <c r="B292">
-        <v>207.39</v>
+        <v>167.19</v>
       </c>
       <c r="C292">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D292">
-        <v>15.64</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44153</v>
+        <v>44274</v>
       </c>
       <c r="B293">
-        <v>204.34</v>
+        <v>166.48</v>
       </c>
       <c r="C293">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D293">
-        <v>13.94</v>
+        <v>-9.380000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44154</v>
+        <v>44275</v>
       </c>
       <c r="B294">
-        <v>215.38</v>
+        <v>166.52</v>
       </c>
       <c r="C294">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D294">
-        <v>20.1</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44155</v>
+        <v>44276</v>
       </c>
       <c r="B295">
-        <v>208.71</v>
+        <v>167.23</v>
       </c>
       <c r="C295">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D295">
-        <v>16.38</v>
+        <v>-8.970000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44156</v>
+        <v>44277</v>
       </c>
       <c r="B296">
-        <v>205.71</v>
+        <v>168.51</v>
       </c>
       <c r="C296">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D296">
-        <v>14.7</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44157</v>
+        <v>44278</v>
       </c>
       <c r="B297">
-        <v>204.64</v>
+        <v>171.16</v>
       </c>
       <c r="C297">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D297">
-        <v>14.1</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44158</v>
+        <v>44279</v>
       </c>
       <c r="B298">
-        <v>202.69</v>
+        <v>168.44</v>
       </c>
       <c r="C298">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D298">
-        <v>13.02</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44159</v>
+        <v>44280</v>
       </c>
       <c r="B299">
-        <v>199.35</v>
+        <v>167.97</v>
       </c>
       <c r="C299">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D299">
-        <v>11.16</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="B300">
-        <v>197.32</v>
+        <v>168.06</v>
       </c>
       <c r="C300">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D300">
-        <v>10.03</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44161</v>
+        <v>44282</v>
       </c>
       <c r="B301">
-        <v>196.23</v>
+        <v>167.56</v>
       </c>
       <c r="C301">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D301">
-        <v>9.42</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44162</v>
+        <v>44283</v>
       </c>
       <c r="B302">
-        <v>202.62</v>
+        <v>168.68</v>
       </c>
       <c r="C302">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D302">
-        <v>12.98</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44163</v>
+        <v>44284</v>
       </c>
       <c r="B303">
-        <v>208.7</v>
+        <v>169.12</v>
       </c>
       <c r="C303">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D303">
-        <v>16.37</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44164</v>
+        <v>44285</v>
       </c>
       <c r="B304">
-        <v>202.72</v>
+        <v>169.58</v>
       </c>
       <c r="C304">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D304">
-        <v>13.03</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B305">
-        <v>200.68</v>
+        <v>168.28</v>
       </c>
       <c r="C305">
-        <v>179.34</v>
+        <v>183.71</v>
       </c>
       <c r="D305">
-        <v>11.9</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44166</v>
+        <v>44287</v>
       </c>
       <c r="B306">
-        <v>198.94</v>
+        <v>167.08</v>
       </c>
       <c r="C306">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D306">
-        <v>9.48</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44167</v>
+        <v>44288</v>
       </c>
       <c r="B307">
-        <v>200.27</v>
+        <v>167.81</v>
       </c>
       <c r="C307">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D307">
-        <v>10.21</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44168</v>
+        <v>44289</v>
       </c>
       <c r="B308">
-        <v>203.34</v>
+        <v>168.24</v>
       </c>
       <c r="C308">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D308">
-        <v>11.9</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44169</v>
+        <v>44290</v>
       </c>
       <c r="B309">
-        <v>205.33</v>
+        <v>168.86</v>
       </c>
       <c r="C309">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D309">
-        <v>13</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44170</v>
+        <v>44291</v>
       </c>
       <c r="B310">
-        <v>211.64</v>
+        <v>169.2</v>
       </c>
       <c r="C310">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D310">
-        <v>16.47</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44171</v>
+        <v>44292</v>
       </c>
       <c r="B311">
-        <v>210.33</v>
+        <v>169.49</v>
       </c>
       <c r="C311">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D311">
-        <v>15.75</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44172</v>
+        <v>44293</v>
       </c>
       <c r="B312">
-        <v>208.63</v>
+        <v>170.41</v>
       </c>
       <c r="C312">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D312">
-        <v>14.81</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44173</v>
+        <v>44294</v>
       </c>
       <c r="B313">
-        <v>208.33</v>
+        <v>170.06</v>
       </c>
       <c r="C313">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D313">
-        <v>14.65</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44174</v>
+        <v>44295</v>
       </c>
       <c r="B314">
-        <v>207.66</v>
+        <v>169.95</v>
       </c>
       <c r="C314">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D314">
-        <v>14.28</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44175</v>
+        <v>44296</v>
       </c>
       <c r="B315">
-        <v>207.71</v>
+        <v>170.25</v>
       </c>
       <c r="C315">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D315">
-        <v>14.31</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44176</v>
+        <v>44297</v>
       </c>
       <c r="B316">
-        <v>208.77</v>
+        <v>169.86</v>
       </c>
       <c r="C316">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D316">
-        <v>14.89</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44177</v>
+        <v>44298</v>
       </c>
       <c r="B317">
-        <v>208.74</v>
+        <v>170.04</v>
       </c>
       <c r="C317">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D317">
-        <v>14.87</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44178</v>
+        <v>44299</v>
       </c>
       <c r="B318">
-        <v>213.19</v>
+        <v>170.51</v>
       </c>
       <c r="C318">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D318">
-        <v>17.32</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44179</v>
+        <v>44300</v>
       </c>
       <c r="B319">
-        <v>214.96</v>
+        <v>170.39</v>
       </c>
       <c r="C319">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D319">
-        <v>18.3</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44180</v>
+        <v>44301</v>
       </c>
       <c r="B320">
-        <v>215.64</v>
+        <v>171.54</v>
       </c>
       <c r="C320">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D320">
-        <v>18.67</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44181</v>
+        <v>44302</v>
       </c>
       <c r="B321">
-        <v>217.72</v>
+        <v>172.05</v>
       </c>
       <c r="C321">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D321">
-        <v>19.82</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44182</v>
+        <v>44303</v>
       </c>
       <c r="B322">
-        <v>235.19</v>
+        <v>172.79</v>
       </c>
       <c r="C322">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D322">
-        <v>29.43</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44183</v>
+        <v>44304</v>
       </c>
       <c r="B323">
-        <v>227.26</v>
+        <v>174.25</v>
       </c>
       <c r="C323">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D323">
-        <v>25.07</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44184</v>
+        <v>44305</v>
       </c>
       <c r="B324">
-        <v>241.16</v>
+        <v>173.8</v>
       </c>
       <c r="C324">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D324">
-        <v>32.71</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44185</v>
+        <v>44306</v>
       </c>
       <c r="B325">
-        <v>243.26</v>
+        <v>173.08</v>
       </c>
       <c r="C325">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D325">
-        <v>33.87</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44186</v>
+        <v>44307</v>
       </c>
       <c r="B326">
-        <v>248.15</v>
+        <v>173.21</v>
       </c>
       <c r="C326">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D326">
-        <v>36.56</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="B327">
-        <v>227.71</v>
+        <v>173.15</v>
       </c>
       <c r="C327">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D327">
-        <v>25.31</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="B328">
-        <v>221.81</v>
+        <v>172.27</v>
       </c>
       <c r="C328">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D328">
-        <v>22.07</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44189</v>
+        <v>44310</v>
       </c>
       <c r="B329">
-        <v>218.5</v>
+        <v>172.65</v>
       </c>
       <c r="C329">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D329">
-        <v>20.25</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44190</v>
+        <v>44311</v>
       </c>
       <c r="B330">
-        <v>215.64</v>
+        <v>173.26</v>
       </c>
       <c r="C330">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D330">
-        <v>18.67</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44191</v>
+        <v>44312</v>
       </c>
       <c r="B331">
-        <v>214.84</v>
+        <v>174.08</v>
       </c>
       <c r="C331">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D331">
-        <v>18.23</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44192</v>
+        <v>44313</v>
       </c>
       <c r="B332">
-        <v>214.56</v>
+        <v>174.64</v>
       </c>
       <c r="C332">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D332">
-        <v>18.08</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44193</v>
+        <v>44314</v>
       </c>
       <c r="B333">
-        <v>216.76</v>
+        <v>174.27</v>
       </c>
       <c r="C333">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D333">
-        <v>19.29</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44194</v>
+        <v>44315</v>
       </c>
       <c r="B334">
-        <v>217.34</v>
+        <v>173.52</v>
       </c>
       <c r="C334">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D334">
-        <v>19.61</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44195</v>
+        <v>44316</v>
       </c>
       <c r="B335">
-        <v>220.83</v>
+        <v>173.7</v>
       </c>
       <c r="C335">
-        <v>181.71</v>
+        <v>177.26</v>
       </c>
       <c r="D335">
-        <v>21.53</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44196</v>
+        <v>44317</v>
       </c>
       <c r="B336">
-        <v>235.2</v>
+        <v>173.31</v>
       </c>
       <c r="C336">
-        <v>181.71</v>
+        <v>180.46</v>
       </c>
       <c r="D336">
-        <v>29.44</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44197</v>
+        <v>44318</v>
       </c>
       <c r="B337">
-        <v>231.89</v>
+        <v>174.85</v>
       </c>
       <c r="C337">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D337">
-        <v>23.44</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44198</v>
+        <v>44319</v>
       </c>
       <c r="B338">
-        <v>225.55</v>
+        <v>174.89</v>
       </c>
       <c r="C338">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D338">
-        <v>20.06</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44199</v>
+        <v>44320</v>
       </c>
       <c r="B339">
-        <v>223.32</v>
+        <v>175</v>
       </c>
       <c r="C339">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D339">
-        <v>18.88</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44200</v>
+        <v>44321</v>
       </c>
       <c r="B340">
-        <v>219.08</v>
+        <v>174.56</v>
       </c>
       <c r="C340">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D340">
-        <v>16.62</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44201</v>
+        <v>44322</v>
       </c>
       <c r="B341">
-        <v>218.74</v>
+        <v>174.79</v>
       </c>
       <c r="C341">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D341">
-        <v>16.44</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44202</v>
+        <v>44323</v>
       </c>
       <c r="B342">
-        <v>219.53</v>
+        <v>176.39</v>
       </c>
       <c r="C342">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D342">
-        <v>16.86</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44203</v>
+        <v>44324</v>
       </c>
       <c r="B343">
-        <v>222.94</v>
+        <v>173.33</v>
       </c>
       <c r="C343">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D343">
-        <v>18.67</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44204</v>
+        <v>44325</v>
       </c>
       <c r="B344">
-        <v>233.9</v>
+        <v>172.97</v>
       </c>
       <c r="C344">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D344">
-        <v>24.51</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44205</v>
+        <v>44326</v>
       </c>
       <c r="B345">
-        <v>241.69</v>
+        <v>172.84</v>
       </c>
       <c r="C345">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D345">
-        <v>28.65</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44206</v>
+        <v>44327</v>
       </c>
       <c r="B346">
-        <v>228.45</v>
+        <v>172.77</v>
       </c>
       <c r="C346">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D346">
-        <v>21.61</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44207</v>
+        <v>44328</v>
       </c>
       <c r="B347">
-        <v>226.41</v>
+        <v>187.24</v>
       </c>
       <c r="C347">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D347">
-        <v>20.52</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="B348">
-        <v>223.28</v>
+        <v>185.41</v>
       </c>
       <c r="C348">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D348">
-        <v>18.86</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44209</v>
+        <v>44330</v>
       </c>
       <c r="B349">
-        <v>225.45</v>
+        <v>175.34</v>
       </c>
       <c r="C349">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D349">
-        <v>20.01</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44210</v>
+        <v>44331</v>
       </c>
       <c r="B350">
-        <v>224.29</v>
+        <v>174.4</v>
       </c>
       <c r="C350">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D350">
-        <v>19.39</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44211</v>
+        <v>44332</v>
       </c>
       <c r="B351">
-        <v>224.44</v>
+        <v>173.94</v>
       </c>
       <c r="C351">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D351">
-        <v>19.47</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44212</v>
+        <v>44333</v>
       </c>
       <c r="B352">
-        <v>229.57</v>
+        <v>174.05</v>
       </c>
       <c r="C352">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D352">
-        <v>22.21</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44213</v>
+        <v>44334</v>
       </c>
       <c r="B353">
-        <v>229.5</v>
+        <v>173.96</v>
       </c>
       <c r="C353">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D353">
-        <v>22.17</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44214</v>
+        <v>44335</v>
       </c>
       <c r="B354">
-        <v>261.75</v>
+        <v>173.16</v>
       </c>
       <c r="C354">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D354">
-        <v>39.33</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44215</v>
+        <v>44336</v>
       </c>
       <c r="B355">
-        <v>282.46</v>
+        <v>172.34</v>
       </c>
       <c r="C355">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D355">
-        <v>50.36</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44216</v>
+        <v>44337</v>
       </c>
       <c r="B356">
-        <v>246.8</v>
+        <v>173.06</v>
       </c>
       <c r="C356">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D356">
-        <v>31.38</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44217</v>
+        <v>44338</v>
       </c>
       <c r="B357">
-        <v>239.92</v>
+        <v>178.39</v>
       </c>
       <c r="C357">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D357">
-        <v>27.71</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44218</v>
+        <v>44339</v>
       </c>
       <c r="B358">
-        <v>242.48</v>
+        <v>177.73</v>
       </c>
       <c r="C358">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D358">
-        <v>29.08</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44219</v>
+        <v>44340</v>
       </c>
       <c r="B359">
-        <v>259.32</v>
+        <v>173.09</v>
       </c>
       <c r="C359">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D359">
-        <v>38.04</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44220</v>
+        <v>44341</v>
       </c>
       <c r="B360">
-        <v>257.82</v>
+        <v>171.23</v>
       </c>
       <c r="C360">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D360">
-        <v>37.24</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44221</v>
+        <v>44342</v>
       </c>
       <c r="B361">
-        <v>247.48</v>
+        <v>170.81</v>
       </c>
       <c r="C361">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D361">
-        <v>31.74</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44222</v>
+        <v>44343</v>
       </c>
       <c r="B362">
-        <v>247.49</v>
+        <v>172.34</v>
       </c>
       <c r="C362">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D362">
-        <v>31.74</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44223</v>
+        <v>44344</v>
       </c>
       <c r="B363">
-        <v>248.75</v>
+        <v>173.6</v>
       </c>
       <c r="C363">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D363">
-        <v>32.41</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44224</v>
+        <v>44345</v>
       </c>
       <c r="B364">
-        <v>248.2</v>
+        <v>175.54</v>
       </c>
       <c r="C364">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D364">
-        <v>32.12</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44225</v>
+        <v>44346</v>
       </c>
       <c r="B365">
-        <v>242.64</v>
+        <v>200.05</v>
       </c>
       <c r="C365">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D365">
-        <v>29.16</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44226</v>
+        <v>44347</v>
       </c>
       <c r="B366">
-        <v>306.29</v>
+        <v>184.03</v>
       </c>
       <c r="C366">
-        <v>187.86</v>
+        <v>180.46</v>
       </c>
       <c r="D366">
-        <v>63.04</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B367">
-        <v>274.2</v>
-      </c>
-      <c r="C367">
-        <v>187.86</v>
-      </c>
-      <c r="D367">
-        <v>45.96</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B368">
-        <v>260.83</v>
-      </c>
-      <c r="C368">
-        <v>182.47</v>
-      </c>
-      <c r="D368">
-        <v>42.95</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44229</v>
-      </c>
-      <c r="B369">
-        <v>258.7</v>
-      </c>
-      <c r="C369">
-        <v>182.47</v>
-      </c>
-      <c r="D369">
-        <v>41.78</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44230</v>
-      </c>
-      <c r="B370">
-        <v>250.23</v>
-      </c>
-      <c r="C370">
-        <v>182.47</v>
-      </c>
-      <c r="D370">
-        <v>37.14</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B371">
-        <v>246.91</v>
-      </c>
-      <c r="C371">
-        <v>182.47</v>
-      </c>
-      <c r="D371">
-        <v>35.32</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44232</v>
-      </c>
-      <c r="B372">
-        <v>243.44</v>
-      </c>
-      <c r="C372">
-        <v>182.47</v>
-      </c>
-      <c r="D372">
-        <v>33.42</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44233</v>
-      </c>
-      <c r="B373">
-        <v>238.57</v>
-      </c>
-      <c r="C373">
-        <v>182.47</v>
-      </c>
-      <c r="D373">
-        <v>30.75</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44234</v>
-      </c>
-      <c r="B374">
-        <v>236.16</v>
-      </c>
-      <c r="C374">
-        <v>182.47</v>
-      </c>
-      <c r="D374">
-        <v>29.43</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B375">
-        <v>234.71</v>
-      </c>
-      <c r="C375">
-        <v>182.47</v>
-      </c>
-      <c r="D375">
-        <v>28.63</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44236</v>
-      </c>
-      <c r="B376">
-        <v>234.47</v>
-      </c>
-      <c r="C376">
-        <v>182.47</v>
-      </c>
-      <c r="D376">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44237</v>
-      </c>
-      <c r="B377">
-        <v>234.43</v>
-      </c>
-      <c r="C377">
-        <v>182.47</v>
-      </c>
-      <c r="D377">
-        <v>28.48</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B378">
-        <v>234.52</v>
-      </c>
-      <c r="C378">
-        <v>182.47</v>
-      </c>
-      <c r="D378">
-        <v>28.53</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44239</v>
-      </c>
-      <c r="B379">
-        <v>235.02</v>
-      </c>
-      <c r="C379">
-        <v>182.47</v>
-      </c>
-      <c r="D379">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44240</v>
-      </c>
-      <c r="B380">
-        <v>240.04</v>
-      </c>
-      <c r="C380">
-        <v>182.47</v>
-      </c>
-      <c r="D380">
-        <v>31.55</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44241</v>
-      </c>
-      <c r="B381">
-        <v>246.97</v>
-      </c>
-      <c r="C381">
-        <v>182.47</v>
-      </c>
-      <c r="D381">
-        <v>35.35</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B382">
-        <v>243.56</v>
-      </c>
-      <c r="C382">
-        <v>182.47</v>
-      </c>
-      <c r="D382">
-        <v>33.48</v>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/81139500_cerro_azul_montante.xlsx
@@ -420,170 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B2">
-        <v>194.73</v>
+        <v>175.95</v>
       </c>
       <c r="C2">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D2">
-        <v>7.02</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B3">
-        <v>175.95</v>
+        <v>161.98</v>
       </c>
       <c r="C3">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D3">
-        <v>-1.18</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B4">
-        <v>161.98</v>
+        <v>166.98</v>
       </c>
       <c r="C4">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D4">
-        <v>-7.38</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B5">
-        <v>166.98</v>
+        <v>171.76</v>
       </c>
       <c r="C5">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D5">
-        <v>-5.65</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B6">
-        <v>171.76</v>
+        <v>202.63</v>
       </c>
       <c r="C6">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D6">
-        <v>-4.59</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B7">
-        <v>202.63</v>
+        <v>217.4</v>
       </c>
       <c r="C7">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D7">
-        <v>12.99</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B8">
-        <v>217.4</v>
+        <v>240.44</v>
       </c>
       <c r="C8">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D8">
-        <v>19.64</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B9">
-        <v>240.44</v>
+        <v>242.99</v>
       </c>
       <c r="C9">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D9">
-        <v>27.99</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B10">
-        <v>242.99</v>
+        <v>203.07</v>
       </c>
       <c r="C10">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D10">
-        <v>33.17</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B11">
-        <v>203.07</v>
+        <v>171.48</v>
       </c>
       <c r="C11">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D11">
-        <v>10.54</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B12">
-        <v>171.48</v>
+        <v>175.98</v>
       </c>
       <c r="C12">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D12">
-        <v>-3.26</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B13">
-        <v>175.98</v>
+        <v>181.47</v>
       </c>
       <c r="C13">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D13">
-        <v>-2.48</v>
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -620,5112 +620,5112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>182.23</v>
+        <v>223.74</v>
       </c>
       <c r="C2">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D2">
-        <v>0.15</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B3">
-        <v>191.3</v>
+        <v>204.38</v>
       </c>
       <c r="C3">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D3">
-        <v>5.14</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>188.88</v>
+        <v>199.14</v>
       </c>
       <c r="C4">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D4">
-        <v>3.81</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>186</v>
+        <v>197.18</v>
       </c>
       <c r="C5">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D5">
-        <v>2.23</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>192.16</v>
+        <v>195.84</v>
       </c>
       <c r="C6">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D6">
-        <v>5.61</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B7">
-        <v>200.12</v>
+        <v>195.05</v>
       </c>
       <c r="C7">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D7">
-        <v>9.99</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B8">
-        <v>191.83</v>
+        <v>194.69</v>
       </c>
       <c r="C8">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D8">
-        <v>5.43</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B9">
-        <v>187.4</v>
+        <v>194.06</v>
       </c>
       <c r="C9">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D9">
-        <v>2.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B10">
-        <v>191.68</v>
+        <v>193.58</v>
       </c>
       <c r="C10">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D10">
-        <v>5.35</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B11">
-        <v>203.07</v>
+        <v>192.72</v>
       </c>
       <c r="C11">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D11">
-        <v>11.61</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B12">
-        <v>202.34</v>
+        <v>192.01</v>
       </c>
       <c r="C12">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D12">
-        <v>11.21</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B13">
-        <v>193.26</v>
+        <v>192.42</v>
       </c>
       <c r="C13">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D13">
-        <v>6.22</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B14">
-        <v>191.01</v>
+        <v>192.57</v>
       </c>
       <c r="C14">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D14">
-        <v>4.98</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B15">
-        <v>190.17</v>
+        <v>195.12</v>
       </c>
       <c r="C15">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D15">
-        <v>4.52</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B16">
-        <v>189.9</v>
+        <v>179.7</v>
       </c>
       <c r="C16">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D16">
-        <v>4.37</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B17">
-        <v>190.38</v>
+        <v>158.06</v>
       </c>
       <c r="C17">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D17">
-        <v>4.63</v>
+        <v>-11.23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B18">
-        <v>190.32</v>
+        <v>158.34</v>
       </c>
       <c r="C18">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D18">
-        <v>4.6</v>
+        <v>-11.07</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B19">
-        <v>190.51</v>
+        <v>158.42</v>
       </c>
       <c r="C19">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D19">
-        <v>4.7</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B20">
-        <v>190.38</v>
+        <v>157.39</v>
       </c>
       <c r="C20">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D20">
-        <v>4.63</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B21">
-        <v>190.39</v>
+        <v>156.79</v>
       </c>
       <c r="C21">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D21">
-        <v>4.64</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B22">
-        <v>190.23</v>
+        <v>156.76</v>
       </c>
       <c r="C22">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D22">
-        <v>4.55</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B23">
-        <v>190.27</v>
+        <v>156.57</v>
       </c>
       <c r="C23">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D23">
-        <v>4.57</v>
+        <v>-12.07</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B24">
-        <v>189.77</v>
+        <v>156.77</v>
       </c>
       <c r="C24">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D24">
-        <v>4.3</v>
+        <v>-11.96</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B25">
-        <v>189.44</v>
+        <v>156.12</v>
       </c>
       <c r="C25">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D25">
-        <v>4.11</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B26">
-        <v>191.01</v>
+        <v>155.5</v>
       </c>
       <c r="C26">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D26">
-        <v>4.98</v>
+        <v>-12.67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B27">
-        <v>201.09</v>
+        <v>155.23</v>
       </c>
       <c r="C27">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D27">
-        <v>10.52</v>
+        <v>-12.82</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B28">
-        <v>246.3</v>
+        <v>156.3</v>
       </c>
       <c r="C28">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D28">
-        <v>35.37</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B29">
-        <v>208.86</v>
+        <v>156</v>
       </c>
       <c r="C29">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D29">
-        <v>14.79</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B30">
-        <v>198.96</v>
+        <v>157.15</v>
       </c>
       <c r="C30">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D30">
-        <v>9.35</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B31">
-        <v>202.73</v>
+        <v>158.9</v>
       </c>
       <c r="C31">
-        <v>181.95</v>
+        <v>178.06</v>
       </c>
       <c r="D31">
-        <v>11.42</v>
+        <v>-10.76</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B32">
-        <v>223.74</v>
+        <v>158</v>
       </c>
       <c r="C32">
         <v>178.06</v>
       </c>
       <c r="D32">
-        <v>25.65</v>
+        <v>-11.27</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B33">
-        <v>204.38</v>
+        <v>157</v>
       </c>
       <c r="C33">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D33">
-        <v>14.78</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B34">
-        <v>199.14</v>
+        <v>157</v>
       </c>
       <c r="C34">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D34">
-        <v>11.84</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B35">
-        <v>197.18</v>
+        <v>157</v>
       </c>
       <c r="C35">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D35">
-        <v>10.74</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B36">
-        <v>195.84</v>
+        <v>44047</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>178.06</v>
-      </c>
-      <c r="D36">
-        <v>9.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B37">
-        <v>195.05</v>
+        <v>44048</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>178.06</v>
-      </c>
-      <c r="D37">
-        <v>9.539999999999999</v>
+        <v>174.89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B38">
-        <v>194.69</v>
+        <v>44049</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>178.06</v>
-      </c>
-      <c r="D38">
-        <v>9.34</v>
+        <v>174.89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B39">
-        <v>194.06</v>
+        <v>44050</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>178.06</v>
-      </c>
-      <c r="D39">
-        <v>8.99</v>
+        <v>174.89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B40">
-        <v>193.58</v>
+        <v>44051</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>178.06</v>
-      </c>
-      <c r="D40">
-        <v>8.720000000000001</v>
+        <v>174.89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B41">
-        <v>192.72</v>
+        <v>44052</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>178.06</v>
-      </c>
-      <c r="D41">
-        <v>8.23</v>
+        <v>174.89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B42">
-        <v>192.01</v>
+        <v>44053</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>178.06</v>
-      </c>
-      <c r="D42">
-        <v>7.83</v>
+        <v>174.89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B43">
-        <v>192.42</v>
+        <v>44054</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>178.06</v>
-      </c>
-      <c r="D43">
-        <v>8.06</v>
+        <v>174.89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B44">
-        <v>192.57</v>
+        <v>44055</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>178.06</v>
-      </c>
-      <c r="D44">
-        <v>8.15</v>
+        <v>174.89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B45">
-        <v>195.12</v>
+        <v>44056</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>178.06</v>
-      </c>
-      <c r="D45">
-        <v>9.58</v>
+        <v>174.89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B46">
-        <v>179.7</v>
+        <v>44057</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>178.06</v>
-      </c>
-      <c r="D46">
-        <v>0.92</v>
+        <v>174.89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B47">
-        <v>158.06</v>
+        <v>44058</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>178.06</v>
-      </c>
-      <c r="D47">
-        <v>-11.23</v>
+        <v>174.89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B48">
-        <v>158.34</v>
+        <v>44059</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>178.06</v>
-      </c>
-      <c r="D48">
-        <v>-11.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B49">
-        <v>158.42</v>
+        <v>44060</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>178.06</v>
-      </c>
-      <c r="D49">
-        <v>-11.03</v>
+        <v>174.89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B50">
-        <v>157.39</v>
+        <v>44061</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>178.06</v>
-      </c>
-      <c r="D50">
-        <v>-11.61</v>
+        <v>174.89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B51">
-        <v>156.79</v>
+        <v>44062</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>178.06</v>
-      </c>
-      <c r="D51">
-        <v>-11.95</v>
+        <v>174.89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B52">
-        <v>156.76</v>
+        <v>44063</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>178.06</v>
-      </c>
-      <c r="D52">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B53">
-        <v>156.57</v>
+        <v>44064</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>178.06</v>
-      </c>
-      <c r="D53">
-        <v>-12.07</v>
+        <v>174.89</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B54">
-        <v>156.77</v>
+        <v>44065</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>178.06</v>
-      </c>
-      <c r="D54">
-        <v>-11.96</v>
+        <v>174.89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B55">
-        <v>156.12</v>
+        <v>44066</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>178.06</v>
-      </c>
-      <c r="D55">
-        <v>-12.32</v>
+        <v>174.89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B56">
-        <v>155.5</v>
+        <v>44067</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>178.06</v>
-      </c>
-      <c r="D56">
-        <v>-12.67</v>
+        <v>174.89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B57">
-        <v>155.23</v>
+        <v>44068</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>178.06</v>
-      </c>
-      <c r="D57">
-        <v>-12.82</v>
+        <v>174.89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B58">
-        <v>156.3</v>
+        <v>44069</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>178.06</v>
-      </c>
-      <c r="D58">
-        <v>-12.22</v>
+        <v>174.89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B59">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C59">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D59">
-        <v>-12.39</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B60">
-        <v>157.15</v>
+        <v>166.02</v>
       </c>
       <c r="C60">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D60">
-        <v>-11.75</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B61">
-        <v>158.9</v>
+        <v>163.91</v>
       </c>
       <c r="C61">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D61">
-        <v>-10.76</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B62">
-        <v>158</v>
+        <v>163.57</v>
       </c>
       <c r="C62">
-        <v>178.06</v>
+        <v>174.89</v>
       </c>
       <c r="D62">
-        <v>-11.27</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B63">
-        <v>157</v>
+        <v>163.34</v>
       </c>
       <c r="C63">
         <v>174.89</v>
       </c>
       <c r="D63">
-        <v>-10.23</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B64">
-        <v>157</v>
+        <v>163.19</v>
       </c>
       <c r="C64">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D64">
-        <v>-10.23</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B65">
-        <v>157</v>
+        <v>163.4</v>
       </c>
       <c r="C65">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D65">
-        <v>-10.23</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
+        <v>44077</v>
+      </c>
+      <c r="B66">
+        <v>163.84</v>
       </c>
       <c r="C66">
-        <v>174.89</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D66">
+        <v>-7.42</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="B67">
+        <v>165.86</v>
       </c>
       <c r="C67">
-        <v>174.89</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D67">
+        <v>-6.28</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B68">
+        <v>166.83</v>
       </c>
       <c r="C68">
-        <v>174.89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D68">
+        <v>-5.73</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B69">
+        <v>166.53</v>
       </c>
       <c r="C69">
-        <v>174.89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D69">
+        <v>-5.9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B70">
+        <v>165.84</v>
       </c>
       <c r="C70">
-        <v>174.89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D70">
+        <v>-6.29</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B71">
+        <v>165.6</v>
       </c>
       <c r="C71">
-        <v>174.89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D71">
+        <v>-6.43</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B72">
+        <v>165.57</v>
       </c>
       <c r="C72">
-        <v>174.89</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D72">
+        <v>-6.44</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B73">
+        <v>165.97</v>
       </c>
       <c r="C73">
-        <v>174.89</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D73">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B74">
+        <v>165.53</v>
       </c>
       <c r="C74">
-        <v>174.89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D74">
+        <v>-6.47</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B75">
+        <v>165.31</v>
       </c>
       <c r="C75">
-        <v>174.89</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D75">
+        <v>-6.59</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B76">
+        <v>168.38</v>
       </c>
       <c r="C76">
-        <v>174.89</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D76">
+        <v>-4.86</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B77">
+        <v>168.35</v>
       </c>
       <c r="C77">
-        <v>174.89</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D77">
+        <v>-4.87</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B78">
+        <v>167.46</v>
       </c>
       <c r="C78">
-        <v>174.89</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D78">
+        <v>-5.38</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B79">
+        <v>167.96</v>
       </c>
       <c r="C79">
-        <v>174.89</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D79">
+        <v>-5.1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B80">
+        <v>168.78</v>
       </c>
       <c r="C80">
-        <v>174.89</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D80">
+        <v>-4.63</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B81">
+        <v>168.39</v>
       </c>
       <c r="C81">
-        <v>174.89</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D81">
+        <v>-4.85</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B82">
+        <v>168.24</v>
       </c>
       <c r="C82">
-        <v>174.89</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D82">
+        <v>-4.94</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B83">
+        <v>167.29</v>
       </c>
       <c r="C83">
-        <v>174.89</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D83">
+        <v>-5.47</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B84">
+        <v>167.1</v>
       </c>
       <c r="C84">
-        <v>174.89</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D84">
+        <v>-5.58</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B85">
+        <v>167.38</v>
       </c>
       <c r="C85">
-        <v>174.89</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D85">
+        <v>-5.42</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44067</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B86">
+        <v>167.92</v>
       </c>
       <c r="C86">
-        <v>174.89</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D86">
+        <v>-5.12</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44068</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
+        <v>44098</v>
+      </c>
+      <c r="B87">
+        <v>168.68</v>
       </c>
       <c r="C87">
-        <v>174.89</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D87">
+        <v>-4.69</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44069</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
+        <v>44099</v>
+      </c>
+      <c r="B88">
+        <v>168.22</v>
       </c>
       <c r="C88">
-        <v>174.89</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
+        <v>176.98</v>
+      </c>
+      <c r="D88">
+        <v>-4.95</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B89">
-        <v>168</v>
+        <v>167.75</v>
       </c>
       <c r="C89">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D89">
-        <v>-3.94</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B90">
-        <v>166.02</v>
+        <v>167.59</v>
       </c>
       <c r="C90">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D90">
-        <v>-5.07</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B91">
-        <v>163.91</v>
+        <v>167.93</v>
       </c>
       <c r="C91">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D91">
-        <v>-6.28</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B92">
-        <v>163.57</v>
+        <v>169.27</v>
       </c>
       <c r="C92">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D92">
-        <v>-6.47</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B93">
-        <v>163.34</v>
+        <v>169.3</v>
       </c>
       <c r="C93">
-        <v>174.89</v>
+        <v>176.98</v>
       </c>
       <c r="D93">
-        <v>-6.6</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B94">
-        <v>163.19</v>
+        <v>168.71</v>
       </c>
       <c r="C94">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D94">
-        <v>-7.79</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B95">
-        <v>163.4</v>
+        <v>168.07</v>
       </c>
       <c r="C95">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D95">
-        <v>-7.67</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B96">
-        <v>163.84</v>
+        <v>167.36</v>
       </c>
       <c r="C96">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D96">
-        <v>-7.42</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B97">
-        <v>165.86</v>
+        <v>166.82</v>
       </c>
       <c r="C97">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D97">
-        <v>-6.28</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B98">
-        <v>166.83</v>
+        <v>167.11</v>
       </c>
       <c r="C98">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D98">
-        <v>-5.73</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B99">
-        <v>166.53</v>
+        <v>167.4</v>
       </c>
       <c r="C99">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D99">
-        <v>-5.9</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B100">
-        <v>165.84</v>
+        <v>167.27</v>
       </c>
       <c r="C100">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D100">
-        <v>-6.29</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B101">
-        <v>165.6</v>
+        <v>169.85</v>
       </c>
       <c r="C101">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D101">
-        <v>-6.43</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B102">
-        <v>165.57</v>
+        <v>177.24</v>
       </c>
       <c r="C102">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D102">
-        <v>-6.44</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B103">
-        <v>165.97</v>
+        <v>175.45</v>
       </c>
       <c r="C103">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D103">
-        <v>-6.22</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B104">
-        <v>165.53</v>
+        <v>168.59</v>
       </c>
       <c r="C104">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D104">
-        <v>-6.47</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B105">
-        <v>165.31</v>
+        <v>168.29</v>
       </c>
       <c r="C105">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D105">
-        <v>-6.59</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B106">
-        <v>168.38</v>
+        <v>168.96</v>
       </c>
       <c r="C106">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D106">
-        <v>-4.86</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B107">
-        <v>168.35</v>
+        <v>169.74</v>
       </c>
       <c r="C107">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D107">
-        <v>-4.87</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B108">
-        <v>167.46</v>
+        <v>169.82</v>
       </c>
       <c r="C108">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D108">
-        <v>-5.38</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B109">
-        <v>167.96</v>
+        <v>169.33</v>
       </c>
       <c r="C109">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D109">
-        <v>-5.1</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B110">
-        <v>168.78</v>
+        <v>167.67</v>
       </c>
       <c r="C110">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D110">
-        <v>-4.63</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B111">
-        <v>168.39</v>
+        <v>167.96</v>
       </c>
       <c r="C111">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D111">
-        <v>-4.85</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B112">
-        <v>168.24</v>
+        <v>170.15</v>
       </c>
       <c r="C112">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D112">
-        <v>-4.94</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B113">
-        <v>167.29</v>
+        <v>172.44</v>
       </c>
       <c r="C113">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D113">
-        <v>-5.47</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B114">
-        <v>167.1</v>
+        <v>188.45</v>
       </c>
       <c r="C114">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D114">
-        <v>-5.58</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B115">
-        <v>167.38</v>
+        <v>170.88</v>
       </c>
       <c r="C115">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D115">
-        <v>-5.42</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B116">
-        <v>167.92</v>
+        <v>169.74</v>
       </c>
       <c r="C116">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D116">
-        <v>-5.12</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B117">
-        <v>168.68</v>
+        <v>170.58</v>
       </c>
       <c r="C117">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D117">
-        <v>-4.69</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B118">
-        <v>168.22</v>
+        <v>172.81</v>
       </c>
       <c r="C118">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D118">
-        <v>-4.95</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B119">
-        <v>167.75</v>
+        <v>171.71</v>
       </c>
       <c r="C119">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D119">
-        <v>-5.21</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B120">
-        <v>167.59</v>
+        <v>171.23</v>
       </c>
       <c r="C120">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D120">
-        <v>-5.3</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B121">
-        <v>167.93</v>
+        <v>170.76</v>
       </c>
       <c r="C121">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D121">
-        <v>-5.11</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B122">
-        <v>169.27</v>
+        <v>172.07</v>
       </c>
       <c r="C122">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D122">
-        <v>-4.35</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B123">
-        <v>169.3</v>
+        <v>198.05</v>
       </c>
       <c r="C123">
-        <v>176.98</v>
+        <v>180.02</v>
       </c>
       <c r="D123">
-        <v>-4.34</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B124">
-        <v>168.71</v>
+        <v>179.88</v>
       </c>
       <c r="C124">
         <v>180.02</v>
       </c>
       <c r="D124">
-        <v>-6.28</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B125">
-        <v>168.07</v>
+        <v>176.68</v>
       </c>
       <c r="C125">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D125">
-        <v>-6.64</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B126">
-        <v>167.36</v>
+        <v>176.21</v>
       </c>
       <c r="C126">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D126">
-        <v>-7.03</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B127">
-        <v>166.82</v>
+        <v>177.35</v>
       </c>
       <c r="C127">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D127">
-        <v>-7.33</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B128">
-        <v>167.11</v>
+        <v>184.46</v>
       </c>
       <c r="C128">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D128">
-        <v>-7.17</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B129">
-        <v>167.4</v>
+        <v>186.83</v>
       </c>
       <c r="C129">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D129">
-        <v>-7.01</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B130">
-        <v>167.27</v>
+        <v>181.56</v>
       </c>
       <c r="C130">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D130">
-        <v>-7.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B131">
-        <v>169.85</v>
+        <v>180.99</v>
       </c>
       <c r="C131">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D131">
-        <v>-5.65</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B132">
-        <v>177.24</v>
+        <v>181</v>
       </c>
       <c r="C132">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D132">
-        <v>-1.54</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B133">
-        <v>175.45</v>
+        <v>182.56</v>
       </c>
       <c r="C133">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D133">
-        <v>-2.54</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B134">
-        <v>168.59</v>
+        <v>255.75</v>
       </c>
       <c r="C134">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D134">
-        <v>-6.35</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B135">
-        <v>168.29</v>
+        <v>237.01</v>
       </c>
       <c r="C135">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D135">
-        <v>-6.52</v>
+        <v>32.16</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B136">
-        <v>168.96</v>
+        <v>236.95</v>
       </c>
       <c r="C136">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D136">
-        <v>-6.15</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B137">
-        <v>169.74</v>
+        <v>219.59</v>
       </c>
       <c r="C137">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D137">
-        <v>-5.71</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B138">
-        <v>169.82</v>
+        <v>215.9</v>
       </c>
       <c r="C138">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D138">
-        <v>-5.66</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B139">
-        <v>169.33</v>
+        <v>213.68</v>
       </c>
       <c r="C139">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D139">
-        <v>-5.94</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B140">
-        <v>167.67</v>
+        <v>216.01</v>
       </c>
       <c r="C140">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D140">
-        <v>-6.86</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B141">
-        <v>167.96</v>
+        <v>207.39</v>
       </c>
       <c r="C141">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D141">
-        <v>-6.7</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B142">
-        <v>170.15</v>
+        <v>204.34</v>
       </c>
       <c r="C142">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D142">
-        <v>-5.49</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B143">
-        <v>172.44</v>
+        <v>215.38</v>
       </c>
       <c r="C143">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D143">
-        <v>-4.21</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B144">
-        <v>188.45</v>
+        <v>208.71</v>
       </c>
       <c r="C144">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D144">
-        <v>4.68</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B145">
-        <v>170.88</v>
+        <v>205.71</v>
       </c>
       <c r="C145">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D145">
-        <v>-5.08</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B146">
-        <v>169.74</v>
+        <v>204.64</v>
       </c>
       <c r="C146">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D146">
-        <v>-5.71</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B147">
-        <v>170.58</v>
+        <v>202.69</v>
       </c>
       <c r="C147">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D147">
-        <v>-5.24</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B148">
-        <v>172.81</v>
+        <v>199.35</v>
       </c>
       <c r="C148">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D148">
-        <v>-4</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B149">
-        <v>171.71</v>
+        <v>197.32</v>
       </c>
       <c r="C149">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D149">
-        <v>-4.62</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B150">
-        <v>171.23</v>
+        <v>196.23</v>
       </c>
       <c r="C150">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D150">
-        <v>-4.88</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B151">
-        <v>170.76</v>
+        <v>202.62</v>
       </c>
       <c r="C151">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D151">
-        <v>-5.14</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B152">
-        <v>172.07</v>
+        <v>208.7</v>
       </c>
       <c r="C152">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D152">
-        <v>-4.41</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B153">
-        <v>198.05</v>
+        <v>202.72</v>
       </c>
       <c r="C153">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D153">
-        <v>10.02</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B154">
-        <v>179.88</v>
+        <v>200.68</v>
       </c>
       <c r="C154">
-        <v>180.02</v>
+        <v>179.34</v>
       </c>
       <c r="D154">
-        <v>-0.08</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B155">
-        <v>176.68</v>
+        <v>198.94</v>
       </c>
       <c r="C155">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D155">
-        <v>-1.49</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B156">
-        <v>176.21</v>
+        <v>200.27</v>
       </c>
       <c r="C156">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D156">
-        <v>-1.75</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44138</v>
+        <v>44168</v>
       </c>
       <c r="B157">
-        <v>177.35</v>
+        <v>203.34</v>
       </c>
       <c r="C157">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D157">
-        <v>-1.11</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44139</v>
+        <v>44169</v>
       </c>
       <c r="B158">
-        <v>184.46</v>
+        <v>205.33</v>
       </c>
       <c r="C158">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D158">
-        <v>2.85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44140</v>
+        <v>44170</v>
       </c>
       <c r="B159">
-        <v>186.83</v>
+        <v>211.64</v>
       </c>
       <c r="C159">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D159">
-        <v>4.18</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44141</v>
+        <v>44171</v>
       </c>
       <c r="B160">
-        <v>181.56</v>
+        <v>210.33</v>
       </c>
       <c r="C160">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D160">
-        <v>1.24</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44142</v>
+        <v>44172</v>
       </c>
       <c r="B161">
-        <v>180.99</v>
+        <v>208.63</v>
       </c>
       <c r="C161">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D161">
-        <v>0.92</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44143</v>
+        <v>44173</v>
       </c>
       <c r="B162">
-        <v>181</v>
+        <v>208.33</v>
       </c>
       <c r="C162">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D162">
-        <v>0.92</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44144</v>
+        <v>44174</v>
       </c>
       <c r="B163">
-        <v>182.56</v>
+        <v>207.66</v>
       </c>
       <c r="C163">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D163">
-        <v>1.8</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="B164">
-        <v>255.75</v>
+        <v>207.71</v>
       </c>
       <c r="C164">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D164">
-        <v>42.6</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44146</v>
+        <v>44176</v>
       </c>
       <c r="B165">
-        <v>237.01</v>
+        <v>208.77</v>
       </c>
       <c r="C165">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D165">
-        <v>32.16</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44147</v>
+        <v>44177</v>
       </c>
       <c r="B166">
-        <v>236.95</v>
+        <v>208.74</v>
       </c>
       <c r="C166">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D166">
-        <v>32.12</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44148</v>
+        <v>44178</v>
       </c>
       <c r="B167">
-        <v>219.59</v>
+        <v>213.19</v>
       </c>
       <c r="C167">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D167">
-        <v>22.44</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44149</v>
+        <v>44179</v>
       </c>
       <c r="B168">
-        <v>215.9</v>
+        <v>214.96</v>
       </c>
       <c r="C168">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D168">
-        <v>20.38</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="B169">
-        <v>213.68</v>
+        <v>215.64</v>
       </c>
       <c r="C169">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D169">
-        <v>19.15</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="B170">
-        <v>216.01</v>
+        <v>217.72</v>
       </c>
       <c r="C170">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D170">
-        <v>20.45</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="B171">
-        <v>207.39</v>
+        <v>235.19</v>
       </c>
       <c r="C171">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D171">
-        <v>15.64</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="B172">
-        <v>204.34</v>
+        <v>227.26</v>
       </c>
       <c r="C172">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D172">
-        <v>13.94</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44154</v>
+        <v>44184</v>
       </c>
       <c r="B173">
-        <v>215.38</v>
+        <v>241.16</v>
       </c>
       <c r="C173">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D173">
-        <v>20.1</v>
+        <v>32.71</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44155</v>
+        <v>44185</v>
       </c>
       <c r="B174">
-        <v>208.71</v>
+        <v>243.26</v>
       </c>
       <c r="C174">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D174">
-        <v>16.38</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44156</v>
+        <v>44186</v>
       </c>
       <c r="B175">
-        <v>205.71</v>
+        <v>248.15</v>
       </c>
       <c r="C175">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D175">
-        <v>14.7</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44157</v>
+        <v>44187</v>
       </c>
       <c r="B176">
-        <v>204.64</v>
+        <v>227.71</v>
       </c>
       <c r="C176">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D176">
-        <v>14.1</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44158</v>
+        <v>44188</v>
       </c>
       <c r="B177">
-        <v>202.69</v>
+        <v>221.81</v>
       </c>
       <c r="C177">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D177">
-        <v>13.02</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44159</v>
+        <v>44189</v>
       </c>
       <c r="B178">
-        <v>199.35</v>
+        <v>218.5</v>
       </c>
       <c r="C178">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D178">
-        <v>11.16</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44160</v>
+        <v>44190</v>
       </c>
       <c r="B179">
-        <v>197.32</v>
+        <v>215.64</v>
       </c>
       <c r="C179">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D179">
-        <v>10.03</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44161</v>
+        <v>44191</v>
       </c>
       <c r="B180">
-        <v>196.23</v>
+        <v>214.84</v>
       </c>
       <c r="C180">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D180">
-        <v>9.42</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44162</v>
+        <v>44192</v>
       </c>
       <c r="B181">
-        <v>202.62</v>
+        <v>214.56</v>
       </c>
       <c r="C181">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D181">
-        <v>12.98</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44163</v>
+        <v>44193</v>
       </c>
       <c r="B182">
-        <v>208.7</v>
+        <v>216.76</v>
       </c>
       <c r="C182">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D182">
-        <v>16.37</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44164</v>
+        <v>44194</v>
       </c>
       <c r="B183">
-        <v>202.72</v>
+        <v>217.34</v>
       </c>
       <c r="C183">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D183">
-        <v>13.03</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B184">
-        <v>200.68</v>
+        <v>220.83</v>
       </c>
       <c r="C184">
-        <v>179.34</v>
+        <v>181.71</v>
       </c>
       <c r="D184">
-        <v>11.9</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B185">
-        <v>198.94</v>
+        <v>235.2</v>
       </c>
       <c r="C185">
         <v>181.71</v>
       </c>
       <c r="D185">
-        <v>9.48</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44167</v>
+        <v>44197</v>
       </c>
       <c r="B186">
-        <v>200.27</v>
+        <v>231.89</v>
       </c>
       <c r="C186">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D186">
-        <v>10.21</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44168</v>
+        <v>44198</v>
       </c>
       <c r="B187">
-        <v>203.34</v>
+        <v>225.55</v>
       </c>
       <c r="C187">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D187">
-        <v>11.9</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44169</v>
+        <v>44199</v>
       </c>
       <c r="B188">
-        <v>205.33</v>
+        <v>223.32</v>
       </c>
       <c r="C188">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D188">
-        <v>13</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44170</v>
+        <v>44200</v>
       </c>
       <c r="B189">
-        <v>211.64</v>
+        <v>219.08</v>
       </c>
       <c r="C189">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D189">
-        <v>16.47</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44171</v>
+        <v>44201</v>
       </c>
       <c r="B190">
-        <v>210.33</v>
+        <v>218.74</v>
       </c>
       <c r="C190">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D190">
-        <v>15.75</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44172</v>
+        <v>44202</v>
       </c>
       <c r="B191">
-        <v>208.63</v>
+        <v>219.53</v>
       </c>
       <c r="C191">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D191">
-        <v>14.81</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44173</v>
+        <v>44203</v>
       </c>
       <c r="B192">
-        <v>208.33</v>
+        <v>222.94</v>
       </c>
       <c r="C192">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D192">
-        <v>14.65</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44174</v>
+        <v>44204</v>
       </c>
       <c r="B193">
-        <v>207.66</v>
+        <v>233.9</v>
       </c>
       <c r="C193">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D193">
-        <v>14.28</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44175</v>
+        <v>44205</v>
       </c>
       <c r="B194">
-        <v>207.71</v>
+        <v>241.69</v>
       </c>
       <c r="C194">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D194">
-        <v>14.31</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44176</v>
+        <v>44206</v>
       </c>
       <c r="B195">
-        <v>208.77</v>
+        <v>228.45</v>
       </c>
       <c r="C195">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D195">
-        <v>14.89</v>
+        <v>21.61</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44177</v>
+        <v>44207</v>
       </c>
       <c r="B196">
-        <v>208.74</v>
+        <v>226.41</v>
       </c>
       <c r="C196">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D196">
-        <v>14.87</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44178</v>
+        <v>44208</v>
       </c>
       <c r="B197">
-        <v>213.19</v>
+        <v>223.28</v>
       </c>
       <c r="C197">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D197">
-        <v>17.32</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44179</v>
+        <v>44209</v>
       </c>
       <c r="B198">
-        <v>214.96</v>
+        <v>225.45</v>
       </c>
       <c r="C198">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D198">
-        <v>18.3</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44180</v>
+        <v>44210</v>
       </c>
       <c r="B199">
-        <v>215.64</v>
+        <v>224.29</v>
       </c>
       <c r="C199">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D199">
-        <v>18.67</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44181</v>
+        <v>44211</v>
       </c>
       <c r="B200">
-        <v>217.72</v>
+        <v>224.44</v>
       </c>
       <c r="C200">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D200">
-        <v>19.82</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44182</v>
+        <v>44212</v>
       </c>
       <c r="B201">
-        <v>235.19</v>
+        <v>229.57</v>
       </c>
       <c r="C201">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D201">
-        <v>29.43</v>
+        <v>22.21</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44183</v>
+        <v>44213</v>
       </c>
       <c r="B202">
-        <v>227.26</v>
+        <v>229.5</v>
       </c>
       <c r="C202">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D202">
-        <v>25.07</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44184</v>
+        <v>44214</v>
       </c>
       <c r="B203">
-        <v>241.16</v>
+        <v>261.75</v>
       </c>
       <c r="C203">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D203">
-        <v>32.71</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44185</v>
+        <v>44215</v>
       </c>
       <c r="B204">
-        <v>243.26</v>
+        <v>282.46</v>
       </c>
       <c r="C204">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D204">
-        <v>33.87</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="B205">
-        <v>248.15</v>
+        <v>246.8</v>
       </c>
       <c r="C205">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D205">
-        <v>36.56</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44187</v>
+        <v>44217</v>
       </c>
       <c r="B206">
-        <v>227.71</v>
+        <v>239.92</v>
       </c>
       <c r="C206">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D206">
-        <v>25.31</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44218</v>
       </c>
       <c r="B207">
-        <v>221.81</v>
+        <v>242.48</v>
       </c>
       <c r="C207">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D207">
-        <v>22.07</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44189</v>
+        <v>44219</v>
       </c>
       <c r="B208">
-        <v>218.5</v>
+        <v>259.32</v>
       </c>
       <c r="C208">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D208">
-        <v>20.25</v>
+        <v>38.04</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44190</v>
+        <v>44220</v>
       </c>
       <c r="B209">
-        <v>215.64</v>
+        <v>257.82</v>
       </c>
       <c r="C209">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D209">
-        <v>18.67</v>
+        <v>37.24</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44191</v>
+        <v>44221</v>
       </c>
       <c r="B210">
-        <v>214.84</v>
+        <v>247.48</v>
       </c>
       <c r="C210">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D210">
-        <v>18.23</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44192</v>
+        <v>44222</v>
       </c>
       <c r="B211">
-        <v>214.56</v>
+        <v>247.49</v>
       </c>
       <c r="C211">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D211">
-        <v>18.08</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44193</v>
+        <v>44223</v>
       </c>
       <c r="B212">
-        <v>216.76</v>
+        <v>248.75</v>
       </c>
       <c r="C212">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D212">
-        <v>19.29</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="B213">
-        <v>217.34</v>
+        <v>248.2</v>
       </c>
       <c r="C213">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D213">
-        <v>19.61</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B214">
-        <v>220.83</v>
+        <v>242.64</v>
       </c>
       <c r="C214">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D214">
-        <v>21.53</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44196</v>
+        <v>44226</v>
       </c>
       <c r="B215">
-        <v>235.2</v>
+        <v>306.29</v>
       </c>
       <c r="C215">
-        <v>181.71</v>
+        <v>187.86</v>
       </c>
       <c r="D215">
-        <v>29.44</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B216">
-        <v>231.89</v>
+        <v>274.2</v>
       </c>
       <c r="C216">
         <v>187.86</v>
       </c>
       <c r="D216">
-        <v>23.44</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44198</v>
+        <v>44228</v>
       </c>
       <c r="B217">
-        <v>225.55</v>
+        <v>260.83</v>
       </c>
       <c r="C217">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D217">
-        <v>20.06</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44199</v>
+        <v>44229</v>
       </c>
       <c r="B218">
-        <v>223.32</v>
+        <v>258.7</v>
       </c>
       <c r="C218">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D218">
-        <v>18.88</v>
+        <v>41.78</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44200</v>
+        <v>44230</v>
       </c>
       <c r="B219">
-        <v>219.08</v>
+        <v>250.23</v>
       </c>
       <c r="C219">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D219">
-        <v>16.62</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="B220">
-        <v>218.74</v>
+        <v>246.91</v>
       </c>
       <c r="C220">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D220">
-        <v>16.44</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="B221">
-        <v>219.53</v>
+        <v>243.44</v>
       </c>
       <c r="C221">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D221">
-        <v>16.86</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44203</v>
+        <v>44233</v>
       </c>
       <c r="B222">
-        <v>222.94</v>
+        <v>238.57</v>
       </c>
       <c r="C222">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D222">
-        <v>18.67</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44204</v>
+        <v>44234</v>
       </c>
       <c r="B223">
-        <v>233.9</v>
+        <v>236.16</v>
       </c>
       <c r="C223">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D223">
-        <v>24.51</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44205</v>
+        <v>44235</v>
       </c>
       <c r="B224">
-        <v>241.69</v>
+        <v>234.71</v>
       </c>
       <c r="C224">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D224">
-        <v>28.65</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44206</v>
+        <v>44236</v>
       </c>
       <c r="B225">
-        <v>228.45</v>
+        <v>234.47</v>
       </c>
       <c r="C225">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D225">
-        <v>21.61</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44207</v>
+        <v>44237</v>
       </c>
       <c r="B226">
-        <v>226.41</v>
+        <v>234.43</v>
       </c>
       <c r="C226">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D226">
-        <v>20.52</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="B227">
-        <v>223.28</v>
+        <v>234.52</v>
       </c>
       <c r="C227">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D227">
-        <v>18.86</v>
+        <v>28.53</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44209</v>
+        <v>44239</v>
       </c>
       <c r="B228">
-        <v>225.45</v>
+        <v>235.02</v>
       </c>
       <c r="C228">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D228">
-        <v>20.01</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44210</v>
+        <v>44240</v>
       </c>
       <c r="B229">
-        <v>224.29</v>
+        <v>240.04</v>
       </c>
       <c r="C229">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D229">
-        <v>19.39</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44211</v>
+        <v>44241</v>
       </c>
       <c r="B230">
-        <v>224.44</v>
+        <v>246.97</v>
       </c>
       <c r="C230">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D230">
-        <v>19.47</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44212</v>
+        <v>44242</v>
       </c>
       <c r="B231">
-        <v>229.57</v>
+        <v>243.56</v>
       </c>
       <c r="C231">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D231">
-        <v>22.21</v>
+        <v>33.48</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44213</v>
+        <v>44243</v>
       </c>
       <c r="B232">
-        <v>229.5</v>
+        <v>247.97</v>
       </c>
       <c r="C232">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D232">
-        <v>22.17</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44214</v>
+        <v>44244</v>
       </c>
       <c r="B233">
-        <v>261.75</v>
+        <v>241.26</v>
       </c>
       <c r="C233">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D233">
-        <v>39.33</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44215</v>
+        <v>44245</v>
       </c>
       <c r="B234">
-        <v>282.46</v>
+        <v>240.11</v>
       </c>
       <c r="C234">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D234">
-        <v>50.36</v>
+        <v>31.59</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="B235">
-        <v>246.8</v>
+        <v>239.25</v>
       </c>
       <c r="C235">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D235">
-        <v>31.38</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44217</v>
+        <v>44247</v>
       </c>
       <c r="B236">
-        <v>239.92</v>
+        <v>239.34</v>
       </c>
       <c r="C236">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D236">
-        <v>27.71</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44218</v>
+        <v>44248</v>
       </c>
       <c r="B237">
-        <v>242.48</v>
+        <v>239.7</v>
       </c>
       <c r="C237">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D237">
-        <v>29.08</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44219</v>
+        <v>44249</v>
       </c>
       <c r="B238">
-        <v>259.32</v>
+        <v>240</v>
       </c>
       <c r="C238">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D238">
-        <v>38.04</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44220</v>
+        <v>44250</v>
       </c>
       <c r="B239">
-        <v>257.82</v>
+        <v>240.5</v>
       </c>
       <c r="C239">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D239">
-        <v>37.24</v>
+        <v>31.81</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="B240">
-        <v>247.48</v>
+        <v>245.05</v>
       </c>
       <c r="C240">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D240">
-        <v>31.74</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="B241">
-        <v>247.49</v>
+        <v>249.97</v>
       </c>
       <c r="C241">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D241">
-        <v>31.74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44223</v>
+        <v>44253</v>
       </c>
       <c r="B242">
-        <v>248.75</v>
+        <v>249.15</v>
       </c>
       <c r="C242">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D242">
-        <v>32.41</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44224</v>
+        <v>44254</v>
       </c>
       <c r="B243">
-        <v>248.2</v>
+        <v>244.89</v>
       </c>
       <c r="C243">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D243">
-        <v>32.12</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44225</v>
+        <v>44255</v>
       </c>
       <c r="B244">
-        <v>242.64</v>
+        <v>247.85</v>
       </c>
       <c r="C244">
-        <v>187.86</v>
+        <v>182.47</v>
       </c>
       <c r="D244">
-        <v>29.16</v>
+        <v>35.84</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44226</v>
+        <v>44256</v>
       </c>
       <c r="B245">
-        <v>306.29</v>
+        <v>265.46</v>
       </c>
       <c r="C245">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D245">
-        <v>63.04</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44227</v>
+        <v>44257</v>
       </c>
       <c r="B246">
-        <v>274.2</v>
+        <v>267.36</v>
       </c>
       <c r="C246">
-        <v>187.86</v>
+        <v>183.71</v>
       </c>
       <c r="D246">
-        <v>45.96</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44228</v>
+        <v>44258</v>
       </c>
       <c r="B247">
-        <v>260.83</v>
+        <v>274.8</v>
       </c>
       <c r="C247">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D247">
-        <v>42.95</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44229</v>
+        <v>44259</v>
       </c>
       <c r="B248">
-        <v>258.7</v>
+        <v>276.12</v>
       </c>
       <c r="C248">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D248">
-        <v>41.78</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44230</v>
+        <v>44260</v>
       </c>
       <c r="B249">
-        <v>250.23</v>
+        <v>272.77</v>
       </c>
       <c r="C249">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D249">
-        <v>37.14</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44231</v>
+        <v>44261</v>
       </c>
       <c r="B250">
-        <v>246.91</v>
+        <v>267.18</v>
       </c>
       <c r="C250">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D250">
-        <v>35.32</v>
+        <v>45.43</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44232</v>
+        <v>44262</v>
       </c>
       <c r="B251">
-        <v>243.44</v>
+        <v>289.36</v>
       </c>
       <c r="C251">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D251">
-        <v>33.42</v>
+        <v>57.51</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44233</v>
+        <v>44263</v>
       </c>
       <c r="B252">
-        <v>238.57</v>
+        <v>266.71</v>
       </c>
       <c r="C252">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D252">
-        <v>30.75</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44234</v>
+        <v>44264</v>
       </c>
       <c r="B253">
-        <v>236.16</v>
+        <v>268.85</v>
       </c>
       <c r="C253">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D253">
-        <v>29.43</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44235</v>
+        <v>44265</v>
       </c>
       <c r="B254">
-        <v>234.71</v>
+        <v>266.73</v>
       </c>
       <c r="C254">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D254">
-        <v>28.63</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="B255">
-        <v>234.47</v>
+        <v>214.26</v>
       </c>
       <c r="C255">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D255">
-        <v>28.5</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44237</v>
+        <v>44267</v>
       </c>
       <c r="B256">
-        <v>234.43</v>
+        <v>169.51</v>
       </c>
       <c r="C256">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D256">
-        <v>28.48</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44238</v>
+        <v>44268</v>
       </c>
       <c r="B257">
-        <v>234.52</v>
+        <v>168.08</v>
       </c>
       <c r="C257">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D257">
-        <v>28.53</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44239</v>
+        <v>44269</v>
       </c>
       <c r="B258">
-        <v>235.02</v>
+        <v>167.58</v>
       </c>
       <c r="C258">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D258">
-        <v>28.8</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44240</v>
+        <v>44270</v>
       </c>
       <c r="B259">
-        <v>240.04</v>
+        <v>170.93</v>
       </c>
       <c r="C259">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D259">
-        <v>31.55</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44241</v>
+        <v>44271</v>
       </c>
       <c r="B260">
-        <v>246.97</v>
+        <v>167.41</v>
       </c>
       <c r="C260">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D260">
-        <v>35.35</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44242</v>
+        <v>44272</v>
       </c>
       <c r="B261">
-        <v>243.56</v>
+        <v>167.35</v>
       </c>
       <c r="C261">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D261">
-        <v>33.48</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44243</v>
+        <v>44273</v>
       </c>
       <c r="B262">
-        <v>247.97</v>
+        <v>167.19</v>
       </c>
       <c r="C262">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D262">
-        <v>35.9</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44244</v>
+        <v>44274</v>
       </c>
       <c r="B263">
-        <v>241.26</v>
+        <v>166.48</v>
       </c>
       <c r="C263">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D263">
-        <v>32.22</v>
+        <v>-9.380000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44245</v>
+        <v>44275</v>
       </c>
       <c r="B264">
-        <v>240.11</v>
+        <v>166.52</v>
       </c>
       <c r="C264">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D264">
-        <v>31.59</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44246</v>
+        <v>44276</v>
       </c>
       <c r="B265">
-        <v>239.25</v>
+        <v>167.23</v>
       </c>
       <c r="C265">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D265">
-        <v>31.12</v>
+        <v>-8.970000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B266">
-        <v>239.34</v>
+        <v>168.51</v>
       </c>
       <c r="C266">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D266">
-        <v>31.17</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44248</v>
+        <v>44278</v>
       </c>
       <c r="B267">
-        <v>239.7</v>
+        <v>171.16</v>
       </c>
       <c r="C267">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D267">
-        <v>31.37</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44249</v>
+        <v>44279</v>
       </c>
       <c r="B268">
-        <v>240</v>
+        <v>168.44</v>
       </c>
       <c r="C268">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D268">
-        <v>31.53</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44250</v>
+        <v>44280</v>
       </c>
       <c r="B269">
-        <v>240.5</v>
+        <v>167.97</v>
       </c>
       <c r="C269">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D269">
-        <v>31.81</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44251</v>
+        <v>44281</v>
       </c>
       <c r="B270">
-        <v>245.05</v>
+        <v>168.06</v>
       </c>
       <c r="C270">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D270">
-        <v>34.3</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44252</v>
+        <v>44282</v>
       </c>
       <c r="B271">
-        <v>249.97</v>
+        <v>167.56</v>
       </c>
       <c r="C271">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D271">
-        <v>37</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44253</v>
+        <v>44283</v>
       </c>
       <c r="B272">
-        <v>249.15</v>
+        <v>168.68</v>
       </c>
       <c r="C272">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D272">
-        <v>36.54</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44254</v>
+        <v>44284</v>
       </c>
       <c r="B273">
-        <v>244.89</v>
+        <v>169.12</v>
       </c>
       <c r="C273">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D273">
-        <v>34.21</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44255</v>
+        <v>44285</v>
       </c>
       <c r="B274">
-        <v>247.85</v>
+        <v>169.58</v>
       </c>
       <c r="C274">
-        <v>182.47</v>
+        <v>183.71</v>
       </c>
       <c r="D274">
-        <v>35.84</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B275">
-        <v>265.46</v>
+        <v>168.28</v>
       </c>
       <c r="C275">
         <v>183.71</v>
       </c>
       <c r="D275">
-        <v>44.5</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44257</v>
+        <v>44287</v>
       </c>
       <c r="B276">
-        <v>267.36</v>
+        <v>167.08</v>
       </c>
       <c r="C276">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D276">
-        <v>45.53</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44258</v>
+        <v>44288</v>
       </c>
       <c r="B277">
-        <v>274.8</v>
+        <v>167.81</v>
       </c>
       <c r="C277">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D277">
-        <v>49.58</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44259</v>
+        <v>44289</v>
       </c>
       <c r="B278">
-        <v>276.12</v>
+        <v>168.24</v>
       </c>
       <c r="C278">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D278">
-        <v>50.3</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44260</v>
+        <v>44290</v>
       </c>
       <c r="B279">
-        <v>272.77</v>
+        <v>168.86</v>
       </c>
       <c r="C279">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D279">
-        <v>48.48</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44261</v>
+        <v>44291</v>
       </c>
       <c r="B280">
-        <v>267.18</v>
+        <v>169.2</v>
       </c>
       <c r="C280">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D280">
-        <v>45.43</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44262</v>
+        <v>44292</v>
       </c>
       <c r="B281">
-        <v>289.36</v>
+        <v>169.49</v>
       </c>
       <c r="C281">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D281">
-        <v>57.51</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44263</v>
+        <v>44293</v>
       </c>
       <c r="B282">
-        <v>266.71</v>
+        <v>170.41</v>
       </c>
       <c r="C282">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D282">
-        <v>45.18</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="B283">
-        <v>268.85</v>
+        <v>170.06</v>
       </c>
       <c r="C283">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D283">
-        <v>46.35</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44265</v>
+        <v>44295</v>
       </c>
       <c r="B284">
-        <v>266.73</v>
+        <v>169.95</v>
       </c>
       <c r="C284">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D284">
-        <v>45.19</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44266</v>
+        <v>44296</v>
       </c>
       <c r="B285">
-        <v>214.26</v>
+        <v>170.25</v>
       </c>
       <c r="C285">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D285">
-        <v>16.63</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44267</v>
+        <v>44297</v>
       </c>
       <c r="B286">
-        <v>169.51</v>
+        <v>169.86</v>
       </c>
       <c r="C286">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D286">
-        <v>-7.73</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44268</v>
+        <v>44298</v>
       </c>
       <c r="B287">
-        <v>168.08</v>
+        <v>170.04</v>
       </c>
       <c r="C287">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D287">
-        <v>-8.51</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44269</v>
+        <v>44299</v>
       </c>
       <c r="B288">
-        <v>167.58</v>
+        <v>170.51</v>
       </c>
       <c r="C288">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D288">
-        <v>-8.779999999999999</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44270</v>
+        <v>44300</v>
       </c>
       <c r="B289">
-        <v>170.93</v>
+        <v>170.39</v>
       </c>
       <c r="C289">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D289">
-        <v>-6.96</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44271</v>
+        <v>44301</v>
       </c>
       <c r="B290">
-        <v>167.41</v>
+        <v>171.54</v>
       </c>
       <c r="C290">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D290">
-        <v>-8.880000000000001</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44272</v>
+        <v>44302</v>
       </c>
       <c r="B291">
-        <v>167.35</v>
+        <v>172.05</v>
       </c>
       <c r="C291">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D291">
-        <v>-8.9</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44273</v>
+        <v>44303</v>
       </c>
       <c r="B292">
-        <v>167.19</v>
+        <v>172.79</v>
       </c>
       <c r="C292">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D292">
-        <v>-8.99</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44274</v>
+        <v>44304</v>
       </c>
       <c r="B293">
-        <v>166.48</v>
+        <v>174.25</v>
       </c>
       <c r="C293">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D293">
-        <v>-9.380000000000001</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44275</v>
+        <v>44305</v>
       </c>
       <c r="B294">
-        <v>166.52</v>
+        <v>173.8</v>
       </c>
       <c r="C294">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D294">
-        <v>-9.359999999999999</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44276</v>
+        <v>44306</v>
       </c>
       <c r="B295">
-        <v>167.23</v>
+        <v>173.08</v>
       </c>
       <c r="C295">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D295">
-        <v>-8.970000000000001</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="B296">
-        <v>168.51</v>
+        <v>173.21</v>
       </c>
       <c r="C296">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D296">
-        <v>-8.27</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="B297">
-        <v>171.16</v>
+        <v>173.15</v>
       </c>
       <c r="C297">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D297">
-        <v>-6.83</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44279</v>
+        <v>44309</v>
       </c>
       <c r="B298">
-        <v>168.44</v>
+        <v>172.27</v>
       </c>
       <c r="C298">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D298">
-        <v>-8.31</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44280</v>
+        <v>44310</v>
       </c>
       <c r="B299">
-        <v>167.97</v>
+        <v>172.65</v>
       </c>
       <c r="C299">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D299">
-        <v>-8.57</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44281</v>
+        <v>44311</v>
       </c>
       <c r="B300">
-        <v>168.06</v>
+        <v>173.26</v>
       </c>
       <c r="C300">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D300">
-        <v>-8.52</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44282</v>
+        <v>44312</v>
       </c>
       <c r="B301">
-        <v>167.56</v>
+        <v>174.08</v>
       </c>
       <c r="C301">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D301">
-        <v>-8.789999999999999</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44283</v>
+        <v>44313</v>
       </c>
       <c r="B302">
-        <v>168.68</v>
+        <v>174.64</v>
       </c>
       <c r="C302">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D302">
-        <v>-8.18</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44284</v>
+        <v>44314</v>
       </c>
       <c r="B303">
-        <v>169.12</v>
+        <v>174.27</v>
       </c>
       <c r="C303">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D303">
-        <v>-7.94</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44285</v>
+        <v>44315</v>
       </c>
       <c r="B304">
-        <v>169.58</v>
+        <v>173.52</v>
       </c>
       <c r="C304">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D304">
-        <v>-7.69</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B305">
-        <v>168.28</v>
+        <v>173.7</v>
       </c>
       <c r="C305">
-        <v>183.71</v>
+        <v>177.26</v>
       </c>
       <c r="D305">
-        <v>-8.4</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B306">
-        <v>167.08</v>
+        <v>173.31</v>
       </c>
       <c r="C306">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D306">
-        <v>-5.74</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B307">
-        <v>167.81</v>
+        <v>174.85</v>
       </c>
       <c r="C307">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D307">
-        <v>-5.33</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44289</v>
+        <v>44319</v>
       </c>
       <c r="B308">
-        <v>168.24</v>
+        <v>174.89</v>
       </c>
       <c r="C308">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D308">
-        <v>-5.09</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44290</v>
+        <v>44320</v>
       </c>
       <c r="B309">
-        <v>168.86</v>
+        <v>175</v>
       </c>
       <c r="C309">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D309">
-        <v>-4.73</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="B310">
-        <v>169.2</v>
+        <v>174.56</v>
       </c>
       <c r="C310">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D310">
-        <v>-4.55</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44292</v>
+        <v>44322</v>
       </c>
       <c r="B311">
-        <v>169.49</v>
+        <v>174.79</v>
       </c>
       <c r="C311">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D311">
-        <v>-4.38</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="B312">
-        <v>170.41</v>
+        <v>176.39</v>
       </c>
       <c r="C312">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D312">
-        <v>-3.86</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44294</v>
+        <v>44324</v>
       </c>
       <c r="B313">
-        <v>170.06</v>
+        <v>173.33</v>
       </c>
       <c r="C313">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D313">
-        <v>-4.06</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44295</v>
+        <v>44325</v>
       </c>
       <c r="B314">
-        <v>169.95</v>
+        <v>172.97</v>
       </c>
       <c r="C314">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D314">
-        <v>-4.12</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44296</v>
+        <v>44326</v>
       </c>
       <c r="B315">
-        <v>170.25</v>
+        <v>172.84</v>
       </c>
       <c r="C315">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D315">
-        <v>-3.95</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44297</v>
+        <v>44327</v>
       </c>
       <c r="B316">
-        <v>169.86</v>
+        <v>172.77</v>
       </c>
       <c r="C316">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D316">
-        <v>-4.17</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="B317">
-        <v>170.04</v>
+        <v>187.24</v>
       </c>
       <c r="C317">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D317">
-        <v>-4.07</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44299</v>
+        <v>44329</v>
       </c>
       <c r="B318">
-        <v>170.51</v>
+        <v>185.41</v>
       </c>
       <c r="C318">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D318">
-        <v>-3.81</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="B319">
-        <v>170.39</v>
+        <v>175.34</v>
       </c>
       <c r="C319">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D319">
-        <v>-3.88</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44301</v>
+        <v>44331</v>
       </c>
       <c r="B320">
-        <v>171.54</v>
+        <v>174.4</v>
       </c>
       <c r="C320">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D320">
-        <v>-3.22</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44302</v>
+        <v>44332</v>
       </c>
       <c r="B321">
-        <v>172.05</v>
+        <v>173.94</v>
       </c>
       <c r="C321">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D321">
-        <v>-2.94</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44303</v>
+        <v>44333</v>
       </c>
       <c r="B322">
-        <v>172.79</v>
+        <v>174.05</v>
       </c>
       <c r="C322">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D322">
-        <v>-2.52</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44304</v>
+        <v>44334</v>
       </c>
       <c r="B323">
-        <v>174.25</v>
+        <v>173.96</v>
       </c>
       <c r="C323">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D323">
-        <v>-1.7</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44305</v>
+        <v>44335</v>
       </c>
       <c r="B324">
-        <v>173.8</v>
+        <v>173.16</v>
       </c>
       <c r="C324">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D324">
-        <v>-1.95</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44306</v>
+        <v>44336</v>
       </c>
       <c r="B325">
-        <v>173.08</v>
+        <v>172.34</v>
       </c>
       <c r="C325">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D325">
-        <v>-2.35</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44307</v>
+        <v>44337</v>
       </c>
       <c r="B326">
-        <v>173.21</v>
+        <v>173.06</v>
       </c>
       <c r="C326">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D326">
-        <v>-2.28</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44308</v>
+        <v>44338</v>
       </c>
       <c r="B327">
-        <v>173.15</v>
+        <v>178.39</v>
       </c>
       <c r="C327">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D327">
-        <v>-2.32</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44309</v>
+        <v>44339</v>
       </c>
       <c r="B328">
-        <v>172.27</v>
+        <v>177.73</v>
       </c>
       <c r="C328">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D328">
-        <v>-2.81</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44310</v>
+        <v>44340</v>
       </c>
       <c r="B329">
-        <v>172.65</v>
+        <v>173.09</v>
       </c>
       <c r="C329">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D329">
-        <v>-2.6</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44311</v>
+        <v>44341</v>
       </c>
       <c r="B330">
-        <v>173.26</v>
+        <v>171.23</v>
       </c>
       <c r="C330">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D330">
-        <v>-2.25</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44312</v>
+        <v>44342</v>
       </c>
       <c r="B331">
-        <v>174.08</v>
+        <v>170.81</v>
       </c>
       <c r="C331">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D331">
-        <v>-1.79</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44313</v>
+        <v>44343</v>
       </c>
       <c r="B332">
-        <v>174.64</v>
+        <v>172.34</v>
       </c>
       <c r="C332">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D332">
-        <v>-1.48</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="B333">
-        <v>174.27</v>
+        <v>173.6</v>
       </c>
       <c r="C333">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D333">
-        <v>-1.68</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44315</v>
+        <v>44345</v>
       </c>
       <c r="B334">
-        <v>173.52</v>
+        <v>175.54</v>
       </c>
       <c r="C334">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D334">
-        <v>-2.11</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44316</v>
+        <v>44346</v>
       </c>
       <c r="B335">
-        <v>173.7</v>
+        <v>200.05</v>
       </c>
       <c r="C335">
-        <v>177.26</v>
+        <v>180.46</v>
       </c>
       <c r="D335">
-        <v>-2.01</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B336">
-        <v>173.31</v>
+        <v>184.03</v>
       </c>
       <c r="C336">
         <v>180.46</v>
       </c>
       <c r="D336">
-        <v>-3.96</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44318</v>
+        <v>44348</v>
       </c>
       <c r="B337">
-        <v>174.85</v>
+        <v>178.16</v>
       </c>
       <c r="C337">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D337">
-        <v>-3.11</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44319</v>
+        <v>44349</v>
       </c>
       <c r="B338">
-        <v>174.89</v>
+        <v>176.7</v>
       </c>
       <c r="C338">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D338">
-        <v>-3.09</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44320</v>
+        <v>44350</v>
       </c>
       <c r="B339">
-        <v>175</v>
+        <v>177.17</v>
       </c>
       <c r="C339">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D339">
-        <v>-3.03</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44321</v>
+        <v>44351</v>
       </c>
       <c r="B340">
-        <v>174.56</v>
+        <v>177.27</v>
       </c>
       <c r="C340">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D340">
-        <v>-3.27</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44322</v>
+        <v>44352</v>
       </c>
       <c r="B341">
-        <v>174.79</v>
+        <v>177.06</v>
       </c>
       <c r="C341">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D341">
-        <v>-3.14</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44323</v>
+        <v>44353</v>
       </c>
       <c r="B342">
-        <v>176.39</v>
+        <v>177.05</v>
       </c>
       <c r="C342">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D342">
-        <v>-2.26</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44324</v>
+        <v>44354</v>
       </c>
       <c r="B343">
-        <v>173.33</v>
+        <v>179.31</v>
       </c>
       <c r="C343">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D343">
-        <v>-3.95</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44325</v>
+        <v>44355</v>
       </c>
       <c r="B344">
-        <v>172.97</v>
+        <v>179.71</v>
       </c>
       <c r="C344">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D344">
-        <v>-4.15</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="B345">
-        <v>172.84</v>
+        <v>178.9</v>
       </c>
       <c r="C345">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D345">
-        <v>-4.22</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44327</v>
+        <v>44357</v>
       </c>
       <c r="B346">
-        <v>172.77</v>
+        <v>178.48</v>
       </c>
       <c r="C346">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D346">
-        <v>-4.26</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="B347">
-        <v>187.24</v>
+        <v>179.84</v>
       </c>
       <c r="C347">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D347">
-        <v>3.75</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44329</v>
+        <v>44359</v>
       </c>
       <c r="B348">
-        <v>185.41</v>
+        <v>177.43</v>
       </c>
       <c r="C348">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D348">
-        <v>2.74</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44330</v>
+        <v>44360</v>
       </c>
       <c r="B349">
-        <v>175.34</v>
+        <v>176.35</v>
       </c>
       <c r="C349">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D349">
-        <v>-2.84</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44331</v>
+        <v>44361</v>
       </c>
       <c r="B350">
-        <v>174.4</v>
+        <v>176.32</v>
       </c>
       <c r="C350">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D350">
-        <v>-3.36</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44332</v>
+        <v>44362</v>
       </c>
       <c r="B351">
-        <v>173.94</v>
+        <v>176.6</v>
       </c>
       <c r="C351">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D351">
-        <v>-3.62</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B352">
-        <v>174.05</v>
+        <v>177.06</v>
       </c>
       <c r="C352">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D352">
-        <v>-3.55</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44334</v>
+        <v>44364</v>
       </c>
       <c r="B353">
-        <v>173.96</v>
+        <v>177.58</v>
       </c>
       <c r="C353">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D353">
-        <v>-3.61</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44335</v>
+        <v>44365</v>
       </c>
       <c r="B354">
-        <v>173.16</v>
+        <v>178.39</v>
       </c>
       <c r="C354">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D354">
-        <v>-4.05</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44336</v>
+        <v>44366</v>
       </c>
       <c r="B355">
-        <v>172.34</v>
+        <v>194.42</v>
       </c>
       <c r="C355">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D355">
-        <v>-4.5</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44337</v>
+        <v>44367</v>
       </c>
       <c r="B356">
-        <v>173.06</v>
+        <v>198.02</v>
       </c>
       <c r="C356">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D356">
-        <v>-4.1</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44338</v>
+        <v>44368</v>
       </c>
       <c r="B357">
-        <v>178.39</v>
+        <v>186.12</v>
       </c>
       <c r="C357">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D357">
-        <v>-1.15</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44339</v>
+        <v>44369</v>
       </c>
       <c r="B358">
-        <v>177.73</v>
+        <v>193.53</v>
       </c>
       <c r="C358">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D358">
-        <v>-1.52</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="B359">
-        <v>173.09</v>
+        <v>187.04</v>
       </c>
       <c r="C359">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D359">
-        <v>-4.08</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44341</v>
+        <v>44371</v>
       </c>
       <c r="B360">
-        <v>171.23</v>
+        <v>184.19</v>
       </c>
       <c r="C360">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D360">
-        <v>-5.12</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="B361">
-        <v>170.81</v>
+        <v>183.08</v>
       </c>
       <c r="C361">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D361">
-        <v>-5.35</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44343</v>
+        <v>44373</v>
       </c>
       <c r="B362">
-        <v>172.34</v>
+        <v>183.17</v>
       </c>
       <c r="C362">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D362">
-        <v>-4.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44344</v>
+        <v>44374</v>
       </c>
       <c r="B363">
-        <v>173.6</v>
+        <v>182.66</v>
       </c>
       <c r="C363">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D363">
-        <v>-3.8</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44345</v>
+        <v>44375</v>
       </c>
       <c r="B364">
-        <v>175.54</v>
+        <v>181.84</v>
       </c>
       <c r="C364">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D364">
-        <v>-2.73</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44346</v>
+        <v>44376</v>
       </c>
       <c r="B365">
-        <v>200.05</v>
+        <v>188.94</v>
       </c>
       <c r="C365">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D365">
-        <v>10.85</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B366">
-        <v>184.03</v>
+        <v>181.71</v>
       </c>
       <c r="C366">
-        <v>180.46</v>
+        <v>181.95</v>
       </c>
       <c r="D366">
-        <v>1.98</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
